--- a/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
+++ b/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programme\wamp64\www\M2L_note_de_frais\Documentation\Ecrit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE1497B-BF47-4CA8-B172-AE7777957A95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F37399-AFA4-42FA-959E-09483FB12D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -924,7 +924,7 @@
   <dimension ref="A1:AK1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -972,7 +972,7 @@
       </c>
       <c r="F1" s="5">
         <f ca="1">TODAY()</f>
-        <v>43867</v>
+        <v>43871</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="E6" s="29">
         <f>(E7+E8)/2</f>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17" t="s">
@@ -1338,7 +1338,7 @@
       <c r="L6" s="52"/>
       <c r="M6" s="55">
         <f>$E$6</f>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="55"/>
@@ -1433,7 +1433,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>37</v>
@@ -1448,7 +1448,7 @@
       <c r="L8" s="52"/>
       <c r="M8" s="55">
         <f>$E$8</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N8" s="55"/>
       <c r="O8" s="55"/>

--- a/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
+++ b/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programme\wamp64\www\M2L_note_de_frais\Documentation\Ecrit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F37399-AFA4-42FA-959E-09483FB12D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED5C50E-5D50-4EE0-AD7A-FEA557C9C41B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template GANTT Chart" sheetId="1" r:id="rId1"/>
@@ -924,37 +924,37 @@
   <dimension ref="A1:AK1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" customWidth="1"/>
-    <col min="9" max="11" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" customWidth="1"/>
-    <col min="13" max="15" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.33203125" customWidth="1"/>
-    <col min="24" max="24" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" customWidth="1"/>
-    <col min="26" max="28" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.5546875" customWidth="1"/>
-    <col min="30" max="33" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5546875" customWidth="1"/>
-    <col min="35" max="37" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" customWidth="1"/>
+    <col min="13" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.5703125" customWidth="1"/>
+    <col min="26" max="28" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" customWidth="1"/>
+    <col min="30" max="33" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.5703125" customWidth="1"/>
+    <col min="35" max="37" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -972,7 +972,7 @@
       </c>
       <c r="F1" s="5">
         <f ca="1">TODAY()</f>
-        <v>43871</v>
+        <v>43875</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
@@ -1006,7 +1006,7 @@
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
     </row>
-    <row r="2" spans="1:37" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1195,7 @@
       <c r="AJ3" s="19"/>
       <c r="AK3" s="20"/>
     </row>
-    <row r="4" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>19</v>
       </c>
@@ -1252,7 +1252,7 @@
       <c r="AJ4" s="27"/>
       <c r="AK4" s="20"/>
     </row>
-    <row r="5" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="AJ5" s="27"/>
       <c r="AK5" s="20"/>
     </row>
-    <row r="6" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="E6" s="29">
         <f>(E7+E8)/2</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17" t="s">
@@ -1338,7 +1338,7 @@
       <c r="L6" s="52"/>
       <c r="M6" s="55">
         <f>$E$6</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="55"/>
@@ -1363,7 +1363,7 @@
       <c r="AJ6" s="30"/>
       <c r="AK6" s="20"/>
     </row>
-    <row r="7" spans="1:37" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="AJ7" s="27"/>
       <c r="AK7" s="20"/>
     </row>
-    <row r="8" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>22</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="25">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>37</v>
@@ -1448,7 +1448,7 @@
       <c r="L8" s="52"/>
       <c r="M8" s="55">
         <f>$E$8</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N8" s="55"/>
       <c r="O8" s="55"/>
@@ -1473,7 +1473,7 @@
       <c r="AJ8" s="27"/>
       <c r="AK8" s="20"/>
     </row>
-    <row r="9" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="E9" s="15">
         <f>(E10+E11+E12+E13+E14)/5</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="H9" s="55">
         <f>E9</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
@@ -1527,7 +1527,7 @@
       <c r="AJ9" s="27"/>
       <c r="AK9" s="20"/>
     </row>
-    <row r="10" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="49" t="s">
         <v>21</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="AJ10" s="27"/>
       <c r="AK10" s="20"/>
     </row>
-    <row r="11" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="49" t="s">
         <v>24</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="AJ11" s="27"/>
       <c r="AK11" s="20"/>
     </row>
-    <row r="12" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
         <v>36</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="AJ12" s="27"/>
       <c r="AK12" s="20"/>
     </row>
-    <row r="13" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="49" t="s">
         <v>25</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>56</v>
       </c>
       <c r="E13" s="25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>37</v>
@@ -1723,7 +1723,7 @@
       <c r="M13" s="52"/>
       <c r="N13" s="55">
         <f>E13</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O13" s="55"/>
       <c r="P13" s="55"/>
@@ -1747,7 +1747,7 @@
       <c r="AJ13" s="27"/>
       <c r="AK13" s="20"/>
     </row>
-    <row r="14" spans="1:37" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="49" t="s">
         <v>26</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>56</v>
       </c>
       <c r="E14" s="25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>37</v>
@@ -1778,7 +1778,7 @@
       <c r="M14" s="52"/>
       <c r="N14" s="55">
         <f>E14</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="55"/>
       <c r="P14" s="55"/>
@@ -1802,7 +1802,7 @@
       <c r="AJ14" s="27"/>
       <c r="AK14" s="20"/>
     </row>
-    <row r="15" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
         <v>13</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="AJ15" s="32"/>
       <c r="AK15" s="40"/>
     </row>
-    <row r="16" spans="1:37" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>27</v>
       </c>
@@ -1912,7 +1912,7 @@
       <c r="AJ16" s="27"/>
       <c r="AK16" s="20"/>
     </row>
-    <row r="17" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="49" t="s">
         <v>30</v>
       </c>
@@ -1967,7 +1967,7 @@
       <c r="AJ17" s="27"/>
       <c r="AK17" s="20"/>
     </row>
-    <row r="18" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
         <v>29</v>
       </c>
@@ -2022,7 +2022,7 @@
       <c r="AJ18" s="27"/>
       <c r="AK18" s="20"/>
     </row>
-    <row r="19" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
         <v>28</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="AJ19" s="27"/>
       <c r="AK19" s="20"/>
     </row>
-    <row r="20" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>15</v>
       </c>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="E20" s="37">
         <f>(E21)/1</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="54" t="s">
@@ -2113,7 +2113,7 @@
       <c r="U20" s="52"/>
       <c r="V20" s="52">
         <f>E20</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="52"/>
       <c r="X20" s="52"/>
@@ -2131,7 +2131,7 @@
       <c r="AJ20" s="32"/>
       <c r="AK20" s="40"/>
     </row>
-    <row r="21" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="49" t="s">
         <v>31</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>37</v>
@@ -2170,7 +2170,7 @@
       <c r="U21" s="52"/>
       <c r="V21" s="52">
         <f>E21</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W21" s="52"/>
       <c r="X21" s="52"/>
@@ -2186,7 +2186,7 @@
       <c r="AJ21" s="27"/>
       <c r="AK21" s="20"/>
     </row>
-    <row r="22" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
       <c r="B22" s="18"/>
       <c r="C22" s="42"/>
@@ -2221,7 +2221,7 @@
       <c r="AJ22" s="45"/>
       <c r="AK22" s="46"/>
     </row>
-    <row r="23" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>16</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="AJ23" s="45"/>
       <c r="AK23" s="46"/>
     </row>
-    <row r="24" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
       <c r="D24" s="43"/>
@@ -2295,7 +2295,7 @@
       <c r="AJ24" s="46"/>
       <c r="AK24" s="46"/>
     </row>
-    <row r="25" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
       <c r="D25" s="43"/>
@@ -2332,7 +2332,7 @@
       <c r="AJ25" s="46"/>
       <c r="AK25" s="46"/>
     </row>
-    <row r="26" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
       <c r="D26" s="43"/>
@@ -2369,7 +2369,7 @@
       <c r="AJ26" s="46"/>
       <c r="AK26" s="46"/>
     </row>
-    <row r="27" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
       <c r="D27" s="43"/>
@@ -2406,7 +2406,7 @@
       <c r="AJ27" s="46"/>
       <c r="AK27" s="46"/>
     </row>
-    <row r="28" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
       <c r="D28" s="43"/>
@@ -2443,7 +2443,7 @@
       <c r="AJ28" s="46"/>
       <c r="AK28" s="46"/>
     </row>
-    <row r="29" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
       <c r="D29" s="43"/>
@@ -2480,7 +2480,7 @@
       <c r="AJ29" s="46"/>
       <c r="AK29" s="46"/>
     </row>
-    <row r="30" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
       <c r="D30" s="43"/>
@@ -2517,7 +2517,7 @@
       <c r="AJ30" s="46"/>
       <c r="AK30" s="46"/>
     </row>
-    <row r="31" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
       <c r="D31" s="43"/>
@@ -2554,7 +2554,7 @@
       <c r="AJ31" s="46"/>
       <c r="AK31" s="46"/>
     </row>
-    <row r="32" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
       <c r="D32" s="43"/>
@@ -2591,7 +2591,7 @@
       <c r="AJ32" s="46"/>
       <c r="AK32" s="46"/>
     </row>
-    <row r="33" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
       <c r="D33" s="43"/>
@@ -2628,7 +2628,7 @@
       <c r="AJ33" s="46"/>
       <c r="AK33" s="46"/>
     </row>
-    <row r="34" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
       <c r="D34" s="43"/>
@@ -2665,7 +2665,7 @@
       <c r="AJ34" s="46"/>
       <c r="AK34" s="46"/>
     </row>
-    <row r="35" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
       <c r="D35" s="43"/>
@@ -2702,7 +2702,7 @@
       <c r="AJ35" s="46"/>
       <c r="AK35" s="46"/>
     </row>
-    <row r="36" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
       <c r="D36" s="43"/>
@@ -2739,7 +2739,7 @@
       <c r="AJ36" s="46"/>
       <c r="AK36" s="46"/>
     </row>
-    <row r="37" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
       <c r="D37" s="43"/>
@@ -2776,7 +2776,7 @@
       <c r="AJ37" s="46"/>
       <c r="AK37" s="46"/>
     </row>
-    <row r="38" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
       <c r="D38" s="43"/>
@@ -2813,7 +2813,7 @@
       <c r="AJ38" s="46"/>
       <c r="AK38" s="46"/>
     </row>
-    <row r="39" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
       <c r="D39" s="43"/>
@@ -2850,7 +2850,7 @@
       <c r="AJ39" s="46"/>
       <c r="AK39" s="46"/>
     </row>
-    <row r="40" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
       <c r="D40" s="43"/>
@@ -2887,7 +2887,7 @@
       <c r="AJ40" s="46"/>
       <c r="AK40" s="46"/>
     </row>
-    <row r="41" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
       <c r="D41" s="43"/>
@@ -2924,7 +2924,7 @@
       <c r="AJ41" s="46"/>
       <c r="AK41" s="46"/>
     </row>
-    <row r="42" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
       <c r="D42" s="43"/>
@@ -2961,7 +2961,7 @@
       <c r="AJ42" s="46"/>
       <c r="AK42" s="46"/>
     </row>
-    <row r="43" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
       <c r="D43" s="43"/>
@@ -2998,7 +2998,7 @@
       <c r="AJ43" s="46"/>
       <c r="AK43" s="46"/>
     </row>
-    <row r="44" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
       <c r="D44" s="43"/>
@@ -3035,7 +3035,7 @@
       <c r="AJ44" s="46"/>
       <c r="AK44" s="46"/>
     </row>
-    <row r="45" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
       <c r="D45" s="43"/>
@@ -3072,7 +3072,7 @@
       <c r="AJ45" s="46"/>
       <c r="AK45" s="46"/>
     </row>
-    <row r="46" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
       <c r="D46" s="43"/>
@@ -3109,7 +3109,7 @@
       <c r="AJ46" s="46"/>
       <c r="AK46" s="46"/>
     </row>
-    <row r="47" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
       <c r="D47" s="43"/>
@@ -3146,7 +3146,7 @@
       <c r="AJ47" s="46"/>
       <c r="AK47" s="46"/>
     </row>
-    <row r="48" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
       <c r="D48" s="43"/>
@@ -3183,7 +3183,7 @@
       <c r="AJ48" s="46"/>
       <c r="AK48" s="46"/>
     </row>
-    <row r="49" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
       <c r="D49" s="43"/>
@@ -3220,7 +3220,7 @@
       <c r="AJ49" s="46"/>
       <c r="AK49" s="46"/>
     </row>
-    <row r="50" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
       <c r="D50" s="43"/>
@@ -3257,7 +3257,7 @@
       <c r="AJ50" s="46"/>
       <c r="AK50" s="46"/>
     </row>
-    <row r="51" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
       <c r="D51" s="43"/>
@@ -3294,7 +3294,7 @@
       <c r="AJ51" s="46"/>
       <c r="AK51" s="46"/>
     </row>
-    <row r="52" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
       <c r="D52" s="43"/>
@@ -3331,7 +3331,7 @@
       <c r="AJ52" s="46"/>
       <c r="AK52" s="46"/>
     </row>
-    <row r="53" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
       <c r="D53" s="43"/>
@@ -3368,7 +3368,7 @@
       <c r="AJ53" s="46"/>
       <c r="AK53" s="46"/>
     </row>
-    <row r="54" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
       <c r="D54" s="43"/>
@@ -3405,7 +3405,7 @@
       <c r="AJ54" s="46"/>
       <c r="AK54" s="46"/>
     </row>
-    <row r="55" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
       <c r="D55" s="43"/>
@@ -3442,7 +3442,7 @@
       <c r="AJ55" s="46"/>
       <c r="AK55" s="46"/>
     </row>
-    <row r="56" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
       <c r="D56" s="43"/>
@@ -3479,7 +3479,7 @@
       <c r="AJ56" s="46"/>
       <c r="AK56" s="46"/>
     </row>
-    <row r="57" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
       <c r="D57" s="43"/>
@@ -3516,7 +3516,7 @@
       <c r="AJ57" s="46"/>
       <c r="AK57" s="46"/>
     </row>
-    <row r="58" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
       <c r="D58" s="43"/>
@@ -3553,7 +3553,7 @@
       <c r="AJ58" s="46"/>
       <c r="AK58" s="46"/>
     </row>
-    <row r="59" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
       <c r="D59" s="43"/>
@@ -3590,7 +3590,7 @@
       <c r="AJ59" s="46"/>
       <c r="AK59" s="46"/>
     </row>
-    <row r="60" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
       <c r="D60" s="43"/>
@@ -3627,7 +3627,7 @@
       <c r="AJ60" s="46"/>
       <c r="AK60" s="46"/>
     </row>
-    <row r="61" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="47"/>
       <c r="C61" s="47"/>
       <c r="D61" s="43"/>
@@ -3664,7 +3664,7 @@
       <c r="AJ61" s="46"/>
       <c r="AK61" s="46"/>
     </row>
-    <row r="62" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="47"/>
       <c r="C62" s="47"/>
       <c r="D62" s="43"/>
@@ -3701,7 +3701,7 @@
       <c r="AJ62" s="46"/>
       <c r="AK62" s="46"/>
     </row>
-    <row r="63" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="47"/>
       <c r="C63" s="47"/>
       <c r="D63" s="43"/>
@@ -3738,7 +3738,7 @@
       <c r="AJ63" s="46"/>
       <c r="AK63" s="46"/>
     </row>
-    <row r="64" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="47"/>
       <c r="C64" s="47"/>
       <c r="D64" s="43"/>
@@ -3775,7 +3775,7 @@
       <c r="AJ64" s="46"/>
       <c r="AK64" s="46"/>
     </row>
-    <row r="65" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="47"/>
       <c r="C65" s="47"/>
       <c r="D65" s="43"/>
@@ -3812,7 +3812,7 @@
       <c r="AJ65" s="46"/>
       <c r="AK65" s="46"/>
     </row>
-    <row r="66" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="47"/>
       <c r="C66" s="47"/>
       <c r="D66" s="43"/>
@@ -3849,7 +3849,7 @@
       <c r="AJ66" s="46"/>
       <c r="AK66" s="46"/>
     </row>
-    <row r="67" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="47"/>
       <c r="C67" s="47"/>
       <c r="D67" s="43"/>
@@ -3886,7 +3886,7 @@
       <c r="AJ67" s="46"/>
       <c r="AK67" s="46"/>
     </row>
-    <row r="68" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="47"/>
       <c r="C68" s="47"/>
       <c r="D68" s="43"/>
@@ -3923,7 +3923,7 @@
       <c r="AJ68" s="46"/>
       <c r="AK68" s="46"/>
     </row>
-    <row r="69" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="47"/>
       <c r="C69" s="47"/>
       <c r="D69" s="43"/>
@@ -3960,7 +3960,7 @@
       <c r="AJ69" s="46"/>
       <c r="AK69" s="46"/>
     </row>
-    <row r="70" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="47"/>
       <c r="C70" s="47"/>
       <c r="D70" s="43"/>
@@ -3997,7 +3997,7 @@
       <c r="AJ70" s="46"/>
       <c r="AK70" s="46"/>
     </row>
-    <row r="71" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="47"/>
       <c r="C71" s="47"/>
       <c r="D71" s="43"/>
@@ -4034,7 +4034,7 @@
       <c r="AJ71" s="46"/>
       <c r="AK71" s="46"/>
     </row>
-    <row r="72" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="47"/>
       <c r="C72" s="47"/>
       <c r="D72" s="43"/>
@@ -4071,7 +4071,7 @@
       <c r="AJ72" s="46"/>
       <c r="AK72" s="46"/>
     </row>
-    <row r="73" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="47"/>
       <c r="C73" s="47"/>
       <c r="D73" s="43"/>
@@ -4108,7 +4108,7 @@
       <c r="AJ73" s="46"/>
       <c r="AK73" s="46"/>
     </row>
-    <row r="74" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="47"/>
       <c r="C74" s="47"/>
       <c r="D74" s="43"/>
@@ -4145,7 +4145,7 @@
       <c r="AJ74" s="46"/>
       <c r="AK74" s="46"/>
     </row>
-    <row r="75" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="47"/>
       <c r="C75" s="47"/>
       <c r="D75" s="43"/>
@@ -4182,7 +4182,7 @@
       <c r="AJ75" s="46"/>
       <c r="AK75" s="46"/>
     </row>
-    <row r="76" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="47"/>
       <c r="C76" s="47"/>
       <c r="D76" s="43"/>
@@ -4219,7 +4219,7 @@
       <c r="AJ76" s="46"/>
       <c r="AK76" s="46"/>
     </row>
-    <row r="77" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="47"/>
       <c r="C77" s="47"/>
       <c r="D77" s="43"/>
@@ -4256,7 +4256,7 @@
       <c r="AJ77" s="46"/>
       <c r="AK77" s="46"/>
     </row>
-    <row r="78" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="47"/>
       <c r="C78" s="47"/>
       <c r="D78" s="43"/>
@@ -4293,7 +4293,7 @@
       <c r="AJ78" s="46"/>
       <c r="AK78" s="46"/>
     </row>
-    <row r="79" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="47"/>
       <c r="C79" s="47"/>
       <c r="D79" s="43"/>
@@ -4330,7 +4330,7 @@
       <c r="AJ79" s="46"/>
       <c r="AK79" s="46"/>
     </row>
-    <row r="80" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="47"/>
       <c r="C80" s="47"/>
       <c r="D80" s="43"/>
@@ -4367,7 +4367,7 @@
       <c r="AJ80" s="46"/>
       <c r="AK80" s="46"/>
     </row>
-    <row r="81" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="47"/>
       <c r="C81" s="47"/>
       <c r="D81" s="43"/>
@@ -4404,7 +4404,7 @@
       <c r="AJ81" s="46"/>
       <c r="AK81" s="46"/>
     </row>
-    <row r="82" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B82" s="47"/>
       <c r="C82" s="47"/>
       <c r="D82" s="43"/>
@@ -4441,7 +4441,7 @@
       <c r="AJ82" s="46"/>
       <c r="AK82" s="46"/>
     </row>
-    <row r="83" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B83" s="47"/>
       <c r="C83" s="47"/>
       <c r="D83" s="43"/>
@@ -4478,7 +4478,7 @@
       <c r="AJ83" s="46"/>
       <c r="AK83" s="46"/>
     </row>
-    <row r="84" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B84" s="47"/>
       <c r="C84" s="47"/>
       <c r="D84" s="43"/>
@@ -4515,7 +4515,7 @@
       <c r="AJ84" s="46"/>
       <c r="AK84" s="46"/>
     </row>
-    <row r="85" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B85" s="47"/>
       <c r="C85" s="47"/>
       <c r="D85" s="43"/>
@@ -4552,7 +4552,7 @@
       <c r="AJ85" s="46"/>
       <c r="AK85" s="46"/>
     </row>
-    <row r="86" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="47"/>
       <c r="C86" s="47"/>
       <c r="D86" s="43"/>
@@ -4589,7 +4589,7 @@
       <c r="AJ86" s="46"/>
       <c r="AK86" s="46"/>
     </row>
-    <row r="87" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="47"/>
       <c r="C87" s="47"/>
       <c r="D87" s="43"/>
@@ -4626,7 +4626,7 @@
       <c r="AJ87" s="46"/>
       <c r="AK87" s="46"/>
     </row>
-    <row r="88" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="47"/>
       <c r="C88" s="47"/>
       <c r="D88" s="43"/>
@@ -4663,7 +4663,7 @@
       <c r="AJ88" s="46"/>
       <c r="AK88" s="46"/>
     </row>
-    <row r="89" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B89" s="47"/>
       <c r="C89" s="47"/>
       <c r="D89" s="43"/>
@@ -4700,7 +4700,7 @@
       <c r="AJ89" s="46"/>
       <c r="AK89" s="46"/>
     </row>
-    <row r="90" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B90" s="47"/>
       <c r="C90" s="47"/>
       <c r="D90" s="43"/>
@@ -4737,7 +4737,7 @@
       <c r="AJ90" s="46"/>
       <c r="AK90" s="46"/>
     </row>
-    <row r="91" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="47"/>
       <c r="C91" s="47"/>
       <c r="D91" s="43"/>
@@ -4774,7 +4774,7 @@
       <c r="AJ91" s="46"/>
       <c r="AK91" s="46"/>
     </row>
-    <row r="92" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B92" s="47"/>
       <c r="C92" s="47"/>
       <c r="D92" s="43"/>
@@ -4811,7 +4811,7 @@
       <c r="AJ92" s="46"/>
       <c r="AK92" s="46"/>
     </row>
-    <row r="93" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B93" s="47"/>
       <c r="C93" s="47"/>
       <c r="D93" s="43"/>
@@ -4848,7 +4848,7 @@
       <c r="AJ93" s="46"/>
       <c r="AK93" s="46"/>
     </row>
-    <row r="94" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B94" s="47"/>
       <c r="C94" s="47"/>
       <c r="D94" s="43"/>
@@ -4885,7 +4885,7 @@
       <c r="AJ94" s="46"/>
       <c r="AK94" s="46"/>
     </row>
-    <row r="95" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B95" s="47"/>
       <c r="C95" s="47"/>
       <c r="D95" s="43"/>
@@ -4922,7 +4922,7 @@
       <c r="AJ95" s="46"/>
       <c r="AK95" s="46"/>
     </row>
-    <row r="96" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B96" s="47"/>
       <c r="C96" s="47"/>
       <c r="D96" s="43"/>
@@ -4959,7 +4959,7 @@
       <c r="AJ96" s="46"/>
       <c r="AK96" s="46"/>
     </row>
-    <row r="97" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="47"/>
       <c r="C97" s="47"/>
       <c r="D97" s="43"/>
@@ -4996,7 +4996,7 @@
       <c r="AJ97" s="46"/>
       <c r="AK97" s="46"/>
     </row>
-    <row r="98" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B98" s="47"/>
       <c r="C98" s="47"/>
       <c r="D98" s="43"/>
@@ -5033,7 +5033,7 @@
       <c r="AJ98" s="46"/>
       <c r="AK98" s="46"/>
     </row>
-    <row r="99" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B99" s="47"/>
       <c r="C99" s="47"/>
       <c r="D99" s="43"/>
@@ -5070,7 +5070,7 @@
       <c r="AJ99" s="46"/>
       <c r="AK99" s="46"/>
     </row>
-    <row r="100" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B100" s="47"/>
       <c r="C100" s="47"/>
       <c r="D100" s="43"/>
@@ -5107,7 +5107,7 @@
       <c r="AJ100" s="46"/>
       <c r="AK100" s="46"/>
     </row>
-    <row r="101" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B101" s="47"/>
       <c r="C101" s="47"/>
       <c r="D101" s="43"/>
@@ -5144,7 +5144,7 @@
       <c r="AJ101" s="46"/>
       <c r="AK101" s="46"/>
     </row>
-    <row r="102" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="47"/>
       <c r="C102" s="47"/>
       <c r="D102" s="43"/>
@@ -5181,7 +5181,7 @@
       <c r="AJ102" s="46"/>
       <c r="AK102" s="46"/>
     </row>
-    <row r="103" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B103" s="47"/>
       <c r="C103" s="47"/>
       <c r="D103" s="43"/>
@@ -5218,7 +5218,7 @@
       <c r="AJ103" s="46"/>
       <c r="AK103" s="46"/>
     </row>
-    <row r="104" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B104" s="47"/>
       <c r="C104" s="47"/>
       <c r="D104" s="43"/>
@@ -5255,7 +5255,7 @@
       <c r="AJ104" s="46"/>
       <c r="AK104" s="46"/>
     </row>
-    <row r="105" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B105" s="47"/>
       <c r="C105" s="47"/>
       <c r="D105" s="43"/>
@@ -5292,7 +5292,7 @@
       <c r="AJ105" s="46"/>
       <c r="AK105" s="46"/>
     </row>
-    <row r="106" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="47"/>
       <c r="C106" s="47"/>
       <c r="D106" s="43"/>
@@ -5329,7 +5329,7 @@
       <c r="AJ106" s="46"/>
       <c r="AK106" s="46"/>
     </row>
-    <row r="107" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B107" s="47"/>
       <c r="C107" s="47"/>
       <c r="D107" s="43"/>
@@ -5366,7 +5366,7 @@
       <c r="AJ107" s="46"/>
       <c r="AK107" s="46"/>
     </row>
-    <row r="108" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B108" s="47"/>
       <c r="C108" s="47"/>
       <c r="D108" s="43"/>
@@ -5403,7 +5403,7 @@
       <c r="AJ108" s="46"/>
       <c r="AK108" s="46"/>
     </row>
-    <row r="109" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B109" s="47"/>
       <c r="C109" s="47"/>
       <c r="D109" s="43"/>
@@ -5440,7 +5440,7 @@
       <c r="AJ109" s="46"/>
       <c r="AK109" s="46"/>
     </row>
-    <row r="110" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B110" s="47"/>
       <c r="C110" s="47"/>
       <c r="D110" s="43"/>
@@ -5477,7 +5477,7 @@
       <c r="AJ110" s="46"/>
       <c r="AK110" s="46"/>
     </row>
-    <row r="111" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="47"/>
       <c r="C111" s="47"/>
       <c r="D111" s="43"/>
@@ -5514,7 +5514,7 @@
       <c r="AJ111" s="46"/>
       <c r="AK111" s="46"/>
     </row>
-    <row r="112" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B112" s="47"/>
       <c r="C112" s="47"/>
       <c r="D112" s="43"/>
@@ -5551,7 +5551,7 @@
       <c r="AJ112" s="46"/>
       <c r="AK112" s="46"/>
     </row>
-    <row r="113" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B113" s="47"/>
       <c r="C113" s="47"/>
       <c r="D113" s="43"/>
@@ -5588,7 +5588,7 @@
       <c r="AJ113" s="46"/>
       <c r="AK113" s="46"/>
     </row>
-    <row r="114" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B114" s="47"/>
       <c r="C114" s="47"/>
       <c r="D114" s="43"/>
@@ -5625,7 +5625,7 @@
       <c r="AJ114" s="46"/>
       <c r="AK114" s="46"/>
     </row>
-    <row r="115" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B115" s="47"/>
       <c r="C115" s="47"/>
       <c r="D115" s="43"/>
@@ -5662,7 +5662,7 @@
       <c r="AJ115" s="46"/>
       <c r="AK115" s="46"/>
     </row>
-    <row r="116" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B116" s="47"/>
       <c r="C116" s="47"/>
       <c r="D116" s="43"/>
@@ -5699,7 +5699,7 @@
       <c r="AJ116" s="46"/>
       <c r="AK116" s="46"/>
     </row>
-    <row r="117" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B117" s="47"/>
       <c r="C117" s="47"/>
       <c r="D117" s="43"/>
@@ -5736,7 +5736,7 @@
       <c r="AJ117" s="46"/>
       <c r="AK117" s="46"/>
     </row>
-    <row r="118" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B118" s="47"/>
       <c r="C118" s="47"/>
       <c r="D118" s="43"/>
@@ -5773,7 +5773,7 @@
       <c r="AJ118" s="46"/>
       <c r="AK118" s="46"/>
     </row>
-    <row r="119" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B119" s="47"/>
       <c r="C119" s="47"/>
       <c r="D119" s="43"/>
@@ -5810,7 +5810,7 @@
       <c r="AJ119" s="46"/>
       <c r="AK119" s="46"/>
     </row>
-    <row r="120" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="47"/>
       <c r="C120" s="47"/>
       <c r="D120" s="43"/>
@@ -5847,7 +5847,7 @@
       <c r="AJ120" s="46"/>
       <c r="AK120" s="46"/>
     </row>
-    <row r="121" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B121" s="47"/>
       <c r="C121" s="47"/>
       <c r="D121" s="43"/>
@@ -5884,7 +5884,7 @@
       <c r="AJ121" s="46"/>
       <c r="AK121" s="46"/>
     </row>
-    <row r="122" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B122" s="47"/>
       <c r="C122" s="47"/>
       <c r="D122" s="43"/>
@@ -5921,7 +5921,7 @@
       <c r="AJ122" s="46"/>
       <c r="AK122" s="46"/>
     </row>
-    <row r="123" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B123" s="47"/>
       <c r="C123" s="47"/>
       <c r="D123" s="43"/>
@@ -5958,7 +5958,7 @@
       <c r="AJ123" s="46"/>
       <c r="AK123" s="46"/>
     </row>
-    <row r="124" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B124" s="47"/>
       <c r="C124" s="47"/>
       <c r="D124" s="43"/>
@@ -5995,7 +5995,7 @@
       <c r="AJ124" s="46"/>
       <c r="AK124" s="46"/>
     </row>
-    <row r="125" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B125" s="47"/>
       <c r="C125" s="47"/>
       <c r="D125" s="43"/>
@@ -6032,7 +6032,7 @@
       <c r="AJ125" s="46"/>
       <c r="AK125" s="46"/>
     </row>
-    <row r="126" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B126" s="47"/>
       <c r="C126" s="47"/>
       <c r="D126" s="43"/>
@@ -6069,7 +6069,7 @@
       <c r="AJ126" s="46"/>
       <c r="AK126" s="46"/>
     </row>
-    <row r="127" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B127" s="47"/>
       <c r="C127" s="47"/>
       <c r="D127" s="43"/>
@@ -6106,7 +6106,7 @@
       <c r="AJ127" s="46"/>
       <c r="AK127" s="46"/>
     </row>
-    <row r="128" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B128" s="47"/>
       <c r="C128" s="47"/>
       <c r="D128" s="43"/>
@@ -6143,7 +6143,7 @@
       <c r="AJ128" s="46"/>
       <c r="AK128" s="46"/>
     </row>
-    <row r="129" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B129" s="47"/>
       <c r="C129" s="47"/>
       <c r="D129" s="43"/>
@@ -6180,7 +6180,7 @@
       <c r="AJ129" s="46"/>
       <c r="AK129" s="46"/>
     </row>
-    <row r="130" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B130" s="47"/>
       <c r="C130" s="47"/>
       <c r="D130" s="43"/>
@@ -6217,7 +6217,7 @@
       <c r="AJ130" s="46"/>
       <c r="AK130" s="46"/>
     </row>
-    <row r="131" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B131" s="47"/>
       <c r="C131" s="47"/>
       <c r="D131" s="43"/>
@@ -6254,7 +6254,7 @@
       <c r="AJ131" s="46"/>
       <c r="AK131" s="46"/>
     </row>
-    <row r="132" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B132" s="47"/>
       <c r="C132" s="47"/>
       <c r="D132" s="43"/>
@@ -6291,7 +6291,7 @@
       <c r="AJ132" s="46"/>
       <c r="AK132" s="46"/>
     </row>
-    <row r="133" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B133" s="47"/>
       <c r="C133" s="47"/>
       <c r="D133" s="43"/>
@@ -6328,7 +6328,7 @@
       <c r="AJ133" s="46"/>
       <c r="AK133" s="46"/>
     </row>
-    <row r="134" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B134" s="47"/>
       <c r="C134" s="47"/>
       <c r="D134" s="43"/>
@@ -6365,7 +6365,7 @@
       <c r="AJ134" s="46"/>
       <c r="AK134" s="46"/>
     </row>
-    <row r="135" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B135" s="47"/>
       <c r="C135" s="47"/>
       <c r="D135" s="43"/>
@@ -6402,7 +6402,7 @@
       <c r="AJ135" s="46"/>
       <c r="AK135" s="46"/>
     </row>
-    <row r="136" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B136" s="47"/>
       <c r="C136" s="47"/>
       <c r="D136" s="43"/>
@@ -6439,7 +6439,7 @@
       <c r="AJ136" s="46"/>
       <c r="AK136" s="46"/>
     </row>
-    <row r="137" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B137" s="47"/>
       <c r="C137" s="47"/>
       <c r="D137" s="43"/>
@@ -6476,7 +6476,7 @@
       <c r="AJ137" s="46"/>
       <c r="AK137" s="46"/>
     </row>
-    <row r="138" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B138" s="47"/>
       <c r="C138" s="47"/>
       <c r="D138" s="43"/>
@@ -6513,7 +6513,7 @@
       <c r="AJ138" s="46"/>
       <c r="AK138" s="46"/>
     </row>
-    <row r="139" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B139" s="47"/>
       <c r="C139" s="47"/>
       <c r="D139" s="43"/>
@@ -6550,7 +6550,7 @@
       <c r="AJ139" s="46"/>
       <c r="AK139" s="46"/>
     </row>
-    <row r="140" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B140" s="47"/>
       <c r="C140" s="47"/>
       <c r="D140" s="43"/>
@@ -6587,7 +6587,7 @@
       <c r="AJ140" s="46"/>
       <c r="AK140" s="46"/>
     </row>
-    <row r="141" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B141" s="47"/>
       <c r="C141" s="47"/>
       <c r="D141" s="43"/>
@@ -6624,7 +6624,7 @@
       <c r="AJ141" s="46"/>
       <c r="AK141" s="46"/>
     </row>
-    <row r="142" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B142" s="47"/>
       <c r="C142" s="47"/>
       <c r="D142" s="43"/>
@@ -6661,7 +6661,7 @@
       <c r="AJ142" s="46"/>
       <c r="AK142" s="46"/>
     </row>
-    <row r="143" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B143" s="47"/>
       <c r="C143" s="47"/>
       <c r="D143" s="43"/>
@@ -6698,7 +6698,7 @@
       <c r="AJ143" s="46"/>
       <c r="AK143" s="46"/>
     </row>
-    <row r="144" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B144" s="47"/>
       <c r="C144" s="47"/>
       <c r="D144" s="43"/>
@@ -6735,7 +6735,7 @@
       <c r="AJ144" s="46"/>
       <c r="AK144" s="46"/>
     </row>
-    <row r="145" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B145" s="47"/>
       <c r="C145" s="47"/>
       <c r="D145" s="43"/>
@@ -6772,7 +6772,7 @@
       <c r="AJ145" s="46"/>
       <c r="AK145" s="46"/>
     </row>
-    <row r="146" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B146" s="47"/>
       <c r="C146" s="47"/>
       <c r="D146" s="43"/>
@@ -6809,7 +6809,7 @@
       <c r="AJ146" s="46"/>
       <c r="AK146" s="46"/>
     </row>
-    <row r="147" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B147" s="47"/>
       <c r="C147" s="47"/>
       <c r="D147" s="43"/>
@@ -6846,7 +6846,7 @@
       <c r="AJ147" s="46"/>
       <c r="AK147" s="46"/>
     </row>
-    <row r="148" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="47"/>
       <c r="C148" s="47"/>
       <c r="D148" s="43"/>
@@ -6883,7 +6883,7 @@
       <c r="AJ148" s="46"/>
       <c r="AK148" s="46"/>
     </row>
-    <row r="149" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="47"/>
       <c r="C149" s="47"/>
       <c r="D149" s="43"/>
@@ -6920,7 +6920,7 @@
       <c r="AJ149" s="46"/>
       <c r="AK149" s="46"/>
     </row>
-    <row r="150" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B150" s="47"/>
       <c r="C150" s="47"/>
       <c r="D150" s="43"/>
@@ -6957,7 +6957,7 @@
       <c r="AJ150" s="46"/>
       <c r="AK150" s="46"/>
     </row>
-    <row r="151" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B151" s="47"/>
       <c r="C151" s="47"/>
       <c r="D151" s="43"/>
@@ -6994,7 +6994,7 @@
       <c r="AJ151" s="46"/>
       <c r="AK151" s="46"/>
     </row>
-    <row r="152" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B152" s="47"/>
       <c r="C152" s="47"/>
       <c r="D152" s="43"/>
@@ -7031,7 +7031,7 @@
       <c r="AJ152" s="46"/>
       <c r="AK152" s="46"/>
     </row>
-    <row r="153" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B153" s="47"/>
       <c r="C153" s="47"/>
       <c r="D153" s="43"/>
@@ -7068,7 +7068,7 @@
       <c r="AJ153" s="46"/>
       <c r="AK153" s="46"/>
     </row>
-    <row r="154" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B154" s="47"/>
       <c r="C154" s="47"/>
       <c r="D154" s="43"/>
@@ -7105,7 +7105,7 @@
       <c r="AJ154" s="46"/>
       <c r="AK154" s="46"/>
     </row>
-    <row r="155" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B155" s="47"/>
       <c r="C155" s="47"/>
       <c r="D155" s="43"/>
@@ -7142,7 +7142,7 @@
       <c r="AJ155" s="46"/>
       <c r="AK155" s="46"/>
     </row>
-    <row r="156" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B156" s="47"/>
       <c r="C156" s="47"/>
       <c r="D156" s="43"/>
@@ -7179,7 +7179,7 @@
       <c r="AJ156" s="46"/>
       <c r="AK156" s="46"/>
     </row>
-    <row r="157" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B157" s="47"/>
       <c r="C157" s="47"/>
       <c r="D157" s="43"/>
@@ -7216,7 +7216,7 @@
       <c r="AJ157" s="46"/>
       <c r="AK157" s="46"/>
     </row>
-    <row r="158" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B158" s="47"/>
       <c r="C158" s="47"/>
       <c r="D158" s="43"/>
@@ -7253,7 +7253,7 @@
       <c r="AJ158" s="46"/>
       <c r="AK158" s="46"/>
     </row>
-    <row r="159" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B159" s="47"/>
       <c r="C159" s="47"/>
       <c r="D159" s="43"/>
@@ -7290,7 +7290,7 @@
       <c r="AJ159" s="46"/>
       <c r="AK159" s="46"/>
     </row>
-    <row r="160" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B160" s="47"/>
       <c r="C160" s="47"/>
       <c r="D160" s="43"/>
@@ -7327,7 +7327,7 @@
       <c r="AJ160" s="46"/>
       <c r="AK160" s="46"/>
     </row>
-    <row r="161" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B161" s="47"/>
       <c r="C161" s="47"/>
       <c r="D161" s="43"/>
@@ -7364,7 +7364,7 @@
       <c r="AJ161" s="46"/>
       <c r="AK161" s="46"/>
     </row>
-    <row r="162" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B162" s="47"/>
       <c r="C162" s="47"/>
       <c r="D162" s="43"/>
@@ -7401,7 +7401,7 @@
       <c r="AJ162" s="46"/>
       <c r="AK162" s="46"/>
     </row>
-    <row r="163" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="47"/>
       <c r="C163" s="47"/>
       <c r="D163" s="43"/>
@@ -7438,7 +7438,7 @@
       <c r="AJ163" s="46"/>
       <c r="AK163" s="46"/>
     </row>
-    <row r="164" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B164" s="47"/>
       <c r="C164" s="47"/>
       <c r="D164" s="43"/>
@@ -7475,7 +7475,7 @@
       <c r="AJ164" s="46"/>
       <c r="AK164" s="46"/>
     </row>
-    <row r="165" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B165" s="47"/>
       <c r="C165" s="47"/>
       <c r="D165" s="43"/>
@@ -7512,7 +7512,7 @@
       <c r="AJ165" s="46"/>
       <c r="AK165" s="46"/>
     </row>
-    <row r="166" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B166" s="47"/>
       <c r="C166" s="47"/>
       <c r="D166" s="43"/>
@@ -7549,7 +7549,7 @@
       <c r="AJ166" s="46"/>
       <c r="AK166" s="46"/>
     </row>
-    <row r="167" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B167" s="47"/>
       <c r="C167" s="47"/>
       <c r="D167" s="43"/>
@@ -7586,7 +7586,7 @@
       <c r="AJ167" s="46"/>
       <c r="AK167" s="46"/>
     </row>
-    <row r="168" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B168" s="47"/>
       <c r="C168" s="47"/>
       <c r="D168" s="43"/>
@@ -7623,7 +7623,7 @@
       <c r="AJ168" s="46"/>
       <c r="AK168" s="46"/>
     </row>
-    <row r="169" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B169" s="47"/>
       <c r="C169" s="47"/>
       <c r="D169" s="43"/>
@@ -7660,7 +7660,7 @@
       <c r="AJ169" s="46"/>
       <c r="AK169" s="46"/>
     </row>
-    <row r="170" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B170" s="47"/>
       <c r="C170" s="47"/>
       <c r="D170" s="43"/>
@@ -7697,7 +7697,7 @@
       <c r="AJ170" s="46"/>
       <c r="AK170" s="46"/>
     </row>
-    <row r="171" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B171" s="47"/>
       <c r="C171" s="47"/>
       <c r="D171" s="43"/>
@@ -7734,7 +7734,7 @@
       <c r="AJ171" s="46"/>
       <c r="AK171" s="46"/>
     </row>
-    <row r="172" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B172" s="47"/>
       <c r="C172" s="47"/>
       <c r="D172" s="43"/>
@@ -7771,7 +7771,7 @@
       <c r="AJ172" s="46"/>
       <c r="AK172" s="46"/>
     </row>
-    <row r="173" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B173" s="47"/>
       <c r="C173" s="47"/>
       <c r="D173" s="43"/>
@@ -7808,7 +7808,7 @@
       <c r="AJ173" s="46"/>
       <c r="AK173" s="46"/>
     </row>
-    <row r="174" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B174" s="47"/>
       <c r="C174" s="47"/>
       <c r="D174" s="43"/>
@@ -7845,7 +7845,7 @@
       <c r="AJ174" s="46"/>
       <c r="AK174" s="46"/>
     </row>
-    <row r="175" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B175" s="47"/>
       <c r="C175" s="47"/>
       <c r="D175" s="43"/>
@@ -7882,7 +7882,7 @@
       <c r="AJ175" s="46"/>
       <c r="AK175" s="46"/>
     </row>
-    <row r="176" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B176" s="47"/>
       <c r="C176" s="47"/>
       <c r="D176" s="43"/>
@@ -7919,7 +7919,7 @@
       <c r="AJ176" s="46"/>
       <c r="AK176" s="46"/>
     </row>
-    <row r="177" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B177" s="47"/>
       <c r="C177" s="47"/>
       <c r="D177" s="43"/>
@@ -7956,7 +7956,7 @@
       <c r="AJ177" s="46"/>
       <c r="AK177" s="46"/>
     </row>
-    <row r="178" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B178" s="47"/>
       <c r="C178" s="47"/>
       <c r="D178" s="43"/>
@@ -7993,7 +7993,7 @@
       <c r="AJ178" s="46"/>
       <c r="AK178" s="46"/>
     </row>
-    <row r="179" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B179" s="47"/>
       <c r="C179" s="47"/>
       <c r="D179" s="43"/>
@@ -8030,7 +8030,7 @@
       <c r="AJ179" s="46"/>
       <c r="AK179" s="46"/>
     </row>
-    <row r="180" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B180" s="47"/>
       <c r="C180" s="47"/>
       <c r="D180" s="43"/>
@@ -8067,7 +8067,7 @@
       <c r="AJ180" s="46"/>
       <c r="AK180" s="46"/>
     </row>
-    <row r="181" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B181" s="47"/>
       <c r="C181" s="47"/>
       <c r="D181" s="43"/>
@@ -8104,7 +8104,7 @@
       <c r="AJ181" s="46"/>
       <c r="AK181" s="46"/>
     </row>
-    <row r="182" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B182" s="47"/>
       <c r="C182" s="47"/>
       <c r="D182" s="43"/>
@@ -8141,7 +8141,7 @@
       <c r="AJ182" s="46"/>
       <c r="AK182" s="46"/>
     </row>
-    <row r="183" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B183" s="47"/>
       <c r="C183" s="47"/>
       <c r="D183" s="43"/>
@@ -8178,7 +8178,7 @@
       <c r="AJ183" s="46"/>
       <c r="AK183" s="46"/>
     </row>
-    <row r="184" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B184" s="47"/>
       <c r="C184" s="47"/>
       <c r="D184" s="43"/>
@@ -8215,7 +8215,7 @@
       <c r="AJ184" s="46"/>
       <c r="AK184" s="46"/>
     </row>
-    <row r="185" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B185" s="47"/>
       <c r="C185" s="47"/>
       <c r="D185" s="43"/>
@@ -8252,7 +8252,7 @@
       <c r="AJ185" s="46"/>
       <c r="AK185" s="46"/>
     </row>
-    <row r="186" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B186" s="47"/>
       <c r="C186" s="47"/>
       <c r="D186" s="43"/>
@@ -8289,7 +8289,7 @@
       <c r="AJ186" s="46"/>
       <c r="AK186" s="46"/>
     </row>
-    <row r="187" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B187" s="47"/>
       <c r="C187" s="47"/>
       <c r="D187" s="43"/>
@@ -8326,7 +8326,7 @@
       <c r="AJ187" s="46"/>
       <c r="AK187" s="46"/>
     </row>
-    <row r="188" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B188" s="47"/>
       <c r="C188" s="47"/>
       <c r="D188" s="43"/>
@@ -8363,7 +8363,7 @@
       <c r="AJ188" s="46"/>
       <c r="AK188" s="46"/>
     </row>
-    <row r="189" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B189" s="47"/>
       <c r="C189" s="47"/>
       <c r="D189" s="43"/>
@@ -8400,7 +8400,7 @@
       <c r="AJ189" s="46"/>
       <c r="AK189" s="46"/>
     </row>
-    <row r="190" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="47"/>
       <c r="C190" s="47"/>
       <c r="D190" s="43"/>
@@ -8437,7 +8437,7 @@
       <c r="AJ190" s="46"/>
       <c r="AK190" s="46"/>
     </row>
-    <row r="191" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="47"/>
       <c r="C191" s="47"/>
       <c r="D191" s="43"/>
@@ -8474,7 +8474,7 @@
       <c r="AJ191" s="46"/>
       <c r="AK191" s="46"/>
     </row>
-    <row r="192" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="47"/>
       <c r="C192" s="47"/>
       <c r="D192" s="43"/>
@@ -8511,7 +8511,7 @@
       <c r="AJ192" s="46"/>
       <c r="AK192" s="46"/>
     </row>
-    <row r="193" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B193" s="47"/>
       <c r="C193" s="47"/>
       <c r="D193" s="43"/>
@@ -8548,7 +8548,7 @@
       <c r="AJ193" s="46"/>
       <c r="AK193" s="46"/>
     </row>
-    <row r="194" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="47"/>
       <c r="C194" s="47"/>
       <c r="D194" s="43"/>
@@ -8585,7 +8585,7 @@
       <c r="AJ194" s="46"/>
       <c r="AK194" s="46"/>
     </row>
-    <row r="195" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B195" s="47"/>
       <c r="C195" s="47"/>
       <c r="D195" s="43"/>
@@ -8622,7 +8622,7 @@
       <c r="AJ195" s="46"/>
       <c r="AK195" s="46"/>
     </row>
-    <row r="196" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B196" s="47"/>
       <c r="C196" s="47"/>
       <c r="D196" s="43"/>
@@ -8659,7 +8659,7 @@
       <c r="AJ196" s="46"/>
       <c r="AK196" s="46"/>
     </row>
-    <row r="197" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B197" s="47"/>
       <c r="C197" s="47"/>
       <c r="D197" s="43"/>
@@ -8696,7 +8696,7 @@
       <c r="AJ197" s="46"/>
       <c r="AK197" s="46"/>
     </row>
-    <row r="198" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B198" s="47"/>
       <c r="C198" s="47"/>
       <c r="D198" s="43"/>
@@ -8733,7 +8733,7 @@
       <c r="AJ198" s="46"/>
       <c r="AK198" s="46"/>
     </row>
-    <row r="199" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B199" s="47"/>
       <c r="C199" s="47"/>
       <c r="D199" s="43"/>
@@ -8770,7 +8770,7 @@
       <c r="AJ199" s="46"/>
       <c r="AK199" s="46"/>
     </row>
-    <row r="200" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B200" s="47"/>
       <c r="C200" s="47"/>
       <c r="D200" s="43"/>
@@ -8807,7 +8807,7 @@
       <c r="AJ200" s="46"/>
       <c r="AK200" s="46"/>
     </row>
-    <row r="201" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B201" s="47"/>
       <c r="C201" s="47"/>
       <c r="D201" s="43"/>
@@ -8844,7 +8844,7 @@
       <c r="AJ201" s="46"/>
       <c r="AK201" s="46"/>
     </row>
-    <row r="202" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B202" s="47"/>
       <c r="C202" s="47"/>
       <c r="D202" s="43"/>
@@ -8881,7 +8881,7 @@
       <c r="AJ202" s="46"/>
       <c r="AK202" s="46"/>
     </row>
-    <row r="203" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B203" s="47"/>
       <c r="C203" s="47"/>
       <c r="D203" s="43"/>
@@ -8918,7 +8918,7 @@
       <c r="AJ203" s="46"/>
       <c r="AK203" s="46"/>
     </row>
-    <row r="204" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B204" s="47"/>
       <c r="C204" s="47"/>
       <c r="D204" s="43"/>
@@ -8955,7 +8955,7 @@
       <c r="AJ204" s="46"/>
       <c r="AK204" s="46"/>
     </row>
-    <row r="205" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B205" s="47"/>
       <c r="C205" s="47"/>
       <c r="D205" s="43"/>
@@ -8992,7 +8992,7 @@
       <c r="AJ205" s="46"/>
       <c r="AK205" s="46"/>
     </row>
-    <row r="206" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B206" s="47"/>
       <c r="C206" s="47"/>
       <c r="D206" s="43"/>
@@ -9029,7 +9029,7 @@
       <c r="AJ206" s="46"/>
       <c r="AK206" s="46"/>
     </row>
-    <row r="207" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B207" s="47"/>
       <c r="C207" s="47"/>
       <c r="D207" s="43"/>
@@ -9066,7 +9066,7 @@
       <c r="AJ207" s="46"/>
       <c r="AK207" s="46"/>
     </row>
-    <row r="208" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B208" s="47"/>
       <c r="C208" s="47"/>
       <c r="D208" s="43"/>
@@ -9103,7 +9103,7 @@
       <c r="AJ208" s="46"/>
       <c r="AK208" s="46"/>
     </row>
-    <row r="209" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B209" s="47"/>
       <c r="C209" s="47"/>
       <c r="D209" s="43"/>
@@ -9140,7 +9140,7 @@
       <c r="AJ209" s="46"/>
       <c r="AK209" s="46"/>
     </row>
-    <row r="210" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B210" s="47"/>
       <c r="C210" s="47"/>
       <c r="D210" s="43"/>
@@ -9177,7 +9177,7 @@
       <c r="AJ210" s="46"/>
       <c r="AK210" s="46"/>
     </row>
-    <row r="211" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B211" s="47"/>
       <c r="C211" s="47"/>
       <c r="D211" s="43"/>
@@ -9214,7 +9214,7 @@
       <c r="AJ211" s="46"/>
       <c r="AK211" s="46"/>
     </row>
-    <row r="212" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B212" s="47"/>
       <c r="C212" s="47"/>
       <c r="D212" s="43"/>
@@ -9251,7 +9251,7 @@
       <c r="AJ212" s="46"/>
       <c r="AK212" s="46"/>
     </row>
-    <row r="213" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B213" s="47"/>
       <c r="C213" s="47"/>
       <c r="D213" s="43"/>
@@ -9288,7 +9288,7 @@
       <c r="AJ213" s="46"/>
       <c r="AK213" s="46"/>
     </row>
-    <row r="214" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B214" s="47"/>
       <c r="C214" s="47"/>
       <c r="D214" s="43"/>
@@ -9325,7 +9325,7 @@
       <c r="AJ214" s="46"/>
       <c r="AK214" s="46"/>
     </row>
-    <row r="215" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B215" s="47"/>
       <c r="C215" s="47"/>
       <c r="D215" s="43"/>
@@ -9362,7 +9362,7 @@
       <c r="AJ215" s="46"/>
       <c r="AK215" s="46"/>
     </row>
-    <row r="216" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B216" s="47"/>
       <c r="C216" s="47"/>
       <c r="D216" s="43"/>
@@ -9399,7 +9399,7 @@
       <c r="AJ216" s="46"/>
       <c r="AK216" s="46"/>
     </row>
-    <row r="217" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B217" s="47"/>
       <c r="C217" s="47"/>
       <c r="D217" s="43"/>
@@ -9436,7 +9436,7 @@
       <c r="AJ217" s="46"/>
       <c r="AK217" s="46"/>
     </row>
-    <row r="218" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B218" s="47"/>
       <c r="C218" s="47"/>
       <c r="D218" s="43"/>
@@ -9473,7 +9473,7 @@
       <c r="AJ218" s="46"/>
       <c r="AK218" s="46"/>
     </row>
-    <row r="219" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B219" s="47"/>
       <c r="C219" s="47"/>
       <c r="D219" s="43"/>
@@ -9510,7 +9510,7 @@
       <c r="AJ219" s="46"/>
       <c r="AK219" s="46"/>
     </row>
-    <row r="220" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B220" s="47"/>
       <c r="C220" s="47"/>
       <c r="D220" s="43"/>
@@ -9547,7 +9547,7 @@
       <c r="AJ220" s="46"/>
       <c r="AK220" s="46"/>
     </row>
-    <row r="221" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B221" s="47"/>
       <c r="C221" s="47"/>
       <c r="D221" s="43"/>
@@ -9584,7 +9584,7 @@
       <c r="AJ221" s="46"/>
       <c r="AK221" s="46"/>
     </row>
-    <row r="222" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B222" s="47"/>
       <c r="C222" s="47"/>
       <c r="D222" s="43"/>
@@ -9621,7 +9621,7 @@
       <c r="AJ222" s="46"/>
       <c r="AK222" s="46"/>
     </row>
-    <row r="223" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B223" s="47"/>
       <c r="C223" s="47"/>
       <c r="D223" s="43"/>
@@ -9658,7 +9658,7 @@
       <c r="AJ223" s="46"/>
       <c r="AK223" s="46"/>
     </row>
-    <row r="224" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B224" s="47"/>
       <c r="C224" s="47"/>
       <c r="D224" s="43"/>
@@ -9695,7 +9695,7 @@
       <c r="AJ224" s="46"/>
       <c r="AK224" s="46"/>
     </row>
-    <row r="225" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B225" s="47"/>
       <c r="C225" s="47"/>
       <c r="D225" s="43"/>
@@ -9732,7 +9732,7 @@
       <c r="AJ225" s="46"/>
       <c r="AK225" s="46"/>
     </row>
-    <row r="226" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B226" s="47"/>
       <c r="C226" s="47"/>
       <c r="D226" s="43"/>
@@ -9769,7 +9769,7 @@
       <c r="AJ226" s="46"/>
       <c r="AK226" s="46"/>
     </row>
-    <row r="227" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B227" s="47"/>
       <c r="C227" s="47"/>
       <c r="D227" s="43"/>
@@ -9806,7 +9806,7 @@
       <c r="AJ227" s="46"/>
       <c r="AK227" s="46"/>
     </row>
-    <row r="228" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B228" s="47"/>
       <c r="C228" s="47"/>
       <c r="D228" s="43"/>
@@ -9843,7 +9843,7 @@
       <c r="AJ228" s="46"/>
       <c r="AK228" s="46"/>
     </row>
-    <row r="229" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B229" s="47"/>
       <c r="C229" s="47"/>
       <c r="D229" s="43"/>
@@ -9880,7 +9880,7 @@
       <c r="AJ229" s="46"/>
       <c r="AK229" s="46"/>
     </row>
-    <row r="230" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B230" s="47"/>
       <c r="C230" s="47"/>
       <c r="D230" s="43"/>
@@ -9917,7 +9917,7 @@
       <c r="AJ230" s="46"/>
       <c r="AK230" s="46"/>
     </row>
-    <row r="231" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B231" s="47"/>
       <c r="C231" s="47"/>
       <c r="D231" s="43"/>
@@ -9954,7 +9954,7 @@
       <c r="AJ231" s="46"/>
       <c r="AK231" s="46"/>
     </row>
-    <row r="232" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B232" s="47"/>
       <c r="C232" s="47"/>
       <c r="D232" s="43"/>
@@ -9991,7 +9991,7 @@
       <c r="AJ232" s="46"/>
       <c r="AK232" s="46"/>
     </row>
-    <row r="233" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B233" s="47"/>
       <c r="C233" s="47"/>
       <c r="D233" s="43"/>
@@ -10028,7 +10028,7 @@
       <c r="AJ233" s="46"/>
       <c r="AK233" s="46"/>
     </row>
-    <row r="234" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B234" s="47"/>
       <c r="C234" s="47"/>
       <c r="D234" s="43"/>
@@ -10065,7 +10065,7 @@
       <c r="AJ234" s="46"/>
       <c r="AK234" s="46"/>
     </row>
-    <row r="235" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B235" s="47"/>
       <c r="C235" s="47"/>
       <c r="D235" s="43"/>
@@ -10102,7 +10102,7 @@
       <c r="AJ235" s="46"/>
       <c r="AK235" s="46"/>
     </row>
-    <row r="236" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B236" s="47"/>
       <c r="C236" s="47"/>
       <c r="D236" s="43"/>
@@ -10139,7 +10139,7 @@
       <c r="AJ236" s="46"/>
       <c r="AK236" s="46"/>
     </row>
-    <row r="237" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B237" s="47"/>
       <c r="C237" s="47"/>
       <c r="D237" s="43"/>
@@ -10176,7 +10176,7 @@
       <c r="AJ237" s="46"/>
       <c r="AK237" s="46"/>
     </row>
-    <row r="238" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B238" s="47"/>
       <c r="C238" s="47"/>
       <c r="D238" s="43"/>
@@ -10213,7 +10213,7 @@
       <c r="AJ238" s="46"/>
       <c r="AK238" s="46"/>
     </row>
-    <row r="239" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B239" s="47"/>
       <c r="C239" s="47"/>
       <c r="D239" s="43"/>
@@ -10250,7 +10250,7 @@
       <c r="AJ239" s="46"/>
       <c r="AK239" s="46"/>
     </row>
-    <row r="240" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B240" s="47"/>
       <c r="C240" s="47"/>
       <c r="D240" s="43"/>
@@ -10287,7 +10287,7 @@
       <c r="AJ240" s="46"/>
       <c r="AK240" s="46"/>
     </row>
-    <row r="241" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B241" s="47"/>
       <c r="C241" s="47"/>
       <c r="D241" s="43"/>
@@ -10324,7 +10324,7 @@
       <c r="AJ241" s="46"/>
       <c r="AK241" s="46"/>
     </row>
-    <row r="242" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B242" s="47"/>
       <c r="C242" s="47"/>
       <c r="D242" s="43"/>
@@ -10361,7 +10361,7 @@
       <c r="AJ242" s="46"/>
       <c r="AK242" s="46"/>
     </row>
-    <row r="243" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B243" s="47"/>
       <c r="C243" s="47"/>
       <c r="D243" s="43"/>
@@ -10398,7 +10398,7 @@
       <c r="AJ243" s="46"/>
       <c r="AK243" s="46"/>
     </row>
-    <row r="244" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B244" s="47"/>
       <c r="C244" s="47"/>
       <c r="D244" s="43"/>
@@ -10435,7 +10435,7 @@
       <c r="AJ244" s="46"/>
       <c r="AK244" s="46"/>
     </row>
-    <row r="245" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B245" s="47"/>
       <c r="C245" s="47"/>
       <c r="D245" s="43"/>
@@ -10472,7 +10472,7 @@
       <c r="AJ245" s="46"/>
       <c r="AK245" s="46"/>
     </row>
-    <row r="246" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B246" s="47"/>
       <c r="C246" s="47"/>
       <c r="D246" s="43"/>
@@ -10509,7 +10509,7 @@
       <c r="AJ246" s="46"/>
       <c r="AK246" s="46"/>
     </row>
-    <row r="247" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B247" s="47"/>
       <c r="C247" s="47"/>
       <c r="D247" s="43"/>
@@ -10546,7 +10546,7 @@
       <c r="AJ247" s="46"/>
       <c r="AK247" s="46"/>
     </row>
-    <row r="248" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B248" s="47"/>
       <c r="C248" s="47"/>
       <c r="D248" s="43"/>
@@ -10583,7 +10583,7 @@
       <c r="AJ248" s="46"/>
       <c r="AK248" s="46"/>
     </row>
-    <row r="249" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B249" s="47"/>
       <c r="C249" s="47"/>
       <c r="D249" s="43"/>
@@ -10620,7 +10620,7 @@
       <c r="AJ249" s="46"/>
       <c r="AK249" s="46"/>
     </row>
-    <row r="250" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B250" s="47"/>
       <c r="C250" s="47"/>
       <c r="D250" s="43"/>
@@ -10657,7 +10657,7 @@
       <c r="AJ250" s="46"/>
       <c r="AK250" s="46"/>
     </row>
-    <row r="251" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B251" s="47"/>
       <c r="C251" s="47"/>
       <c r="D251" s="43"/>
@@ -10694,7 +10694,7 @@
       <c r="AJ251" s="46"/>
       <c r="AK251" s="46"/>
     </row>
-    <row r="252" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B252" s="47"/>
       <c r="C252" s="47"/>
       <c r="D252" s="43"/>
@@ -10731,7 +10731,7 @@
       <c r="AJ252" s="46"/>
       <c r="AK252" s="46"/>
     </row>
-    <row r="253" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B253" s="47"/>
       <c r="C253" s="47"/>
       <c r="D253" s="43"/>
@@ -10768,7 +10768,7 @@
       <c r="AJ253" s="46"/>
       <c r="AK253" s="46"/>
     </row>
-    <row r="254" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B254" s="47"/>
       <c r="C254" s="47"/>
       <c r="D254" s="43"/>
@@ -10805,7 +10805,7 @@
       <c r="AJ254" s="46"/>
       <c r="AK254" s="46"/>
     </row>
-    <row r="255" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B255" s="47"/>
       <c r="C255" s="47"/>
       <c r="D255" s="43"/>
@@ -10842,7 +10842,7 @@
       <c r="AJ255" s="46"/>
       <c r="AK255" s="46"/>
     </row>
-    <row r="256" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B256" s="47"/>
       <c r="C256" s="47"/>
       <c r="D256" s="43"/>
@@ -10879,7 +10879,7 @@
       <c r="AJ256" s="46"/>
       <c r="AK256" s="46"/>
     </row>
-    <row r="257" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B257" s="47"/>
       <c r="C257" s="47"/>
       <c r="D257" s="43"/>
@@ -10916,7 +10916,7 @@
       <c r="AJ257" s="46"/>
       <c r="AK257" s="46"/>
     </row>
-    <row r="258" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B258" s="47"/>
       <c r="C258" s="47"/>
       <c r="D258" s="43"/>
@@ -10953,7 +10953,7 @@
       <c r="AJ258" s="46"/>
       <c r="AK258" s="46"/>
     </row>
-    <row r="259" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B259" s="47"/>
       <c r="C259" s="47"/>
       <c r="D259" s="43"/>
@@ -10990,7 +10990,7 @@
       <c r="AJ259" s="46"/>
       <c r="AK259" s="46"/>
     </row>
-    <row r="260" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B260" s="47"/>
       <c r="C260" s="47"/>
       <c r="D260" s="43"/>
@@ -11027,7 +11027,7 @@
       <c r="AJ260" s="46"/>
       <c r="AK260" s="46"/>
     </row>
-    <row r="261" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B261" s="47"/>
       <c r="C261" s="47"/>
       <c r="D261" s="43"/>
@@ -11064,7 +11064,7 @@
       <c r="AJ261" s="46"/>
       <c r="AK261" s="46"/>
     </row>
-    <row r="262" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B262" s="47"/>
       <c r="C262" s="47"/>
       <c r="D262" s="43"/>
@@ -11101,7 +11101,7 @@
       <c r="AJ262" s="46"/>
       <c r="AK262" s="46"/>
     </row>
-    <row r="263" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B263" s="47"/>
       <c r="C263" s="47"/>
       <c r="D263" s="43"/>
@@ -11138,7 +11138,7 @@
       <c r="AJ263" s="46"/>
       <c r="AK263" s="46"/>
     </row>
-    <row r="264" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B264" s="47"/>
       <c r="C264" s="47"/>
       <c r="D264" s="43"/>
@@ -11175,7 +11175,7 @@
       <c r="AJ264" s="46"/>
       <c r="AK264" s="46"/>
     </row>
-    <row r="265" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B265" s="47"/>
       <c r="C265" s="47"/>
       <c r="D265" s="43"/>
@@ -11212,7 +11212,7 @@
       <c r="AJ265" s="46"/>
       <c r="AK265" s="46"/>
     </row>
-    <row r="266" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B266" s="47"/>
       <c r="C266" s="47"/>
       <c r="D266" s="43"/>
@@ -11249,7 +11249,7 @@
       <c r="AJ266" s="46"/>
       <c r="AK266" s="46"/>
     </row>
-    <row r="267" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B267" s="47"/>
       <c r="C267" s="47"/>
       <c r="D267" s="43"/>
@@ -11286,7 +11286,7 @@
       <c r="AJ267" s="46"/>
       <c r="AK267" s="46"/>
     </row>
-    <row r="268" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B268" s="47"/>
       <c r="C268" s="47"/>
       <c r="D268" s="43"/>
@@ -11323,7 +11323,7 @@
       <c r="AJ268" s="46"/>
       <c r="AK268" s="46"/>
     </row>
-    <row r="269" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B269" s="47"/>
       <c r="C269" s="47"/>
       <c r="D269" s="43"/>
@@ -11360,7 +11360,7 @@
       <c r="AJ269" s="46"/>
       <c r="AK269" s="46"/>
     </row>
-    <row r="270" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B270" s="47"/>
       <c r="C270" s="47"/>
       <c r="D270" s="43"/>
@@ -11397,7 +11397,7 @@
       <c r="AJ270" s="46"/>
       <c r="AK270" s="46"/>
     </row>
-    <row r="271" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B271" s="47"/>
       <c r="C271" s="47"/>
       <c r="D271" s="43"/>
@@ -11434,7 +11434,7 @@
       <c r="AJ271" s="46"/>
       <c r="AK271" s="46"/>
     </row>
-    <row r="272" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B272" s="47"/>
       <c r="C272" s="47"/>
       <c r="D272" s="43"/>
@@ -11471,7 +11471,7 @@
       <c r="AJ272" s="46"/>
       <c r="AK272" s="46"/>
     </row>
-    <row r="273" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B273" s="47"/>
       <c r="C273" s="47"/>
       <c r="D273" s="43"/>
@@ -11508,7 +11508,7 @@
       <c r="AJ273" s="46"/>
       <c r="AK273" s="46"/>
     </row>
-    <row r="274" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B274" s="47"/>
       <c r="C274" s="47"/>
       <c r="D274" s="43"/>
@@ -11545,7 +11545,7 @@
       <c r="AJ274" s="46"/>
       <c r="AK274" s="46"/>
     </row>
-    <row r="275" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B275" s="47"/>
       <c r="C275" s="47"/>
       <c r="D275" s="43"/>
@@ -11582,7 +11582,7 @@
       <c r="AJ275" s="46"/>
       <c r="AK275" s="46"/>
     </row>
-    <row r="276" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B276" s="47"/>
       <c r="C276" s="47"/>
       <c r="D276" s="43"/>
@@ -11619,7 +11619,7 @@
       <c r="AJ276" s="46"/>
       <c r="AK276" s="46"/>
     </row>
-    <row r="277" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B277" s="47"/>
       <c r="C277" s="47"/>
       <c r="D277" s="43"/>
@@ -11656,7 +11656,7 @@
       <c r="AJ277" s="46"/>
       <c r="AK277" s="46"/>
     </row>
-    <row r="278" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B278" s="47"/>
       <c r="C278" s="47"/>
       <c r="D278" s="43"/>
@@ -11693,7 +11693,7 @@
       <c r="AJ278" s="46"/>
       <c r="AK278" s="46"/>
     </row>
-    <row r="279" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B279" s="47"/>
       <c r="C279" s="47"/>
       <c r="D279" s="43"/>
@@ -11730,7 +11730,7 @@
       <c r="AJ279" s="46"/>
       <c r="AK279" s="46"/>
     </row>
-    <row r="280" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B280" s="47"/>
       <c r="C280" s="47"/>
       <c r="D280" s="43"/>
@@ -11767,7 +11767,7 @@
       <c r="AJ280" s="46"/>
       <c r="AK280" s="46"/>
     </row>
-    <row r="281" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B281" s="47"/>
       <c r="C281" s="47"/>
       <c r="D281" s="43"/>
@@ -11804,7 +11804,7 @@
       <c r="AJ281" s="46"/>
       <c r="AK281" s="46"/>
     </row>
-    <row r="282" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B282" s="47"/>
       <c r="C282" s="47"/>
       <c r="D282" s="43"/>
@@ -11841,7 +11841,7 @@
       <c r="AJ282" s="46"/>
       <c r="AK282" s="46"/>
     </row>
-    <row r="283" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B283" s="47"/>
       <c r="C283" s="47"/>
       <c r="D283" s="43"/>
@@ -11878,7 +11878,7 @@
       <c r="AJ283" s="46"/>
       <c r="AK283" s="46"/>
     </row>
-    <row r="284" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B284" s="47"/>
       <c r="C284" s="47"/>
       <c r="D284" s="43"/>
@@ -11915,7 +11915,7 @@
       <c r="AJ284" s="46"/>
       <c r="AK284" s="46"/>
     </row>
-    <row r="285" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B285" s="47"/>
       <c r="C285" s="47"/>
       <c r="D285" s="43"/>
@@ -11952,7 +11952,7 @@
       <c r="AJ285" s="46"/>
       <c r="AK285" s="46"/>
     </row>
-    <row r="286" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B286" s="47"/>
       <c r="C286" s="47"/>
       <c r="D286" s="43"/>
@@ -11989,7 +11989,7 @@
       <c r="AJ286" s="46"/>
       <c r="AK286" s="46"/>
     </row>
-    <row r="287" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B287" s="47"/>
       <c r="C287" s="47"/>
       <c r="D287" s="43"/>
@@ -12026,7 +12026,7 @@
       <c r="AJ287" s="46"/>
       <c r="AK287" s="46"/>
     </row>
-    <row r="288" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B288" s="47"/>
       <c r="C288" s="47"/>
       <c r="D288" s="43"/>
@@ -12063,7 +12063,7 @@
       <c r="AJ288" s="46"/>
       <c r="AK288" s="46"/>
     </row>
-    <row r="289" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B289" s="47"/>
       <c r="C289" s="47"/>
       <c r="D289" s="43"/>
@@ -12100,7 +12100,7 @@
       <c r="AJ289" s="46"/>
       <c r="AK289" s="46"/>
     </row>
-    <row r="290" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B290" s="47"/>
       <c r="C290" s="47"/>
       <c r="D290" s="43"/>
@@ -12137,7 +12137,7 @@
       <c r="AJ290" s="46"/>
       <c r="AK290" s="46"/>
     </row>
-    <row r="291" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B291" s="47"/>
       <c r="C291" s="47"/>
       <c r="D291" s="43"/>
@@ -12174,7 +12174,7 @@
       <c r="AJ291" s="46"/>
       <c r="AK291" s="46"/>
     </row>
-    <row r="292" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B292" s="47"/>
       <c r="C292" s="47"/>
       <c r="D292" s="43"/>
@@ -12211,7 +12211,7 @@
       <c r="AJ292" s="46"/>
       <c r="AK292" s="46"/>
     </row>
-    <row r="293" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B293" s="47"/>
       <c r="C293" s="47"/>
       <c r="D293" s="43"/>
@@ -12248,7 +12248,7 @@
       <c r="AJ293" s="46"/>
       <c r="AK293" s="46"/>
     </row>
-    <row r="294" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B294" s="47"/>
       <c r="C294" s="47"/>
       <c r="D294" s="43"/>
@@ -12285,7 +12285,7 @@
       <c r="AJ294" s="46"/>
       <c r="AK294" s="46"/>
     </row>
-    <row r="295" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B295" s="47"/>
       <c r="C295" s="47"/>
       <c r="D295" s="43"/>
@@ -12322,7 +12322,7 @@
       <c r="AJ295" s="46"/>
       <c r="AK295" s="46"/>
     </row>
-    <row r="296" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B296" s="47"/>
       <c r="C296" s="47"/>
       <c r="D296" s="43"/>
@@ -12359,7 +12359,7 @@
       <c r="AJ296" s="46"/>
       <c r="AK296" s="46"/>
     </row>
-    <row r="297" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B297" s="47"/>
       <c r="C297" s="47"/>
       <c r="D297" s="43"/>
@@ -12396,7 +12396,7 @@
       <c r="AJ297" s="46"/>
       <c r="AK297" s="46"/>
     </row>
-    <row r="298" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B298" s="47"/>
       <c r="C298" s="47"/>
       <c r="D298" s="43"/>
@@ -12433,7 +12433,7 @@
       <c r="AJ298" s="46"/>
       <c r="AK298" s="46"/>
     </row>
-    <row r="299" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B299" s="47"/>
       <c r="C299" s="47"/>
       <c r="D299" s="43"/>
@@ -12470,7 +12470,7 @@
       <c r="AJ299" s="46"/>
       <c r="AK299" s="46"/>
     </row>
-    <row r="300" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B300" s="47"/>
       <c r="C300" s="47"/>
       <c r="D300" s="43"/>
@@ -12507,7 +12507,7 @@
       <c r="AJ300" s="46"/>
       <c r="AK300" s="46"/>
     </row>
-    <row r="301" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B301" s="47"/>
       <c r="C301" s="47"/>
       <c r="D301" s="43"/>
@@ -12544,7 +12544,7 @@
       <c r="AJ301" s="46"/>
       <c r="AK301" s="46"/>
     </row>
-    <row r="302" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B302" s="47"/>
       <c r="C302" s="47"/>
       <c r="D302" s="43"/>
@@ -12581,7 +12581,7 @@
       <c r="AJ302" s="46"/>
       <c r="AK302" s="46"/>
     </row>
-    <row r="303" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B303" s="47"/>
       <c r="C303" s="47"/>
       <c r="D303" s="43"/>
@@ -12618,7 +12618,7 @@
       <c r="AJ303" s="46"/>
       <c r="AK303" s="46"/>
     </row>
-    <row r="304" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B304" s="47"/>
       <c r="C304" s="47"/>
       <c r="D304" s="43"/>
@@ -12655,7 +12655,7 @@
       <c r="AJ304" s="46"/>
       <c r="AK304" s="46"/>
     </row>
-    <row r="305" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B305" s="47"/>
       <c r="C305" s="47"/>
       <c r="D305" s="43"/>
@@ -12692,7 +12692,7 @@
       <c r="AJ305" s="46"/>
       <c r="AK305" s="46"/>
     </row>
-    <row r="306" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B306" s="47"/>
       <c r="C306" s="47"/>
       <c r="D306" s="43"/>
@@ -12729,7 +12729,7 @@
       <c r="AJ306" s="46"/>
       <c r="AK306" s="46"/>
     </row>
-    <row r="307" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B307" s="47"/>
       <c r="C307" s="47"/>
       <c r="D307" s="43"/>
@@ -12766,7 +12766,7 @@
       <c r="AJ307" s="46"/>
       <c r="AK307" s="46"/>
     </row>
-    <row r="308" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B308" s="47"/>
       <c r="C308" s="47"/>
       <c r="D308" s="43"/>
@@ -12803,7 +12803,7 @@
       <c r="AJ308" s="46"/>
       <c r="AK308" s="46"/>
     </row>
-    <row r="309" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B309" s="47"/>
       <c r="C309" s="47"/>
       <c r="D309" s="43"/>
@@ -12840,7 +12840,7 @@
       <c r="AJ309" s="46"/>
       <c r="AK309" s="46"/>
     </row>
-    <row r="310" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B310" s="47"/>
       <c r="C310" s="47"/>
       <c r="D310" s="43"/>
@@ -12877,7 +12877,7 @@
       <c r="AJ310" s="46"/>
       <c r="AK310" s="46"/>
     </row>
-    <row r="311" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B311" s="47"/>
       <c r="C311" s="47"/>
       <c r="D311" s="43"/>
@@ -12914,7 +12914,7 @@
       <c r="AJ311" s="46"/>
       <c r="AK311" s="46"/>
     </row>
-    <row r="312" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B312" s="47"/>
       <c r="C312" s="47"/>
       <c r="D312" s="43"/>
@@ -12951,7 +12951,7 @@
       <c r="AJ312" s="46"/>
       <c r="AK312" s="46"/>
     </row>
-    <row r="313" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B313" s="47"/>
       <c r="C313" s="47"/>
       <c r="D313" s="43"/>
@@ -12988,7 +12988,7 @@
       <c r="AJ313" s="46"/>
       <c r="AK313" s="46"/>
     </row>
-    <row r="314" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B314" s="47"/>
       <c r="C314" s="47"/>
       <c r="D314" s="43"/>
@@ -13025,7 +13025,7 @@
       <c r="AJ314" s="46"/>
       <c r="AK314" s="46"/>
     </row>
-    <row r="315" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B315" s="47"/>
       <c r="C315" s="47"/>
       <c r="D315" s="43"/>
@@ -13062,7 +13062,7 @@
       <c r="AJ315" s="46"/>
       <c r="AK315" s="46"/>
     </row>
-    <row r="316" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B316" s="47"/>
       <c r="C316" s="47"/>
       <c r="D316" s="43"/>
@@ -13099,7 +13099,7 @@
       <c r="AJ316" s="46"/>
       <c r="AK316" s="46"/>
     </row>
-    <row r="317" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B317" s="47"/>
       <c r="C317" s="47"/>
       <c r="D317" s="43"/>
@@ -13136,7 +13136,7 @@
       <c r="AJ317" s="46"/>
       <c r="AK317" s="46"/>
     </row>
-    <row r="318" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B318" s="47"/>
       <c r="C318" s="47"/>
       <c r="D318" s="43"/>
@@ -13173,7 +13173,7 @@
       <c r="AJ318" s="46"/>
       <c r="AK318" s="46"/>
     </row>
-    <row r="319" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B319" s="47"/>
       <c r="C319" s="47"/>
       <c r="D319" s="43"/>
@@ -13210,7 +13210,7 @@
       <c r="AJ319" s="46"/>
       <c r="AK319" s="46"/>
     </row>
-    <row r="320" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B320" s="47"/>
       <c r="C320" s="47"/>
       <c r="D320" s="43"/>
@@ -13247,7 +13247,7 @@
       <c r="AJ320" s="46"/>
       <c r="AK320" s="46"/>
     </row>
-    <row r="321" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B321" s="47"/>
       <c r="C321" s="47"/>
       <c r="D321" s="43"/>
@@ -13284,7 +13284,7 @@
       <c r="AJ321" s="46"/>
       <c r="AK321" s="46"/>
     </row>
-    <row r="322" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B322" s="47"/>
       <c r="C322" s="47"/>
       <c r="D322" s="43"/>
@@ -13321,7 +13321,7 @@
       <c r="AJ322" s="46"/>
       <c r="AK322" s="46"/>
     </row>
-    <row r="323" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B323" s="47"/>
       <c r="C323" s="47"/>
       <c r="D323" s="43"/>
@@ -13358,7 +13358,7 @@
       <c r="AJ323" s="46"/>
       <c r="AK323" s="46"/>
     </row>
-    <row r="324" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B324" s="47"/>
       <c r="C324" s="47"/>
       <c r="D324" s="43"/>
@@ -13395,7 +13395,7 @@
       <c r="AJ324" s="46"/>
       <c r="AK324" s="46"/>
     </row>
-    <row r="325" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B325" s="47"/>
       <c r="C325" s="47"/>
       <c r="D325" s="43"/>
@@ -13432,7 +13432,7 @@
       <c r="AJ325" s="46"/>
       <c r="AK325" s="46"/>
     </row>
-    <row r="326" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B326" s="47"/>
       <c r="C326" s="47"/>
       <c r="D326" s="43"/>
@@ -13469,7 +13469,7 @@
       <c r="AJ326" s="46"/>
       <c r="AK326" s="46"/>
     </row>
-    <row r="327" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B327" s="47"/>
       <c r="C327" s="47"/>
       <c r="D327" s="43"/>
@@ -13506,7 +13506,7 @@
       <c r="AJ327" s="46"/>
       <c r="AK327" s="46"/>
     </row>
-    <row r="328" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B328" s="47"/>
       <c r="C328" s="47"/>
       <c r="D328" s="43"/>
@@ -13543,7 +13543,7 @@
       <c r="AJ328" s="46"/>
       <c r="AK328" s="46"/>
     </row>
-    <row r="329" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B329" s="47"/>
       <c r="C329" s="47"/>
       <c r="D329" s="43"/>
@@ -13580,7 +13580,7 @@
       <c r="AJ329" s="46"/>
       <c r="AK329" s="46"/>
     </row>
-    <row r="330" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B330" s="47"/>
       <c r="C330" s="47"/>
       <c r="D330" s="43"/>
@@ -13617,7 +13617,7 @@
       <c r="AJ330" s="46"/>
       <c r="AK330" s="46"/>
     </row>
-    <row r="331" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B331" s="47"/>
       <c r="C331" s="47"/>
       <c r="D331" s="43"/>
@@ -13654,7 +13654,7 @@
       <c r="AJ331" s="46"/>
       <c r="AK331" s="46"/>
     </row>
-    <row r="332" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B332" s="47"/>
       <c r="C332" s="47"/>
       <c r="D332" s="43"/>
@@ -13691,7 +13691,7 @@
       <c r="AJ332" s="46"/>
       <c r="AK332" s="46"/>
     </row>
-    <row r="333" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B333" s="47"/>
       <c r="C333" s="47"/>
       <c r="D333" s="43"/>
@@ -13728,7 +13728,7 @@
       <c r="AJ333" s="46"/>
       <c r="AK333" s="46"/>
     </row>
-    <row r="334" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B334" s="47"/>
       <c r="C334" s="47"/>
       <c r="D334" s="43"/>
@@ -13765,7 +13765,7 @@
       <c r="AJ334" s="46"/>
       <c r="AK334" s="46"/>
     </row>
-    <row r="335" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B335" s="47"/>
       <c r="C335" s="47"/>
       <c r="D335" s="43"/>
@@ -13802,7 +13802,7 @@
       <c r="AJ335" s="46"/>
       <c r="AK335" s="46"/>
     </row>
-    <row r="336" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B336" s="47"/>
       <c r="C336" s="47"/>
       <c r="D336" s="43"/>
@@ -13839,7 +13839,7 @@
       <c r="AJ336" s="46"/>
       <c r="AK336" s="46"/>
     </row>
-    <row r="337" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B337" s="47"/>
       <c r="C337" s="47"/>
       <c r="D337" s="43"/>
@@ -13876,7 +13876,7 @@
       <c r="AJ337" s="46"/>
       <c r="AK337" s="46"/>
     </row>
-    <row r="338" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B338" s="47"/>
       <c r="C338" s="47"/>
       <c r="D338" s="43"/>
@@ -13913,7 +13913,7 @@
       <c r="AJ338" s="46"/>
       <c r="AK338" s="46"/>
     </row>
-    <row r="339" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B339" s="47"/>
       <c r="C339" s="47"/>
       <c r="D339" s="43"/>
@@ -13950,7 +13950,7 @@
       <c r="AJ339" s="46"/>
       <c r="AK339" s="46"/>
     </row>
-    <row r="340" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B340" s="47"/>
       <c r="C340" s="47"/>
       <c r="D340" s="43"/>
@@ -13987,7 +13987,7 @@
       <c r="AJ340" s="46"/>
       <c r="AK340" s="46"/>
     </row>
-    <row r="341" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B341" s="47"/>
       <c r="C341" s="47"/>
       <c r="D341" s="43"/>
@@ -14024,7 +14024,7 @@
       <c r="AJ341" s="46"/>
       <c r="AK341" s="46"/>
     </row>
-    <row r="342" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B342" s="47"/>
       <c r="C342" s="47"/>
       <c r="D342" s="43"/>
@@ -14061,7 +14061,7 @@
       <c r="AJ342" s="46"/>
       <c r="AK342" s="46"/>
     </row>
-    <row r="343" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B343" s="47"/>
       <c r="C343" s="47"/>
       <c r="D343" s="43"/>
@@ -14098,7 +14098,7 @@
       <c r="AJ343" s="46"/>
       <c r="AK343" s="46"/>
     </row>
-    <row r="344" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B344" s="47"/>
       <c r="C344" s="47"/>
       <c r="D344" s="43"/>
@@ -14135,7 +14135,7 @@
       <c r="AJ344" s="46"/>
       <c r="AK344" s="46"/>
     </row>
-    <row r="345" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B345" s="47"/>
       <c r="C345" s="47"/>
       <c r="D345" s="43"/>
@@ -14172,7 +14172,7 @@
       <c r="AJ345" s="46"/>
       <c r="AK345" s="46"/>
     </row>
-    <row r="346" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B346" s="47"/>
       <c r="C346" s="47"/>
       <c r="D346" s="43"/>
@@ -14209,7 +14209,7 @@
       <c r="AJ346" s="46"/>
       <c r="AK346" s="46"/>
     </row>
-    <row r="347" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B347" s="47"/>
       <c r="C347" s="47"/>
       <c r="D347" s="43"/>
@@ -14246,7 +14246,7 @@
       <c r="AJ347" s="46"/>
       <c r="AK347" s="46"/>
     </row>
-    <row r="348" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B348" s="47"/>
       <c r="C348" s="47"/>
       <c r="D348" s="43"/>
@@ -14283,7 +14283,7 @@
       <c r="AJ348" s="46"/>
       <c r="AK348" s="46"/>
     </row>
-    <row r="349" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B349" s="47"/>
       <c r="C349" s="47"/>
       <c r="D349" s="43"/>
@@ -14320,7 +14320,7 @@
       <c r="AJ349" s="46"/>
       <c r="AK349" s="46"/>
     </row>
-    <row r="350" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B350" s="47"/>
       <c r="C350" s="47"/>
       <c r="D350" s="43"/>
@@ -14357,7 +14357,7 @@
       <c r="AJ350" s="46"/>
       <c r="AK350" s="46"/>
     </row>
-    <row r="351" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B351" s="47"/>
       <c r="C351" s="47"/>
       <c r="D351" s="43"/>
@@ -14394,7 +14394,7 @@
       <c r="AJ351" s="46"/>
       <c r="AK351" s="46"/>
     </row>
-    <row r="352" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B352" s="47"/>
       <c r="C352" s="47"/>
       <c r="D352" s="43"/>
@@ -14431,7 +14431,7 @@
       <c r="AJ352" s="46"/>
       <c r="AK352" s="46"/>
     </row>
-    <row r="353" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B353" s="47"/>
       <c r="C353" s="47"/>
       <c r="D353" s="43"/>
@@ -14468,7 +14468,7 @@
       <c r="AJ353" s="46"/>
       <c r="AK353" s="46"/>
     </row>
-    <row r="354" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B354" s="47"/>
       <c r="C354" s="47"/>
       <c r="D354" s="43"/>
@@ -14505,7 +14505,7 @@
       <c r="AJ354" s="46"/>
       <c r="AK354" s="46"/>
     </row>
-    <row r="355" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B355" s="47"/>
       <c r="C355" s="47"/>
       <c r="D355" s="43"/>
@@ -14542,7 +14542,7 @@
       <c r="AJ355" s="46"/>
       <c r="AK355" s="46"/>
     </row>
-    <row r="356" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B356" s="47"/>
       <c r="C356" s="47"/>
       <c r="D356" s="43"/>
@@ -14579,7 +14579,7 @@
       <c r="AJ356" s="46"/>
       <c r="AK356" s="46"/>
     </row>
-    <row r="357" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B357" s="47"/>
       <c r="C357" s="47"/>
       <c r="D357" s="43"/>
@@ -14616,7 +14616,7 @@
       <c r="AJ357" s="46"/>
       <c r="AK357" s="46"/>
     </row>
-    <row r="358" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B358" s="47"/>
       <c r="C358" s="47"/>
       <c r="D358" s="43"/>
@@ -14653,7 +14653,7 @@
       <c r="AJ358" s="46"/>
       <c r="AK358" s="46"/>
     </row>
-    <row r="359" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B359" s="47"/>
       <c r="C359" s="47"/>
       <c r="D359" s="43"/>
@@ -14690,7 +14690,7 @@
       <c r="AJ359" s="46"/>
       <c r="AK359" s="46"/>
     </row>
-    <row r="360" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B360" s="47"/>
       <c r="C360" s="47"/>
       <c r="D360" s="43"/>
@@ -14727,7 +14727,7 @@
       <c r="AJ360" s="46"/>
       <c r="AK360" s="46"/>
     </row>
-    <row r="361" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B361" s="47"/>
       <c r="C361" s="47"/>
       <c r="D361" s="43"/>
@@ -14764,7 +14764,7 @@
       <c r="AJ361" s="46"/>
       <c r="AK361" s="46"/>
     </row>
-    <row r="362" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B362" s="47"/>
       <c r="C362" s="47"/>
       <c r="D362" s="43"/>
@@ -14801,7 +14801,7 @@
       <c r="AJ362" s="46"/>
       <c r="AK362" s="46"/>
     </row>
-    <row r="363" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B363" s="47"/>
       <c r="C363" s="47"/>
       <c r="D363" s="43"/>
@@ -14838,7 +14838,7 @@
       <c r="AJ363" s="46"/>
       <c r="AK363" s="46"/>
     </row>
-    <row r="364" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B364" s="47"/>
       <c r="C364" s="47"/>
       <c r="D364" s="43"/>
@@ -14875,7 +14875,7 @@
       <c r="AJ364" s="46"/>
       <c r="AK364" s="46"/>
     </row>
-    <row r="365" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B365" s="47"/>
       <c r="C365" s="47"/>
       <c r="D365" s="43"/>
@@ -14912,7 +14912,7 @@
       <c r="AJ365" s="46"/>
       <c r="AK365" s="46"/>
     </row>
-    <row r="366" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B366" s="47"/>
       <c r="C366" s="47"/>
       <c r="D366" s="43"/>
@@ -14949,7 +14949,7 @@
       <c r="AJ366" s="46"/>
       <c r="AK366" s="46"/>
     </row>
-    <row r="367" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B367" s="47"/>
       <c r="C367" s="47"/>
       <c r="D367" s="43"/>
@@ -14986,7 +14986,7 @@
       <c r="AJ367" s="46"/>
       <c r="AK367" s="46"/>
     </row>
-    <row r="368" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B368" s="47"/>
       <c r="C368" s="47"/>
       <c r="D368" s="43"/>
@@ -15023,7 +15023,7 @@
       <c r="AJ368" s="46"/>
       <c r="AK368" s="46"/>
     </row>
-    <row r="369" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B369" s="47"/>
       <c r="C369" s="47"/>
       <c r="D369" s="43"/>
@@ -15060,7 +15060,7 @@
       <c r="AJ369" s="46"/>
       <c r="AK369" s="46"/>
     </row>
-    <row r="370" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B370" s="47"/>
       <c r="C370" s="47"/>
       <c r="D370" s="43"/>
@@ -15097,7 +15097,7 @@
       <c r="AJ370" s="46"/>
       <c r="AK370" s="46"/>
     </row>
-    <row r="371" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B371" s="47"/>
       <c r="C371" s="47"/>
       <c r="D371" s="43"/>
@@ -15134,7 +15134,7 @@
       <c r="AJ371" s="46"/>
       <c r="AK371" s="46"/>
     </row>
-    <row r="372" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B372" s="47"/>
       <c r="C372" s="47"/>
       <c r="D372" s="43"/>
@@ -15171,7 +15171,7 @@
       <c r="AJ372" s="46"/>
       <c r="AK372" s="46"/>
     </row>
-    <row r="373" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B373" s="47"/>
       <c r="C373" s="47"/>
       <c r="D373" s="43"/>
@@ -15208,7 +15208,7 @@
       <c r="AJ373" s="46"/>
       <c r="AK373" s="46"/>
     </row>
-    <row r="374" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B374" s="47"/>
       <c r="C374" s="47"/>
       <c r="D374" s="43"/>
@@ -15245,7 +15245,7 @@
       <c r="AJ374" s="46"/>
       <c r="AK374" s="46"/>
     </row>
-    <row r="375" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B375" s="47"/>
       <c r="C375" s="47"/>
       <c r="D375" s="43"/>
@@ -15282,7 +15282,7 @@
       <c r="AJ375" s="46"/>
       <c r="AK375" s="46"/>
     </row>
-    <row r="376" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B376" s="47"/>
       <c r="C376" s="47"/>
       <c r="D376" s="43"/>
@@ -15319,7 +15319,7 @@
       <c r="AJ376" s="46"/>
       <c r="AK376" s="46"/>
     </row>
-    <row r="377" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B377" s="47"/>
       <c r="C377" s="47"/>
       <c r="D377" s="43"/>
@@ -15356,7 +15356,7 @@
       <c r="AJ377" s="46"/>
       <c r="AK377" s="46"/>
     </row>
-    <row r="378" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B378" s="47"/>
       <c r="C378" s="47"/>
       <c r="D378" s="43"/>
@@ -15393,7 +15393,7 @@
       <c r="AJ378" s="46"/>
       <c r="AK378" s="46"/>
     </row>
-    <row r="379" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B379" s="47"/>
       <c r="C379" s="47"/>
       <c r="D379" s="43"/>
@@ -15430,7 +15430,7 @@
       <c r="AJ379" s="46"/>
       <c r="AK379" s="46"/>
     </row>
-    <row r="380" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B380" s="47"/>
       <c r="C380" s="47"/>
       <c r="D380" s="43"/>
@@ -15467,7 +15467,7 @@
       <c r="AJ380" s="46"/>
       <c r="AK380" s="46"/>
     </row>
-    <row r="381" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B381" s="47"/>
       <c r="C381" s="47"/>
       <c r="D381" s="43"/>
@@ -15504,7 +15504,7 @@
       <c r="AJ381" s="46"/>
       <c r="AK381" s="46"/>
     </row>
-    <row r="382" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B382" s="47"/>
       <c r="C382" s="47"/>
       <c r="D382" s="43"/>
@@ -15541,7 +15541,7 @@
       <c r="AJ382" s="46"/>
       <c r="AK382" s="46"/>
     </row>
-    <row r="383" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B383" s="47"/>
       <c r="C383" s="47"/>
       <c r="D383" s="43"/>
@@ -15578,7 +15578,7 @@
       <c r="AJ383" s="46"/>
       <c r="AK383" s="46"/>
     </row>
-    <row r="384" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B384" s="47"/>
       <c r="C384" s="47"/>
       <c r="D384" s="43"/>
@@ -15615,7 +15615,7 @@
       <c r="AJ384" s="46"/>
       <c r="AK384" s="46"/>
     </row>
-    <row r="385" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B385" s="47"/>
       <c r="C385" s="47"/>
       <c r="D385" s="43"/>
@@ -15652,7 +15652,7 @@
       <c r="AJ385" s="46"/>
       <c r="AK385" s="46"/>
     </row>
-    <row r="386" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B386" s="47"/>
       <c r="C386" s="47"/>
       <c r="D386" s="43"/>
@@ -15689,7 +15689,7 @@
       <c r="AJ386" s="46"/>
       <c r="AK386" s="46"/>
     </row>
-    <row r="387" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B387" s="47"/>
       <c r="C387" s="47"/>
       <c r="D387" s="43"/>
@@ -15726,7 +15726,7 @@
       <c r="AJ387" s="46"/>
       <c r="AK387" s="46"/>
     </row>
-    <row r="388" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B388" s="47"/>
       <c r="C388" s="47"/>
       <c r="D388" s="43"/>
@@ -15763,7 +15763,7 @@
       <c r="AJ388" s="46"/>
       <c r="AK388" s="46"/>
     </row>
-    <row r="389" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B389" s="47"/>
       <c r="C389" s="47"/>
       <c r="D389" s="43"/>
@@ -15800,7 +15800,7 @@
       <c r="AJ389" s="46"/>
       <c r="AK389" s="46"/>
     </row>
-    <row r="390" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B390" s="47"/>
       <c r="C390" s="47"/>
       <c r="D390" s="43"/>
@@ -15837,7 +15837,7 @@
       <c r="AJ390" s="46"/>
       <c r="AK390" s="46"/>
     </row>
-    <row r="391" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B391" s="47"/>
       <c r="C391" s="47"/>
       <c r="D391" s="43"/>
@@ -15874,7 +15874,7 @@
       <c r="AJ391" s="46"/>
       <c r="AK391" s="46"/>
     </row>
-    <row r="392" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B392" s="47"/>
       <c r="C392" s="47"/>
       <c r="D392" s="43"/>
@@ -15911,7 +15911,7 @@
       <c r="AJ392" s="46"/>
       <c r="AK392" s="46"/>
     </row>
-    <row r="393" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B393" s="47"/>
       <c r="C393" s="47"/>
       <c r="D393" s="43"/>
@@ -15948,7 +15948,7 @@
       <c r="AJ393" s="46"/>
       <c r="AK393" s="46"/>
     </row>
-    <row r="394" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B394" s="47"/>
       <c r="C394" s="47"/>
       <c r="D394" s="43"/>
@@ -15985,7 +15985,7 @@
       <c r="AJ394" s="46"/>
       <c r="AK394" s="46"/>
     </row>
-    <row r="395" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B395" s="47"/>
       <c r="C395" s="47"/>
       <c r="D395" s="43"/>
@@ -16022,7 +16022,7 @@
       <c r="AJ395" s="46"/>
       <c r="AK395" s="46"/>
     </row>
-    <row r="396" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B396" s="47"/>
       <c r="C396" s="47"/>
       <c r="D396" s="43"/>
@@ -16059,7 +16059,7 @@
       <c r="AJ396" s="46"/>
       <c r="AK396" s="46"/>
     </row>
-    <row r="397" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B397" s="47"/>
       <c r="C397" s="47"/>
       <c r="D397" s="43"/>
@@ -16096,7 +16096,7 @@
       <c r="AJ397" s="46"/>
       <c r="AK397" s="46"/>
     </row>
-    <row r="398" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B398" s="47"/>
       <c r="C398" s="47"/>
       <c r="D398" s="43"/>
@@ -16133,7 +16133,7 @@
       <c r="AJ398" s="46"/>
       <c r="AK398" s="46"/>
     </row>
-    <row r="399" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B399" s="47"/>
       <c r="C399" s="47"/>
       <c r="D399" s="43"/>
@@ -16170,7 +16170,7 @@
       <c r="AJ399" s="46"/>
       <c r="AK399" s="46"/>
     </row>
-    <row r="400" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B400" s="47"/>
       <c r="C400" s="47"/>
       <c r="D400" s="43"/>
@@ -16207,7 +16207,7 @@
       <c r="AJ400" s="46"/>
       <c r="AK400" s="46"/>
     </row>
-    <row r="401" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B401" s="47"/>
       <c r="C401" s="47"/>
       <c r="D401" s="43"/>
@@ -16244,7 +16244,7 @@
       <c r="AJ401" s="46"/>
       <c r="AK401" s="46"/>
     </row>
-    <row r="402" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B402" s="47"/>
       <c r="C402" s="47"/>
       <c r="D402" s="43"/>
@@ -16281,7 +16281,7 @@
       <c r="AJ402" s="46"/>
       <c r="AK402" s="46"/>
     </row>
-    <row r="403" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B403" s="47"/>
       <c r="C403" s="47"/>
       <c r="D403" s="43"/>
@@ -16318,7 +16318,7 @@
       <c r="AJ403" s="46"/>
       <c r="AK403" s="46"/>
     </row>
-    <row r="404" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B404" s="47"/>
       <c r="C404" s="47"/>
       <c r="D404" s="43"/>
@@ -16355,7 +16355,7 @@
       <c r="AJ404" s="46"/>
       <c r="AK404" s="46"/>
     </row>
-    <row r="405" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B405" s="47"/>
       <c r="C405" s="47"/>
       <c r="D405" s="43"/>
@@ -16392,7 +16392,7 @@
       <c r="AJ405" s="46"/>
       <c r="AK405" s="46"/>
     </row>
-    <row r="406" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B406" s="47"/>
       <c r="C406" s="47"/>
       <c r="D406" s="43"/>
@@ -16429,7 +16429,7 @@
       <c r="AJ406" s="46"/>
       <c r="AK406" s="46"/>
     </row>
-    <row r="407" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B407" s="47"/>
       <c r="C407" s="47"/>
       <c r="D407" s="43"/>
@@ -16466,7 +16466,7 @@
       <c r="AJ407" s="46"/>
       <c r="AK407" s="46"/>
     </row>
-    <row r="408" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B408" s="47"/>
       <c r="C408" s="47"/>
       <c r="D408" s="43"/>
@@ -16503,7 +16503,7 @@
       <c r="AJ408" s="46"/>
       <c r="AK408" s="46"/>
     </row>
-    <row r="409" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B409" s="47"/>
       <c r="C409" s="47"/>
       <c r="D409" s="43"/>
@@ -16540,7 +16540,7 @@
       <c r="AJ409" s="46"/>
       <c r="AK409" s="46"/>
     </row>
-    <row r="410" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B410" s="47"/>
       <c r="C410" s="47"/>
       <c r="D410" s="43"/>
@@ -16577,7 +16577,7 @@
       <c r="AJ410" s="46"/>
       <c r="AK410" s="46"/>
     </row>
-    <row r="411" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B411" s="47"/>
       <c r="C411" s="47"/>
       <c r="D411" s="43"/>
@@ -16614,7 +16614,7 @@
       <c r="AJ411" s="46"/>
       <c r="AK411" s="46"/>
     </row>
-    <row r="412" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B412" s="47"/>
       <c r="C412" s="47"/>
       <c r="D412" s="43"/>
@@ -16651,7 +16651,7 @@
       <c r="AJ412" s="46"/>
       <c r="AK412" s="46"/>
     </row>
-    <row r="413" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B413" s="47"/>
       <c r="C413" s="47"/>
       <c r="D413" s="43"/>
@@ -16688,7 +16688,7 @@
       <c r="AJ413" s="46"/>
       <c r="AK413" s="46"/>
     </row>
-    <row r="414" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B414" s="47"/>
       <c r="C414" s="47"/>
       <c r="D414" s="43"/>
@@ -16725,7 +16725,7 @@
       <c r="AJ414" s="46"/>
       <c r="AK414" s="46"/>
     </row>
-    <row r="415" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B415" s="47"/>
       <c r="C415" s="47"/>
       <c r="D415" s="43"/>
@@ -16762,7 +16762,7 @@
       <c r="AJ415" s="46"/>
       <c r="AK415" s="46"/>
     </row>
-    <row r="416" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B416" s="47"/>
       <c r="C416" s="47"/>
       <c r="D416" s="43"/>
@@ -16799,7 +16799,7 @@
       <c r="AJ416" s="46"/>
       <c r="AK416" s="46"/>
     </row>
-    <row r="417" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B417" s="47"/>
       <c r="C417" s="47"/>
       <c r="D417" s="43"/>
@@ -16836,7 +16836,7 @@
       <c r="AJ417" s="46"/>
       <c r="AK417" s="46"/>
     </row>
-    <row r="418" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B418" s="47"/>
       <c r="C418" s="47"/>
       <c r="D418" s="43"/>
@@ -16873,7 +16873,7 @@
       <c r="AJ418" s="46"/>
       <c r="AK418" s="46"/>
     </row>
-    <row r="419" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B419" s="47"/>
       <c r="C419" s="47"/>
       <c r="D419" s="43"/>
@@ -16910,7 +16910,7 @@
       <c r="AJ419" s="46"/>
       <c r="AK419" s="46"/>
     </row>
-    <row r="420" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B420" s="47"/>
       <c r="C420" s="47"/>
       <c r="D420" s="43"/>
@@ -16947,7 +16947,7 @@
       <c r="AJ420" s="46"/>
       <c r="AK420" s="46"/>
     </row>
-    <row r="421" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B421" s="47"/>
       <c r="C421" s="47"/>
       <c r="D421" s="43"/>
@@ -16984,7 +16984,7 @@
       <c r="AJ421" s="46"/>
       <c r="AK421" s="46"/>
     </row>
-    <row r="422" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B422" s="47"/>
       <c r="C422" s="47"/>
       <c r="D422" s="43"/>
@@ -17021,7 +17021,7 @@
       <c r="AJ422" s="46"/>
       <c r="AK422" s="46"/>
     </row>
-    <row r="423" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B423" s="47"/>
       <c r="C423" s="47"/>
       <c r="D423" s="43"/>
@@ -17058,7 +17058,7 @@
       <c r="AJ423" s="46"/>
       <c r="AK423" s="46"/>
     </row>
-    <row r="424" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B424" s="47"/>
       <c r="C424" s="47"/>
       <c r="D424" s="43"/>
@@ -17095,7 +17095,7 @@
       <c r="AJ424" s="46"/>
       <c r="AK424" s="46"/>
     </row>
-    <row r="425" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B425" s="47"/>
       <c r="C425" s="47"/>
       <c r="D425" s="43"/>
@@ -17132,7 +17132,7 @@
       <c r="AJ425" s="46"/>
       <c r="AK425" s="46"/>
     </row>
-    <row r="426" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B426" s="47"/>
       <c r="C426" s="47"/>
       <c r="D426" s="43"/>
@@ -17169,7 +17169,7 @@
       <c r="AJ426" s="46"/>
       <c r="AK426" s="46"/>
     </row>
-    <row r="427" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B427" s="47"/>
       <c r="C427" s="47"/>
       <c r="D427" s="43"/>
@@ -17206,7 +17206,7 @@
       <c r="AJ427" s="46"/>
       <c r="AK427" s="46"/>
     </row>
-    <row r="428" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B428" s="47"/>
       <c r="C428" s="47"/>
       <c r="D428" s="43"/>
@@ -17243,7 +17243,7 @@
       <c r="AJ428" s="46"/>
       <c r="AK428" s="46"/>
     </row>
-    <row r="429" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B429" s="47"/>
       <c r="C429" s="47"/>
       <c r="D429" s="43"/>
@@ -17280,7 +17280,7 @@
       <c r="AJ429" s="46"/>
       <c r="AK429" s="46"/>
     </row>
-    <row r="430" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B430" s="47"/>
       <c r="C430" s="47"/>
       <c r="D430" s="43"/>
@@ -17317,7 +17317,7 @@
       <c r="AJ430" s="46"/>
       <c r="AK430" s="46"/>
     </row>
-    <row r="431" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B431" s="47"/>
       <c r="C431" s="47"/>
       <c r="D431" s="43"/>
@@ -17354,7 +17354,7 @@
       <c r="AJ431" s="46"/>
       <c r="AK431" s="46"/>
     </row>
-    <row r="432" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B432" s="47"/>
       <c r="C432" s="47"/>
       <c r="D432" s="43"/>
@@ -17391,7 +17391,7 @@
       <c r="AJ432" s="46"/>
       <c r="AK432" s="46"/>
     </row>
-    <row r="433" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B433" s="47"/>
       <c r="C433" s="47"/>
       <c r="D433" s="43"/>
@@ -17428,7 +17428,7 @@
       <c r="AJ433" s="46"/>
       <c r="AK433" s="46"/>
     </row>
-    <row r="434" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B434" s="47"/>
       <c r="C434" s="47"/>
       <c r="D434" s="43"/>
@@ -17465,7 +17465,7 @@
       <c r="AJ434" s="46"/>
       <c r="AK434" s="46"/>
     </row>
-    <row r="435" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B435" s="47"/>
       <c r="C435" s="47"/>
       <c r="D435" s="43"/>
@@ -17502,7 +17502,7 @@
       <c r="AJ435" s="46"/>
       <c r="AK435" s="46"/>
     </row>
-    <row r="436" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B436" s="47"/>
       <c r="C436" s="47"/>
       <c r="D436" s="43"/>
@@ -17539,7 +17539,7 @@
       <c r="AJ436" s="46"/>
       <c r="AK436" s="46"/>
     </row>
-    <row r="437" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B437" s="47"/>
       <c r="C437" s="47"/>
       <c r="D437" s="43"/>
@@ -17576,7 +17576,7 @@
       <c r="AJ437" s="46"/>
       <c r="AK437" s="46"/>
     </row>
-    <row r="438" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B438" s="47"/>
       <c r="C438" s="47"/>
       <c r="D438" s="43"/>
@@ -17613,7 +17613,7 @@
       <c r="AJ438" s="46"/>
       <c r="AK438" s="46"/>
     </row>
-    <row r="439" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B439" s="47"/>
       <c r="C439" s="47"/>
       <c r="D439" s="43"/>
@@ -17650,7 +17650,7 @@
       <c r="AJ439" s="46"/>
       <c r="AK439" s="46"/>
     </row>
-    <row r="440" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B440" s="47"/>
       <c r="C440" s="47"/>
       <c r="D440" s="43"/>
@@ -17687,7 +17687,7 @@
       <c r="AJ440" s="46"/>
       <c r="AK440" s="46"/>
     </row>
-    <row r="441" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B441" s="47"/>
       <c r="C441" s="47"/>
       <c r="D441" s="43"/>
@@ -17724,7 +17724,7 @@
       <c r="AJ441" s="46"/>
       <c r="AK441" s="46"/>
     </row>
-    <row r="442" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B442" s="47"/>
       <c r="C442" s="47"/>
       <c r="D442" s="43"/>
@@ -17761,7 +17761,7 @@
       <c r="AJ442" s="46"/>
       <c r="AK442" s="46"/>
     </row>
-    <row r="443" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B443" s="47"/>
       <c r="C443" s="47"/>
       <c r="D443" s="43"/>
@@ -17798,7 +17798,7 @@
       <c r="AJ443" s="46"/>
       <c r="AK443" s="46"/>
     </row>
-    <row r="444" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B444" s="47"/>
       <c r="C444" s="47"/>
       <c r="D444" s="43"/>
@@ -17835,7 +17835,7 @@
       <c r="AJ444" s="46"/>
       <c r="AK444" s="46"/>
     </row>
-    <row r="445" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B445" s="47"/>
       <c r="C445" s="47"/>
       <c r="D445" s="43"/>
@@ -17872,7 +17872,7 @@
       <c r="AJ445" s="46"/>
       <c r="AK445" s="46"/>
     </row>
-    <row r="446" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B446" s="47"/>
       <c r="C446" s="47"/>
       <c r="D446" s="43"/>
@@ -17909,7 +17909,7 @@
       <c r="AJ446" s="46"/>
       <c r="AK446" s="46"/>
     </row>
-    <row r="447" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B447" s="47"/>
       <c r="C447" s="47"/>
       <c r="D447" s="43"/>
@@ -17946,7 +17946,7 @@
       <c r="AJ447" s="46"/>
       <c r="AK447" s="46"/>
     </row>
-    <row r="448" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B448" s="47"/>
       <c r="C448" s="47"/>
       <c r="D448" s="43"/>
@@ -17983,7 +17983,7 @@
       <c r="AJ448" s="46"/>
       <c r="AK448" s="46"/>
     </row>
-    <row r="449" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B449" s="47"/>
       <c r="C449" s="47"/>
       <c r="D449" s="43"/>
@@ -18020,7 +18020,7 @@
       <c r="AJ449" s="46"/>
       <c r="AK449" s="46"/>
     </row>
-    <row r="450" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B450" s="47"/>
       <c r="C450" s="47"/>
       <c r="D450" s="43"/>
@@ -18057,7 +18057,7 @@
       <c r="AJ450" s="46"/>
       <c r="AK450" s="46"/>
     </row>
-    <row r="451" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B451" s="47"/>
       <c r="C451" s="47"/>
       <c r="D451" s="43"/>
@@ -18094,7 +18094,7 @@
       <c r="AJ451" s="46"/>
       <c r="AK451" s="46"/>
     </row>
-    <row r="452" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B452" s="47"/>
       <c r="C452" s="47"/>
       <c r="D452" s="43"/>
@@ -18131,7 +18131,7 @@
       <c r="AJ452" s="46"/>
       <c r="AK452" s="46"/>
     </row>
-    <row r="453" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B453" s="47"/>
       <c r="C453" s="47"/>
       <c r="D453" s="43"/>
@@ -18168,7 +18168,7 @@
       <c r="AJ453" s="46"/>
       <c r="AK453" s="46"/>
     </row>
-    <row r="454" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B454" s="47"/>
       <c r="C454" s="47"/>
       <c r="D454" s="43"/>
@@ -18205,7 +18205,7 @@
       <c r="AJ454" s="46"/>
       <c r="AK454" s="46"/>
     </row>
-    <row r="455" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B455" s="47"/>
       <c r="C455" s="47"/>
       <c r="D455" s="43"/>
@@ -18242,7 +18242,7 @@
       <c r="AJ455" s="46"/>
       <c r="AK455" s="46"/>
     </row>
-    <row r="456" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B456" s="47"/>
       <c r="C456" s="47"/>
       <c r="D456" s="43"/>
@@ -18279,7 +18279,7 @@
       <c r="AJ456" s="46"/>
       <c r="AK456" s="46"/>
     </row>
-    <row r="457" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B457" s="47"/>
       <c r="C457" s="47"/>
       <c r="D457" s="43"/>
@@ -18316,7 +18316,7 @@
       <c r="AJ457" s="46"/>
       <c r="AK457" s="46"/>
     </row>
-    <row r="458" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B458" s="47"/>
       <c r="C458" s="47"/>
       <c r="D458" s="43"/>
@@ -18353,7 +18353,7 @@
       <c r="AJ458" s="46"/>
       <c r="AK458" s="46"/>
     </row>
-    <row r="459" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B459" s="47"/>
       <c r="C459" s="47"/>
       <c r="D459" s="43"/>
@@ -18390,7 +18390,7 @@
       <c r="AJ459" s="46"/>
       <c r="AK459" s="46"/>
     </row>
-    <row r="460" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B460" s="47"/>
       <c r="C460" s="47"/>
       <c r="D460" s="43"/>
@@ -18427,7 +18427,7 @@
       <c r="AJ460" s="46"/>
       <c r="AK460" s="46"/>
     </row>
-    <row r="461" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B461" s="47"/>
       <c r="C461" s="47"/>
       <c r="D461" s="43"/>
@@ -18464,7 +18464,7 @@
       <c r="AJ461" s="46"/>
       <c r="AK461" s="46"/>
     </row>
-    <row r="462" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B462" s="47"/>
       <c r="C462" s="47"/>
       <c r="D462" s="43"/>
@@ -18501,7 +18501,7 @@
       <c r="AJ462" s="46"/>
       <c r="AK462" s="46"/>
     </row>
-    <row r="463" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B463" s="47"/>
       <c r="C463" s="47"/>
       <c r="D463" s="43"/>
@@ -18538,7 +18538,7 @@
       <c r="AJ463" s="46"/>
       <c r="AK463" s="46"/>
     </row>
-    <row r="464" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B464" s="47"/>
       <c r="C464" s="47"/>
       <c r="D464" s="43"/>
@@ -18575,7 +18575,7 @@
       <c r="AJ464" s="46"/>
       <c r="AK464" s="46"/>
     </row>
-    <row r="465" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B465" s="47"/>
       <c r="C465" s="47"/>
       <c r="D465" s="43"/>
@@ -18612,7 +18612,7 @@
       <c r="AJ465" s="46"/>
       <c r="AK465" s="46"/>
     </row>
-    <row r="466" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B466" s="47"/>
       <c r="C466" s="47"/>
       <c r="D466" s="43"/>
@@ -18649,7 +18649,7 @@
       <c r="AJ466" s="46"/>
       <c r="AK466" s="46"/>
     </row>
-    <row r="467" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B467" s="47"/>
       <c r="C467" s="47"/>
       <c r="D467" s="43"/>
@@ -18686,7 +18686,7 @@
       <c r="AJ467" s="46"/>
       <c r="AK467" s="46"/>
     </row>
-    <row r="468" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B468" s="47"/>
       <c r="C468" s="47"/>
       <c r="D468" s="43"/>
@@ -18723,7 +18723,7 @@
       <c r="AJ468" s="46"/>
       <c r="AK468" s="46"/>
     </row>
-    <row r="469" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B469" s="47"/>
       <c r="C469" s="47"/>
       <c r="D469" s="43"/>
@@ -18760,7 +18760,7 @@
       <c r="AJ469" s="46"/>
       <c r="AK469" s="46"/>
     </row>
-    <row r="470" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B470" s="47"/>
       <c r="C470" s="47"/>
       <c r="D470" s="43"/>
@@ -18797,7 +18797,7 @@
       <c r="AJ470" s="46"/>
       <c r="AK470" s="46"/>
     </row>
-    <row r="471" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B471" s="47"/>
       <c r="C471" s="47"/>
       <c r="D471" s="43"/>
@@ -18834,7 +18834,7 @@
       <c r="AJ471" s="46"/>
       <c r="AK471" s="46"/>
     </row>
-    <row r="472" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B472" s="47"/>
       <c r="C472" s="47"/>
       <c r="D472" s="43"/>
@@ -18871,7 +18871,7 @@
       <c r="AJ472" s="46"/>
       <c r="AK472" s="46"/>
     </row>
-    <row r="473" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B473" s="47"/>
       <c r="C473" s="47"/>
       <c r="D473" s="43"/>
@@ -18908,7 +18908,7 @@
       <c r="AJ473" s="46"/>
       <c r="AK473" s="46"/>
     </row>
-    <row r="474" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B474" s="47"/>
       <c r="C474" s="47"/>
       <c r="D474" s="43"/>
@@ -18945,7 +18945,7 @@
       <c r="AJ474" s="46"/>
       <c r="AK474" s="46"/>
     </row>
-    <row r="475" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B475" s="47"/>
       <c r="C475" s="47"/>
       <c r="D475" s="43"/>
@@ -18982,7 +18982,7 @@
       <c r="AJ475" s="46"/>
       <c r="AK475" s="46"/>
     </row>
-    <row r="476" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B476" s="47"/>
       <c r="C476" s="47"/>
       <c r="D476" s="43"/>
@@ -19019,7 +19019,7 @@
       <c r="AJ476" s="46"/>
       <c r="AK476" s="46"/>
     </row>
-    <row r="477" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B477" s="47"/>
       <c r="C477" s="47"/>
       <c r="D477" s="43"/>
@@ -19056,7 +19056,7 @@
       <c r="AJ477" s="46"/>
       <c r="AK477" s="46"/>
     </row>
-    <row r="478" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B478" s="47"/>
       <c r="C478" s="47"/>
       <c r="D478" s="43"/>
@@ -19093,7 +19093,7 @@
       <c r="AJ478" s="46"/>
       <c r="AK478" s="46"/>
     </row>
-    <row r="479" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B479" s="47"/>
       <c r="C479" s="47"/>
       <c r="D479" s="43"/>
@@ -19130,7 +19130,7 @@
       <c r="AJ479" s="46"/>
       <c r="AK479" s="46"/>
     </row>
-    <row r="480" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B480" s="47"/>
       <c r="C480" s="47"/>
       <c r="D480" s="43"/>
@@ -19167,7 +19167,7 @@
       <c r="AJ480" s="46"/>
       <c r="AK480" s="46"/>
     </row>
-    <row r="481" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B481" s="47"/>
       <c r="C481" s="47"/>
       <c r="D481" s="43"/>
@@ -19204,7 +19204,7 @@
       <c r="AJ481" s="46"/>
       <c r="AK481" s="46"/>
     </row>
-    <row r="482" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B482" s="47"/>
       <c r="C482" s="47"/>
       <c r="D482" s="43"/>
@@ -19241,7 +19241,7 @@
       <c r="AJ482" s="46"/>
       <c r="AK482" s="46"/>
     </row>
-    <row r="483" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B483" s="47"/>
       <c r="C483" s="47"/>
       <c r="D483" s="43"/>
@@ -19278,7 +19278,7 @@
       <c r="AJ483" s="46"/>
       <c r="AK483" s="46"/>
     </row>
-    <row r="484" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B484" s="47"/>
       <c r="C484" s="47"/>
       <c r="D484" s="43"/>
@@ -19315,7 +19315,7 @@
       <c r="AJ484" s="46"/>
       <c r="AK484" s="46"/>
     </row>
-    <row r="485" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B485" s="47"/>
       <c r="C485" s="47"/>
       <c r="D485" s="43"/>
@@ -19352,7 +19352,7 @@
       <c r="AJ485" s="46"/>
       <c r="AK485" s="46"/>
     </row>
-    <row r="486" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B486" s="47"/>
       <c r="C486" s="47"/>
       <c r="D486" s="43"/>
@@ -19389,7 +19389,7 @@
       <c r="AJ486" s="46"/>
       <c r="AK486" s="46"/>
     </row>
-    <row r="487" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B487" s="47"/>
       <c r="C487" s="47"/>
       <c r="D487" s="43"/>
@@ -19426,7 +19426,7 @@
       <c r="AJ487" s="46"/>
       <c r="AK487" s="46"/>
     </row>
-    <row r="488" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B488" s="47"/>
       <c r="C488" s="47"/>
       <c r="D488" s="43"/>
@@ -19463,7 +19463,7 @@
       <c r="AJ488" s="46"/>
       <c r="AK488" s="46"/>
     </row>
-    <row r="489" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B489" s="47"/>
       <c r="C489" s="47"/>
       <c r="D489" s="43"/>
@@ -19500,7 +19500,7 @@
       <c r="AJ489" s="46"/>
       <c r="AK489" s="46"/>
     </row>
-    <row r="490" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B490" s="47"/>
       <c r="C490" s="47"/>
       <c r="D490" s="43"/>
@@ -19537,7 +19537,7 @@
       <c r="AJ490" s="46"/>
       <c r="AK490" s="46"/>
     </row>
-    <row r="491" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B491" s="47"/>
       <c r="C491" s="47"/>
       <c r="D491" s="43"/>
@@ -19574,7 +19574,7 @@
       <c r="AJ491" s="46"/>
       <c r="AK491" s="46"/>
     </row>
-    <row r="492" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B492" s="47"/>
       <c r="C492" s="47"/>
       <c r="D492" s="43"/>
@@ -19611,7 +19611,7 @@
       <c r="AJ492" s="46"/>
       <c r="AK492" s="46"/>
     </row>
-    <row r="493" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B493" s="47"/>
       <c r="C493" s="47"/>
       <c r="D493" s="43"/>
@@ -19648,7 +19648,7 @@
       <c r="AJ493" s="46"/>
       <c r="AK493" s="46"/>
     </row>
-    <row r="494" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B494" s="47"/>
       <c r="C494" s="47"/>
       <c r="D494" s="43"/>
@@ -19685,7 +19685,7 @@
       <c r="AJ494" s="46"/>
       <c r="AK494" s="46"/>
     </row>
-    <row r="495" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B495" s="47"/>
       <c r="C495" s="47"/>
       <c r="D495" s="43"/>
@@ -19722,7 +19722,7 @@
       <c r="AJ495" s="46"/>
       <c r="AK495" s="46"/>
     </row>
-    <row r="496" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B496" s="47"/>
       <c r="C496" s="47"/>
       <c r="D496" s="43"/>
@@ -19759,7 +19759,7 @@
       <c r="AJ496" s="46"/>
       <c r="AK496" s="46"/>
     </row>
-    <row r="497" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B497" s="47"/>
       <c r="C497" s="47"/>
       <c r="D497" s="43"/>
@@ -19796,7 +19796,7 @@
       <c r="AJ497" s="46"/>
       <c r="AK497" s="46"/>
     </row>
-    <row r="498" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B498" s="47"/>
       <c r="C498" s="47"/>
       <c r="D498" s="43"/>
@@ -19833,7 +19833,7 @@
       <c r="AJ498" s="46"/>
       <c r="AK498" s="46"/>
     </row>
-    <row r="499" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B499" s="47"/>
       <c r="C499" s="47"/>
       <c r="D499" s="43"/>
@@ -19870,7 +19870,7 @@
       <c r="AJ499" s="46"/>
       <c r="AK499" s="46"/>
     </row>
-    <row r="500" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B500" s="47"/>
       <c r="C500" s="47"/>
       <c r="D500" s="43"/>
@@ -19907,7 +19907,7 @@
       <c r="AJ500" s="46"/>
       <c r="AK500" s="46"/>
     </row>
-    <row r="501" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B501" s="47"/>
       <c r="C501" s="47"/>
       <c r="D501" s="43"/>
@@ -19944,7 +19944,7 @@
       <c r="AJ501" s="46"/>
       <c r="AK501" s="46"/>
     </row>
-    <row r="502" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B502" s="47"/>
       <c r="C502" s="47"/>
       <c r="D502" s="43"/>
@@ -19981,7 +19981,7 @@
       <c r="AJ502" s="46"/>
       <c r="AK502" s="46"/>
     </row>
-    <row r="503" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B503" s="47"/>
       <c r="C503" s="47"/>
       <c r="D503" s="43"/>
@@ -20018,7 +20018,7 @@
       <c r="AJ503" s="46"/>
       <c r="AK503" s="46"/>
     </row>
-    <row r="504" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B504" s="47"/>
       <c r="C504" s="47"/>
       <c r="D504" s="43"/>
@@ -20055,7 +20055,7 @@
       <c r="AJ504" s="46"/>
       <c r="AK504" s="46"/>
     </row>
-    <row r="505" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B505" s="47"/>
       <c r="C505" s="47"/>
       <c r="D505" s="43"/>
@@ -20092,7 +20092,7 @@
       <c r="AJ505" s="46"/>
       <c r="AK505" s="46"/>
     </row>
-    <row r="506" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B506" s="47"/>
       <c r="C506" s="47"/>
       <c r="D506" s="43"/>
@@ -20129,7 +20129,7 @@
       <c r="AJ506" s="46"/>
       <c r="AK506" s="46"/>
     </row>
-    <row r="507" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B507" s="47"/>
       <c r="C507" s="47"/>
       <c r="D507" s="43"/>
@@ -20166,7 +20166,7 @@
       <c r="AJ507" s="46"/>
       <c r="AK507" s="46"/>
     </row>
-    <row r="508" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B508" s="47"/>
       <c r="C508" s="47"/>
       <c r="D508" s="43"/>
@@ -20203,7 +20203,7 @@
       <c r="AJ508" s="46"/>
       <c r="AK508" s="46"/>
     </row>
-    <row r="509" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B509" s="47"/>
       <c r="C509" s="47"/>
       <c r="D509" s="43"/>
@@ -20240,7 +20240,7 @@
       <c r="AJ509" s="46"/>
       <c r="AK509" s="46"/>
     </row>
-    <row r="510" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B510" s="47"/>
       <c r="C510" s="47"/>
       <c r="D510" s="43"/>
@@ -20277,7 +20277,7 @@
       <c r="AJ510" s="46"/>
       <c r="AK510" s="46"/>
     </row>
-    <row r="511" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B511" s="47"/>
       <c r="C511" s="47"/>
       <c r="D511" s="43"/>
@@ -20314,7 +20314,7 @@
       <c r="AJ511" s="46"/>
       <c r="AK511" s="46"/>
     </row>
-    <row r="512" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B512" s="47"/>
       <c r="C512" s="47"/>
       <c r="D512" s="43"/>
@@ -20351,7 +20351,7 @@
       <c r="AJ512" s="46"/>
       <c r="AK512" s="46"/>
     </row>
-    <row r="513" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B513" s="47"/>
       <c r="C513" s="47"/>
       <c r="D513" s="43"/>
@@ -20388,7 +20388,7 @@
       <c r="AJ513" s="46"/>
       <c r="AK513" s="46"/>
     </row>
-    <row r="514" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B514" s="47"/>
       <c r="C514" s="47"/>
       <c r="D514" s="43"/>
@@ -20425,7 +20425,7 @@
       <c r="AJ514" s="46"/>
       <c r="AK514" s="46"/>
     </row>
-    <row r="515" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B515" s="47"/>
       <c r="C515" s="47"/>
       <c r="D515" s="43"/>
@@ -20462,7 +20462,7 @@
       <c r="AJ515" s="46"/>
       <c r="AK515" s="46"/>
     </row>
-    <row r="516" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B516" s="47"/>
       <c r="C516" s="47"/>
       <c r="D516" s="43"/>
@@ -20499,7 +20499,7 @@
       <c r="AJ516" s="46"/>
       <c r="AK516" s="46"/>
     </row>
-    <row r="517" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B517" s="47"/>
       <c r="C517" s="47"/>
       <c r="D517" s="43"/>
@@ -20536,7 +20536,7 @@
       <c r="AJ517" s="46"/>
       <c r="AK517" s="46"/>
     </row>
-    <row r="518" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B518" s="47"/>
       <c r="C518" s="47"/>
       <c r="D518" s="43"/>
@@ -20573,7 +20573,7 @@
       <c r="AJ518" s="46"/>
       <c r="AK518" s="46"/>
     </row>
-    <row r="519" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B519" s="47"/>
       <c r="C519" s="47"/>
       <c r="D519" s="43"/>
@@ -20610,7 +20610,7 @@
       <c r="AJ519" s="46"/>
       <c r="AK519" s="46"/>
     </row>
-    <row r="520" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B520" s="47"/>
       <c r="C520" s="47"/>
       <c r="D520" s="43"/>
@@ -20647,7 +20647,7 @@
       <c r="AJ520" s="46"/>
       <c r="AK520" s="46"/>
     </row>
-    <row r="521" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B521" s="47"/>
       <c r="C521" s="47"/>
       <c r="D521" s="43"/>
@@ -20684,7 +20684,7 @@
       <c r="AJ521" s="46"/>
       <c r="AK521" s="46"/>
     </row>
-    <row r="522" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B522" s="47"/>
       <c r="C522" s="47"/>
       <c r="D522" s="43"/>
@@ -20721,7 +20721,7 @@
       <c r="AJ522" s="46"/>
       <c r="AK522" s="46"/>
     </row>
-    <row r="523" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B523" s="47"/>
       <c r="C523" s="47"/>
       <c r="D523" s="43"/>
@@ -20758,7 +20758,7 @@
       <c r="AJ523" s="46"/>
       <c r="AK523" s="46"/>
     </row>
-    <row r="524" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B524" s="47"/>
       <c r="C524" s="47"/>
       <c r="D524" s="43"/>
@@ -20795,7 +20795,7 @@
       <c r="AJ524" s="46"/>
       <c r="AK524" s="46"/>
     </row>
-    <row r="525" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B525" s="47"/>
       <c r="C525" s="47"/>
       <c r="D525" s="43"/>
@@ -20832,7 +20832,7 @@
       <c r="AJ525" s="46"/>
       <c r="AK525" s="46"/>
     </row>
-    <row r="526" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B526" s="47"/>
       <c r="C526" s="47"/>
       <c r="D526" s="43"/>
@@ -20869,7 +20869,7 @@
       <c r="AJ526" s="46"/>
       <c r="AK526" s="46"/>
     </row>
-    <row r="527" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B527" s="47"/>
       <c r="C527" s="47"/>
       <c r="D527" s="43"/>
@@ -20906,7 +20906,7 @@
       <c r="AJ527" s="46"/>
       <c r="AK527" s="46"/>
     </row>
-    <row r="528" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B528" s="47"/>
       <c r="C528" s="47"/>
       <c r="D528" s="43"/>
@@ -20943,7 +20943,7 @@
       <c r="AJ528" s="46"/>
       <c r="AK528" s="46"/>
     </row>
-    <row r="529" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B529" s="47"/>
       <c r="C529" s="47"/>
       <c r="D529" s="43"/>
@@ -20980,7 +20980,7 @@
       <c r="AJ529" s="46"/>
       <c r="AK529" s="46"/>
     </row>
-    <row r="530" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B530" s="47"/>
       <c r="C530" s="47"/>
       <c r="D530" s="43"/>
@@ -21017,7 +21017,7 @@
       <c r="AJ530" s="46"/>
       <c r="AK530" s="46"/>
     </row>
-    <row r="531" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B531" s="47"/>
       <c r="C531" s="47"/>
       <c r="D531" s="43"/>
@@ -21054,7 +21054,7 @@
       <c r="AJ531" s="46"/>
       <c r="AK531" s="46"/>
     </row>
-    <row r="532" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B532" s="47"/>
       <c r="C532" s="47"/>
       <c r="D532" s="43"/>
@@ -21091,7 +21091,7 @@
       <c r="AJ532" s="46"/>
       <c r="AK532" s="46"/>
     </row>
-    <row r="533" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B533" s="47"/>
       <c r="C533" s="47"/>
       <c r="D533" s="43"/>
@@ -21128,7 +21128,7 @@
       <c r="AJ533" s="46"/>
       <c r="AK533" s="46"/>
     </row>
-    <row r="534" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B534" s="47"/>
       <c r="C534" s="47"/>
       <c r="D534" s="43"/>
@@ -21165,7 +21165,7 @@
       <c r="AJ534" s="46"/>
       <c r="AK534" s="46"/>
     </row>
-    <row r="535" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B535" s="47"/>
       <c r="C535" s="47"/>
       <c r="D535" s="43"/>
@@ -21202,7 +21202,7 @@
       <c r="AJ535" s="46"/>
       <c r="AK535" s="46"/>
     </row>
-    <row r="536" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B536" s="47"/>
       <c r="C536" s="47"/>
       <c r="D536" s="43"/>
@@ -21239,7 +21239,7 @@
       <c r="AJ536" s="46"/>
       <c r="AK536" s="46"/>
     </row>
-    <row r="537" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B537" s="47"/>
       <c r="C537" s="47"/>
       <c r="D537" s="43"/>
@@ -21276,7 +21276,7 @@
       <c r="AJ537" s="46"/>
       <c r="AK537" s="46"/>
     </row>
-    <row r="538" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B538" s="47"/>
       <c r="C538" s="47"/>
       <c r="D538" s="43"/>
@@ -21313,7 +21313,7 @@
       <c r="AJ538" s="46"/>
       <c r="AK538" s="46"/>
     </row>
-    <row r="539" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B539" s="47"/>
       <c r="C539" s="47"/>
       <c r="D539" s="43"/>
@@ -21350,7 +21350,7 @@
       <c r="AJ539" s="46"/>
       <c r="AK539" s="46"/>
     </row>
-    <row r="540" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B540" s="47"/>
       <c r="C540" s="47"/>
       <c r="D540" s="43"/>
@@ -21387,7 +21387,7 @@
       <c r="AJ540" s="46"/>
       <c r="AK540" s="46"/>
     </row>
-    <row r="541" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B541" s="47"/>
       <c r="C541" s="47"/>
       <c r="D541" s="43"/>
@@ -21424,7 +21424,7 @@
       <c r="AJ541" s="46"/>
       <c r="AK541" s="46"/>
     </row>
-    <row r="542" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B542" s="47"/>
       <c r="C542" s="47"/>
       <c r="D542" s="43"/>
@@ -21461,7 +21461,7 @@
       <c r="AJ542" s="46"/>
       <c r="AK542" s="46"/>
     </row>
-    <row r="543" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B543" s="47"/>
       <c r="C543" s="47"/>
       <c r="D543" s="43"/>
@@ -21498,7 +21498,7 @@
       <c r="AJ543" s="46"/>
       <c r="AK543" s="46"/>
     </row>
-    <row r="544" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B544" s="47"/>
       <c r="C544" s="47"/>
       <c r="D544" s="43"/>
@@ -21535,7 +21535,7 @@
       <c r="AJ544" s="46"/>
       <c r="AK544" s="46"/>
     </row>
-    <row r="545" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B545" s="47"/>
       <c r="C545" s="47"/>
       <c r="D545" s="43"/>
@@ -21572,7 +21572,7 @@
       <c r="AJ545" s="46"/>
       <c r="AK545" s="46"/>
     </row>
-    <row r="546" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B546" s="47"/>
       <c r="C546" s="47"/>
       <c r="D546" s="43"/>
@@ -21609,7 +21609,7 @@
       <c r="AJ546" s="46"/>
       <c r="AK546" s="46"/>
     </row>
-    <row r="547" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B547" s="47"/>
       <c r="C547" s="47"/>
       <c r="D547" s="43"/>
@@ -21646,7 +21646,7 @@
       <c r="AJ547" s="46"/>
       <c r="AK547" s="46"/>
     </row>
-    <row r="548" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B548" s="47"/>
       <c r="C548" s="47"/>
       <c r="D548" s="43"/>
@@ -21683,7 +21683,7 @@
       <c r="AJ548" s="46"/>
       <c r="AK548" s="46"/>
     </row>
-    <row r="549" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B549" s="47"/>
       <c r="C549" s="47"/>
       <c r="D549" s="43"/>
@@ -21720,7 +21720,7 @@
       <c r="AJ549" s="46"/>
       <c r="AK549" s="46"/>
     </row>
-    <row r="550" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B550" s="47"/>
       <c r="C550" s="47"/>
       <c r="D550" s="43"/>
@@ -21757,7 +21757,7 @@
       <c r="AJ550" s="46"/>
       <c r="AK550" s="46"/>
     </row>
-    <row r="551" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B551" s="47"/>
       <c r="C551" s="47"/>
       <c r="D551" s="43"/>
@@ -21794,7 +21794,7 @@
       <c r="AJ551" s="46"/>
       <c r="AK551" s="46"/>
     </row>
-    <row r="552" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B552" s="47"/>
       <c r="C552" s="47"/>
       <c r="D552" s="43"/>
@@ -21831,7 +21831,7 @@
       <c r="AJ552" s="46"/>
       <c r="AK552" s="46"/>
     </row>
-    <row r="553" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B553" s="47"/>
       <c r="C553" s="47"/>
       <c r="D553" s="43"/>
@@ -21868,7 +21868,7 @@
       <c r="AJ553" s="46"/>
       <c r="AK553" s="46"/>
     </row>
-    <row r="554" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B554" s="47"/>
       <c r="C554" s="47"/>
       <c r="D554" s="43"/>
@@ -21905,7 +21905,7 @@
       <c r="AJ554" s="46"/>
       <c r="AK554" s="46"/>
     </row>
-    <row r="555" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B555" s="47"/>
       <c r="C555" s="47"/>
       <c r="D555" s="43"/>
@@ -21942,7 +21942,7 @@
       <c r="AJ555" s="46"/>
       <c r="AK555" s="46"/>
     </row>
-    <row r="556" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B556" s="47"/>
       <c r="C556" s="47"/>
       <c r="D556" s="43"/>
@@ -21979,7 +21979,7 @@
       <c r="AJ556" s="46"/>
       <c r="AK556" s="46"/>
     </row>
-    <row r="557" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B557" s="47"/>
       <c r="C557" s="47"/>
       <c r="D557" s="43"/>
@@ -22016,7 +22016,7 @@
       <c r="AJ557" s="46"/>
       <c r="AK557" s="46"/>
     </row>
-    <row r="558" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B558" s="47"/>
       <c r="C558" s="47"/>
       <c r="D558" s="43"/>
@@ -22053,7 +22053,7 @@
       <c r="AJ558" s="46"/>
       <c r="AK558" s="46"/>
     </row>
-    <row r="559" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B559" s="47"/>
       <c r="C559" s="47"/>
       <c r="D559" s="43"/>
@@ -22090,7 +22090,7 @@
       <c r="AJ559" s="46"/>
       <c r="AK559" s="46"/>
     </row>
-    <row r="560" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B560" s="47"/>
       <c r="C560" s="47"/>
       <c r="D560" s="43"/>
@@ -22127,7 +22127,7 @@
       <c r="AJ560" s="46"/>
       <c r="AK560" s="46"/>
     </row>
-    <row r="561" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B561" s="47"/>
       <c r="C561" s="47"/>
       <c r="D561" s="43"/>
@@ -22164,7 +22164,7 @@
       <c r="AJ561" s="46"/>
       <c r="AK561" s="46"/>
     </row>
-    <row r="562" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B562" s="47"/>
       <c r="C562" s="47"/>
       <c r="D562" s="43"/>
@@ -22201,7 +22201,7 @@
       <c r="AJ562" s="46"/>
       <c r="AK562" s="46"/>
     </row>
-    <row r="563" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B563" s="47"/>
       <c r="C563" s="47"/>
       <c r="D563" s="43"/>
@@ -22238,7 +22238,7 @@
       <c r="AJ563" s="46"/>
       <c r="AK563" s="46"/>
     </row>
-    <row r="564" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B564" s="47"/>
       <c r="C564" s="47"/>
       <c r="D564" s="43"/>
@@ -22275,7 +22275,7 @@
       <c r="AJ564" s="46"/>
       <c r="AK564" s="46"/>
     </row>
-    <row r="565" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B565" s="47"/>
       <c r="C565" s="47"/>
       <c r="D565" s="43"/>
@@ -22312,7 +22312,7 @@
       <c r="AJ565" s="46"/>
       <c r="AK565" s="46"/>
     </row>
-    <row r="566" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B566" s="47"/>
       <c r="C566" s="47"/>
       <c r="D566" s="43"/>
@@ -22349,7 +22349,7 @@
       <c r="AJ566" s="46"/>
       <c r="AK566" s="46"/>
     </row>
-    <row r="567" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B567" s="47"/>
       <c r="C567" s="47"/>
       <c r="D567" s="43"/>
@@ -22386,7 +22386,7 @@
       <c r="AJ567" s="46"/>
       <c r="AK567" s="46"/>
     </row>
-    <row r="568" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B568" s="47"/>
       <c r="C568" s="47"/>
       <c r="D568" s="43"/>
@@ -22423,7 +22423,7 @@
       <c r="AJ568" s="46"/>
       <c r="AK568" s="46"/>
     </row>
-    <row r="569" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B569" s="47"/>
       <c r="C569" s="47"/>
       <c r="D569" s="43"/>
@@ -22460,7 +22460,7 @@
       <c r="AJ569" s="46"/>
       <c r="AK569" s="46"/>
     </row>
-    <row r="570" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B570" s="47"/>
       <c r="C570" s="47"/>
       <c r="D570" s="43"/>
@@ -22497,7 +22497,7 @@
       <c r="AJ570" s="46"/>
       <c r="AK570" s="46"/>
     </row>
-    <row r="571" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B571" s="47"/>
       <c r="C571" s="47"/>
       <c r="D571" s="43"/>
@@ -22534,7 +22534,7 @@
       <c r="AJ571" s="46"/>
       <c r="AK571" s="46"/>
     </row>
-    <row r="572" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B572" s="47"/>
       <c r="C572" s="47"/>
       <c r="D572" s="43"/>
@@ -22571,7 +22571,7 @@
       <c r="AJ572" s="46"/>
       <c r="AK572" s="46"/>
     </row>
-    <row r="573" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B573" s="47"/>
       <c r="C573" s="47"/>
       <c r="D573" s="43"/>
@@ -22608,7 +22608,7 @@
       <c r="AJ573" s="46"/>
       <c r="AK573" s="46"/>
     </row>
-    <row r="574" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B574" s="47"/>
       <c r="C574" s="47"/>
       <c r="D574" s="43"/>
@@ -22645,7 +22645,7 @@
       <c r="AJ574" s="46"/>
       <c r="AK574" s="46"/>
     </row>
-    <row r="575" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B575" s="47"/>
       <c r="C575" s="47"/>
       <c r="D575" s="43"/>
@@ -22682,7 +22682,7 @@
       <c r="AJ575" s="46"/>
       <c r="AK575" s="46"/>
     </row>
-    <row r="576" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B576" s="47"/>
       <c r="C576" s="47"/>
       <c r="D576" s="43"/>
@@ -22719,7 +22719,7 @@
       <c r="AJ576" s="46"/>
       <c r="AK576" s="46"/>
     </row>
-    <row r="577" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B577" s="47"/>
       <c r="C577" s="47"/>
       <c r="D577" s="43"/>
@@ -22756,7 +22756,7 @@
       <c r="AJ577" s="46"/>
       <c r="AK577" s="46"/>
     </row>
-    <row r="578" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B578" s="47"/>
       <c r="C578" s="47"/>
       <c r="D578" s="43"/>
@@ -22793,7 +22793,7 @@
       <c r="AJ578" s="46"/>
       <c r="AK578" s="46"/>
     </row>
-    <row r="579" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B579" s="47"/>
       <c r="C579" s="47"/>
       <c r="D579" s="43"/>
@@ -22830,7 +22830,7 @@
       <c r="AJ579" s="46"/>
       <c r="AK579" s="46"/>
     </row>
-    <row r="580" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B580" s="47"/>
       <c r="C580" s="47"/>
       <c r="D580" s="43"/>
@@ -22867,7 +22867,7 @@
       <c r="AJ580" s="46"/>
       <c r="AK580" s="46"/>
     </row>
-    <row r="581" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B581" s="47"/>
       <c r="C581" s="47"/>
       <c r="D581" s="43"/>
@@ -22904,7 +22904,7 @@
       <c r="AJ581" s="46"/>
       <c r="AK581" s="46"/>
     </row>
-    <row r="582" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B582" s="47"/>
       <c r="C582" s="47"/>
       <c r="D582" s="43"/>
@@ -22941,7 +22941,7 @@
       <c r="AJ582" s="46"/>
       <c r="AK582" s="46"/>
     </row>
-    <row r="583" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B583" s="47"/>
       <c r="C583" s="47"/>
       <c r="D583" s="43"/>
@@ -22978,7 +22978,7 @@
       <c r="AJ583" s="46"/>
       <c r="AK583" s="46"/>
     </row>
-    <row r="584" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B584" s="47"/>
       <c r="C584" s="47"/>
       <c r="D584" s="43"/>
@@ -23015,7 +23015,7 @@
       <c r="AJ584" s="46"/>
       <c r="AK584" s="46"/>
     </row>
-    <row r="585" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B585" s="47"/>
       <c r="C585" s="47"/>
       <c r="D585" s="43"/>
@@ -23052,7 +23052,7 @@
       <c r="AJ585" s="46"/>
       <c r="AK585" s="46"/>
     </row>
-    <row r="586" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B586" s="47"/>
       <c r="C586" s="47"/>
       <c r="D586" s="43"/>
@@ -23089,7 +23089,7 @@
       <c r="AJ586" s="46"/>
       <c r="AK586" s="46"/>
     </row>
-    <row r="587" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B587" s="47"/>
       <c r="C587" s="47"/>
       <c r="D587" s="43"/>
@@ -23126,7 +23126,7 @@
       <c r="AJ587" s="46"/>
       <c r="AK587" s="46"/>
     </row>
-    <row r="588" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B588" s="47"/>
       <c r="C588" s="47"/>
       <c r="D588" s="43"/>
@@ -23163,7 +23163,7 @@
       <c r="AJ588" s="46"/>
       <c r="AK588" s="46"/>
     </row>
-    <row r="589" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B589" s="47"/>
       <c r="C589" s="47"/>
       <c r="D589" s="43"/>
@@ -23200,7 +23200,7 @@
       <c r="AJ589" s="46"/>
       <c r="AK589" s="46"/>
     </row>
-    <row r="590" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B590" s="47"/>
       <c r="C590" s="47"/>
       <c r="D590" s="43"/>
@@ -23237,7 +23237,7 @@
       <c r="AJ590" s="46"/>
       <c r="AK590" s="46"/>
     </row>
-    <row r="591" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B591" s="47"/>
       <c r="C591" s="47"/>
       <c r="D591" s="43"/>
@@ -23274,7 +23274,7 @@
       <c r="AJ591" s="46"/>
       <c r="AK591" s="46"/>
     </row>
-    <row r="592" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B592" s="47"/>
       <c r="C592" s="47"/>
       <c r="D592" s="43"/>
@@ -23311,7 +23311,7 @@
       <c r="AJ592" s="46"/>
       <c r="AK592" s="46"/>
     </row>
-    <row r="593" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B593" s="47"/>
       <c r="C593" s="47"/>
       <c r="D593" s="43"/>
@@ -23348,7 +23348,7 @@
       <c r="AJ593" s="46"/>
       <c r="AK593" s="46"/>
     </row>
-    <row r="594" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B594" s="47"/>
       <c r="C594" s="47"/>
       <c r="D594" s="43"/>
@@ -23385,7 +23385,7 @@
       <c r="AJ594" s="46"/>
       <c r="AK594" s="46"/>
     </row>
-    <row r="595" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B595" s="47"/>
       <c r="C595" s="47"/>
       <c r="D595" s="43"/>
@@ -23422,7 +23422,7 @@
       <c r="AJ595" s="46"/>
       <c r="AK595" s="46"/>
     </row>
-    <row r="596" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B596" s="47"/>
       <c r="C596" s="47"/>
       <c r="D596" s="43"/>
@@ -23459,7 +23459,7 @@
       <c r="AJ596" s="46"/>
       <c r="AK596" s="46"/>
     </row>
-    <row r="597" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B597" s="47"/>
       <c r="C597" s="47"/>
       <c r="D597" s="43"/>
@@ -23496,7 +23496,7 @@
       <c r="AJ597" s="46"/>
       <c r="AK597" s="46"/>
     </row>
-    <row r="598" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B598" s="47"/>
       <c r="C598" s="47"/>
       <c r="D598" s="43"/>
@@ -23533,7 +23533,7 @@
       <c r="AJ598" s="46"/>
       <c r="AK598" s="46"/>
     </row>
-    <row r="599" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B599" s="47"/>
       <c r="C599" s="47"/>
       <c r="D599" s="43"/>
@@ -23570,7 +23570,7 @@
       <c r="AJ599" s="46"/>
       <c r="AK599" s="46"/>
     </row>
-    <row r="600" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B600" s="47"/>
       <c r="C600" s="47"/>
       <c r="D600" s="43"/>
@@ -23607,7 +23607,7 @@
       <c r="AJ600" s="46"/>
       <c r="AK600" s="46"/>
     </row>
-    <row r="601" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B601" s="47"/>
       <c r="C601" s="47"/>
       <c r="D601" s="43"/>
@@ -23644,7 +23644,7 @@
       <c r="AJ601" s="46"/>
       <c r="AK601" s="46"/>
     </row>
-    <row r="602" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B602" s="47"/>
       <c r="C602" s="47"/>
       <c r="D602" s="43"/>
@@ -23681,7 +23681,7 @@
       <c r="AJ602" s="46"/>
       <c r="AK602" s="46"/>
     </row>
-    <row r="603" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B603" s="47"/>
       <c r="C603" s="47"/>
       <c r="D603" s="43"/>
@@ -23718,7 +23718,7 @@
       <c r="AJ603" s="46"/>
       <c r="AK603" s="46"/>
     </row>
-    <row r="604" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B604" s="47"/>
       <c r="C604" s="47"/>
       <c r="D604" s="43"/>
@@ -23755,7 +23755,7 @@
       <c r="AJ604" s="46"/>
       <c r="AK604" s="46"/>
     </row>
-    <row r="605" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B605" s="47"/>
       <c r="C605" s="47"/>
       <c r="D605" s="43"/>
@@ -23792,7 +23792,7 @@
       <c r="AJ605" s="46"/>
       <c r="AK605" s="46"/>
     </row>
-    <row r="606" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B606" s="47"/>
       <c r="C606" s="47"/>
       <c r="D606" s="43"/>
@@ -23829,7 +23829,7 @@
       <c r="AJ606" s="46"/>
       <c r="AK606" s="46"/>
     </row>
-    <row r="607" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B607" s="47"/>
       <c r="C607" s="47"/>
       <c r="D607" s="43"/>
@@ -23866,7 +23866,7 @@
       <c r="AJ607" s="46"/>
       <c r="AK607" s="46"/>
     </row>
-    <row r="608" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B608" s="47"/>
       <c r="C608" s="47"/>
       <c r="D608" s="43"/>
@@ -23903,7 +23903,7 @@
       <c r="AJ608" s="46"/>
       <c r="AK608" s="46"/>
     </row>
-    <row r="609" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B609" s="47"/>
       <c r="C609" s="47"/>
       <c r="D609" s="43"/>
@@ -23940,7 +23940,7 @@
       <c r="AJ609" s="46"/>
       <c r="AK609" s="46"/>
     </row>
-    <row r="610" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B610" s="47"/>
       <c r="C610" s="47"/>
       <c r="D610" s="43"/>
@@ -23977,7 +23977,7 @@
       <c r="AJ610" s="46"/>
       <c r="AK610" s="46"/>
     </row>
-    <row r="611" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B611" s="47"/>
       <c r="C611" s="47"/>
       <c r="D611" s="43"/>
@@ -24014,7 +24014,7 @@
       <c r="AJ611" s="46"/>
       <c r="AK611" s="46"/>
     </row>
-    <row r="612" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B612" s="47"/>
       <c r="C612" s="47"/>
       <c r="D612" s="43"/>
@@ -24051,7 +24051,7 @@
       <c r="AJ612" s="46"/>
       <c r="AK612" s="46"/>
     </row>
-    <row r="613" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B613" s="47"/>
       <c r="C613" s="47"/>
       <c r="D613" s="43"/>
@@ -24088,7 +24088,7 @@
       <c r="AJ613" s="46"/>
       <c r="AK613" s="46"/>
     </row>
-    <row r="614" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B614" s="47"/>
       <c r="C614" s="47"/>
       <c r="D614" s="43"/>
@@ -24125,7 +24125,7 @@
       <c r="AJ614" s="46"/>
       <c r="AK614" s="46"/>
     </row>
-    <row r="615" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B615" s="47"/>
       <c r="C615" s="47"/>
       <c r="D615" s="43"/>
@@ -24162,7 +24162,7 @@
       <c r="AJ615" s="46"/>
       <c r="AK615" s="46"/>
     </row>
-    <row r="616" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B616" s="47"/>
       <c r="C616" s="47"/>
       <c r="D616" s="43"/>
@@ -24199,7 +24199,7 @@
       <c r="AJ616" s="46"/>
       <c r="AK616" s="46"/>
     </row>
-    <row r="617" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B617" s="47"/>
       <c r="C617" s="47"/>
       <c r="D617" s="43"/>
@@ -24236,7 +24236,7 @@
       <c r="AJ617" s="46"/>
       <c r="AK617" s="46"/>
     </row>
-    <row r="618" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B618" s="47"/>
       <c r="C618" s="47"/>
       <c r="D618" s="43"/>
@@ -24273,7 +24273,7 @@
       <c r="AJ618" s="46"/>
       <c r="AK618" s="46"/>
     </row>
-    <row r="619" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B619" s="47"/>
       <c r="C619" s="47"/>
       <c r="D619" s="43"/>
@@ -24310,7 +24310,7 @@
       <c r="AJ619" s="46"/>
       <c r="AK619" s="46"/>
     </row>
-    <row r="620" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B620" s="47"/>
       <c r="C620" s="47"/>
       <c r="D620" s="43"/>
@@ -24347,7 +24347,7 @@
       <c r="AJ620" s="46"/>
       <c r="AK620" s="46"/>
     </row>
-    <row r="621" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B621" s="47"/>
       <c r="C621" s="47"/>
       <c r="D621" s="43"/>
@@ -24384,7 +24384,7 @@
       <c r="AJ621" s="46"/>
       <c r="AK621" s="46"/>
     </row>
-    <row r="622" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B622" s="47"/>
       <c r="C622" s="47"/>
       <c r="D622" s="43"/>
@@ -24421,7 +24421,7 @@
       <c r="AJ622" s="46"/>
       <c r="AK622" s="46"/>
     </row>
-    <row r="623" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B623" s="47"/>
       <c r="C623" s="47"/>
       <c r="D623" s="43"/>
@@ -24458,7 +24458,7 @@
       <c r="AJ623" s="46"/>
       <c r="AK623" s="46"/>
     </row>
-    <row r="624" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B624" s="47"/>
       <c r="C624" s="47"/>
       <c r="D624" s="43"/>
@@ -24495,7 +24495,7 @@
       <c r="AJ624" s="46"/>
       <c r="AK624" s="46"/>
     </row>
-    <row r="625" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B625" s="47"/>
       <c r="C625" s="47"/>
       <c r="D625" s="43"/>
@@ -24532,7 +24532,7 @@
       <c r="AJ625" s="46"/>
       <c r="AK625" s="46"/>
     </row>
-    <row r="626" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B626" s="47"/>
       <c r="C626" s="47"/>
       <c r="D626" s="43"/>
@@ -24569,7 +24569,7 @@
       <c r="AJ626" s="46"/>
       <c r="AK626" s="46"/>
     </row>
-    <row r="627" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B627" s="47"/>
       <c r="C627" s="47"/>
       <c r="D627" s="43"/>
@@ -24606,7 +24606,7 @@
       <c r="AJ627" s="46"/>
       <c r="AK627" s="46"/>
     </row>
-    <row r="628" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B628" s="47"/>
       <c r="C628" s="47"/>
       <c r="D628" s="43"/>
@@ -24643,7 +24643,7 @@
       <c r="AJ628" s="46"/>
       <c r="AK628" s="46"/>
     </row>
-    <row r="629" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B629" s="47"/>
       <c r="C629" s="47"/>
       <c r="D629" s="43"/>
@@ -24680,7 +24680,7 @@
       <c r="AJ629" s="46"/>
       <c r="AK629" s="46"/>
     </row>
-    <row r="630" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B630" s="47"/>
       <c r="C630" s="47"/>
       <c r="D630" s="43"/>
@@ -24717,7 +24717,7 @@
       <c r="AJ630" s="46"/>
       <c r="AK630" s="46"/>
     </row>
-    <row r="631" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B631" s="47"/>
       <c r="C631" s="47"/>
       <c r="D631" s="43"/>
@@ -24754,7 +24754,7 @@
       <c r="AJ631" s="46"/>
       <c r="AK631" s="46"/>
     </row>
-    <row r="632" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B632" s="47"/>
       <c r="C632" s="47"/>
       <c r="D632" s="43"/>
@@ -24791,7 +24791,7 @@
       <c r="AJ632" s="46"/>
       <c r="AK632" s="46"/>
     </row>
-    <row r="633" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B633" s="47"/>
       <c r="C633" s="47"/>
       <c r="D633" s="43"/>
@@ -24828,7 +24828,7 @@
       <c r="AJ633" s="46"/>
       <c r="AK633" s="46"/>
     </row>
-    <row r="634" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B634" s="47"/>
       <c r="C634" s="47"/>
       <c r="D634" s="43"/>
@@ -24865,7 +24865,7 @@
       <c r="AJ634" s="46"/>
       <c r="AK634" s="46"/>
     </row>
-    <row r="635" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B635" s="47"/>
       <c r="C635" s="47"/>
       <c r="D635" s="43"/>
@@ -24902,7 +24902,7 @@
       <c r="AJ635" s="46"/>
       <c r="AK635" s="46"/>
     </row>
-    <row r="636" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B636" s="47"/>
       <c r="C636" s="47"/>
       <c r="D636" s="43"/>
@@ -24939,7 +24939,7 @@
       <c r="AJ636" s="46"/>
       <c r="AK636" s="46"/>
     </row>
-    <row r="637" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B637" s="47"/>
       <c r="C637" s="47"/>
       <c r="D637" s="43"/>
@@ -24976,7 +24976,7 @@
       <c r="AJ637" s="46"/>
       <c r="AK637" s="46"/>
     </row>
-    <row r="638" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B638" s="47"/>
       <c r="C638" s="47"/>
       <c r="D638" s="43"/>
@@ -25013,7 +25013,7 @@
       <c r="AJ638" s="46"/>
       <c r="AK638" s="46"/>
     </row>
-    <row r="639" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B639" s="47"/>
       <c r="C639" s="47"/>
       <c r="D639" s="43"/>
@@ -25050,7 +25050,7 @@
       <c r="AJ639" s="46"/>
       <c r="AK639" s="46"/>
     </row>
-    <row r="640" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B640" s="47"/>
       <c r="C640" s="47"/>
       <c r="D640" s="43"/>
@@ -25087,7 +25087,7 @@
       <c r="AJ640" s="46"/>
       <c r="AK640" s="46"/>
     </row>
-    <row r="641" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B641" s="47"/>
       <c r="C641" s="47"/>
       <c r="D641" s="43"/>
@@ -25124,7 +25124,7 @@
       <c r="AJ641" s="46"/>
       <c r="AK641" s="46"/>
     </row>
-    <row r="642" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B642" s="47"/>
       <c r="C642" s="47"/>
       <c r="D642" s="43"/>
@@ -25161,7 +25161,7 @@
       <c r="AJ642" s="46"/>
       <c r="AK642" s="46"/>
     </row>
-    <row r="643" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B643" s="47"/>
       <c r="C643" s="47"/>
       <c r="D643" s="43"/>
@@ -25198,7 +25198,7 @@
       <c r="AJ643" s="46"/>
       <c r="AK643" s="46"/>
     </row>
-    <row r="644" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B644" s="47"/>
       <c r="C644" s="47"/>
       <c r="D644" s="43"/>
@@ -25235,7 +25235,7 @@
       <c r="AJ644" s="46"/>
       <c r="AK644" s="46"/>
     </row>
-    <row r="645" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B645" s="47"/>
       <c r="C645" s="47"/>
       <c r="D645" s="43"/>
@@ -25272,7 +25272,7 @@
       <c r="AJ645" s="46"/>
       <c r="AK645" s="46"/>
     </row>
-    <row r="646" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B646" s="47"/>
       <c r="C646" s="47"/>
       <c r="D646" s="43"/>
@@ -25309,7 +25309,7 @@
       <c r="AJ646" s="46"/>
       <c r="AK646" s="46"/>
     </row>
-    <row r="647" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B647" s="47"/>
       <c r="C647" s="47"/>
       <c r="D647" s="43"/>
@@ -25346,7 +25346,7 @@
       <c r="AJ647" s="46"/>
       <c r="AK647" s="46"/>
     </row>
-    <row r="648" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B648" s="47"/>
       <c r="C648" s="47"/>
       <c r="D648" s="43"/>
@@ -25383,7 +25383,7 @@
       <c r="AJ648" s="46"/>
       <c r="AK648" s="46"/>
     </row>
-    <row r="649" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B649" s="47"/>
       <c r="C649" s="47"/>
       <c r="D649" s="43"/>
@@ -25420,7 +25420,7 @@
       <c r="AJ649" s="46"/>
       <c r="AK649" s="46"/>
     </row>
-    <row r="650" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B650" s="47"/>
       <c r="C650" s="47"/>
       <c r="D650" s="43"/>
@@ -25457,7 +25457,7 @@
       <c r="AJ650" s="46"/>
       <c r="AK650" s="46"/>
     </row>
-    <row r="651" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B651" s="47"/>
       <c r="C651" s="47"/>
       <c r="D651" s="43"/>
@@ -25494,7 +25494,7 @@
       <c r="AJ651" s="46"/>
       <c r="AK651" s="46"/>
     </row>
-    <row r="652" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B652" s="47"/>
       <c r="C652" s="47"/>
       <c r="D652" s="43"/>
@@ -25531,7 +25531,7 @@
       <c r="AJ652" s="46"/>
       <c r="AK652" s="46"/>
     </row>
-    <row r="653" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B653" s="47"/>
       <c r="C653" s="47"/>
       <c r="D653" s="43"/>
@@ -25568,7 +25568,7 @@
       <c r="AJ653" s="46"/>
       <c r="AK653" s="46"/>
     </row>
-    <row r="654" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B654" s="47"/>
       <c r="C654" s="47"/>
       <c r="D654" s="43"/>
@@ -25605,7 +25605,7 @@
       <c r="AJ654" s="46"/>
       <c r="AK654" s="46"/>
     </row>
-    <row r="655" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B655" s="47"/>
       <c r="C655" s="47"/>
       <c r="D655" s="43"/>
@@ -25642,7 +25642,7 @@
       <c r="AJ655" s="46"/>
       <c r="AK655" s="46"/>
     </row>
-    <row r="656" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B656" s="47"/>
       <c r="C656" s="47"/>
       <c r="D656" s="43"/>
@@ -25679,7 +25679,7 @@
       <c r="AJ656" s="46"/>
       <c r="AK656" s="46"/>
     </row>
-    <row r="657" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B657" s="47"/>
       <c r="C657" s="47"/>
       <c r="D657" s="43"/>
@@ -25716,7 +25716,7 @@
       <c r="AJ657" s="46"/>
       <c r="AK657" s="46"/>
     </row>
-    <row r="658" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B658" s="47"/>
       <c r="C658" s="47"/>
       <c r="D658" s="43"/>
@@ -25753,7 +25753,7 @@
       <c r="AJ658" s="46"/>
       <c r="AK658" s="46"/>
     </row>
-    <row r="659" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B659" s="47"/>
       <c r="C659" s="47"/>
       <c r="D659" s="43"/>
@@ -25790,7 +25790,7 @@
       <c r="AJ659" s="46"/>
       <c r="AK659" s="46"/>
     </row>
-    <row r="660" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B660" s="47"/>
       <c r="C660" s="47"/>
       <c r="D660" s="43"/>
@@ -25827,7 +25827,7 @@
       <c r="AJ660" s="46"/>
       <c r="AK660" s="46"/>
     </row>
-    <row r="661" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B661" s="47"/>
       <c r="C661" s="47"/>
       <c r="D661" s="43"/>
@@ -25864,7 +25864,7 @@
       <c r="AJ661" s="46"/>
       <c r="AK661" s="46"/>
     </row>
-    <row r="662" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B662" s="47"/>
       <c r="C662" s="47"/>
       <c r="D662" s="43"/>
@@ -25901,7 +25901,7 @@
       <c r="AJ662" s="46"/>
       <c r="AK662" s="46"/>
     </row>
-    <row r="663" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B663" s="47"/>
       <c r="C663" s="47"/>
       <c r="D663" s="43"/>
@@ -25938,7 +25938,7 @@
       <c r="AJ663" s="46"/>
       <c r="AK663" s="46"/>
     </row>
-    <row r="664" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B664" s="47"/>
       <c r="C664" s="47"/>
       <c r="D664" s="43"/>
@@ -25975,7 +25975,7 @@
       <c r="AJ664" s="46"/>
       <c r="AK664" s="46"/>
     </row>
-    <row r="665" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B665" s="47"/>
       <c r="C665" s="47"/>
       <c r="D665" s="43"/>
@@ -26012,7 +26012,7 @@
       <c r="AJ665" s="46"/>
       <c r="AK665" s="46"/>
     </row>
-    <row r="666" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B666" s="47"/>
       <c r="C666" s="47"/>
       <c r="D666" s="43"/>
@@ -26049,7 +26049,7 @@
       <c r="AJ666" s="46"/>
       <c r="AK666" s="46"/>
     </row>
-    <row r="667" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B667" s="47"/>
       <c r="C667" s="47"/>
       <c r="D667" s="43"/>
@@ -26086,7 +26086,7 @@
       <c r="AJ667" s="46"/>
       <c r="AK667" s="46"/>
     </row>
-    <row r="668" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B668" s="47"/>
       <c r="C668" s="47"/>
       <c r="D668" s="43"/>
@@ -26123,7 +26123,7 @@
       <c r="AJ668" s="46"/>
       <c r="AK668" s="46"/>
     </row>
-    <row r="669" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="47"/>
       <c r="C669" s="47"/>
       <c r="D669" s="43"/>
@@ -26160,7 +26160,7 @@
       <c r="AJ669" s="46"/>
       <c r="AK669" s="46"/>
     </row>
-    <row r="670" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B670" s="47"/>
       <c r="C670" s="47"/>
       <c r="D670" s="43"/>
@@ -26197,7 +26197,7 @@
       <c r="AJ670" s="46"/>
       <c r="AK670" s="46"/>
     </row>
-    <row r="671" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B671" s="47"/>
       <c r="C671" s="47"/>
       <c r="D671" s="43"/>
@@ -26234,7 +26234,7 @@
       <c r="AJ671" s="46"/>
       <c r="AK671" s="46"/>
     </row>
-    <row r="672" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B672" s="47"/>
       <c r="C672" s="47"/>
       <c r="D672" s="43"/>
@@ -26271,7 +26271,7 @@
       <c r="AJ672" s="46"/>
       <c r="AK672" s="46"/>
     </row>
-    <row r="673" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B673" s="47"/>
       <c r="C673" s="47"/>
       <c r="D673" s="43"/>
@@ -26308,7 +26308,7 @@
       <c r="AJ673" s="46"/>
       <c r="AK673" s="46"/>
     </row>
-    <row r="674" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B674" s="47"/>
       <c r="C674" s="47"/>
       <c r="D674" s="43"/>
@@ -26345,7 +26345,7 @@
       <c r="AJ674" s="46"/>
       <c r="AK674" s="46"/>
     </row>
-    <row r="675" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B675" s="47"/>
       <c r="C675" s="47"/>
       <c r="D675" s="43"/>
@@ -26382,7 +26382,7 @@
       <c r="AJ675" s="46"/>
       <c r="AK675" s="46"/>
     </row>
-    <row r="676" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B676" s="47"/>
       <c r="C676" s="47"/>
       <c r="D676" s="43"/>
@@ -26419,7 +26419,7 @@
       <c r="AJ676" s="46"/>
       <c r="AK676" s="46"/>
     </row>
-    <row r="677" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B677" s="47"/>
       <c r="C677" s="47"/>
       <c r="D677" s="43"/>
@@ -26456,7 +26456,7 @@
       <c r="AJ677" s="46"/>
       <c r="AK677" s="46"/>
     </row>
-    <row r="678" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B678" s="47"/>
       <c r="C678" s="47"/>
       <c r="D678" s="43"/>
@@ -26493,7 +26493,7 @@
       <c r="AJ678" s="46"/>
       <c r="AK678" s="46"/>
     </row>
-    <row r="679" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B679" s="47"/>
       <c r="C679" s="47"/>
       <c r="D679" s="43"/>
@@ -26530,7 +26530,7 @@
       <c r="AJ679" s="46"/>
       <c r="AK679" s="46"/>
     </row>
-    <row r="680" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B680" s="47"/>
       <c r="C680" s="47"/>
       <c r="D680" s="43"/>
@@ -26567,7 +26567,7 @@
       <c r="AJ680" s="46"/>
       <c r="AK680" s="46"/>
     </row>
-    <row r="681" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B681" s="47"/>
       <c r="C681" s="47"/>
       <c r="D681" s="43"/>
@@ -26604,7 +26604,7 @@
       <c r="AJ681" s="46"/>
       <c r="AK681" s="46"/>
     </row>
-    <row r="682" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B682" s="47"/>
       <c r="C682" s="47"/>
       <c r="D682" s="43"/>
@@ -26641,7 +26641,7 @@
       <c r="AJ682" s="46"/>
       <c r="AK682" s="46"/>
     </row>
-    <row r="683" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B683" s="47"/>
       <c r="C683" s="47"/>
       <c r="D683" s="43"/>
@@ -26678,7 +26678,7 @@
       <c r="AJ683" s="46"/>
       <c r="AK683" s="46"/>
     </row>
-    <row r="684" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B684" s="47"/>
       <c r="C684" s="47"/>
       <c r="D684" s="43"/>
@@ -26715,7 +26715,7 @@
       <c r="AJ684" s="46"/>
       <c r="AK684" s="46"/>
     </row>
-    <row r="685" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B685" s="47"/>
       <c r="C685" s="47"/>
       <c r="D685" s="43"/>
@@ -26752,7 +26752,7 @@
       <c r="AJ685" s="46"/>
       <c r="AK685" s="46"/>
     </row>
-    <row r="686" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B686" s="47"/>
       <c r="C686" s="47"/>
       <c r="D686" s="43"/>
@@ -26789,7 +26789,7 @@
       <c r="AJ686" s="46"/>
       <c r="AK686" s="46"/>
     </row>
-    <row r="687" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B687" s="47"/>
       <c r="C687" s="47"/>
       <c r="D687" s="43"/>
@@ -26826,7 +26826,7 @@
       <c r="AJ687" s="46"/>
       <c r="AK687" s="46"/>
     </row>
-    <row r="688" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B688" s="47"/>
       <c r="C688" s="47"/>
       <c r="D688" s="43"/>
@@ -26863,7 +26863,7 @@
       <c r="AJ688" s="46"/>
       <c r="AK688" s="46"/>
     </row>
-    <row r="689" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B689" s="47"/>
       <c r="C689" s="47"/>
       <c r="D689" s="43"/>
@@ -26900,7 +26900,7 @@
       <c r="AJ689" s="46"/>
       <c r="AK689" s="46"/>
     </row>
-    <row r="690" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B690" s="47"/>
       <c r="C690" s="47"/>
       <c r="D690" s="43"/>
@@ -26937,7 +26937,7 @@
       <c r="AJ690" s="46"/>
       <c r="AK690" s="46"/>
     </row>
-    <row r="691" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B691" s="47"/>
       <c r="C691" s="47"/>
       <c r="D691" s="43"/>
@@ -26974,7 +26974,7 @@
       <c r="AJ691" s="46"/>
       <c r="AK691" s="46"/>
     </row>
-    <row r="692" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B692" s="47"/>
       <c r="C692" s="47"/>
       <c r="D692" s="43"/>
@@ -27011,7 +27011,7 @@
       <c r="AJ692" s="46"/>
       <c r="AK692" s="46"/>
     </row>
-    <row r="693" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B693" s="47"/>
       <c r="C693" s="47"/>
       <c r="D693" s="43"/>
@@ -27048,7 +27048,7 @@
       <c r="AJ693" s="46"/>
       <c r="AK693" s="46"/>
     </row>
-    <row r="694" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B694" s="47"/>
       <c r="C694" s="47"/>
       <c r="D694" s="43"/>
@@ -27085,7 +27085,7 @@
       <c r="AJ694" s="46"/>
       <c r="AK694" s="46"/>
     </row>
-    <row r="695" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B695" s="47"/>
       <c r="C695" s="47"/>
       <c r="D695" s="43"/>
@@ -27122,7 +27122,7 @@
       <c r="AJ695" s="46"/>
       <c r="AK695" s="46"/>
     </row>
-    <row r="696" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B696" s="47"/>
       <c r="C696" s="47"/>
       <c r="D696" s="43"/>
@@ -27159,7 +27159,7 @@
       <c r="AJ696" s="46"/>
       <c r="AK696" s="46"/>
     </row>
-    <row r="697" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B697" s="47"/>
       <c r="C697" s="47"/>
       <c r="D697" s="43"/>
@@ -27196,7 +27196,7 @@
       <c r="AJ697" s="46"/>
       <c r="AK697" s="46"/>
     </row>
-    <row r="698" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B698" s="47"/>
       <c r="C698" s="47"/>
       <c r="D698" s="43"/>
@@ -27233,7 +27233,7 @@
       <c r="AJ698" s="46"/>
       <c r="AK698" s="46"/>
     </row>
-    <row r="699" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B699" s="47"/>
       <c r="C699" s="47"/>
       <c r="D699" s="43"/>
@@ -27270,7 +27270,7 @@
       <c r="AJ699" s="46"/>
       <c r="AK699" s="46"/>
     </row>
-    <row r="700" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B700" s="47"/>
       <c r="C700" s="47"/>
       <c r="D700" s="43"/>
@@ -27307,7 +27307,7 @@
       <c r="AJ700" s="46"/>
       <c r="AK700" s="46"/>
     </row>
-    <row r="701" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B701" s="47"/>
       <c r="C701" s="47"/>
       <c r="D701" s="43"/>
@@ -27344,7 +27344,7 @@
       <c r="AJ701" s="46"/>
       <c r="AK701" s="46"/>
     </row>
-    <row r="702" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B702" s="47"/>
       <c r="C702" s="47"/>
       <c r="D702" s="43"/>
@@ -27381,7 +27381,7 @@
       <c r="AJ702" s="46"/>
       <c r="AK702" s="46"/>
     </row>
-    <row r="703" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B703" s="47"/>
       <c r="C703" s="47"/>
       <c r="D703" s="43"/>
@@ -27418,7 +27418,7 @@
       <c r="AJ703" s="46"/>
       <c r="AK703" s="46"/>
     </row>
-    <row r="704" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B704" s="47"/>
       <c r="C704" s="47"/>
       <c r="D704" s="43"/>
@@ -27455,7 +27455,7 @@
       <c r="AJ704" s="46"/>
       <c r="AK704" s="46"/>
     </row>
-    <row r="705" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B705" s="47"/>
       <c r="C705" s="47"/>
       <c r="D705" s="43"/>
@@ -27492,7 +27492,7 @@
       <c r="AJ705" s="46"/>
       <c r="AK705" s="46"/>
     </row>
-    <row r="706" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B706" s="47"/>
       <c r="C706" s="47"/>
       <c r="D706" s="43"/>
@@ -27529,7 +27529,7 @@
       <c r="AJ706" s="46"/>
       <c r="AK706" s="46"/>
     </row>
-    <row r="707" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B707" s="47"/>
       <c r="C707" s="47"/>
       <c r="D707" s="43"/>
@@ -27566,7 +27566,7 @@
       <c r="AJ707" s="46"/>
       <c r="AK707" s="46"/>
     </row>
-    <row r="708" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B708" s="47"/>
       <c r="C708" s="47"/>
       <c r="D708" s="43"/>
@@ -27603,7 +27603,7 @@
       <c r="AJ708" s="46"/>
       <c r="AK708" s="46"/>
     </row>
-    <row r="709" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B709" s="47"/>
       <c r="C709" s="47"/>
       <c r="D709" s="43"/>
@@ -27640,7 +27640,7 @@
       <c r="AJ709" s="46"/>
       <c r="AK709" s="46"/>
     </row>
-    <row r="710" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B710" s="47"/>
       <c r="C710" s="47"/>
       <c r="D710" s="43"/>
@@ -27677,7 +27677,7 @@
       <c r="AJ710" s="46"/>
       <c r="AK710" s="46"/>
     </row>
-    <row r="711" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B711" s="47"/>
       <c r="C711" s="47"/>
       <c r="D711" s="43"/>
@@ -27714,7 +27714,7 @@
       <c r="AJ711" s="46"/>
       <c r="AK711" s="46"/>
     </row>
-    <row r="712" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B712" s="47"/>
       <c r="C712" s="47"/>
       <c r="D712" s="43"/>
@@ -27751,7 +27751,7 @@
       <c r="AJ712" s="46"/>
       <c r="AK712" s="46"/>
     </row>
-    <row r="713" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B713" s="47"/>
       <c r="C713" s="47"/>
       <c r="D713" s="43"/>
@@ -27788,7 +27788,7 @@
       <c r="AJ713" s="46"/>
       <c r="AK713" s="46"/>
     </row>
-    <row r="714" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B714" s="47"/>
       <c r="C714" s="47"/>
       <c r="D714" s="43"/>
@@ -27825,7 +27825,7 @@
       <c r="AJ714" s="46"/>
       <c r="AK714" s="46"/>
     </row>
-    <row r="715" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B715" s="47"/>
       <c r="C715" s="47"/>
       <c r="D715" s="43"/>
@@ -27862,7 +27862,7 @@
       <c r="AJ715" s="46"/>
       <c r="AK715" s="46"/>
     </row>
-    <row r="716" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B716" s="47"/>
       <c r="C716" s="47"/>
       <c r="D716" s="43"/>
@@ -27899,7 +27899,7 @@
       <c r="AJ716" s="46"/>
       <c r="AK716" s="46"/>
     </row>
-    <row r="717" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B717" s="47"/>
       <c r="C717" s="47"/>
       <c r="D717" s="43"/>
@@ -27936,7 +27936,7 @@
       <c r="AJ717" s="46"/>
       <c r="AK717" s="46"/>
     </row>
-    <row r="718" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B718" s="47"/>
       <c r="C718" s="47"/>
       <c r="D718" s="43"/>
@@ -27973,7 +27973,7 @@
       <c r="AJ718" s="46"/>
       <c r="AK718" s="46"/>
     </row>
-    <row r="719" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B719" s="47"/>
       <c r="C719" s="47"/>
       <c r="D719" s="43"/>
@@ -28010,7 +28010,7 @@
       <c r="AJ719" s="46"/>
       <c r="AK719" s="46"/>
     </row>
-    <row r="720" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B720" s="47"/>
       <c r="C720" s="47"/>
       <c r="D720" s="43"/>
@@ -28047,7 +28047,7 @@
       <c r="AJ720" s="46"/>
       <c r="AK720" s="46"/>
     </row>
-    <row r="721" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B721" s="47"/>
       <c r="C721" s="47"/>
       <c r="D721" s="43"/>
@@ -28084,7 +28084,7 @@
       <c r="AJ721" s="46"/>
       <c r="AK721" s="46"/>
     </row>
-    <row r="722" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B722" s="47"/>
       <c r="C722" s="47"/>
       <c r="D722" s="43"/>
@@ -28121,7 +28121,7 @@
       <c r="AJ722" s="46"/>
       <c r="AK722" s="46"/>
     </row>
-    <row r="723" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B723" s="47"/>
       <c r="C723" s="47"/>
       <c r="D723" s="43"/>
@@ -28158,7 +28158,7 @@
       <c r="AJ723" s="46"/>
       <c r="AK723" s="46"/>
     </row>
-    <row r="724" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B724" s="47"/>
       <c r="C724" s="47"/>
       <c r="D724" s="43"/>
@@ -28195,7 +28195,7 @@
       <c r="AJ724" s="46"/>
       <c r="AK724" s="46"/>
     </row>
-    <row r="725" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B725" s="47"/>
       <c r="C725" s="47"/>
       <c r="D725" s="43"/>
@@ -28232,7 +28232,7 @@
       <c r="AJ725" s="46"/>
       <c r="AK725" s="46"/>
     </row>
-    <row r="726" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B726" s="47"/>
       <c r="C726" s="47"/>
       <c r="D726" s="43"/>
@@ -28269,7 +28269,7 @@
       <c r="AJ726" s="46"/>
       <c r="AK726" s="46"/>
     </row>
-    <row r="727" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B727" s="47"/>
       <c r="C727" s="47"/>
       <c r="D727" s="43"/>
@@ -28306,7 +28306,7 @@
       <c r="AJ727" s="46"/>
       <c r="AK727" s="46"/>
     </row>
-    <row r="728" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B728" s="47"/>
       <c r="C728" s="47"/>
       <c r="D728" s="43"/>
@@ -28343,7 +28343,7 @@
       <c r="AJ728" s="46"/>
       <c r="AK728" s="46"/>
     </row>
-    <row r="729" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B729" s="47"/>
       <c r="C729" s="47"/>
       <c r="D729" s="43"/>
@@ -28380,7 +28380,7 @@
       <c r="AJ729" s="46"/>
       <c r="AK729" s="46"/>
     </row>
-    <row r="730" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B730" s="47"/>
       <c r="C730" s="47"/>
       <c r="D730" s="43"/>
@@ -28417,7 +28417,7 @@
       <c r="AJ730" s="46"/>
       <c r="AK730" s="46"/>
     </row>
-    <row r="731" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B731" s="47"/>
       <c r="C731" s="47"/>
       <c r="D731" s="43"/>
@@ -28454,7 +28454,7 @@
       <c r="AJ731" s="46"/>
       <c r="AK731" s="46"/>
     </row>
-    <row r="732" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B732" s="47"/>
       <c r="C732" s="47"/>
       <c r="D732" s="43"/>
@@ -28491,7 +28491,7 @@
       <c r="AJ732" s="46"/>
       <c r="AK732" s="46"/>
     </row>
-    <row r="733" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B733" s="47"/>
       <c r="C733" s="47"/>
       <c r="D733" s="43"/>
@@ -28528,7 +28528,7 @@
       <c r="AJ733" s="46"/>
       <c r="AK733" s="46"/>
     </row>
-    <row r="734" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B734" s="47"/>
       <c r="C734" s="47"/>
       <c r="D734" s="43"/>
@@ -28565,7 +28565,7 @@
       <c r="AJ734" s="46"/>
       <c r="AK734" s="46"/>
     </row>
-    <row r="735" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B735" s="47"/>
       <c r="C735" s="47"/>
       <c r="D735" s="43"/>
@@ -28602,7 +28602,7 @@
       <c r="AJ735" s="46"/>
       <c r="AK735" s="46"/>
     </row>
-    <row r="736" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B736" s="47"/>
       <c r="C736" s="47"/>
       <c r="D736" s="43"/>
@@ -28639,7 +28639,7 @@
       <c r="AJ736" s="46"/>
       <c r="AK736" s="46"/>
     </row>
-    <row r="737" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B737" s="47"/>
       <c r="C737" s="47"/>
       <c r="D737" s="43"/>
@@ -28676,7 +28676,7 @@
       <c r="AJ737" s="46"/>
       <c r="AK737" s="46"/>
     </row>
-    <row r="738" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B738" s="47"/>
       <c r="C738" s="47"/>
       <c r="D738" s="43"/>
@@ -28713,7 +28713,7 @@
       <c r="AJ738" s="46"/>
       <c r="AK738" s="46"/>
     </row>
-    <row r="739" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B739" s="47"/>
       <c r="C739" s="47"/>
       <c r="D739" s="43"/>
@@ -28750,7 +28750,7 @@
       <c r="AJ739" s="46"/>
       <c r="AK739" s="46"/>
     </row>
-    <row r="740" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B740" s="47"/>
       <c r="C740" s="47"/>
       <c r="D740" s="43"/>
@@ -28787,7 +28787,7 @@
       <c r="AJ740" s="46"/>
       <c r="AK740" s="46"/>
     </row>
-    <row r="741" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B741" s="47"/>
       <c r="C741" s="47"/>
       <c r="D741" s="43"/>
@@ -28824,7 +28824,7 @@
       <c r="AJ741" s="46"/>
       <c r="AK741" s="46"/>
     </row>
-    <row r="742" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B742" s="47"/>
       <c r="C742" s="47"/>
       <c r="D742" s="43"/>
@@ -28861,7 +28861,7 @@
       <c r="AJ742" s="46"/>
       <c r="AK742" s="46"/>
     </row>
-    <row r="743" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B743" s="47"/>
       <c r="C743" s="47"/>
       <c r="D743" s="43"/>
@@ -28898,7 +28898,7 @@
       <c r="AJ743" s="46"/>
       <c r="AK743" s="46"/>
     </row>
-    <row r="744" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B744" s="47"/>
       <c r="C744" s="47"/>
       <c r="D744" s="43"/>
@@ -28935,7 +28935,7 @@
       <c r="AJ744" s="46"/>
       <c r="AK744" s="46"/>
     </row>
-    <row r="745" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B745" s="47"/>
       <c r="C745" s="47"/>
       <c r="D745" s="43"/>
@@ -28972,7 +28972,7 @@
       <c r="AJ745" s="46"/>
       <c r="AK745" s="46"/>
     </row>
-    <row r="746" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B746" s="47"/>
       <c r="C746" s="47"/>
       <c r="D746" s="43"/>
@@ -29009,7 +29009,7 @@
       <c r="AJ746" s="46"/>
       <c r="AK746" s="46"/>
     </row>
-    <row r="747" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B747" s="47"/>
       <c r="C747" s="47"/>
       <c r="D747" s="43"/>
@@ -29046,7 +29046,7 @@
       <c r="AJ747" s="46"/>
       <c r="AK747" s="46"/>
     </row>
-    <row r="748" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B748" s="47"/>
       <c r="C748" s="47"/>
       <c r="D748" s="43"/>
@@ -29083,7 +29083,7 @@
       <c r="AJ748" s="46"/>
       <c r="AK748" s="46"/>
     </row>
-    <row r="749" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B749" s="47"/>
       <c r="C749" s="47"/>
       <c r="D749" s="43"/>
@@ -29120,7 +29120,7 @@
       <c r="AJ749" s="46"/>
       <c r="AK749" s="46"/>
     </row>
-    <row r="750" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B750" s="47"/>
       <c r="C750" s="47"/>
       <c r="D750" s="43"/>
@@ -29157,7 +29157,7 @@
       <c r="AJ750" s="46"/>
       <c r="AK750" s="46"/>
     </row>
-    <row r="751" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B751" s="47"/>
       <c r="C751" s="47"/>
       <c r="D751" s="43"/>
@@ -29194,7 +29194,7 @@
       <c r="AJ751" s="46"/>
       <c r="AK751" s="46"/>
     </row>
-    <row r="752" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B752" s="47"/>
       <c r="C752" s="47"/>
       <c r="D752" s="43"/>
@@ -29231,7 +29231,7 @@
       <c r="AJ752" s="46"/>
       <c r="AK752" s="46"/>
     </row>
-    <row r="753" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B753" s="47"/>
       <c r="C753" s="47"/>
       <c r="D753" s="43"/>
@@ -29268,7 +29268,7 @@
       <c r="AJ753" s="46"/>
       <c r="AK753" s="46"/>
     </row>
-    <row r="754" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B754" s="47"/>
       <c r="C754" s="47"/>
       <c r="D754" s="43"/>
@@ -29305,7 +29305,7 @@
       <c r="AJ754" s="46"/>
       <c r="AK754" s="46"/>
     </row>
-    <row r="755" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B755" s="47"/>
       <c r="C755" s="47"/>
       <c r="D755" s="43"/>
@@ -29342,7 +29342,7 @@
       <c r="AJ755" s="46"/>
       <c r="AK755" s="46"/>
     </row>
-    <row r="756" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B756" s="47"/>
       <c r="C756" s="47"/>
       <c r="D756" s="43"/>
@@ -29379,7 +29379,7 @@
       <c r="AJ756" s="46"/>
       <c r="AK756" s="46"/>
     </row>
-    <row r="757" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B757" s="47"/>
       <c r="C757" s="47"/>
       <c r="D757" s="43"/>
@@ -29416,7 +29416,7 @@
       <c r="AJ757" s="46"/>
       <c r="AK757" s="46"/>
     </row>
-    <row r="758" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B758" s="47"/>
       <c r="C758" s="47"/>
       <c r="D758" s="43"/>
@@ -29453,7 +29453,7 @@
       <c r="AJ758" s="46"/>
       <c r="AK758" s="46"/>
     </row>
-    <row r="759" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B759" s="47"/>
       <c r="C759" s="47"/>
       <c r="D759" s="43"/>
@@ -29490,7 +29490,7 @@
       <c r="AJ759" s="46"/>
       <c r="AK759" s="46"/>
     </row>
-    <row r="760" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B760" s="47"/>
       <c r="C760" s="47"/>
       <c r="D760" s="43"/>
@@ -29527,7 +29527,7 @@
       <c r="AJ760" s="46"/>
       <c r="AK760" s="46"/>
     </row>
-    <row r="761" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B761" s="47"/>
       <c r="C761" s="47"/>
       <c r="D761" s="43"/>
@@ -29564,7 +29564,7 @@
       <c r="AJ761" s="46"/>
       <c r="AK761" s="46"/>
     </row>
-    <row r="762" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B762" s="47"/>
       <c r="C762" s="47"/>
       <c r="D762" s="43"/>
@@ -29601,7 +29601,7 @@
       <c r="AJ762" s="46"/>
       <c r="AK762" s="46"/>
     </row>
-    <row r="763" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B763" s="47"/>
       <c r="C763" s="47"/>
       <c r="D763" s="43"/>
@@ -29638,7 +29638,7 @@
       <c r="AJ763" s="46"/>
       <c r="AK763" s="46"/>
     </row>
-    <row r="764" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B764" s="47"/>
       <c r="C764" s="47"/>
       <c r="D764" s="43"/>
@@ -29675,7 +29675,7 @@
       <c r="AJ764" s="46"/>
       <c r="AK764" s="46"/>
     </row>
-    <row r="765" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B765" s="47"/>
       <c r="C765" s="47"/>
       <c r="D765" s="43"/>
@@ -29712,7 +29712,7 @@
       <c r="AJ765" s="46"/>
       <c r="AK765" s="46"/>
     </row>
-    <row r="766" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B766" s="47"/>
       <c r="C766" s="47"/>
       <c r="D766" s="43"/>
@@ -29749,7 +29749,7 @@
       <c r="AJ766" s="46"/>
       <c r="AK766" s="46"/>
     </row>
-    <row r="767" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B767" s="47"/>
       <c r="C767" s="47"/>
       <c r="D767" s="43"/>
@@ -29786,7 +29786,7 @@
       <c r="AJ767" s="46"/>
       <c r="AK767" s="46"/>
     </row>
-    <row r="768" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B768" s="47"/>
       <c r="C768" s="47"/>
       <c r="D768" s="43"/>
@@ -29823,7 +29823,7 @@
       <c r="AJ768" s="46"/>
       <c r="AK768" s="46"/>
     </row>
-    <row r="769" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B769" s="47"/>
       <c r="C769" s="47"/>
       <c r="D769" s="43"/>
@@ -29860,7 +29860,7 @@
       <c r="AJ769" s="46"/>
       <c r="AK769" s="46"/>
     </row>
-    <row r="770" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B770" s="47"/>
       <c r="C770" s="47"/>
       <c r="D770" s="43"/>
@@ -29897,7 +29897,7 @@
       <c r="AJ770" s="46"/>
       <c r="AK770" s="46"/>
     </row>
-    <row r="771" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B771" s="47"/>
       <c r="C771" s="47"/>
       <c r="D771" s="43"/>
@@ -29934,7 +29934,7 @@
       <c r="AJ771" s="46"/>
       <c r="AK771" s="46"/>
     </row>
-    <row r="772" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B772" s="47"/>
       <c r="C772" s="47"/>
       <c r="D772" s="43"/>
@@ -29971,7 +29971,7 @@
       <c r="AJ772" s="46"/>
       <c r="AK772" s="46"/>
     </row>
-    <row r="773" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B773" s="47"/>
       <c r="C773" s="47"/>
       <c r="D773" s="43"/>
@@ -30008,7 +30008,7 @@
       <c r="AJ773" s="46"/>
       <c r="AK773" s="46"/>
     </row>
-    <row r="774" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B774" s="47"/>
       <c r="C774" s="47"/>
       <c r="D774" s="43"/>
@@ -30045,7 +30045,7 @@
       <c r="AJ774" s="46"/>
       <c r="AK774" s="46"/>
     </row>
-    <row r="775" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B775" s="47"/>
       <c r="C775" s="47"/>
       <c r="D775" s="43"/>
@@ -30082,7 +30082,7 @@
       <c r="AJ775" s="46"/>
       <c r="AK775" s="46"/>
     </row>
-    <row r="776" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B776" s="47"/>
       <c r="C776" s="47"/>
       <c r="D776" s="43"/>
@@ -30119,7 +30119,7 @@
       <c r="AJ776" s="46"/>
       <c r="AK776" s="46"/>
     </row>
-    <row r="777" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B777" s="47"/>
       <c r="C777" s="47"/>
       <c r="D777" s="43"/>
@@ -30156,7 +30156,7 @@
       <c r="AJ777" s="46"/>
       <c r="AK777" s="46"/>
     </row>
-    <row r="778" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B778" s="47"/>
       <c r="C778" s="47"/>
       <c r="D778" s="43"/>
@@ -30193,7 +30193,7 @@
       <c r="AJ778" s="46"/>
       <c r="AK778" s="46"/>
     </row>
-    <row r="779" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B779" s="47"/>
       <c r="C779" s="47"/>
       <c r="D779" s="43"/>
@@ -30230,7 +30230,7 @@
       <c r="AJ779" s="46"/>
       <c r="AK779" s="46"/>
     </row>
-    <row r="780" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B780" s="47"/>
       <c r="C780" s="47"/>
       <c r="D780" s="43"/>
@@ -30267,7 +30267,7 @@
       <c r="AJ780" s="46"/>
       <c r="AK780" s="46"/>
     </row>
-    <row r="781" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B781" s="47"/>
       <c r="C781" s="47"/>
       <c r="D781" s="43"/>
@@ -30304,7 +30304,7 @@
       <c r="AJ781" s="46"/>
       <c r="AK781" s="46"/>
     </row>
-    <row r="782" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B782" s="47"/>
       <c r="C782" s="47"/>
       <c r="D782" s="43"/>
@@ -30341,7 +30341,7 @@
       <c r="AJ782" s="46"/>
       <c r="AK782" s="46"/>
     </row>
-    <row r="783" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B783" s="47"/>
       <c r="C783" s="47"/>
       <c r="D783" s="43"/>
@@ -30378,7 +30378,7 @@
       <c r="AJ783" s="46"/>
       <c r="AK783" s="46"/>
     </row>
-    <row r="784" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B784" s="47"/>
       <c r="C784" s="47"/>
       <c r="D784" s="43"/>
@@ -30415,7 +30415,7 @@
       <c r="AJ784" s="46"/>
       <c r="AK784" s="46"/>
     </row>
-    <row r="785" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B785" s="47"/>
       <c r="C785" s="47"/>
       <c r="D785" s="43"/>
@@ -30452,7 +30452,7 @@
       <c r="AJ785" s="46"/>
       <c r="AK785" s="46"/>
     </row>
-    <row r="786" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B786" s="47"/>
       <c r="C786" s="47"/>
       <c r="D786" s="43"/>
@@ -30489,7 +30489,7 @@
       <c r="AJ786" s="46"/>
       <c r="AK786" s="46"/>
     </row>
-    <row r="787" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B787" s="47"/>
       <c r="C787" s="47"/>
       <c r="D787" s="43"/>
@@ -30526,7 +30526,7 @@
       <c r="AJ787" s="46"/>
       <c r="AK787" s="46"/>
     </row>
-    <row r="788" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B788" s="47"/>
       <c r="C788" s="47"/>
       <c r="D788" s="43"/>
@@ -30563,7 +30563,7 @@
       <c r="AJ788" s="46"/>
       <c r="AK788" s="46"/>
     </row>
-    <row r="789" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B789" s="47"/>
       <c r="C789" s="47"/>
       <c r="D789" s="43"/>
@@ -30600,7 +30600,7 @@
       <c r="AJ789" s="46"/>
       <c r="AK789" s="46"/>
     </row>
-    <row r="790" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B790" s="47"/>
       <c r="C790" s="47"/>
       <c r="D790" s="43"/>
@@ -30637,7 +30637,7 @@
       <c r="AJ790" s="46"/>
       <c r="AK790" s="46"/>
     </row>
-    <row r="791" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B791" s="47"/>
       <c r="C791" s="47"/>
       <c r="D791" s="43"/>
@@ -30674,7 +30674,7 @@
       <c r="AJ791" s="46"/>
       <c r="AK791" s="46"/>
     </row>
-    <row r="792" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B792" s="47"/>
       <c r="C792" s="47"/>
       <c r="D792" s="43"/>
@@ -30711,7 +30711,7 @@
       <c r="AJ792" s="46"/>
       <c r="AK792" s="46"/>
     </row>
-    <row r="793" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B793" s="47"/>
       <c r="C793" s="47"/>
       <c r="D793" s="43"/>
@@ -30748,7 +30748,7 @@
       <c r="AJ793" s="46"/>
       <c r="AK793" s="46"/>
     </row>
-    <row r="794" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B794" s="47"/>
       <c r="C794" s="47"/>
       <c r="D794" s="43"/>
@@ -30785,7 +30785,7 @@
       <c r="AJ794" s="46"/>
       <c r="AK794" s="46"/>
     </row>
-    <row r="795" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B795" s="47"/>
       <c r="C795" s="47"/>
       <c r="D795" s="43"/>
@@ -30822,7 +30822,7 @@
       <c r="AJ795" s="46"/>
       <c r="AK795" s="46"/>
     </row>
-    <row r="796" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B796" s="47"/>
       <c r="C796" s="47"/>
       <c r="D796" s="43"/>
@@ -30859,7 +30859,7 @@
       <c r="AJ796" s="46"/>
       <c r="AK796" s="46"/>
     </row>
-    <row r="797" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B797" s="47"/>
       <c r="C797" s="47"/>
       <c r="D797" s="43"/>
@@ -30896,7 +30896,7 @@
       <c r="AJ797" s="46"/>
       <c r="AK797" s="46"/>
     </row>
-    <row r="798" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B798" s="47"/>
       <c r="C798" s="47"/>
       <c r="D798" s="43"/>
@@ -30933,7 +30933,7 @@
       <c r="AJ798" s="46"/>
       <c r="AK798" s="46"/>
     </row>
-    <row r="799" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B799" s="47"/>
       <c r="C799" s="47"/>
       <c r="D799" s="43"/>
@@ -30970,7 +30970,7 @@
       <c r="AJ799" s="46"/>
       <c r="AK799" s="46"/>
     </row>
-    <row r="800" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B800" s="47"/>
       <c r="C800" s="47"/>
       <c r="D800" s="43"/>
@@ -31007,7 +31007,7 @@
       <c r="AJ800" s="46"/>
       <c r="AK800" s="46"/>
     </row>
-    <row r="801" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B801" s="47"/>
       <c r="C801" s="47"/>
       <c r="D801" s="43"/>
@@ -31044,7 +31044,7 @@
       <c r="AJ801" s="46"/>
       <c r="AK801" s="46"/>
     </row>
-    <row r="802" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B802" s="47"/>
       <c r="C802" s="47"/>
       <c r="D802" s="43"/>
@@ -31081,7 +31081,7 @@
       <c r="AJ802" s="46"/>
       <c r="AK802" s="46"/>
     </row>
-    <row r="803" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B803" s="47"/>
       <c r="C803" s="47"/>
       <c r="D803" s="43"/>
@@ -31118,7 +31118,7 @@
       <c r="AJ803" s="46"/>
       <c r="AK803" s="46"/>
     </row>
-    <row r="804" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B804" s="47"/>
       <c r="C804" s="47"/>
       <c r="D804" s="43"/>
@@ -31155,7 +31155,7 @@
       <c r="AJ804" s="46"/>
       <c r="AK804" s="46"/>
     </row>
-    <row r="805" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B805" s="47"/>
       <c r="C805" s="47"/>
       <c r="D805" s="43"/>
@@ -31192,7 +31192,7 @@
       <c r="AJ805" s="46"/>
       <c r="AK805" s="46"/>
     </row>
-    <row r="806" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B806" s="47"/>
       <c r="C806" s="47"/>
       <c r="D806" s="43"/>
@@ -31229,7 +31229,7 @@
       <c r="AJ806" s="46"/>
       <c r="AK806" s="46"/>
     </row>
-    <row r="807" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B807" s="47"/>
       <c r="C807" s="47"/>
       <c r="D807" s="43"/>
@@ -31266,7 +31266,7 @@
       <c r="AJ807" s="46"/>
       <c r="AK807" s="46"/>
     </row>
-    <row r="808" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B808" s="47"/>
       <c r="C808" s="47"/>
       <c r="D808" s="43"/>
@@ -31303,7 +31303,7 @@
       <c r="AJ808" s="46"/>
       <c r="AK808" s="46"/>
     </row>
-    <row r="809" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B809" s="47"/>
       <c r="C809" s="47"/>
       <c r="D809" s="43"/>
@@ -31340,7 +31340,7 @@
       <c r="AJ809" s="46"/>
       <c r="AK809" s="46"/>
     </row>
-    <row r="810" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B810" s="47"/>
       <c r="C810" s="47"/>
       <c r="D810" s="43"/>
@@ -31377,7 +31377,7 @@
       <c r="AJ810" s="46"/>
       <c r="AK810" s="46"/>
     </row>
-    <row r="811" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B811" s="47"/>
       <c r="C811" s="47"/>
       <c r="D811" s="43"/>
@@ -31414,7 +31414,7 @@
       <c r="AJ811" s="46"/>
       <c r="AK811" s="46"/>
     </row>
-    <row r="812" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B812" s="47"/>
       <c r="C812" s="47"/>
       <c r="D812" s="43"/>
@@ -31451,7 +31451,7 @@
       <c r="AJ812" s="46"/>
       <c r="AK812" s="46"/>
     </row>
-    <row r="813" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B813" s="47"/>
       <c r="C813" s="47"/>
       <c r="D813" s="43"/>
@@ -31488,7 +31488,7 @@
       <c r="AJ813" s="46"/>
       <c r="AK813" s="46"/>
     </row>
-    <row r="814" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B814" s="47"/>
       <c r="C814" s="47"/>
       <c r="D814" s="43"/>
@@ -31525,7 +31525,7 @@
       <c r="AJ814" s="46"/>
       <c r="AK814" s="46"/>
     </row>
-    <row r="815" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B815" s="47"/>
       <c r="C815" s="47"/>
       <c r="D815" s="43"/>
@@ -31562,7 +31562,7 @@
       <c r="AJ815" s="46"/>
       <c r="AK815" s="46"/>
     </row>
-    <row r="816" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B816" s="47"/>
       <c r="C816" s="47"/>
       <c r="D816" s="43"/>
@@ -31599,7 +31599,7 @@
       <c r="AJ816" s="46"/>
       <c r="AK816" s="46"/>
     </row>
-    <row r="817" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B817" s="47"/>
       <c r="C817" s="47"/>
       <c r="D817" s="43"/>
@@ -31636,7 +31636,7 @@
       <c r="AJ817" s="46"/>
       <c r="AK817" s="46"/>
     </row>
-    <row r="818" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B818" s="47"/>
       <c r="C818" s="47"/>
       <c r="D818" s="43"/>
@@ -31673,7 +31673,7 @@
       <c r="AJ818" s="46"/>
       <c r="AK818" s="46"/>
     </row>
-    <row r="819" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B819" s="47"/>
       <c r="C819" s="47"/>
       <c r="D819" s="43"/>
@@ -31710,7 +31710,7 @@
       <c r="AJ819" s="46"/>
       <c r="AK819" s="46"/>
     </row>
-    <row r="820" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B820" s="47"/>
       <c r="C820" s="47"/>
       <c r="D820" s="43"/>
@@ -31747,7 +31747,7 @@
       <c r="AJ820" s="46"/>
       <c r="AK820" s="46"/>
     </row>
-    <row r="821" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B821" s="47"/>
       <c r="C821" s="47"/>
       <c r="D821" s="43"/>
@@ -31784,7 +31784,7 @@
       <c r="AJ821" s="46"/>
       <c r="AK821" s="46"/>
     </row>
-    <row r="822" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B822" s="47"/>
       <c r="C822" s="47"/>
       <c r="D822" s="43"/>
@@ -31821,7 +31821,7 @@
       <c r="AJ822" s="46"/>
       <c r="AK822" s="46"/>
     </row>
-    <row r="823" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B823" s="47"/>
       <c r="C823" s="47"/>
       <c r="D823" s="43"/>
@@ -31858,7 +31858,7 @@
       <c r="AJ823" s="46"/>
       <c r="AK823" s="46"/>
     </row>
-    <row r="824" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B824" s="47"/>
       <c r="C824" s="47"/>
       <c r="D824" s="43"/>
@@ -31895,7 +31895,7 @@
       <c r="AJ824" s="46"/>
       <c r="AK824" s="46"/>
     </row>
-    <row r="825" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B825" s="47"/>
       <c r="C825" s="47"/>
       <c r="D825" s="43"/>
@@ -31932,7 +31932,7 @@
       <c r="AJ825" s="46"/>
       <c r="AK825" s="46"/>
     </row>
-    <row r="826" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B826" s="47"/>
       <c r="C826" s="47"/>
       <c r="D826" s="43"/>
@@ -31969,7 +31969,7 @@
       <c r="AJ826" s="46"/>
       <c r="AK826" s="46"/>
     </row>
-    <row r="827" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B827" s="47"/>
       <c r="C827" s="47"/>
       <c r="D827" s="43"/>
@@ -32006,7 +32006,7 @@
       <c r="AJ827" s="46"/>
       <c r="AK827" s="46"/>
     </row>
-    <row r="828" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B828" s="47"/>
       <c r="C828" s="47"/>
       <c r="D828" s="43"/>
@@ -32043,7 +32043,7 @@
       <c r="AJ828" s="46"/>
       <c r="AK828" s="46"/>
     </row>
-    <row r="829" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B829" s="47"/>
       <c r="C829" s="47"/>
       <c r="D829" s="43"/>
@@ -32080,7 +32080,7 @@
       <c r="AJ829" s="46"/>
       <c r="AK829" s="46"/>
     </row>
-    <row r="830" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B830" s="47"/>
       <c r="C830" s="47"/>
       <c r="D830" s="43"/>
@@ -32117,7 +32117,7 @@
       <c r="AJ830" s="46"/>
       <c r="AK830" s="46"/>
     </row>
-    <row r="831" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B831" s="47"/>
       <c r="C831" s="47"/>
       <c r="D831" s="43"/>
@@ -32154,7 +32154,7 @@
       <c r="AJ831" s="46"/>
       <c r="AK831" s="46"/>
     </row>
-    <row r="832" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B832" s="47"/>
       <c r="C832" s="47"/>
       <c r="D832" s="43"/>
@@ -32191,7 +32191,7 @@
       <c r="AJ832" s="46"/>
       <c r="AK832" s="46"/>
     </row>
-    <row r="833" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B833" s="47"/>
       <c r="C833" s="47"/>
       <c r="D833" s="43"/>
@@ -32228,7 +32228,7 @@
       <c r="AJ833" s="46"/>
       <c r="AK833" s="46"/>
     </row>
-    <row r="834" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B834" s="47"/>
       <c r="C834" s="47"/>
       <c r="D834" s="43"/>
@@ -32265,7 +32265,7 @@
       <c r="AJ834" s="46"/>
       <c r="AK834" s="46"/>
     </row>
-    <row r="835" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B835" s="47"/>
       <c r="C835" s="47"/>
       <c r="D835" s="43"/>
@@ -32302,7 +32302,7 @@
       <c r="AJ835" s="46"/>
       <c r="AK835" s="46"/>
     </row>
-    <row r="836" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B836" s="47"/>
       <c r="C836" s="47"/>
       <c r="D836" s="43"/>
@@ -32339,7 +32339,7 @@
       <c r="AJ836" s="46"/>
       <c r="AK836" s="46"/>
     </row>
-    <row r="837" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B837" s="47"/>
       <c r="C837" s="47"/>
       <c r="D837" s="43"/>
@@ -32376,7 +32376,7 @@
       <c r="AJ837" s="46"/>
       <c r="AK837" s="46"/>
     </row>
-    <row r="838" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B838" s="47"/>
       <c r="C838" s="47"/>
       <c r="D838" s="43"/>
@@ -32413,7 +32413,7 @@
       <c r="AJ838" s="46"/>
       <c r="AK838" s="46"/>
     </row>
-    <row r="839" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B839" s="47"/>
       <c r="C839" s="47"/>
       <c r="D839" s="43"/>
@@ -32450,7 +32450,7 @@
       <c r="AJ839" s="46"/>
       <c r="AK839" s="46"/>
     </row>
-    <row r="840" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B840" s="47"/>
       <c r="C840" s="47"/>
       <c r="D840" s="43"/>
@@ -32487,7 +32487,7 @@
       <c r="AJ840" s="46"/>
       <c r="AK840" s="46"/>
     </row>
-    <row r="841" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B841" s="47"/>
       <c r="C841" s="47"/>
       <c r="D841" s="43"/>
@@ -32524,7 +32524,7 @@
       <c r="AJ841" s="46"/>
       <c r="AK841" s="46"/>
     </row>
-    <row r="842" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B842" s="47"/>
       <c r="C842" s="47"/>
       <c r="D842" s="43"/>
@@ -32561,7 +32561,7 @@
       <c r="AJ842" s="46"/>
       <c r="AK842" s="46"/>
     </row>
-    <row r="843" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B843" s="47"/>
       <c r="C843" s="47"/>
       <c r="D843" s="43"/>
@@ -32598,7 +32598,7 @@
       <c r="AJ843" s="46"/>
       <c r="AK843" s="46"/>
     </row>
-    <row r="844" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B844" s="47"/>
       <c r="C844" s="47"/>
       <c r="D844" s="43"/>
@@ -32635,7 +32635,7 @@
       <c r="AJ844" s="46"/>
       <c r="AK844" s="46"/>
     </row>
-    <row r="845" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B845" s="47"/>
       <c r="C845" s="47"/>
       <c r="D845" s="43"/>
@@ -32672,7 +32672,7 @@
       <c r="AJ845" s="46"/>
       <c r="AK845" s="46"/>
     </row>
-    <row r="846" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B846" s="47"/>
       <c r="C846" s="47"/>
       <c r="D846" s="43"/>
@@ -32709,7 +32709,7 @@
       <c r="AJ846" s="46"/>
       <c r="AK846" s="46"/>
     </row>
-    <row r="847" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B847" s="47"/>
       <c r="C847" s="47"/>
       <c r="D847" s="43"/>
@@ -32746,7 +32746,7 @@
       <c r="AJ847" s="46"/>
       <c r="AK847" s="46"/>
     </row>
-    <row r="848" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B848" s="47"/>
       <c r="C848" s="47"/>
       <c r="D848" s="43"/>
@@ -32783,7 +32783,7 @@
       <c r="AJ848" s="46"/>
       <c r="AK848" s="46"/>
     </row>
-    <row r="849" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B849" s="47"/>
       <c r="C849" s="47"/>
       <c r="D849" s="43"/>
@@ -32820,7 +32820,7 @@
       <c r="AJ849" s="46"/>
       <c r="AK849" s="46"/>
     </row>
-    <row r="850" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B850" s="47"/>
       <c r="C850" s="47"/>
       <c r="D850" s="43"/>
@@ -32857,7 +32857,7 @@
       <c r="AJ850" s="46"/>
       <c r="AK850" s="46"/>
     </row>
-    <row r="851" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B851" s="47"/>
       <c r="C851" s="47"/>
       <c r="D851" s="43"/>
@@ -32894,7 +32894,7 @@
       <c r="AJ851" s="46"/>
       <c r="AK851" s="46"/>
     </row>
-    <row r="852" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B852" s="47"/>
       <c r="C852" s="47"/>
       <c r="D852" s="43"/>
@@ -32931,7 +32931,7 @@
       <c r="AJ852" s="46"/>
       <c r="AK852" s="46"/>
     </row>
-    <row r="853" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B853" s="47"/>
       <c r="C853" s="47"/>
       <c r="D853" s="43"/>
@@ -32968,7 +32968,7 @@
       <c r="AJ853" s="46"/>
       <c r="AK853" s="46"/>
     </row>
-    <row r="854" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B854" s="47"/>
       <c r="C854" s="47"/>
       <c r="D854" s="43"/>
@@ -33005,7 +33005,7 @@
       <c r="AJ854" s="46"/>
       <c r="AK854" s="46"/>
     </row>
-    <row r="855" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B855" s="47"/>
       <c r="C855" s="47"/>
       <c r="D855" s="43"/>
@@ -33042,7 +33042,7 @@
       <c r="AJ855" s="46"/>
       <c r="AK855" s="46"/>
     </row>
-    <row r="856" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B856" s="47"/>
       <c r="C856" s="47"/>
       <c r="D856" s="43"/>
@@ -33079,7 +33079,7 @@
       <c r="AJ856" s="46"/>
       <c r="AK856" s="46"/>
     </row>
-    <row r="857" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B857" s="47"/>
       <c r="C857" s="47"/>
       <c r="D857" s="43"/>
@@ -33116,7 +33116,7 @@
       <c r="AJ857" s="46"/>
       <c r="AK857" s="46"/>
     </row>
-    <row r="858" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B858" s="47"/>
       <c r="C858" s="47"/>
       <c r="D858" s="43"/>
@@ -33153,7 +33153,7 @@
       <c r="AJ858" s="46"/>
       <c r="AK858" s="46"/>
     </row>
-    <row r="859" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B859" s="47"/>
       <c r="C859" s="47"/>
       <c r="D859" s="43"/>
@@ -33190,7 +33190,7 @@
       <c r="AJ859" s="46"/>
       <c r="AK859" s="46"/>
     </row>
-    <row r="860" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B860" s="47"/>
       <c r="C860" s="47"/>
       <c r="D860" s="43"/>
@@ -33227,7 +33227,7 @@
       <c r="AJ860" s="46"/>
       <c r="AK860" s="46"/>
     </row>
-    <row r="861" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B861" s="47"/>
       <c r="C861" s="47"/>
       <c r="D861" s="43"/>
@@ -33264,7 +33264,7 @@
       <c r="AJ861" s="46"/>
       <c r="AK861" s="46"/>
     </row>
-    <row r="862" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B862" s="47"/>
       <c r="C862" s="47"/>
       <c r="D862" s="43"/>
@@ -33301,7 +33301,7 @@
       <c r="AJ862" s="46"/>
       <c r="AK862" s="46"/>
     </row>
-    <row r="863" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B863" s="47"/>
       <c r="C863" s="47"/>
       <c r="D863" s="43"/>
@@ -33338,7 +33338,7 @@
       <c r="AJ863" s="46"/>
       <c r="AK863" s="46"/>
     </row>
-    <row r="864" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B864" s="47"/>
       <c r="C864" s="47"/>
       <c r="D864" s="43"/>
@@ -33375,7 +33375,7 @@
       <c r="AJ864" s="46"/>
       <c r="AK864" s="46"/>
     </row>
-    <row r="865" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B865" s="47"/>
       <c r="C865" s="47"/>
       <c r="D865" s="43"/>
@@ -33412,7 +33412,7 @@
       <c r="AJ865" s="46"/>
       <c r="AK865" s="46"/>
     </row>
-    <row r="866" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B866" s="47"/>
       <c r="C866" s="47"/>
       <c r="D866" s="43"/>
@@ -33449,7 +33449,7 @@
       <c r="AJ866" s="46"/>
       <c r="AK866" s="46"/>
     </row>
-    <row r="867" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B867" s="47"/>
       <c r="C867" s="47"/>
       <c r="D867" s="43"/>
@@ -33486,7 +33486,7 @@
       <c r="AJ867" s="46"/>
       <c r="AK867" s="46"/>
     </row>
-    <row r="868" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B868" s="47"/>
       <c r="C868" s="47"/>
       <c r="D868" s="43"/>
@@ -33523,7 +33523,7 @@
       <c r="AJ868" s="46"/>
       <c r="AK868" s="46"/>
     </row>
-    <row r="869" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B869" s="47"/>
       <c r="C869" s="47"/>
       <c r="D869" s="43"/>
@@ -33560,7 +33560,7 @@
       <c r="AJ869" s="46"/>
       <c r="AK869" s="46"/>
     </row>
-    <row r="870" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B870" s="47"/>
       <c r="C870" s="47"/>
       <c r="D870" s="43"/>
@@ -33597,7 +33597,7 @@
       <c r="AJ870" s="46"/>
       <c r="AK870" s="46"/>
     </row>
-    <row r="871" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B871" s="47"/>
       <c r="C871" s="47"/>
       <c r="D871" s="43"/>
@@ -33634,7 +33634,7 @@
       <c r="AJ871" s="46"/>
       <c r="AK871" s="46"/>
     </row>
-    <row r="872" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B872" s="47"/>
       <c r="C872" s="47"/>
       <c r="D872" s="43"/>
@@ -33671,7 +33671,7 @@
       <c r="AJ872" s="46"/>
       <c r="AK872" s="46"/>
     </row>
-    <row r="873" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B873" s="47"/>
       <c r="C873" s="47"/>
       <c r="D873" s="43"/>
@@ -33708,7 +33708,7 @@
       <c r="AJ873" s="46"/>
       <c r="AK873" s="46"/>
     </row>
-    <row r="874" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B874" s="47"/>
       <c r="C874" s="47"/>
       <c r="D874" s="43"/>
@@ -33745,7 +33745,7 @@
       <c r="AJ874" s="46"/>
       <c r="AK874" s="46"/>
     </row>
-    <row r="875" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B875" s="47"/>
       <c r="C875" s="47"/>
       <c r="D875" s="43"/>
@@ -33782,7 +33782,7 @@
       <c r="AJ875" s="46"/>
       <c r="AK875" s="46"/>
     </row>
-    <row r="876" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B876" s="47"/>
       <c r="C876" s="47"/>
       <c r="D876" s="43"/>
@@ -33819,7 +33819,7 @@
       <c r="AJ876" s="46"/>
       <c r="AK876" s="46"/>
     </row>
-    <row r="877" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B877" s="47"/>
       <c r="C877" s="47"/>
       <c r="D877" s="43"/>
@@ -33856,7 +33856,7 @@
       <c r="AJ877" s="46"/>
       <c r="AK877" s="46"/>
     </row>
-    <row r="878" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B878" s="47"/>
       <c r="C878" s="47"/>
       <c r="D878" s="43"/>
@@ -33893,7 +33893,7 @@
       <c r="AJ878" s="46"/>
       <c r="AK878" s="46"/>
     </row>
-    <row r="879" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B879" s="47"/>
       <c r="C879" s="47"/>
       <c r="D879" s="43"/>
@@ -33930,7 +33930,7 @@
       <c r="AJ879" s="46"/>
       <c r="AK879" s="46"/>
     </row>
-    <row r="880" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B880" s="47"/>
       <c r="C880" s="47"/>
       <c r="D880" s="43"/>
@@ -33967,7 +33967,7 @@
       <c r="AJ880" s="46"/>
       <c r="AK880" s="46"/>
     </row>
-    <row r="881" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B881" s="47"/>
       <c r="C881" s="47"/>
       <c r="D881" s="43"/>
@@ -34004,7 +34004,7 @@
       <c r="AJ881" s="46"/>
       <c r="AK881" s="46"/>
     </row>
-    <row r="882" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B882" s="47"/>
       <c r="C882" s="47"/>
       <c r="D882" s="43"/>
@@ -34041,7 +34041,7 @@
       <c r="AJ882" s="46"/>
       <c r="AK882" s="46"/>
     </row>
-    <row r="883" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B883" s="47"/>
       <c r="C883" s="47"/>
       <c r="D883" s="43"/>
@@ -34078,7 +34078,7 @@
       <c r="AJ883" s="46"/>
       <c r="AK883" s="46"/>
     </row>
-    <row r="884" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B884" s="47"/>
       <c r="C884" s="47"/>
       <c r="D884" s="43"/>
@@ -34115,7 +34115,7 @@
       <c r="AJ884" s="46"/>
       <c r="AK884" s="46"/>
     </row>
-    <row r="885" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B885" s="47"/>
       <c r="C885" s="47"/>
       <c r="D885" s="43"/>
@@ -34152,7 +34152,7 @@
       <c r="AJ885" s="46"/>
       <c r="AK885" s="46"/>
     </row>
-    <row r="886" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B886" s="47"/>
       <c r="C886" s="47"/>
       <c r="D886" s="43"/>
@@ -34189,7 +34189,7 @@
       <c r="AJ886" s="46"/>
       <c r="AK886" s="46"/>
     </row>
-    <row r="887" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B887" s="47"/>
       <c r="C887" s="47"/>
       <c r="D887" s="43"/>
@@ -34226,7 +34226,7 @@
       <c r="AJ887" s="46"/>
       <c r="AK887" s="46"/>
     </row>
-    <row r="888" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B888" s="47"/>
       <c r="C888" s="47"/>
       <c r="D888" s="43"/>
@@ -34263,7 +34263,7 @@
       <c r="AJ888" s="46"/>
       <c r="AK888" s="46"/>
     </row>
-    <row r="889" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B889" s="47"/>
       <c r="C889" s="47"/>
       <c r="D889" s="43"/>
@@ -34300,7 +34300,7 @@
       <c r="AJ889" s="46"/>
       <c r="AK889" s="46"/>
     </row>
-    <row r="890" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B890" s="47"/>
       <c r="C890" s="47"/>
       <c r="D890" s="43"/>
@@ -34337,7 +34337,7 @@
       <c r="AJ890" s="46"/>
       <c r="AK890" s="46"/>
     </row>
-    <row r="891" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B891" s="47"/>
       <c r="C891" s="47"/>
       <c r="D891" s="43"/>
@@ -34374,7 +34374,7 @@
       <c r="AJ891" s="46"/>
       <c r="AK891" s="46"/>
     </row>
-    <row r="892" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B892" s="47"/>
       <c r="C892" s="47"/>
       <c r="D892" s="43"/>
@@ -34411,7 +34411,7 @@
       <c r="AJ892" s="46"/>
       <c r="AK892" s="46"/>
     </row>
-    <row r="893" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B893" s="47"/>
       <c r="C893" s="47"/>
       <c r="D893" s="43"/>
@@ -34448,7 +34448,7 @@
       <c r="AJ893" s="46"/>
       <c r="AK893" s="46"/>
     </row>
-    <row r="894" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B894" s="47"/>
       <c r="C894" s="47"/>
       <c r="D894" s="43"/>
@@ -34485,7 +34485,7 @@
       <c r="AJ894" s="46"/>
       <c r="AK894" s="46"/>
     </row>
-    <row r="895" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B895" s="47"/>
       <c r="C895" s="47"/>
       <c r="D895" s="43"/>
@@ -34522,7 +34522,7 @@
       <c r="AJ895" s="46"/>
       <c r="AK895" s="46"/>
     </row>
-    <row r="896" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B896" s="47"/>
       <c r="C896" s="47"/>
       <c r="D896" s="43"/>
@@ -34559,7 +34559,7 @@
       <c r="AJ896" s="46"/>
       <c r="AK896" s="46"/>
     </row>
-    <row r="897" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B897" s="47"/>
       <c r="C897" s="47"/>
       <c r="D897" s="43"/>
@@ -34596,7 +34596,7 @@
       <c r="AJ897" s="46"/>
       <c r="AK897" s="46"/>
     </row>
-    <row r="898" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B898" s="47"/>
       <c r="C898" s="47"/>
       <c r="D898" s="43"/>
@@ -34633,7 +34633,7 @@
       <c r="AJ898" s="46"/>
       <c r="AK898" s="46"/>
     </row>
-    <row r="899" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B899" s="47"/>
       <c r="C899" s="47"/>
       <c r="D899" s="43"/>
@@ -34670,7 +34670,7 @@
       <c r="AJ899" s="46"/>
       <c r="AK899" s="46"/>
     </row>
-    <row r="900" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B900" s="47"/>
       <c r="C900" s="47"/>
       <c r="D900" s="43"/>
@@ -34707,7 +34707,7 @@
       <c r="AJ900" s="46"/>
       <c r="AK900" s="46"/>
     </row>
-    <row r="901" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B901" s="47"/>
       <c r="C901" s="47"/>
       <c r="D901" s="43"/>
@@ -34744,7 +34744,7 @@
       <c r="AJ901" s="46"/>
       <c r="AK901" s="46"/>
     </row>
-    <row r="902" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B902" s="47"/>
       <c r="C902" s="47"/>
       <c r="D902" s="43"/>
@@ -34781,7 +34781,7 @@
       <c r="AJ902" s="46"/>
       <c r="AK902" s="46"/>
     </row>
-    <row r="903" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B903" s="47"/>
       <c r="C903" s="47"/>
       <c r="D903" s="43"/>
@@ -34818,7 +34818,7 @@
       <c r="AJ903" s="46"/>
       <c r="AK903" s="46"/>
     </row>
-    <row r="904" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B904" s="47"/>
       <c r="C904" s="47"/>
       <c r="D904" s="43"/>
@@ -34855,7 +34855,7 @@
       <c r="AJ904" s="46"/>
       <c r="AK904" s="46"/>
     </row>
-    <row r="905" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B905" s="47"/>
       <c r="C905" s="47"/>
       <c r="D905" s="43"/>
@@ -34892,7 +34892,7 @@
       <c r="AJ905" s="46"/>
       <c r="AK905" s="46"/>
     </row>
-    <row r="906" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B906" s="47"/>
       <c r="C906" s="47"/>
       <c r="D906" s="43"/>
@@ -34929,7 +34929,7 @@
       <c r="AJ906" s="46"/>
       <c r="AK906" s="46"/>
     </row>
-    <row r="907" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B907" s="47"/>
       <c r="C907" s="47"/>
       <c r="D907" s="43"/>
@@ -34966,7 +34966,7 @@
       <c r="AJ907" s="46"/>
       <c r="AK907" s="46"/>
     </row>
-    <row r="908" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B908" s="47"/>
       <c r="C908" s="47"/>
       <c r="D908" s="43"/>
@@ -35003,7 +35003,7 @@
       <c r="AJ908" s="46"/>
       <c r="AK908" s="46"/>
     </row>
-    <row r="909" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B909" s="47"/>
       <c r="C909" s="47"/>
       <c r="D909" s="43"/>
@@ -35040,7 +35040,7 @@
       <c r="AJ909" s="46"/>
       <c r="AK909" s="46"/>
     </row>
-    <row r="910" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B910" s="47"/>
       <c r="C910" s="47"/>
       <c r="D910" s="43"/>
@@ -35077,7 +35077,7 @@
       <c r="AJ910" s="46"/>
       <c r="AK910" s="46"/>
     </row>
-    <row r="911" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B911" s="47"/>
       <c r="C911" s="47"/>
       <c r="D911" s="43"/>
@@ -35114,7 +35114,7 @@
       <c r="AJ911" s="46"/>
       <c r="AK911" s="46"/>
     </row>
-    <row r="912" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B912" s="47"/>
       <c r="C912" s="47"/>
       <c r="D912" s="43"/>
@@ -35151,7 +35151,7 @@
       <c r="AJ912" s="46"/>
       <c r="AK912" s="46"/>
     </row>
-    <row r="913" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B913" s="47"/>
       <c r="C913" s="47"/>
       <c r="D913" s="43"/>
@@ -35188,7 +35188,7 @@
       <c r="AJ913" s="46"/>
       <c r="AK913" s="46"/>
     </row>
-    <row r="914" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B914" s="47"/>
       <c r="C914" s="47"/>
       <c r="D914" s="43"/>
@@ -35225,7 +35225,7 @@
       <c r="AJ914" s="46"/>
       <c r="AK914" s="46"/>
     </row>
-    <row r="915" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B915" s="47"/>
       <c r="C915" s="47"/>
       <c r="D915" s="43"/>
@@ -35262,7 +35262,7 @@
       <c r="AJ915" s="46"/>
       <c r="AK915" s="46"/>
     </row>
-    <row r="916" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B916" s="47"/>
       <c r="C916" s="47"/>
       <c r="D916" s="43"/>
@@ -35299,7 +35299,7 @@
       <c r="AJ916" s="46"/>
       <c r="AK916" s="46"/>
     </row>
-    <row r="917" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B917" s="47"/>
       <c r="C917" s="47"/>
       <c r="D917" s="43"/>
@@ -35336,7 +35336,7 @@
       <c r="AJ917" s="46"/>
       <c r="AK917" s="46"/>
     </row>
-    <row r="918" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B918" s="47"/>
       <c r="C918" s="47"/>
       <c r="D918" s="43"/>
@@ -35373,7 +35373,7 @@
       <c r="AJ918" s="46"/>
       <c r="AK918" s="46"/>
     </row>
-    <row r="919" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B919" s="47"/>
       <c r="C919" s="47"/>
       <c r="D919" s="43"/>
@@ -35410,7 +35410,7 @@
       <c r="AJ919" s="46"/>
       <c r="AK919" s="46"/>
     </row>
-    <row r="920" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B920" s="47"/>
       <c r="C920" s="47"/>
       <c r="D920" s="43"/>
@@ -35447,7 +35447,7 @@
       <c r="AJ920" s="46"/>
       <c r="AK920" s="46"/>
     </row>
-    <row r="921" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B921" s="47"/>
       <c r="C921" s="47"/>
       <c r="D921" s="43"/>
@@ -35484,7 +35484,7 @@
       <c r="AJ921" s="46"/>
       <c r="AK921" s="46"/>
     </row>
-    <row r="922" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B922" s="47"/>
       <c r="C922" s="47"/>
       <c r="D922" s="43"/>
@@ -35521,7 +35521,7 @@
       <c r="AJ922" s="46"/>
       <c r="AK922" s="46"/>
     </row>
-    <row r="923" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B923" s="47"/>
       <c r="C923" s="47"/>
       <c r="D923" s="43"/>
@@ -35558,7 +35558,7 @@
       <c r="AJ923" s="46"/>
       <c r="AK923" s="46"/>
     </row>
-    <row r="924" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B924" s="47"/>
       <c r="C924" s="47"/>
       <c r="D924" s="43"/>
@@ -35595,7 +35595,7 @@
       <c r="AJ924" s="46"/>
       <c r="AK924" s="46"/>
     </row>
-    <row r="925" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B925" s="47"/>
       <c r="C925" s="47"/>
       <c r="D925" s="43"/>
@@ -35632,7 +35632,7 @@
       <c r="AJ925" s="46"/>
       <c r="AK925" s="46"/>
     </row>
-    <row r="926" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B926" s="47"/>
       <c r="C926" s="47"/>
       <c r="D926" s="43"/>
@@ -35669,7 +35669,7 @@
       <c r="AJ926" s="46"/>
       <c r="AK926" s="46"/>
     </row>
-    <row r="927" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B927" s="47"/>
       <c r="C927" s="47"/>
       <c r="D927" s="43"/>
@@ -35706,7 +35706,7 @@
       <c r="AJ927" s="46"/>
       <c r="AK927" s="46"/>
     </row>
-    <row r="928" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B928" s="47"/>
       <c r="C928" s="47"/>
       <c r="D928" s="43"/>
@@ -35743,7 +35743,7 @@
       <c r="AJ928" s="46"/>
       <c r="AK928" s="46"/>
     </row>
-    <row r="929" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B929" s="47"/>
       <c r="C929" s="47"/>
       <c r="D929" s="43"/>
@@ -35780,7 +35780,7 @@
       <c r="AJ929" s="46"/>
       <c r="AK929" s="46"/>
     </row>
-    <row r="930" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B930" s="47"/>
       <c r="C930" s="47"/>
       <c r="D930" s="43"/>
@@ -35817,7 +35817,7 @@
       <c r="AJ930" s="46"/>
       <c r="AK930" s="46"/>
     </row>
-    <row r="931" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B931" s="47"/>
       <c r="C931" s="47"/>
       <c r="D931" s="43"/>
@@ -35854,7 +35854,7 @@
       <c r="AJ931" s="46"/>
       <c r="AK931" s="46"/>
     </row>
-    <row r="932" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B932" s="47"/>
       <c r="C932" s="47"/>
       <c r="D932" s="43"/>
@@ -35891,7 +35891,7 @@
       <c r="AJ932" s="46"/>
       <c r="AK932" s="46"/>
     </row>
-    <row r="933" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B933" s="47"/>
       <c r="C933" s="47"/>
       <c r="D933" s="43"/>
@@ -35928,7 +35928,7 @@
       <c r="AJ933" s="46"/>
       <c r="AK933" s="46"/>
     </row>
-    <row r="934" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B934" s="47"/>
       <c r="C934" s="47"/>
       <c r="D934" s="43"/>
@@ -35965,7 +35965,7 @@
       <c r="AJ934" s="46"/>
       <c r="AK934" s="46"/>
     </row>
-    <row r="935" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B935" s="47"/>
       <c r="C935" s="47"/>
       <c r="D935" s="43"/>
@@ -36002,7 +36002,7 @@
       <c r="AJ935" s="46"/>
       <c r="AK935" s="46"/>
     </row>
-    <row r="936" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B936" s="47"/>
       <c r="C936" s="47"/>
       <c r="D936" s="43"/>
@@ -36039,7 +36039,7 @@
       <c r="AJ936" s="46"/>
       <c r="AK936" s="46"/>
     </row>
-    <row r="937" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B937" s="47"/>
       <c r="C937" s="47"/>
       <c r="D937" s="43"/>
@@ -36076,7 +36076,7 @@
       <c r="AJ937" s="46"/>
       <c r="AK937" s="46"/>
     </row>
-    <row r="938" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B938" s="47"/>
       <c r="C938" s="47"/>
       <c r="D938" s="43"/>
@@ -36113,7 +36113,7 @@
       <c r="AJ938" s="46"/>
       <c r="AK938" s="46"/>
     </row>
-    <row r="939" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B939" s="47"/>
       <c r="C939" s="47"/>
       <c r="D939" s="43"/>
@@ -36150,7 +36150,7 @@
       <c r="AJ939" s="46"/>
       <c r="AK939" s="46"/>
     </row>
-    <row r="940" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B940" s="47"/>
       <c r="C940" s="47"/>
       <c r="D940" s="43"/>
@@ -36187,7 +36187,7 @@
       <c r="AJ940" s="46"/>
       <c r="AK940" s="46"/>
     </row>
-    <row r="941" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B941" s="47"/>
       <c r="C941" s="47"/>
       <c r="D941" s="43"/>
@@ -36224,7 +36224,7 @@
       <c r="AJ941" s="46"/>
       <c r="AK941" s="46"/>
     </row>
-    <row r="942" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B942" s="47"/>
       <c r="C942" s="47"/>
       <c r="D942" s="43"/>
@@ -36261,7 +36261,7 @@
       <c r="AJ942" s="46"/>
       <c r="AK942" s="46"/>
     </row>
-    <row r="943" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B943" s="47"/>
       <c r="C943" s="47"/>
       <c r="D943" s="43"/>
@@ -36298,7 +36298,7 @@
       <c r="AJ943" s="46"/>
       <c r="AK943" s="46"/>
     </row>
-    <row r="944" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B944" s="47"/>
       <c r="C944" s="47"/>
       <c r="D944" s="43"/>
@@ -36335,7 +36335,7 @@
       <c r="AJ944" s="46"/>
       <c r="AK944" s="46"/>
     </row>
-    <row r="945" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B945" s="47"/>
       <c r="C945" s="47"/>
       <c r="D945" s="43"/>
@@ -36372,7 +36372,7 @@
       <c r="AJ945" s="46"/>
       <c r="AK945" s="46"/>
     </row>
-    <row r="946" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B946" s="47"/>
       <c r="C946" s="47"/>
       <c r="D946" s="43"/>
@@ -36409,7 +36409,7 @@
       <c r="AJ946" s="46"/>
       <c r="AK946" s="46"/>
     </row>
-    <row r="947" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B947" s="47"/>
       <c r="C947" s="47"/>
       <c r="D947" s="43"/>
@@ -36446,7 +36446,7 @@
       <c r="AJ947" s="46"/>
       <c r="AK947" s="46"/>
     </row>
-    <row r="948" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B948" s="47"/>
       <c r="C948" s="47"/>
       <c r="D948" s="43"/>
@@ -36483,7 +36483,7 @@
       <c r="AJ948" s="46"/>
       <c r="AK948" s="46"/>
     </row>
-    <row r="949" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B949" s="47"/>
       <c r="C949" s="47"/>
       <c r="D949" s="43"/>
@@ -36520,7 +36520,7 @@
       <c r="AJ949" s="46"/>
       <c r="AK949" s="46"/>
     </row>
-    <row r="950" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B950" s="47"/>
       <c r="C950" s="47"/>
       <c r="D950" s="43"/>
@@ -36557,7 +36557,7 @@
       <c r="AJ950" s="46"/>
       <c r="AK950" s="46"/>
     </row>
-    <row r="951" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B951" s="47"/>
       <c r="C951" s="47"/>
       <c r="D951" s="43"/>
@@ -36594,7 +36594,7 @@
       <c r="AJ951" s="46"/>
       <c r="AK951" s="46"/>
     </row>
-    <row r="952" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B952" s="47"/>
       <c r="C952" s="47"/>
       <c r="D952" s="43"/>
@@ -36631,7 +36631,7 @@
       <c r="AJ952" s="46"/>
       <c r="AK952" s="46"/>
     </row>
-    <row r="953" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B953" s="47"/>
       <c r="C953" s="47"/>
       <c r="D953" s="43"/>
@@ -36668,7 +36668,7 @@
       <c r="AJ953" s="46"/>
       <c r="AK953" s="46"/>
     </row>
-    <row r="954" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B954" s="47"/>
       <c r="C954" s="47"/>
       <c r="D954" s="43"/>
@@ -36705,7 +36705,7 @@
       <c r="AJ954" s="46"/>
       <c r="AK954" s="46"/>
     </row>
-    <row r="955" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B955" s="47"/>
       <c r="C955" s="47"/>
       <c r="D955" s="43"/>
@@ -36742,7 +36742,7 @@
       <c r="AJ955" s="46"/>
       <c r="AK955" s="46"/>
     </row>
-    <row r="956" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B956" s="47"/>
       <c r="C956" s="47"/>
       <c r="D956" s="43"/>
@@ -36779,7 +36779,7 @@
       <c r="AJ956" s="46"/>
       <c r="AK956" s="46"/>
     </row>
-    <row r="957" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B957" s="47"/>
       <c r="C957" s="47"/>
       <c r="D957" s="43"/>
@@ -36816,7 +36816,7 @@
       <c r="AJ957" s="46"/>
       <c r="AK957" s="46"/>
     </row>
-    <row r="958" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B958" s="47"/>
       <c r="C958" s="47"/>
       <c r="D958" s="43"/>
@@ -36853,7 +36853,7 @@
       <c r="AJ958" s="46"/>
       <c r="AK958" s="46"/>
     </row>
-    <row r="959" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B959" s="47"/>
       <c r="C959" s="47"/>
       <c r="D959" s="43"/>
@@ -36890,7 +36890,7 @@
       <c r="AJ959" s="46"/>
       <c r="AK959" s="46"/>
     </row>
-    <row r="960" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B960" s="47"/>
       <c r="C960" s="47"/>
       <c r="D960" s="43"/>
@@ -36927,7 +36927,7 @@
       <c r="AJ960" s="46"/>
       <c r="AK960" s="46"/>
     </row>
-    <row r="961" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B961" s="47"/>
       <c r="C961" s="47"/>
       <c r="D961" s="43"/>
@@ -36964,7 +36964,7 @@
       <c r="AJ961" s="46"/>
       <c r="AK961" s="46"/>
     </row>
-    <row r="962" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B962" s="47"/>
       <c r="C962" s="47"/>
       <c r="D962" s="43"/>
@@ -37001,7 +37001,7 @@
       <c r="AJ962" s="46"/>
       <c r="AK962" s="46"/>
     </row>
-    <row r="963" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B963" s="47"/>
       <c r="C963" s="47"/>
       <c r="D963" s="43"/>
@@ -37038,7 +37038,7 @@
       <c r="AJ963" s="46"/>
       <c r="AK963" s="46"/>
     </row>
-    <row r="964" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B964" s="47"/>
       <c r="C964" s="47"/>
       <c r="D964" s="43"/>
@@ -37075,7 +37075,7 @@
       <c r="AJ964" s="46"/>
       <c r="AK964" s="46"/>
     </row>
-    <row r="965" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B965" s="47"/>
       <c r="C965" s="47"/>
       <c r="D965" s="43"/>
@@ -37112,7 +37112,7 @@
       <c r="AJ965" s="46"/>
       <c r="AK965" s="46"/>
     </row>
-    <row r="966" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B966" s="47"/>
       <c r="C966" s="47"/>
       <c r="D966" s="43"/>
@@ -37149,7 +37149,7 @@
       <c r="AJ966" s="46"/>
       <c r="AK966" s="46"/>
     </row>
-    <row r="967" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B967" s="47"/>
       <c r="C967" s="47"/>
       <c r="D967" s="43"/>
@@ -37186,7 +37186,7 @@
       <c r="AJ967" s="46"/>
       <c r="AK967" s="46"/>
     </row>
-    <row r="968" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B968" s="47"/>
       <c r="C968" s="47"/>
       <c r="D968" s="43"/>
@@ -37223,7 +37223,7 @@
       <c r="AJ968" s="46"/>
       <c r="AK968" s="46"/>
     </row>
-    <row r="969" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B969" s="47"/>
       <c r="C969" s="47"/>
       <c r="D969" s="43"/>
@@ -37260,7 +37260,7 @@
       <c r="AJ969" s="46"/>
       <c r="AK969" s="46"/>
     </row>
-    <row r="970" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B970" s="47"/>
       <c r="C970" s="47"/>
       <c r="D970" s="43"/>
@@ -37297,7 +37297,7 @@
       <c r="AJ970" s="46"/>
       <c r="AK970" s="46"/>
     </row>
-    <row r="971" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B971" s="47"/>
       <c r="C971" s="47"/>
       <c r="D971" s="43"/>
@@ -37334,7 +37334,7 @@
       <c r="AJ971" s="46"/>
       <c r="AK971" s="46"/>
     </row>
-    <row r="972" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B972" s="47"/>
       <c r="C972" s="47"/>
       <c r="D972" s="43"/>
@@ -37371,7 +37371,7 @@
       <c r="AJ972" s="46"/>
       <c r="AK972" s="46"/>
     </row>
-    <row r="973" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B973" s="47"/>
       <c r="C973" s="47"/>
       <c r="D973" s="43"/>
@@ -37408,7 +37408,7 @@
       <c r="AJ973" s="46"/>
       <c r="AK973" s="46"/>
     </row>
-    <row r="974" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B974" s="47"/>
       <c r="C974" s="47"/>
       <c r="D974" s="43"/>
@@ -37445,7 +37445,7 @@
       <c r="AJ974" s="46"/>
       <c r="AK974" s="46"/>
     </row>
-    <row r="975" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B975" s="47"/>
       <c r="C975" s="47"/>
       <c r="D975" s="43"/>
@@ -37482,7 +37482,7 @@
       <c r="AJ975" s="46"/>
       <c r="AK975" s="46"/>
     </row>
-    <row r="976" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B976" s="47"/>
       <c r="C976" s="47"/>
       <c r="D976" s="43"/>
@@ -37519,7 +37519,7 @@
       <c r="AJ976" s="46"/>
       <c r="AK976" s="46"/>
     </row>
-    <row r="977" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B977" s="47"/>
       <c r="C977" s="47"/>
       <c r="D977" s="43"/>
@@ -37556,7 +37556,7 @@
       <c r="AJ977" s="46"/>
       <c r="AK977" s="46"/>
     </row>
-    <row r="978" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B978" s="47"/>
       <c r="C978" s="47"/>
       <c r="D978" s="43"/>
@@ -37593,7 +37593,7 @@
       <c r="AJ978" s="46"/>
       <c r="AK978" s="46"/>
     </row>
-    <row r="979" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B979" s="47"/>
       <c r="C979" s="47"/>
       <c r="D979" s="43"/>
@@ -37630,7 +37630,7 @@
       <c r="AJ979" s="46"/>
       <c r="AK979" s="46"/>
     </row>
-    <row r="980" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B980" s="47"/>
       <c r="C980" s="47"/>
       <c r="D980" s="43"/>
@@ -37667,7 +37667,7 @@
       <c r="AJ980" s="46"/>
       <c r="AK980" s="46"/>
     </row>
-    <row r="981" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B981" s="47"/>
       <c r="C981" s="47"/>
       <c r="D981" s="43"/>
@@ -37704,7 +37704,7 @@
       <c r="AJ981" s="46"/>
       <c r="AK981" s="46"/>
     </row>
-    <row r="982" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B982" s="47"/>
       <c r="C982" s="47"/>
       <c r="D982" s="43"/>
@@ -37741,7 +37741,7 @@
       <c r="AJ982" s="46"/>
       <c r="AK982" s="46"/>
     </row>
-    <row r="983" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B983" s="47"/>
       <c r="C983" s="47"/>
       <c r="D983" s="43"/>
@@ -37778,7 +37778,7 @@
       <c r="AJ983" s="46"/>
       <c r="AK983" s="46"/>
     </row>
-    <row r="984" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B984" s="47"/>
       <c r="C984" s="47"/>
       <c r="D984" s="43"/>
@@ -37815,7 +37815,7 @@
       <c r="AJ984" s="46"/>
       <c r="AK984" s="46"/>
     </row>
-    <row r="985" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B985" s="47"/>
       <c r="C985" s="47"/>
       <c r="D985" s="43"/>
@@ -37852,7 +37852,7 @@
       <c r="AJ985" s="46"/>
       <c r="AK985" s="46"/>
     </row>
-    <row r="986" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B986" s="47"/>
       <c r="C986" s="47"/>
       <c r="D986" s="43"/>
@@ -37889,7 +37889,7 @@
       <c r="AJ986" s="46"/>
       <c r="AK986" s="46"/>
     </row>
-    <row r="987" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B987" s="47"/>
       <c r="C987" s="47"/>
       <c r="D987" s="43"/>
@@ -37926,7 +37926,7 @@
       <c r="AJ987" s="46"/>
       <c r="AK987" s="46"/>
     </row>
-    <row r="988" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B988" s="47"/>
       <c r="C988" s="47"/>
       <c r="D988" s="43"/>
@@ -37963,7 +37963,7 @@
       <c r="AJ988" s="46"/>
       <c r="AK988" s="46"/>
     </row>
-    <row r="989" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B989" s="47"/>
       <c r="C989" s="47"/>
       <c r="D989" s="43"/>
@@ -38000,7 +38000,7 @@
       <c r="AJ989" s="46"/>
       <c r="AK989" s="46"/>
     </row>
-    <row r="990" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B990" s="47"/>
       <c r="C990" s="47"/>
       <c r="D990" s="43"/>
@@ -38037,7 +38037,7 @@
       <c r="AJ990" s="46"/>
       <c r="AK990" s="46"/>
     </row>
-    <row r="991" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B991" s="47"/>
       <c r="C991" s="47"/>
       <c r="D991" s="43"/>
@@ -38074,7 +38074,7 @@
       <c r="AJ991" s="46"/>
       <c r="AK991" s="46"/>
     </row>
-    <row r="992" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B992" s="47"/>
       <c r="C992" s="47"/>
       <c r="D992" s="43"/>
@@ -38111,7 +38111,7 @@
       <c r="AJ992" s="46"/>
       <c r="AK992" s="46"/>
     </row>
-    <row r="993" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B993" s="47"/>
       <c r="C993" s="47"/>
       <c r="D993" s="43"/>
@@ -38148,7 +38148,7 @@
       <c r="AJ993" s="46"/>
       <c r="AK993" s="46"/>
     </row>
-    <row r="994" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B994" s="47"/>
       <c r="C994" s="47"/>
       <c r="D994" s="43"/>
@@ -38185,7 +38185,7 @@
       <c r="AJ994" s="46"/>
       <c r="AK994" s="46"/>
     </row>
-    <row r="995" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B995" s="47"/>
       <c r="C995" s="47"/>
       <c r="D995" s="43"/>
@@ -38222,7 +38222,7 @@
       <c r="AJ995" s="46"/>
       <c r="AK995" s="46"/>
     </row>
-    <row r="996" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B996" s="47"/>
       <c r="C996" s="47"/>
       <c r="D996" s="43"/>
@@ -38259,7 +38259,7 @@
       <c r="AJ996" s="46"/>
       <c r="AK996" s="46"/>
     </row>
-    <row r="997" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B997" s="47"/>
       <c r="C997" s="47"/>
       <c r="D997" s="43"/>
@@ -38296,7 +38296,7 @@
       <c r="AJ997" s="46"/>
       <c r="AK997" s="46"/>
     </row>
-    <row r="998" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B998" s="47"/>
       <c r="C998" s="47"/>
       <c r="D998" s="43"/>
@@ -38333,7 +38333,7 @@
       <c r="AJ998" s="46"/>
       <c r="AK998" s="46"/>
     </row>
-    <row r="999" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B999" s="47"/>
       <c r="C999" s="47"/>
       <c r="D999" s="43"/>
@@ -38370,7 +38370,7 @@
       <c r="AJ999" s="46"/>
       <c r="AK999" s="46"/>
     </row>
-    <row r="1000" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1000" s="47"/>
       <c r="C1000" s="47"/>
       <c r="D1000" s="43"/>
@@ -38407,7 +38407,7 @@
       <c r="AJ1000" s="46"/>
       <c r="AK1000" s="46"/>
     </row>
-    <row r="1001" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1001" s="47"/>
       <c r="C1001" s="47"/>
       <c r="D1001" s="43"/>
@@ -38444,7 +38444,7 @@
       <c r="AJ1001" s="46"/>
       <c r="AK1001" s="46"/>
     </row>
-    <row r="1002" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1002" s="47"/>
       <c r="C1002" s="47"/>
       <c r="D1002" s="43"/>
@@ -38481,7 +38481,7 @@
       <c r="AJ1002" s="46"/>
       <c r="AK1002" s="46"/>
     </row>
-    <row r="1003" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1003" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1003" s="47"/>
       <c r="C1003" s="47"/>
       <c r="D1003" s="43"/>
@@ -38518,7 +38518,7 @@
       <c r="AJ1003" s="46"/>
       <c r="AK1003" s="46"/>
     </row>
-    <row r="1004" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1004" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1004" s="47"/>
       <c r="C1004" s="47"/>
       <c r="D1004" s="43"/>
@@ -38555,7 +38555,7 @@
       <c r="AJ1004" s="46"/>
       <c r="AK1004" s="46"/>
     </row>
-    <row r="1005" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1005" s="47"/>
       <c r="C1005" s="47"/>
       <c r="D1005" s="43"/>
@@ -38592,7 +38592,7 @@
       <c r="AJ1005" s="46"/>
       <c r="AK1005" s="46"/>
     </row>
-    <row r="1006" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1006" s="47"/>
       <c r="C1006" s="47"/>
       <c r="D1006" s="43"/>
@@ -38629,7 +38629,7 @@
       <c r="AJ1006" s="46"/>
       <c r="AK1006" s="46"/>
     </row>
-    <row r="1007" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1007" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1007" s="47"/>
       <c r="C1007" s="47"/>
       <c r="D1007" s="43"/>
@@ -38666,7 +38666,7 @@
       <c r="AJ1007" s="46"/>
       <c r="AK1007" s="46"/>
     </row>
-    <row r="1008" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1008" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1008" s="47"/>
       <c r="C1008" s="47"/>
       <c r="D1008" s="43"/>
@@ -38703,7 +38703,7 @@
       <c r="AJ1008" s="46"/>
       <c r="AK1008" s="46"/>
     </row>
-    <row r="1009" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1009" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1009" s="47"/>
       <c r="C1009" s="47"/>
       <c r="D1009" s="43"/>
@@ -38740,7 +38740,7 @@
       <c r="AJ1009" s="46"/>
       <c r="AK1009" s="46"/>
     </row>
-    <row r="1010" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1010" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1010" s="47"/>
       <c r="C1010" s="47"/>
       <c r="D1010" s="43"/>
@@ -38777,7 +38777,7 @@
       <c r="AJ1010" s="46"/>
       <c r="AK1010" s="46"/>
     </row>
-    <row r="1011" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1011" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1011" s="47"/>
       <c r="C1011" s="47"/>
       <c r="D1011" s="43"/>
@@ -38814,7 +38814,7 @@
       <c r="AJ1011" s="46"/>
       <c r="AK1011" s="46"/>
     </row>
-    <row r="1012" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1012" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1012" s="47"/>
       <c r="C1012" s="47"/>
       <c r="D1012" s="43"/>
@@ -38851,7 +38851,7 @@
       <c r="AJ1012" s="46"/>
       <c r="AK1012" s="46"/>
     </row>
-    <row r="1013" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1013" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1013" s="47"/>
       <c r="C1013" s="47"/>
       <c r="D1013" s="43"/>
@@ -38888,7 +38888,7 @@
       <c r="AJ1013" s="46"/>
       <c r="AK1013" s="46"/>
     </row>
-    <row r="1014" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1014" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1014" s="47"/>
       <c r="C1014" s="47"/>
       <c r="D1014" s="43"/>
@@ -38925,7 +38925,7 @@
       <c r="AJ1014" s="46"/>
       <c r="AK1014" s="46"/>
     </row>
-    <row r="1015" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1015" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1015" s="47"/>
       <c r="C1015" s="47"/>
       <c r="D1015" s="43"/>
@@ -38962,7 +38962,7 @@
       <c r="AJ1015" s="46"/>
       <c r="AK1015" s="46"/>
     </row>
-    <row r="1016" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1016" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1016" s="47"/>
       <c r="C1016" s="47"/>
       <c r="D1016" s="43"/>
@@ -38999,7 +38999,7 @@
       <c r="AJ1016" s="46"/>
       <c r="AK1016" s="46"/>
     </row>
-    <row r="1017" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1017" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1017" s="47"/>
       <c r="C1017" s="47"/>
       <c r="D1017" s="43"/>
@@ -39036,7 +39036,7 @@
       <c r="AJ1017" s="46"/>
       <c r="AK1017" s="46"/>
     </row>
-    <row r="1018" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1018" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1018" s="47"/>
       <c r="C1018" s="47"/>
       <c r="D1018" s="43"/>
@@ -39073,7 +39073,7 @@
       <c r="AJ1018" s="46"/>
       <c r="AK1018" s="46"/>
     </row>
-    <row r="1019" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1019" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1019" s="47"/>
       <c r="C1019" s="47"/>
       <c r="D1019" s="43"/>
@@ -39110,7 +39110,7 @@
       <c r="AJ1019" s="46"/>
       <c r="AK1019" s="46"/>
     </row>
-    <row r="1020" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1020" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1020" s="47"/>
       <c r="C1020" s="47"/>
       <c r="D1020" s="43"/>
@@ -39147,7 +39147,7 @@
       <c r="AJ1020" s="46"/>
       <c r="AK1020" s="46"/>
     </row>
-    <row r="1021" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1021" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1021" s="47"/>
       <c r="C1021" s="47"/>
       <c r="D1021" s="43"/>
@@ -39184,7 +39184,7 @@
       <c r="AJ1021" s="46"/>
       <c r="AK1021" s="46"/>
     </row>
-    <row r="1022" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1022" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1022" s="47"/>
       <c r="C1022" s="47"/>
       <c r="D1022" s="43"/>
@@ -39221,7 +39221,7 @@
       <c r="AJ1022" s="46"/>
       <c r="AK1022" s="46"/>
     </row>
-    <row r="1023" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1023" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1023" s="47"/>
       <c r="C1023" s="47"/>
       <c r="D1023" s="43"/>
@@ -39258,7 +39258,7 @@
       <c r="AJ1023" s="46"/>
       <c r="AK1023" s="46"/>
     </row>
-    <row r="1024" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1024" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1024" s="47"/>
       <c r="C1024" s="47"/>
       <c r="D1024" s="43"/>
@@ -39295,7 +39295,7 @@
       <c r="AJ1024" s="46"/>
       <c r="AK1024" s="46"/>
     </row>
-    <row r="1025" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1025" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1025" s="47"/>
       <c r="C1025" s="47"/>
       <c r="D1025" s="43"/>
@@ -39332,7 +39332,7 @@
       <c r="AJ1025" s="46"/>
       <c r="AK1025" s="46"/>
     </row>
-    <row r="1026" spans="2:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1026" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1026" s="47"/>
       <c r="C1026" s="47"/>
       <c r="D1026" s="43"/>

--- a/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
+++ b/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programme\wamp64\www\M2L_note_de_frais\Documentation\Ecrit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED5C50E-5D50-4EE0-AD7A-FEA557C9C41B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BDA4B3-597D-431E-AABB-1250D88E76F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template GANTT Chart" sheetId="1" r:id="rId1"/>
@@ -924,7 +924,7 @@
   <dimension ref="A1:AK1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H22" sqref="H22:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -972,7 +972,7 @@
       </c>
       <c r="F1" s="5">
         <f ca="1">TODAY()</f>
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
@@ -1381,7 +1381,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7" s="53" t="s">
         <v>34</v>
@@ -1436,7 +1436,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G8" s="53" t="s">
         <v>34</v>
@@ -1710,7 +1710,7 @@
         <v>100</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G13" s="33" t="s">
         <v>12</v>
@@ -1765,7 +1765,7 @@
         <v>100</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>12</v>
@@ -1985,7 +1985,7 @@
         <v>75</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>14</v>
@@ -2149,7 +2149,7 @@
         <v>100</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G21" s="53" t="s">
         <v>35</v>

--- a/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
+++ b/Documentation/Ecrit/01b_Diagramme_de_Gantt.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programme\wamp64\www\M2L_note_de_frais\Documentation\Ecrit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BDA4B3-597D-431E-AABB-1250D88E76F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Template GANTT Chart" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="mmm&quot;-&quot;d&quot;-&quot;yy"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
@@ -265,7 +259,7 @@
     <numFmt numFmtId="168" formatCode="0&quot;%&quot;"/>
     <numFmt numFmtId="169" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -664,7 +658,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -716,7 +710,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -910,24 +904,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AK1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:V22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
@@ -954,7 +948,7 @@
     <col min="35" max="37" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -972,7 +966,7 @@
       </c>
       <c r="F1" s="5">
         <f ca="1">TODAY()</f>
-        <v>43879</v>
+        <v>43896</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
@@ -1006,7 +1000,7 @@
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
     </row>
-    <row r="2" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="22.5">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1149,7 +1143,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="12.75">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1189,7 @@
       <c r="AJ3" s="19"/>
       <c r="AK3" s="20"/>
     </row>
-    <row r="4" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="13.15" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>19</v>
       </c>
@@ -1252,7 +1246,7 @@
       <c r="AJ4" s="27"/>
       <c r="AK4" s="20"/>
     </row>
-    <row r="5" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="12.75">
       <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
@@ -1309,7 +1303,7 @@
       <c r="AJ5" s="27"/>
       <c r="AK5" s="20"/>
     </row>
-    <row r="6" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="12.75">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -1363,7 +1357,7 @@
       <c r="AJ6" s="30"/>
       <c r="AK6" s="20"/>
     </row>
-    <row r="7" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="25.5">
       <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
@@ -1418,7 +1412,7 @@
       <c r="AJ7" s="27"/>
       <c r="AK7" s="20"/>
     </row>
-    <row r="8" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="12.75">
       <c r="A8" s="21" t="s">
         <v>22</v>
       </c>
@@ -1473,7 +1467,7 @@
       <c r="AJ8" s="27"/>
       <c r="AK8" s="20"/>
     </row>
-    <row r="9" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="12.75">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1527,7 +1521,7 @@
       <c r="AJ9" s="27"/>
       <c r="AK9" s="20"/>
     </row>
-    <row r="10" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="12.75">
       <c r="A10" s="49" t="s">
         <v>21</v>
       </c>
@@ -1582,7 +1576,7 @@
       <c r="AJ10" s="27"/>
       <c r="AK10" s="20"/>
     </row>
-    <row r="11" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="12.75">
       <c r="A11" s="49" t="s">
         <v>24</v>
       </c>
@@ -1637,7 +1631,7 @@
       <c r="AJ11" s="27"/>
       <c r="AK11" s="20"/>
     </row>
-    <row r="12" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="14.25" customHeight="1">
       <c r="A12" s="49" t="s">
         <v>36</v>
       </c>
@@ -1692,7 +1686,7 @@
       <c r="AJ12" s="27"/>
       <c r="AK12" s="20"/>
     </row>
-    <row r="13" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="12.75">
       <c r="A13" s="49" t="s">
         <v>25</v>
       </c>
@@ -1747,7 +1741,7 @@
       <c r="AJ13" s="27"/>
       <c r="AK13" s="20"/>
     </row>
-    <row r="14" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="25.5">
       <c r="A14" s="49" t="s">
         <v>26</v>
       </c>
@@ -1802,7 +1796,7 @@
       <c r="AJ14" s="27"/>
       <c r="AK14" s="20"/>
     </row>
-    <row r="15" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="12.75">
       <c r="A15" s="34" t="s">
         <v>13</v>
       </c>
@@ -1818,7 +1812,7 @@
       </c>
       <c r="E15" s="37">
         <f>(E16+E17+E18+E19)/4</f>
-        <v>93.75</v>
+        <v>100</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="39" t="s">
@@ -1826,7 +1820,7 @@
       </c>
       <c r="I15" s="55">
         <f>$E$15</f>
-        <v>93.75</v>
+        <v>100</v>
       </c>
       <c r="J15" s="55"/>
       <c r="K15" s="55"/>
@@ -1857,7 +1851,7 @@
       <c r="AJ15" s="32"/>
       <c r="AK15" s="40"/>
     </row>
-    <row r="16" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="25.5">
       <c r="A16" s="49" t="s">
         <v>27</v>
       </c>
@@ -1912,7 +1906,7 @@
       <c r="AJ16" s="27"/>
       <c r="AK16" s="20"/>
     </row>
-    <row r="17" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" ht="30" customHeight="1">
       <c r="A17" s="49" t="s">
         <v>30</v>
       </c>
@@ -1967,7 +1961,7 @@
       <c r="AJ17" s="27"/>
       <c r="AK17" s="20"/>
     </row>
-    <row r="18" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" ht="12.75">
       <c r="A18" s="49" t="s">
         <v>29</v>
       </c>
@@ -1982,7 +1976,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="25">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -1998,7 +1992,7 @@
       <c r="M18" s="52"/>
       <c r="N18" s="55">
         <f>$E$18</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O18" s="55"/>
       <c r="P18" s="55"/>
@@ -2022,7 +2016,7 @@
       <c r="AJ18" s="27"/>
       <c r="AK18" s="20"/>
     </row>
-    <row r="19" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="12.75">
       <c r="A19" s="49" t="s">
         <v>28</v>
       </c>
@@ -2075,7 +2069,7 @@
       <c r="AJ19" s="27"/>
       <c r="AK19" s="20"/>
     </row>
-    <row r="20" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" ht="12.75">
       <c r="A20" s="34" t="s">
         <v>15</v>
       </c>
@@ -2131,7 +2125,7 @@
       <c r="AJ20" s="32"/>
       <c r="AK20" s="40"/>
     </row>
-    <row r="21" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" ht="25.5">
       <c r="A21" s="49" t="s">
         <v>31</v>
       </c>
@@ -2186,7 +2180,7 @@
       <c r="AJ21" s="27"/>
       <c r="AK21" s="20"/>
     </row>
-    <row r="22" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="12.75">
       <c r="A22" s="41"/>
       <c r="B22" s="18"/>
       <c r="C22" s="42"/>
@@ -2221,7 +2215,7 @@
       <c r="AJ22" s="45"/>
       <c r="AK22" s="46"/>
     </row>
-    <row r="23" spans="1:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="18">
       <c r="A23" s="41" t="s">
         <v>16</v>
       </c>
@@ -2258,7 +2252,7 @@
       <c r="AJ23" s="45"/>
       <c r="AK23" s="46"/>
     </row>
-    <row r="24" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" ht="12.75">
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
       <c r="D24" s="43"/>
@@ -2295,7 +2289,7 @@
       <c r="AJ24" s="46"/>
       <c r="AK24" s="46"/>
     </row>
-    <row r="25" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="12.75">
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
       <c r="D25" s="43"/>
@@ -2332,7 +2326,7 @@
       <c r="AJ25" s="46"/>
       <c r="AK25" s="46"/>
     </row>
-    <row r="26" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" ht="12.75">
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
       <c r="D26" s="43"/>
@@ -2369,7 +2363,7 @@
       <c r="AJ26" s="46"/>
       <c r="AK26" s="46"/>
     </row>
-    <row r="27" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" ht="12.75">
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
       <c r="D27" s="43"/>
@@ -2406,7 +2400,7 @@
       <c r="AJ27" s="46"/>
       <c r="AK27" s="46"/>
     </row>
-    <row r="28" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" ht="12.75">
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
       <c r="D28" s="43"/>
@@ -2443,7 +2437,7 @@
       <c r="AJ28" s="46"/>
       <c r="AK28" s="46"/>
     </row>
-    <row r="29" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" ht="12.75">
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
       <c r="D29" s="43"/>
@@ -2480,7 +2474,7 @@
       <c r="AJ29" s="46"/>
       <c r="AK29" s="46"/>
     </row>
-    <row r="30" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" ht="12.75">
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
       <c r="D30" s="43"/>
@@ -2517,7 +2511,7 @@
       <c r="AJ30" s="46"/>
       <c r="AK30" s="46"/>
     </row>
-    <row r="31" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" ht="12.75">
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
       <c r="D31" s="43"/>
@@ -2554,7 +2548,7 @@
       <c r="AJ31" s="46"/>
       <c r="AK31" s="46"/>
     </row>
-    <row r="32" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" ht="12.75">
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
       <c r="D32" s="43"/>
@@ -2591,7 +2585,7 @@
       <c r="AJ32" s="46"/>
       <c r="AK32" s="46"/>
     </row>
-    <row r="33" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:37" ht="12.75">
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
       <c r="D33" s="43"/>
@@ -2628,7 +2622,7 @@
       <c r="AJ33" s="46"/>
       <c r="AK33" s="46"/>
     </row>
-    <row r="34" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:37" ht="12.75">
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
       <c r="D34" s="43"/>
@@ -2665,7 +2659,7 @@
       <c r="AJ34" s="46"/>
       <c r="AK34" s="46"/>
     </row>
-    <row r="35" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:37" ht="12.75">
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
       <c r="D35" s="43"/>
@@ -2702,7 +2696,7 @@
       <c r="AJ35" s="46"/>
       <c r="AK35" s="46"/>
     </row>
-    <row r="36" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:37" ht="12.75">
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
       <c r="D36" s="43"/>
@@ -2739,7 +2733,7 @@
       <c r="AJ36" s="46"/>
       <c r="AK36" s="46"/>
     </row>
-    <row r="37" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:37" ht="12.75">
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
       <c r="D37" s="43"/>
@@ -2776,7 +2770,7 @@
       <c r="AJ37" s="46"/>
       <c r="AK37" s="46"/>
     </row>
-    <row r="38" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:37" ht="12.75">
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
       <c r="D38" s="43"/>
@@ -2813,7 +2807,7 @@
       <c r="AJ38" s="46"/>
       <c r="AK38" s="46"/>
     </row>
-    <row r="39" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:37" ht="12.75">
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
       <c r="D39" s="43"/>
@@ -2850,7 +2844,7 @@
       <c r="AJ39" s="46"/>
       <c r="AK39" s="46"/>
     </row>
-    <row r="40" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:37" ht="12.75">
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
       <c r="D40" s="43"/>
@@ -2887,7 +2881,7 @@
       <c r="AJ40" s="46"/>
       <c r="AK40" s="46"/>
     </row>
-    <row r="41" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:37" ht="12.75">
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
       <c r="D41" s="43"/>
@@ -2924,7 +2918,7 @@
       <c r="AJ41" s="46"/>
       <c r="AK41" s="46"/>
     </row>
-    <row r="42" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:37" ht="12.75">
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
       <c r="D42" s="43"/>
@@ -2961,7 +2955,7 @@
       <c r="AJ42" s="46"/>
       <c r="AK42" s="46"/>
     </row>
-    <row r="43" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:37" ht="12.75">
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
       <c r="D43" s="43"/>
@@ -2998,7 +2992,7 @@
       <c r="AJ43" s="46"/>
       <c r="AK43" s="46"/>
     </row>
-    <row r="44" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:37" ht="12.75">
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
       <c r="D44" s="43"/>
@@ -3035,7 +3029,7 @@
       <c r="AJ44" s="46"/>
       <c r="AK44" s="46"/>
     </row>
-    <row r="45" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:37" ht="12.75">
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
       <c r="D45" s="43"/>
@@ -3072,7 +3066,7 @@
       <c r="AJ45" s="46"/>
       <c r="AK45" s="46"/>
     </row>
-    <row r="46" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:37" ht="12.75">
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
       <c r="D46" s="43"/>
@@ -3109,7 +3103,7 @@
       <c r="AJ46" s="46"/>
       <c r="AK46" s="46"/>
     </row>
-    <row r="47" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:37" ht="12.75">
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
       <c r="D47" s="43"/>
@@ -3146,7 +3140,7 @@
       <c r="AJ47" s="46"/>
       <c r="AK47" s="46"/>
     </row>
-    <row r="48" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:37" ht="12.75">
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
       <c r="D48" s="43"/>
@@ -3183,7 +3177,7 @@
       <c r="AJ48" s="46"/>
       <c r="AK48" s="46"/>
     </row>
-    <row r="49" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:37" ht="12.75">
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
       <c r="D49" s="43"/>
@@ -3220,7 +3214,7 @@
       <c r="AJ49" s="46"/>
       <c r="AK49" s="46"/>
     </row>
-    <row r="50" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:37" ht="12.75">
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
       <c r="D50" s="43"/>
@@ -3257,7 +3251,7 @@
       <c r="AJ50" s="46"/>
       <c r="AK50" s="46"/>
     </row>
-    <row r="51" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:37" ht="12.75">
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
       <c r="D51" s="43"/>
@@ -3294,7 +3288,7 @@
       <c r="AJ51" s="46"/>
       <c r="AK51" s="46"/>
     </row>
-    <row r="52" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:37" ht="12.75">
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
       <c r="D52" s="43"/>
@@ -3331,7 +3325,7 @@
       <c r="AJ52" s="46"/>
       <c r="AK52" s="46"/>
     </row>
-    <row r="53" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:37" ht="12.75">
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
       <c r="D53" s="43"/>
@@ -3368,7 +3362,7 @@
       <c r="AJ53" s="46"/>
       <c r="AK53" s="46"/>
     </row>
-    <row r="54" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:37" ht="12.75">
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
       <c r="D54" s="43"/>
@@ -3405,7 +3399,7 @@
       <c r="AJ54" s="46"/>
       <c r="AK54" s="46"/>
     </row>
-    <row r="55" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:37" ht="12.75">
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
       <c r="D55" s="43"/>
@@ -3442,7 +3436,7 @@
       <c r="AJ55" s="46"/>
       <c r="AK55" s="46"/>
     </row>
-    <row r="56" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:37" ht="12.75">
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
       <c r="D56" s="43"/>
@@ -3479,7 +3473,7 @@
       <c r="AJ56" s="46"/>
       <c r="AK56" s="46"/>
     </row>
-    <row r="57" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:37" ht="12.75">
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
       <c r="D57" s="43"/>
@@ -3516,7 +3510,7 @@
       <c r="AJ57" s="46"/>
       <c r="AK57" s="46"/>
     </row>
-    <row r="58" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:37" ht="12.75">
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
       <c r="D58" s="43"/>
@@ -3553,7 +3547,7 @@
       <c r="AJ58" s="46"/>
       <c r="AK58" s="46"/>
     </row>
-    <row r="59" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:37" ht="12.75">
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
       <c r="D59" s="43"/>
@@ -3590,7 +3584,7 @@
       <c r="AJ59" s="46"/>
       <c r="AK59" s="46"/>
     </row>
-    <row r="60" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:37" ht="12.75">
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
       <c r="D60" s="43"/>
@@ -3627,7 +3621,7 @@
       <c r="AJ60" s="46"/>
       <c r="AK60" s="46"/>
     </row>
-    <row r="61" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:37" ht="12.75">
       <c r="B61" s="47"/>
       <c r="C61" s="47"/>
       <c r="D61" s="43"/>
@@ -3664,7 +3658,7 @@
       <c r="AJ61" s="46"/>
       <c r="AK61" s="46"/>
     </row>
-    <row r="62" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:37" ht="12.75">
       <c r="B62" s="47"/>
       <c r="C62" s="47"/>
       <c r="D62" s="43"/>
@@ -3701,7 +3695,7 @@
       <c r="AJ62" s="46"/>
       <c r="AK62" s="46"/>
     </row>
-    <row r="63" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:37" ht="12.75">
       <c r="B63" s="47"/>
       <c r="C63" s="47"/>
       <c r="D63" s="43"/>
@@ -3738,7 +3732,7 @@
       <c r="AJ63" s="46"/>
       <c r="AK63" s="46"/>
     </row>
-    <row r="64" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:37" ht="12.75">
       <c r="B64" s="47"/>
       <c r="C64" s="47"/>
       <c r="D64" s="43"/>
@@ -3775,7 +3769,7 @@
       <c r="AJ64" s="46"/>
       <c r="AK64" s="46"/>
     </row>
-    <row r="65" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:37" ht="12.75">
       <c r="B65" s="47"/>
       <c r="C65" s="47"/>
       <c r="D65" s="43"/>
@@ -3812,7 +3806,7 @@
       <c r="AJ65" s="46"/>
       <c r="AK65" s="46"/>
     </row>
-    <row r="66" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:37" ht="12.75">
       <c r="B66" s="47"/>
       <c r="C66" s="47"/>
       <c r="D66" s="43"/>
@@ -3849,7 +3843,7 @@
       <c r="AJ66" s="46"/>
       <c r="AK66" s="46"/>
     </row>
-    <row r="67" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:37" ht="12.75">
       <c r="B67" s="47"/>
       <c r="C67" s="47"/>
       <c r="D67" s="43"/>
@@ -3886,7 +3880,7 @@
       <c r="AJ67" s="46"/>
       <c r="AK67" s="46"/>
     </row>
-    <row r="68" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:37" ht="12.75">
       <c r="B68" s="47"/>
       <c r="C68" s="47"/>
       <c r="D68" s="43"/>
@@ -3923,7 +3917,7 @@
       <c r="AJ68" s="46"/>
       <c r="AK68" s="46"/>
     </row>
-    <row r="69" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:37" ht="12.75">
       <c r="B69" s="47"/>
       <c r="C69" s="47"/>
       <c r="D69" s="43"/>
@@ -3960,7 +3954,7 @@
       <c r="AJ69" s="46"/>
       <c r="AK69" s="46"/>
     </row>
-    <row r="70" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:37" ht="12.75">
       <c r="B70" s="47"/>
       <c r="C70" s="47"/>
       <c r="D70" s="43"/>
@@ -3997,7 +3991,7 @@
       <c r="AJ70" s="46"/>
       <c r="AK70" s="46"/>
     </row>
-    <row r="71" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:37" ht="12.75">
       <c r="B71" s="47"/>
       <c r="C71" s="47"/>
       <c r="D71" s="43"/>
@@ -4034,7 +4028,7 @@
       <c r="AJ71" s="46"/>
       <c r="AK71" s="46"/>
     </row>
-    <row r="72" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:37" ht="12.75">
       <c r="B72" s="47"/>
       <c r="C72" s="47"/>
       <c r="D72" s="43"/>
@@ -4071,7 +4065,7 @@
       <c r="AJ72" s="46"/>
       <c r="AK72" s="46"/>
     </row>
-    <row r="73" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:37" ht="12.75">
       <c r="B73" s="47"/>
       <c r="C73" s="47"/>
       <c r="D73" s="43"/>
@@ -4108,7 +4102,7 @@
       <c r="AJ73" s="46"/>
       <c r="AK73" s="46"/>
     </row>
-    <row r="74" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:37" ht="12.75">
       <c r="B74" s="47"/>
       <c r="C74" s="47"/>
       <c r="D74" s="43"/>
@@ -4145,7 +4139,7 @@
       <c r="AJ74" s="46"/>
       <c r="AK74" s="46"/>
     </row>
-    <row r="75" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:37" ht="12.75">
       <c r="B75" s="47"/>
       <c r="C75" s="47"/>
       <c r="D75" s="43"/>
@@ -4182,7 +4176,7 @@
       <c r="AJ75" s="46"/>
       <c r="AK75" s="46"/>
     </row>
-    <row r="76" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:37" ht="12.75">
       <c r="B76" s="47"/>
       <c r="C76" s="47"/>
       <c r="D76" s="43"/>
@@ -4219,7 +4213,7 @@
       <c r="AJ76" s="46"/>
       <c r="AK76" s="46"/>
     </row>
-    <row r="77" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:37" ht="12.75">
       <c r="B77" s="47"/>
       <c r="C77" s="47"/>
       <c r="D77" s="43"/>
@@ -4256,7 +4250,7 @@
       <c r="AJ77" s="46"/>
       <c r="AK77" s="46"/>
     </row>
-    <row r="78" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:37" ht="12.75">
       <c r="B78" s="47"/>
       <c r="C78" s="47"/>
       <c r="D78" s="43"/>
@@ -4293,7 +4287,7 @@
       <c r="AJ78" s="46"/>
       <c r="AK78" s="46"/>
     </row>
-    <row r="79" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:37" ht="12.75">
       <c r="B79" s="47"/>
       <c r="C79" s="47"/>
       <c r="D79" s="43"/>
@@ -4330,7 +4324,7 @@
       <c r="AJ79" s="46"/>
       <c r="AK79" s="46"/>
     </row>
-    <row r="80" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:37" ht="12.75">
       <c r="B80" s="47"/>
       <c r="C80" s="47"/>
       <c r="D80" s="43"/>
@@ -4367,7 +4361,7 @@
       <c r="AJ80" s="46"/>
       <c r="AK80" s="46"/>
     </row>
-    <row r="81" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:37" ht="12.75">
       <c r="B81" s="47"/>
       <c r="C81" s="47"/>
       <c r="D81" s="43"/>
@@ -4404,7 +4398,7 @@
       <c r="AJ81" s="46"/>
       <c r="AK81" s="46"/>
     </row>
-    <row r="82" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:37" ht="12.75">
       <c r="B82" s="47"/>
       <c r="C82" s="47"/>
       <c r="D82" s="43"/>
@@ -4441,7 +4435,7 @@
       <c r="AJ82" s="46"/>
       <c r="AK82" s="46"/>
     </row>
-    <row r="83" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:37" ht="12.75">
       <c r="B83" s="47"/>
       <c r="C83" s="47"/>
       <c r="D83" s="43"/>
@@ -4478,7 +4472,7 @@
       <c r="AJ83" s="46"/>
       <c r="AK83" s="46"/>
     </row>
-    <row r="84" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:37" ht="12.75">
       <c r="B84" s="47"/>
       <c r="C84" s="47"/>
       <c r="D84" s="43"/>
@@ -4515,7 +4509,7 @@
       <c r="AJ84" s="46"/>
       <c r="AK84" s="46"/>
     </row>
-    <row r="85" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:37" ht="12.75">
       <c r="B85" s="47"/>
       <c r="C85" s="47"/>
       <c r="D85" s="43"/>
@@ -4552,7 +4546,7 @@
       <c r="AJ85" s="46"/>
       <c r="AK85" s="46"/>
     </row>
-    <row r="86" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:37" ht="12.75">
       <c r="B86" s="47"/>
       <c r="C86" s="47"/>
       <c r="D86" s="43"/>
@@ -4589,7 +4583,7 @@
       <c r="AJ86" s="46"/>
       <c r="AK86" s="46"/>
     </row>
-    <row r="87" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:37" ht="12.75">
       <c r="B87" s="47"/>
       <c r="C87" s="47"/>
       <c r="D87" s="43"/>
@@ -4626,7 +4620,7 @@
       <c r="AJ87" s="46"/>
       <c r="AK87" s="46"/>
     </row>
-    <row r="88" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:37" ht="12.75">
       <c r="B88" s="47"/>
       <c r="C88" s="47"/>
       <c r="D88" s="43"/>
@@ -4663,7 +4657,7 @@
       <c r="AJ88" s="46"/>
       <c r="AK88" s="46"/>
     </row>
-    <row r="89" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:37" ht="12.75">
       <c r="B89" s="47"/>
       <c r="C89" s="47"/>
       <c r="D89" s="43"/>
@@ -4700,7 +4694,7 @@
       <c r="AJ89" s="46"/>
       <c r="AK89" s="46"/>
     </row>
-    <row r="90" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:37" ht="12.75">
       <c r="B90" s="47"/>
       <c r="C90" s="47"/>
       <c r="D90" s="43"/>
@@ -4737,7 +4731,7 @@
       <c r="AJ90" s="46"/>
       <c r="AK90" s="46"/>
     </row>
-    <row r="91" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:37" ht="12.75">
       <c r="B91" s="47"/>
       <c r="C91" s="47"/>
       <c r="D91" s="43"/>
@@ -4774,7 +4768,7 @@
       <c r="AJ91" s="46"/>
       <c r="AK91" s="46"/>
     </row>
-    <row r="92" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:37" ht="12.75">
       <c r="B92" s="47"/>
       <c r="C92" s="47"/>
       <c r="D92" s="43"/>
@@ -4811,7 +4805,7 @@
       <c r="AJ92" s="46"/>
       <c r="AK92" s="46"/>
     </row>
-    <row r="93" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:37" ht="12.75">
       <c r="B93" s="47"/>
       <c r="C93" s="47"/>
       <c r="D93" s="43"/>
@@ -4848,7 +4842,7 @@
       <c r="AJ93" s="46"/>
       <c r="AK93" s="46"/>
     </row>
-    <row r="94" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:37" ht="12.75">
       <c r="B94" s="47"/>
       <c r="C94" s="47"/>
       <c r="D94" s="43"/>
@@ -4885,7 +4879,7 @@
       <c r="AJ94" s="46"/>
       <c r="AK94" s="46"/>
     </row>
-    <row r="95" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:37" ht="12.75">
       <c r="B95" s="47"/>
       <c r="C95" s="47"/>
       <c r="D95" s="43"/>
@@ -4922,7 +4916,7 @@
       <c r="AJ95" s="46"/>
       <c r="AK95" s="46"/>
     </row>
-    <row r="96" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:37" ht="12.75">
       <c r="B96" s="47"/>
       <c r="C96" s="47"/>
       <c r="D96" s="43"/>
@@ -4959,7 +4953,7 @@
       <c r="AJ96" s="46"/>
       <c r="AK96" s="46"/>
     </row>
-    <row r="97" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:37" ht="12.75">
       <c r="B97" s="47"/>
       <c r="C97" s="47"/>
       <c r="D97" s="43"/>
@@ -4996,7 +4990,7 @@
       <c r="AJ97" s="46"/>
       <c r="AK97" s="46"/>
     </row>
-    <row r="98" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:37" ht="12.75">
       <c r="B98" s="47"/>
       <c r="C98" s="47"/>
       <c r="D98" s="43"/>
@@ -5033,7 +5027,7 @@
       <c r="AJ98" s="46"/>
       <c r="AK98" s="46"/>
     </row>
-    <row r="99" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:37" ht="12.75">
       <c r="B99" s="47"/>
       <c r="C99" s="47"/>
       <c r="D99" s="43"/>
@@ -5070,7 +5064,7 @@
       <c r="AJ99" s="46"/>
       <c r="AK99" s="46"/>
     </row>
-    <row r="100" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:37" ht="12.75">
       <c r="B100" s="47"/>
       <c r="C100" s="47"/>
       <c r="D100" s="43"/>
@@ -5107,7 +5101,7 @@
       <c r="AJ100" s="46"/>
       <c r="AK100" s="46"/>
     </row>
-    <row r="101" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:37" ht="12.75">
       <c r="B101" s="47"/>
       <c r="C101" s="47"/>
       <c r="D101" s="43"/>
@@ -5144,7 +5138,7 @@
       <c r="AJ101" s="46"/>
       <c r="AK101" s="46"/>
     </row>
-    <row r="102" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:37" ht="12.75">
       <c r="B102" s="47"/>
       <c r="C102" s="47"/>
       <c r="D102" s="43"/>
@@ -5181,7 +5175,7 @@
       <c r="AJ102" s="46"/>
       <c r="AK102" s="46"/>
     </row>
-    <row r="103" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:37" ht="12.75">
       <c r="B103" s="47"/>
       <c r="C103" s="47"/>
       <c r="D103" s="43"/>
@@ -5218,7 +5212,7 @@
       <c r="AJ103" s="46"/>
       <c r="AK103" s="46"/>
     </row>
-    <row r="104" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:37" ht="12.75">
       <c r="B104" s="47"/>
       <c r="C104" s="47"/>
       <c r="D104" s="43"/>
@@ -5255,7 +5249,7 @@
       <c r="AJ104" s="46"/>
       <c r="AK104" s="46"/>
     </row>
-    <row r="105" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:37" ht="12.75">
       <c r="B105" s="47"/>
       <c r="C105" s="47"/>
       <c r="D105" s="43"/>
@@ -5292,7 +5286,7 @@
       <c r="AJ105" s="46"/>
       <c r="AK105" s="46"/>
     </row>
-    <row r="106" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:37" ht="12.75">
       <c r="B106" s="47"/>
       <c r="C106" s="47"/>
       <c r="D106" s="43"/>
@@ -5329,7 +5323,7 @@
       <c r="AJ106" s="46"/>
       <c r="AK106" s="46"/>
     </row>
-    <row r="107" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:37" ht="12.75">
       <c r="B107" s="47"/>
       <c r="C107" s="47"/>
       <c r="D107" s="43"/>
@@ -5366,7 +5360,7 @@
       <c r="AJ107" s="46"/>
       <c r="AK107" s="46"/>
     </row>
-    <row r="108" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:37" ht="12.75">
       <c r="B108" s="47"/>
       <c r="C108" s="47"/>
       <c r="D108" s="43"/>
@@ -5403,7 +5397,7 @@
       <c r="AJ108" s="46"/>
       <c r="AK108" s="46"/>
     </row>
-    <row r="109" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:37" ht="12.75">
       <c r="B109" s="47"/>
       <c r="C109" s="47"/>
       <c r="D109" s="43"/>
@@ -5440,7 +5434,7 @@
       <c r="AJ109" s="46"/>
       <c r="AK109" s="46"/>
     </row>
-    <row r="110" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:37" ht="12.75">
       <c r="B110" s="47"/>
       <c r="C110" s="47"/>
       <c r="D110" s="43"/>
@@ -5477,7 +5471,7 @@
       <c r="AJ110" s="46"/>
       <c r="AK110" s="46"/>
     </row>
-    <row r="111" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:37" ht="12.75">
       <c r="B111" s="47"/>
       <c r="C111" s="47"/>
       <c r="D111" s="43"/>
@@ -5514,7 +5508,7 @@
       <c r="AJ111" s="46"/>
       <c r="AK111" s="46"/>
     </row>
-    <row r="112" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:37" ht="12.75">
       <c r="B112" s="47"/>
       <c r="C112" s="47"/>
       <c r="D112" s="43"/>
@@ -5551,7 +5545,7 @@
       <c r="AJ112" s="46"/>
       <c r="AK112" s="46"/>
     </row>
-    <row r="113" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:37" ht="12.75">
       <c r="B113" s="47"/>
       <c r="C113" s="47"/>
       <c r="D113" s="43"/>
@@ -5588,7 +5582,7 @@
       <c r="AJ113" s="46"/>
       <c r="AK113" s="46"/>
     </row>
-    <row r="114" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:37" ht="12.75">
       <c r="B114" s="47"/>
       <c r="C114" s="47"/>
       <c r="D114" s="43"/>
@@ -5625,7 +5619,7 @@
       <c r="AJ114" s="46"/>
       <c r="AK114" s="46"/>
     </row>
-    <row r="115" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:37" ht="12.75">
       <c r="B115" s="47"/>
       <c r="C115" s="47"/>
       <c r="D115" s="43"/>
@@ -5662,7 +5656,7 @@
       <c r="AJ115" s="46"/>
       <c r="AK115" s="46"/>
     </row>
-    <row r="116" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:37" ht="12.75">
       <c r="B116" s="47"/>
       <c r="C116" s="47"/>
       <c r="D116" s="43"/>
@@ -5699,7 +5693,7 @@
       <c r="AJ116" s="46"/>
       <c r="AK116" s="46"/>
     </row>
-    <row r="117" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:37" ht="12.75">
       <c r="B117" s="47"/>
       <c r="C117" s="47"/>
       <c r="D117" s="43"/>
@@ -5736,7 +5730,7 @@
       <c r="AJ117" s="46"/>
       <c r="AK117" s="46"/>
     </row>
-    <row r="118" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:37" ht="12.75">
       <c r="B118" s="47"/>
       <c r="C118" s="47"/>
       <c r="D118" s="43"/>
@@ -5773,7 +5767,7 @@
       <c r="AJ118" s="46"/>
       <c r="AK118" s="46"/>
     </row>
-    <row r="119" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:37" ht="12.75">
       <c r="B119" s="47"/>
       <c r="C119" s="47"/>
       <c r="D119" s="43"/>
@@ -5810,7 +5804,7 @@
       <c r="AJ119" s="46"/>
       <c r="AK119" s="46"/>
     </row>
-    <row r="120" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:37" ht="12.75">
       <c r="B120" s="47"/>
       <c r="C120" s="47"/>
       <c r="D120" s="43"/>
@@ -5847,7 +5841,7 @@
       <c r="AJ120" s="46"/>
       <c r="AK120" s="46"/>
     </row>
-    <row r="121" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:37" ht="12.75">
       <c r="B121" s="47"/>
       <c r="C121" s="47"/>
       <c r="D121" s="43"/>
@@ -5884,7 +5878,7 @@
       <c r="AJ121" s="46"/>
       <c r="AK121" s="46"/>
     </row>
-    <row r="122" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:37" ht="12.75">
       <c r="B122" s="47"/>
       <c r="C122" s="47"/>
       <c r="D122" s="43"/>
@@ -5921,7 +5915,7 @@
       <c r="AJ122" s="46"/>
       <c r="AK122" s="46"/>
     </row>
-    <row r="123" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:37" ht="12.75">
       <c r="B123" s="47"/>
       <c r="C123" s="47"/>
       <c r="D123" s="43"/>
@@ -5958,7 +5952,7 @@
       <c r="AJ123" s="46"/>
       <c r="AK123" s="46"/>
     </row>
-    <row r="124" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:37" ht="12.75">
       <c r="B124" s="47"/>
       <c r="C124" s="47"/>
       <c r="D124" s="43"/>
@@ -5995,7 +5989,7 @@
       <c r="AJ124" s="46"/>
       <c r="AK124" s="46"/>
     </row>
-    <row r="125" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:37" ht="12.75">
       <c r="B125" s="47"/>
       <c r="C125" s="47"/>
       <c r="D125" s="43"/>
@@ -6032,7 +6026,7 @@
       <c r="AJ125" s="46"/>
       <c r="AK125" s="46"/>
     </row>
-    <row r="126" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:37" ht="12.75">
       <c r="B126" s="47"/>
       <c r="C126" s="47"/>
       <c r="D126" s="43"/>
@@ -6069,7 +6063,7 @@
       <c r="AJ126" s="46"/>
       <c r="AK126" s="46"/>
     </row>
-    <row r="127" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:37" ht="12.75">
       <c r="B127" s="47"/>
       <c r="C127" s="47"/>
       <c r="D127" s="43"/>
@@ -6106,7 +6100,7 @@
       <c r="AJ127" s="46"/>
       <c r="AK127" s="46"/>
     </row>
-    <row r="128" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:37" ht="12.75">
       <c r="B128" s="47"/>
       <c r="C128" s="47"/>
       <c r="D128" s="43"/>
@@ -6143,7 +6137,7 @@
       <c r="AJ128" s="46"/>
       <c r="AK128" s="46"/>
     </row>
-    <row r="129" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:37" ht="12.75">
       <c r="B129" s="47"/>
       <c r="C129" s="47"/>
       <c r="D129" s="43"/>
@@ -6180,7 +6174,7 @@
       <c r="AJ129" s="46"/>
       <c r="AK129" s="46"/>
     </row>
-    <row r="130" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:37" ht="12.75">
       <c r="B130" s="47"/>
       <c r="C130" s="47"/>
       <c r="D130" s="43"/>
@@ -6217,7 +6211,7 @@
       <c r="AJ130" s="46"/>
       <c r="AK130" s="46"/>
     </row>
-    <row r="131" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:37" ht="12.75">
       <c r="B131" s="47"/>
       <c r="C131" s="47"/>
       <c r="D131" s="43"/>
@@ -6254,7 +6248,7 @@
       <c r="AJ131" s="46"/>
       <c r="AK131" s="46"/>
     </row>
-    <row r="132" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:37" ht="12.75">
       <c r="B132" s="47"/>
       <c r="C132" s="47"/>
       <c r="D132" s="43"/>
@@ -6291,7 +6285,7 @@
       <c r="AJ132" s="46"/>
       <c r="AK132" s="46"/>
     </row>
-    <row r="133" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:37" ht="12.75">
       <c r="B133" s="47"/>
       <c r="C133" s="47"/>
       <c r="D133" s="43"/>
@@ -6328,7 +6322,7 @@
       <c r="AJ133" s="46"/>
       <c r="AK133" s="46"/>
     </row>
-    <row r="134" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:37" ht="12.75">
       <c r="B134" s="47"/>
       <c r="C134" s="47"/>
       <c r="D134" s="43"/>
@@ -6365,7 +6359,7 @@
       <c r="AJ134" s="46"/>
       <c r="AK134" s="46"/>
     </row>
-    <row r="135" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:37" ht="12.75">
       <c r="B135" s="47"/>
       <c r="C135" s="47"/>
       <c r="D135" s="43"/>
@@ -6402,7 +6396,7 @@
       <c r="AJ135" s="46"/>
       <c r="AK135" s="46"/>
     </row>
-    <row r="136" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:37" ht="12.75">
       <c r="B136" s="47"/>
       <c r="C136" s="47"/>
       <c r="D136" s="43"/>
@@ -6439,7 +6433,7 @@
       <c r="AJ136" s="46"/>
       <c r="AK136" s="46"/>
     </row>
-    <row r="137" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:37" ht="12.75">
       <c r="B137" s="47"/>
       <c r="C137" s="47"/>
       <c r="D137" s="43"/>
@@ -6476,7 +6470,7 @@
       <c r="AJ137" s="46"/>
       <c r="AK137" s="46"/>
     </row>
-    <row r="138" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:37" ht="12.75">
       <c r="B138" s="47"/>
       <c r="C138" s="47"/>
       <c r="D138" s="43"/>
@@ -6513,7 +6507,7 @@
       <c r="AJ138" s="46"/>
       <c r="AK138" s="46"/>
     </row>
-    <row r="139" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:37" ht="12.75">
       <c r="B139" s="47"/>
       <c r="C139" s="47"/>
       <c r="D139" s="43"/>
@@ -6550,7 +6544,7 @@
       <c r="AJ139" s="46"/>
       <c r="AK139" s="46"/>
     </row>
-    <row r="140" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:37" ht="12.75">
       <c r="B140" s="47"/>
       <c r="C140" s="47"/>
       <c r="D140" s="43"/>
@@ -6587,7 +6581,7 @@
       <c r="AJ140" s="46"/>
       <c r="AK140" s="46"/>
     </row>
-    <row r="141" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:37" ht="12.75">
       <c r="B141" s="47"/>
       <c r="C141" s="47"/>
       <c r="D141" s="43"/>
@@ -6624,7 +6618,7 @@
       <c r="AJ141" s="46"/>
       <c r="AK141" s="46"/>
     </row>
-    <row r="142" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:37" ht="12.75">
       <c r="B142" s="47"/>
       <c r="C142" s="47"/>
       <c r="D142" s="43"/>
@@ -6661,7 +6655,7 @@
       <c r="AJ142" s="46"/>
       <c r="AK142" s="46"/>
     </row>
-    <row r="143" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:37" ht="12.75">
       <c r="B143" s="47"/>
       <c r="C143" s="47"/>
       <c r="D143" s="43"/>
@@ -6698,7 +6692,7 @@
       <c r="AJ143" s="46"/>
       <c r="AK143" s="46"/>
     </row>
-    <row r="144" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:37" ht="12.75">
       <c r="B144" s="47"/>
       <c r="C144" s="47"/>
       <c r="D144" s="43"/>
@@ -6735,7 +6729,7 @@
       <c r="AJ144" s="46"/>
       <c r="AK144" s="46"/>
     </row>
-    <row r="145" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:37" ht="12.75">
       <c r="B145" s="47"/>
       <c r="C145" s="47"/>
       <c r="D145" s="43"/>
@@ -6772,7 +6766,7 @@
       <c r="AJ145" s="46"/>
       <c r="AK145" s="46"/>
     </row>
-    <row r="146" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:37" ht="12.75">
       <c r="B146" s="47"/>
       <c r="C146" s="47"/>
       <c r="D146" s="43"/>
@@ -6809,7 +6803,7 @@
       <c r="AJ146" s="46"/>
       <c r="AK146" s="46"/>
     </row>
-    <row r="147" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:37" ht="12.75">
       <c r="B147" s="47"/>
       <c r="C147" s="47"/>
       <c r="D147" s="43"/>
@@ -6846,7 +6840,7 @@
       <c r="AJ147" s="46"/>
       <c r="AK147" s="46"/>
     </row>
-    <row r="148" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:37" ht="12.75">
       <c r="B148" s="47"/>
       <c r="C148" s="47"/>
       <c r="D148" s="43"/>
@@ -6883,7 +6877,7 @@
       <c r="AJ148" s="46"/>
       <c r="AK148" s="46"/>
     </row>
-    <row r="149" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:37" ht="12.75">
       <c r="B149" s="47"/>
       <c r="C149" s="47"/>
       <c r="D149" s="43"/>
@@ -6920,7 +6914,7 @@
       <c r="AJ149" s="46"/>
       <c r="AK149" s="46"/>
     </row>
-    <row r="150" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:37" ht="12.75">
       <c r="B150" s="47"/>
       <c r="C150" s="47"/>
       <c r="D150" s="43"/>
@@ -6957,7 +6951,7 @@
       <c r="AJ150" s="46"/>
       <c r="AK150" s="46"/>
     </row>
-    <row r="151" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:37" ht="12.75">
       <c r="B151" s="47"/>
       <c r="C151" s="47"/>
       <c r="D151" s="43"/>
@@ -6994,7 +6988,7 @@
       <c r="AJ151" s="46"/>
       <c r="AK151" s="46"/>
     </row>
-    <row r="152" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:37" ht="12.75">
       <c r="B152" s="47"/>
       <c r="C152" s="47"/>
       <c r="D152" s="43"/>
@@ -7031,7 +7025,7 @@
       <c r="AJ152" s="46"/>
       <c r="AK152" s="46"/>
     </row>
-    <row r="153" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:37" ht="12.75">
       <c r="B153" s="47"/>
       <c r="C153" s="47"/>
       <c r="D153" s="43"/>
@@ -7068,7 +7062,7 @@
       <c r="AJ153" s="46"/>
       <c r="AK153" s="46"/>
     </row>
-    <row r="154" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:37" ht="12.75">
       <c r="B154" s="47"/>
       <c r="C154" s="47"/>
       <c r="D154" s="43"/>
@@ -7105,7 +7099,7 @@
       <c r="AJ154" s="46"/>
       <c r="AK154" s="46"/>
     </row>
-    <row r="155" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:37" ht="12.75">
       <c r="B155" s="47"/>
       <c r="C155" s="47"/>
       <c r="D155" s="43"/>
@@ -7142,7 +7136,7 @@
       <c r="AJ155" s="46"/>
       <c r="AK155" s="46"/>
     </row>
-    <row r="156" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:37" ht="12.75">
       <c r="B156" s="47"/>
       <c r="C156" s="47"/>
       <c r="D156" s="43"/>
@@ -7179,7 +7173,7 @@
       <c r="AJ156" s="46"/>
       <c r="AK156" s="46"/>
     </row>
-    <row r="157" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:37" ht="12.75">
       <c r="B157" s="47"/>
       <c r="C157" s="47"/>
       <c r="D157" s="43"/>
@@ -7216,7 +7210,7 @@
       <c r="AJ157" s="46"/>
       <c r="AK157" s="46"/>
     </row>
-    <row r="158" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:37" ht="12.75">
       <c r="B158" s="47"/>
       <c r="C158" s="47"/>
       <c r="D158" s="43"/>
@@ -7253,7 +7247,7 @@
       <c r="AJ158" s="46"/>
       <c r="AK158" s="46"/>
     </row>
-    <row r="159" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:37" ht="12.75">
       <c r="B159" s="47"/>
       <c r="C159" s="47"/>
       <c r="D159" s="43"/>
@@ -7290,7 +7284,7 @@
       <c r="AJ159" s="46"/>
       <c r="AK159" s="46"/>
     </row>
-    <row r="160" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:37" ht="12.75">
       <c r="B160" s="47"/>
       <c r="C160" s="47"/>
       <c r="D160" s="43"/>
@@ -7327,7 +7321,7 @@
       <c r="AJ160" s="46"/>
       <c r="AK160" s="46"/>
     </row>
-    <row r="161" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:37" ht="12.75">
       <c r="B161" s="47"/>
       <c r="C161" s="47"/>
       <c r="D161" s="43"/>
@@ -7364,7 +7358,7 @@
       <c r="AJ161" s="46"/>
       <c r="AK161" s="46"/>
     </row>
-    <row r="162" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:37" ht="12.75">
       <c r="B162" s="47"/>
       <c r="C162" s="47"/>
       <c r="D162" s="43"/>
@@ -7401,7 +7395,7 @@
       <c r="AJ162" s="46"/>
       <c r="AK162" s="46"/>
     </row>
-    <row r="163" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:37" ht="12.75">
       <c r="B163" s="47"/>
       <c r="C163" s="47"/>
       <c r="D163" s="43"/>
@@ -7438,7 +7432,7 @@
       <c r="AJ163" s="46"/>
       <c r="AK163" s="46"/>
     </row>
-    <row r="164" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:37" ht="12.75">
       <c r="B164" s="47"/>
       <c r="C164" s="47"/>
       <c r="D164" s="43"/>
@@ -7475,7 +7469,7 @@
       <c r="AJ164" s="46"/>
       <c r="AK164" s="46"/>
     </row>
-    <row r="165" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:37" ht="12.75">
       <c r="B165" s="47"/>
       <c r="C165" s="47"/>
       <c r="D165" s="43"/>
@@ -7512,7 +7506,7 @@
       <c r="AJ165" s="46"/>
       <c r="AK165" s="46"/>
     </row>
-    <row r="166" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:37" ht="12.75">
       <c r="B166" s="47"/>
       <c r="C166" s="47"/>
       <c r="D166" s="43"/>
@@ -7549,7 +7543,7 @@
       <c r="AJ166" s="46"/>
       <c r="AK166" s="46"/>
     </row>
-    <row r="167" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:37" ht="12.75">
       <c r="B167" s="47"/>
       <c r="C167" s="47"/>
       <c r="D167" s="43"/>
@@ -7586,7 +7580,7 @@
       <c r="AJ167" s="46"/>
       <c r="AK167" s="46"/>
     </row>
-    <row r="168" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:37" ht="12.75">
       <c r="B168" s="47"/>
       <c r="C168" s="47"/>
       <c r="D168" s="43"/>
@@ -7623,7 +7617,7 @@
       <c r="AJ168" s="46"/>
       <c r="AK168" s="46"/>
     </row>
-    <row r="169" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:37" ht="12.75">
       <c r="B169" s="47"/>
       <c r="C169" s="47"/>
       <c r="D169" s="43"/>
@@ -7660,7 +7654,7 @@
       <c r="AJ169" s="46"/>
       <c r="AK169" s="46"/>
     </row>
-    <row r="170" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:37" ht="12.75">
       <c r="B170" s="47"/>
       <c r="C170" s="47"/>
       <c r="D170" s="43"/>
@@ -7697,7 +7691,7 @@
       <c r="AJ170" s="46"/>
       <c r="AK170" s="46"/>
     </row>
-    <row r="171" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:37" ht="12.75">
       <c r="B171" s="47"/>
       <c r="C171" s="47"/>
       <c r="D171" s="43"/>
@@ -7734,7 +7728,7 @@
       <c r="AJ171" s="46"/>
       <c r="AK171" s="46"/>
     </row>
-    <row r="172" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:37" ht="12.75">
       <c r="B172" s="47"/>
       <c r="C172" s="47"/>
       <c r="D172" s="43"/>
@@ -7771,7 +7765,7 @@
       <c r="AJ172" s="46"/>
       <c r="AK172" s="46"/>
     </row>
-    <row r="173" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:37" ht="12.75">
       <c r="B173" s="47"/>
       <c r="C173" s="47"/>
       <c r="D173" s="43"/>
@@ -7808,7 +7802,7 @@
       <c r="AJ173" s="46"/>
       <c r="AK173" s="46"/>
     </row>
-    <row r="174" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:37" ht="12.75">
       <c r="B174" s="47"/>
       <c r="C174" s="47"/>
       <c r="D174" s="43"/>
@@ -7845,7 +7839,7 @@
       <c r="AJ174" s="46"/>
       <c r="AK174" s="46"/>
     </row>
-    <row r="175" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:37" ht="12.75">
       <c r="B175" s="47"/>
       <c r="C175" s="47"/>
       <c r="D175" s="43"/>
@@ -7882,7 +7876,7 @@
       <c r="AJ175" s="46"/>
       <c r="AK175" s="46"/>
     </row>
-    <row r="176" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:37" ht="12.75">
       <c r="B176" s="47"/>
       <c r="C176" s="47"/>
       <c r="D176" s="43"/>
@@ -7919,7 +7913,7 @@
       <c r="AJ176" s="46"/>
       <c r="AK176" s="46"/>
     </row>
-    <row r="177" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:37" ht="12.75">
       <c r="B177" s="47"/>
       <c r="C177" s="47"/>
       <c r="D177" s="43"/>
@@ -7956,7 +7950,7 @@
       <c r="AJ177" s="46"/>
       <c r="AK177" s="46"/>
     </row>
-    <row r="178" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:37" ht="12.75">
       <c r="B178" s="47"/>
       <c r="C178" s="47"/>
       <c r="D178" s="43"/>
@@ -7993,7 +7987,7 @@
       <c r="AJ178" s="46"/>
       <c r="AK178" s="46"/>
     </row>
-    <row r="179" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:37" ht="12.75">
       <c r="B179" s="47"/>
       <c r="C179" s="47"/>
       <c r="D179" s="43"/>
@@ -8030,7 +8024,7 @@
       <c r="AJ179" s="46"/>
       <c r="AK179" s="46"/>
     </row>
-    <row r="180" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:37" ht="12.75">
       <c r="B180" s="47"/>
       <c r="C180" s="47"/>
       <c r="D180" s="43"/>
@@ -8067,7 +8061,7 @@
       <c r="AJ180" s="46"/>
       <c r="AK180" s="46"/>
     </row>
-    <row r="181" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:37" ht="12.75">
       <c r="B181" s="47"/>
       <c r="C181" s="47"/>
       <c r="D181" s="43"/>
@@ -8104,7 +8098,7 @@
       <c r="AJ181" s="46"/>
       <c r="AK181" s="46"/>
     </row>
-    <row r="182" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:37" ht="12.75">
       <c r="B182" s="47"/>
       <c r="C182" s="47"/>
       <c r="D182" s="43"/>
@@ -8141,7 +8135,7 @@
       <c r="AJ182" s="46"/>
       <c r="AK182" s="46"/>
     </row>
-    <row r="183" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:37" ht="12.75">
       <c r="B183" s="47"/>
       <c r="C183" s="47"/>
       <c r="D183" s="43"/>
@@ -8178,7 +8172,7 @@
       <c r="AJ183" s="46"/>
       <c r="AK183" s="46"/>
     </row>
-    <row r="184" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:37" ht="12.75">
       <c r="B184" s="47"/>
       <c r="C184" s="47"/>
       <c r="D184" s="43"/>
@@ -8215,7 +8209,7 @@
       <c r="AJ184" s="46"/>
       <c r="AK184" s="46"/>
     </row>
-    <row r="185" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:37" ht="12.75">
       <c r="B185" s="47"/>
       <c r="C185" s="47"/>
       <c r="D185" s="43"/>
@@ -8252,7 +8246,7 @@
       <c r="AJ185" s="46"/>
       <c r="AK185" s="46"/>
     </row>
-    <row r="186" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:37" ht="12.75">
       <c r="B186" s="47"/>
       <c r="C186" s="47"/>
       <c r="D186" s="43"/>
@@ -8289,7 +8283,7 @@
       <c r="AJ186" s="46"/>
       <c r="AK186" s="46"/>
     </row>
-    <row r="187" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:37" ht="12.75">
       <c r="B187" s="47"/>
       <c r="C187" s="47"/>
       <c r="D187" s="43"/>
@@ -8326,7 +8320,7 @@
       <c r="AJ187" s="46"/>
       <c r="AK187" s="46"/>
     </row>
-    <row r="188" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:37" ht="12.75">
       <c r="B188" s="47"/>
       <c r="C188" s="47"/>
       <c r="D188" s="43"/>
@@ -8363,7 +8357,7 @@
       <c r="AJ188" s="46"/>
       <c r="AK188" s="46"/>
     </row>
-    <row r="189" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:37" ht="12.75">
       <c r="B189" s="47"/>
       <c r="C189" s="47"/>
       <c r="D189" s="43"/>
@@ -8400,7 +8394,7 @@
       <c r="AJ189" s="46"/>
       <c r="AK189" s="46"/>
     </row>
-    <row r="190" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:37" ht="12.75">
       <c r="B190" s="47"/>
       <c r="C190" s="47"/>
       <c r="D190" s="43"/>
@@ -8437,7 +8431,7 @@
       <c r="AJ190" s="46"/>
       <c r="AK190" s="46"/>
     </row>
-    <row r="191" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:37" ht="12.75">
       <c r="B191" s="47"/>
       <c r="C191" s="47"/>
       <c r="D191" s="43"/>
@@ -8474,7 +8468,7 @@
       <c r="AJ191" s="46"/>
       <c r="AK191" s="46"/>
     </row>
-    <row r="192" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:37" ht="12.75">
       <c r="B192" s="47"/>
       <c r="C192" s="47"/>
       <c r="D192" s="43"/>
@@ -8511,7 +8505,7 @@
       <c r="AJ192" s="46"/>
       <c r="AK192" s="46"/>
     </row>
-    <row r="193" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:37" ht="12.75">
       <c r="B193" s="47"/>
       <c r="C193" s="47"/>
       <c r="D193" s="43"/>
@@ -8548,7 +8542,7 @@
       <c r="AJ193" s="46"/>
       <c r="AK193" s="46"/>
     </row>
-    <row r="194" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:37" ht="12.75">
       <c r="B194" s="47"/>
       <c r="C194" s="47"/>
       <c r="D194" s="43"/>
@@ -8585,7 +8579,7 @@
       <c r="AJ194" s="46"/>
       <c r="AK194" s="46"/>
     </row>
-    <row r="195" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:37" ht="12.75">
       <c r="B195" s="47"/>
       <c r="C195" s="47"/>
       <c r="D195" s="43"/>
@@ -8622,7 +8616,7 @@
       <c r="AJ195" s="46"/>
       <c r="AK195" s="46"/>
     </row>
-    <row r="196" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:37" ht="12.75">
       <c r="B196" s="47"/>
       <c r="C196" s="47"/>
       <c r="D196" s="43"/>
@@ -8659,7 +8653,7 @@
       <c r="AJ196" s="46"/>
       <c r="AK196" s="46"/>
     </row>
-    <row r="197" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:37" ht="12.75">
       <c r="B197" s="47"/>
       <c r="C197" s="47"/>
       <c r="D197" s="43"/>
@@ -8696,7 +8690,7 @@
       <c r="AJ197" s="46"/>
       <c r="AK197" s="46"/>
     </row>
-    <row r="198" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:37" ht="12.75">
       <c r="B198" s="47"/>
       <c r="C198" s="47"/>
       <c r="D198" s="43"/>
@@ -8733,7 +8727,7 @@
       <c r="AJ198" s="46"/>
       <c r="AK198" s="46"/>
     </row>
-    <row r="199" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:37" ht="12.75">
       <c r="B199" s="47"/>
       <c r="C199" s="47"/>
       <c r="D199" s="43"/>
@@ -8770,7 +8764,7 @@
       <c r="AJ199" s="46"/>
       <c r="AK199" s="46"/>
     </row>
-    <row r="200" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:37" ht="12.75">
       <c r="B200" s="47"/>
       <c r="C200" s="47"/>
       <c r="D200" s="43"/>
@@ -8807,7 +8801,7 @@
       <c r="AJ200" s="46"/>
       <c r="AK200" s="46"/>
     </row>
-    <row r="201" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:37" ht="12.75">
       <c r="B201" s="47"/>
       <c r="C201" s="47"/>
       <c r="D201" s="43"/>
@@ -8844,7 +8838,7 @@
       <c r="AJ201" s="46"/>
       <c r="AK201" s="46"/>
     </row>
-    <row r="202" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:37" ht="12.75">
       <c r="B202" s="47"/>
       <c r="C202" s="47"/>
       <c r="D202" s="43"/>
@@ -8881,7 +8875,7 @@
       <c r="AJ202" s="46"/>
       <c r="AK202" s="46"/>
     </row>
-    <row r="203" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:37" ht="12.75">
       <c r="B203" s="47"/>
       <c r="C203" s="47"/>
       <c r="D203" s="43"/>
@@ -8918,7 +8912,7 @@
       <c r="AJ203" s="46"/>
       <c r="AK203" s="46"/>
     </row>
-    <row r="204" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:37" ht="12.75">
       <c r="B204" s="47"/>
       <c r="C204" s="47"/>
       <c r="D204" s="43"/>
@@ -8955,7 +8949,7 @@
       <c r="AJ204" s="46"/>
       <c r="AK204" s="46"/>
     </row>
-    <row r="205" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:37" ht="12.75">
       <c r="B205" s="47"/>
       <c r="C205" s="47"/>
       <c r="D205" s="43"/>
@@ -8992,7 +8986,7 @@
       <c r="AJ205" s="46"/>
       <c r="AK205" s="46"/>
     </row>
-    <row r="206" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:37" ht="12.75">
       <c r="B206" s="47"/>
       <c r="C206" s="47"/>
       <c r="D206" s="43"/>
@@ -9029,7 +9023,7 @@
       <c r="AJ206" s="46"/>
       <c r="AK206" s="46"/>
     </row>
-    <row r="207" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:37" ht="12.75">
       <c r="B207" s="47"/>
       <c r="C207" s="47"/>
       <c r="D207" s="43"/>
@@ -9066,7 +9060,7 @@
       <c r="AJ207" s="46"/>
       <c r="AK207" s="46"/>
     </row>
-    <row r="208" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:37" ht="12.75">
       <c r="B208" s="47"/>
       <c r="C208" s="47"/>
       <c r="D208" s="43"/>
@@ -9103,7 +9097,7 @@
       <c r="AJ208" s="46"/>
       <c r="AK208" s="46"/>
     </row>
-    <row r="209" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:37" ht="12.75">
       <c r="B209" s="47"/>
       <c r="C209" s="47"/>
       <c r="D209" s="43"/>
@@ -9140,7 +9134,7 @@
       <c r="AJ209" s="46"/>
       <c r="AK209" s="46"/>
     </row>
-    <row r="210" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:37" ht="12.75">
       <c r="B210" s="47"/>
       <c r="C210" s="47"/>
       <c r="D210" s="43"/>
@@ -9177,7 +9171,7 @@
       <c r="AJ210" s="46"/>
       <c r="AK210" s="46"/>
     </row>
-    <row r="211" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:37" ht="12.75">
       <c r="B211" s="47"/>
       <c r="C211" s="47"/>
       <c r="D211" s="43"/>
@@ -9214,7 +9208,7 @@
       <c r="AJ211" s="46"/>
       <c r="AK211" s="46"/>
     </row>
-    <row r="212" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:37" ht="12.75">
       <c r="B212" s="47"/>
       <c r="C212" s="47"/>
       <c r="D212" s="43"/>
@@ -9251,7 +9245,7 @@
       <c r="AJ212" s="46"/>
       <c r="AK212" s="46"/>
     </row>
-    <row r="213" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:37" ht="12.75">
       <c r="B213" s="47"/>
       <c r="C213" s="47"/>
       <c r="D213" s="43"/>
@@ -9288,7 +9282,7 @@
       <c r="AJ213" s="46"/>
       <c r="AK213" s="46"/>
     </row>
-    <row r="214" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:37" ht="12.75">
       <c r="B214" s="47"/>
       <c r="C214" s="47"/>
       <c r="D214" s="43"/>
@@ -9325,7 +9319,7 @@
       <c r="AJ214" s="46"/>
       <c r="AK214" s="46"/>
     </row>
-    <row r="215" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:37" ht="12.75">
       <c r="B215" s="47"/>
       <c r="C215" s="47"/>
       <c r="D215" s="43"/>
@@ -9362,7 +9356,7 @@
       <c r="AJ215" s="46"/>
       <c r="AK215" s="46"/>
     </row>
-    <row r="216" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:37" ht="12.75">
       <c r="B216" s="47"/>
       <c r="C216" s="47"/>
       <c r="D216" s="43"/>
@@ -9399,7 +9393,7 @@
       <c r="AJ216" s="46"/>
       <c r="AK216" s="46"/>
     </row>
-    <row r="217" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:37" ht="12.75">
       <c r="B217" s="47"/>
       <c r="C217" s="47"/>
       <c r="D217" s="43"/>
@@ -9436,7 +9430,7 @@
       <c r="AJ217" s="46"/>
       <c r="AK217" s="46"/>
     </row>
-    <row r="218" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:37" ht="12.75">
       <c r="B218" s="47"/>
       <c r="C218" s="47"/>
       <c r="D218" s="43"/>
@@ -9473,7 +9467,7 @@
       <c r="AJ218" s="46"/>
       <c r="AK218" s="46"/>
     </row>
-    <row r="219" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:37" ht="12.75">
       <c r="B219" s="47"/>
       <c r="C219" s="47"/>
       <c r="D219" s="43"/>
@@ -9510,7 +9504,7 @@
       <c r="AJ219" s="46"/>
       <c r="AK219" s="46"/>
     </row>
-    <row r="220" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:37" ht="12.75">
       <c r="B220" s="47"/>
       <c r="C220" s="47"/>
       <c r="D220" s="43"/>
@@ -9547,7 +9541,7 @@
       <c r="AJ220" s="46"/>
       <c r="AK220" s="46"/>
     </row>
-    <row r="221" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:37" ht="12.75">
       <c r="B221" s="47"/>
       <c r="C221" s="47"/>
       <c r="D221" s="43"/>
@@ -9584,7 +9578,7 @@
       <c r="AJ221" s="46"/>
       <c r="AK221" s="46"/>
     </row>
-    <row r="222" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:37" ht="12.75">
       <c r="B222" s="47"/>
       <c r="C222" s="47"/>
       <c r="D222" s="43"/>
@@ -9621,7 +9615,7 @@
       <c r="AJ222" s="46"/>
       <c r="AK222" s="46"/>
     </row>
-    <row r="223" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:37" ht="12.75">
       <c r="B223" s="47"/>
       <c r="C223" s="47"/>
       <c r="D223" s="43"/>
@@ -9658,7 +9652,7 @@
       <c r="AJ223" s="46"/>
       <c r="AK223" s="46"/>
     </row>
-    <row r="224" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:37" ht="12.75">
       <c r="B224" s="47"/>
       <c r="C224" s="47"/>
       <c r="D224" s="43"/>
@@ -9695,7 +9689,7 @@
       <c r="AJ224" s="46"/>
       <c r="AK224" s="46"/>
     </row>
-    <row r="225" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:37" ht="12.75">
       <c r="B225" s="47"/>
       <c r="C225" s="47"/>
       <c r="D225" s="43"/>
@@ -9732,7 +9726,7 @@
       <c r="AJ225" s="46"/>
       <c r="AK225" s="46"/>
     </row>
-    <row r="226" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:37" ht="12.75">
       <c r="B226" s="47"/>
       <c r="C226" s="47"/>
       <c r="D226" s="43"/>
@@ -9769,7 +9763,7 @@
       <c r="AJ226" s="46"/>
       <c r="AK226" s="46"/>
     </row>
-    <row r="227" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:37" ht="12.75">
       <c r="B227" s="47"/>
       <c r="C227" s="47"/>
       <c r="D227" s="43"/>
@@ -9806,7 +9800,7 @@
       <c r="AJ227" s="46"/>
       <c r="AK227" s="46"/>
     </row>
-    <row r="228" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:37" ht="12.75">
       <c r="B228" s="47"/>
       <c r="C228" s="47"/>
       <c r="D228" s="43"/>
@@ -9843,7 +9837,7 @@
       <c r="AJ228" s="46"/>
       <c r="AK228" s="46"/>
     </row>
-    <row r="229" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:37" ht="12.75">
       <c r="B229" s="47"/>
       <c r="C229" s="47"/>
       <c r="D229" s="43"/>
@@ -9880,7 +9874,7 @@
       <c r="AJ229" s="46"/>
       <c r="AK229" s="46"/>
     </row>
-    <row r="230" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:37" ht="12.75">
       <c r="B230" s="47"/>
       <c r="C230" s="47"/>
       <c r="D230" s="43"/>
@@ -9917,7 +9911,7 @@
       <c r="AJ230" s="46"/>
       <c r="AK230" s="46"/>
     </row>
-    <row r="231" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:37" ht="12.75">
       <c r="B231" s="47"/>
       <c r="C231" s="47"/>
       <c r="D231" s="43"/>
@@ -9954,7 +9948,7 @@
       <c r="AJ231" s="46"/>
       <c r="AK231" s="46"/>
     </row>
-    <row r="232" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:37" ht="12.75">
       <c r="B232" s="47"/>
       <c r="C232" s="47"/>
       <c r="D232" s="43"/>
@@ -9991,7 +9985,7 @@
       <c r="AJ232" s="46"/>
       <c r="AK232" s="46"/>
     </row>
-    <row r="233" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:37" ht="12.75">
       <c r="B233" s="47"/>
       <c r="C233" s="47"/>
       <c r="D233" s="43"/>
@@ -10028,7 +10022,7 @@
       <c r="AJ233" s="46"/>
       <c r="AK233" s="46"/>
     </row>
-    <row r="234" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:37" ht="12.75">
       <c r="B234" s="47"/>
       <c r="C234" s="47"/>
       <c r="D234" s="43"/>
@@ -10065,7 +10059,7 @@
       <c r="AJ234" s="46"/>
       <c r="AK234" s="46"/>
     </row>
-    <row r="235" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:37" ht="12.75">
       <c r="B235" s="47"/>
       <c r="C235" s="47"/>
       <c r="D235" s="43"/>
@@ -10102,7 +10096,7 @@
       <c r="AJ235" s="46"/>
       <c r="AK235" s="46"/>
     </row>
-    <row r="236" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:37" ht="12.75">
       <c r="B236" s="47"/>
       <c r="C236" s="47"/>
       <c r="D236" s="43"/>
@@ -10139,7 +10133,7 @@
       <c r="AJ236" s="46"/>
       <c r="AK236" s="46"/>
     </row>
-    <row r="237" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:37" ht="12.75">
       <c r="B237" s="47"/>
       <c r="C237" s="47"/>
       <c r="D237" s="43"/>
@@ -10176,7 +10170,7 @@
       <c r="AJ237" s="46"/>
       <c r="AK237" s="46"/>
     </row>
-    <row r="238" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:37" ht="12.75">
       <c r="B238" s="47"/>
       <c r="C238" s="47"/>
       <c r="D238" s="43"/>
@@ -10213,7 +10207,7 @@
       <c r="AJ238" s="46"/>
       <c r="AK238" s="46"/>
     </row>
-    <row r="239" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:37" ht="12.75">
       <c r="B239" s="47"/>
       <c r="C239" s="47"/>
       <c r="D239" s="43"/>
@@ -10250,7 +10244,7 @@
       <c r="AJ239" s="46"/>
       <c r="AK239" s="46"/>
     </row>
-    <row r="240" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:37" ht="12.75">
       <c r="B240" s="47"/>
       <c r="C240" s="47"/>
       <c r="D240" s="43"/>
@@ -10287,7 +10281,7 @@
       <c r="AJ240" s="46"/>
       <c r="AK240" s="46"/>
     </row>
-    <row r="241" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:37" ht="12.75">
       <c r="B241" s="47"/>
       <c r="C241" s="47"/>
       <c r="D241" s="43"/>
@@ -10324,7 +10318,7 @@
       <c r="AJ241" s="46"/>
       <c r="AK241" s="46"/>
     </row>
-    <row r="242" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:37" ht="12.75">
       <c r="B242" s="47"/>
       <c r="C242" s="47"/>
       <c r="D242" s="43"/>
@@ -10361,7 +10355,7 @@
       <c r="AJ242" s="46"/>
       <c r="AK242" s="46"/>
     </row>
-    <row r="243" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:37" ht="12.75">
       <c r="B243" s="47"/>
       <c r="C243" s="47"/>
       <c r="D243" s="43"/>
@@ -10398,7 +10392,7 @@
       <c r="AJ243" s="46"/>
       <c r="AK243" s="46"/>
     </row>
-    <row r="244" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:37" ht="12.75">
       <c r="B244" s="47"/>
       <c r="C244" s="47"/>
       <c r="D244" s="43"/>
@@ -10435,7 +10429,7 @@
       <c r="AJ244" s="46"/>
       <c r="AK244" s="46"/>
     </row>
-    <row r="245" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:37" ht="12.75">
       <c r="B245" s="47"/>
       <c r="C245" s="47"/>
       <c r="D245" s="43"/>
@@ -10472,7 +10466,7 @@
       <c r="AJ245" s="46"/>
       <c r="AK245" s="46"/>
     </row>
-    <row r="246" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:37" ht="12.75">
       <c r="B246" s="47"/>
       <c r="C246" s="47"/>
       <c r="D246" s="43"/>
@@ -10509,7 +10503,7 @@
       <c r="AJ246" s="46"/>
       <c r="AK246" s="46"/>
     </row>
-    <row r="247" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:37" ht="12.75">
       <c r="B247" s="47"/>
       <c r="C247" s="47"/>
       <c r="D247" s="43"/>
@@ -10546,7 +10540,7 @@
       <c r="AJ247" s="46"/>
       <c r="AK247" s="46"/>
     </row>
-    <row r="248" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:37" ht="12.75">
       <c r="B248" s="47"/>
       <c r="C248" s="47"/>
       <c r="D248" s="43"/>
@@ -10583,7 +10577,7 @@
       <c r="AJ248" s="46"/>
       <c r="AK248" s="46"/>
     </row>
-    <row r="249" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:37" ht="12.75">
       <c r="B249" s="47"/>
       <c r="C249" s="47"/>
       <c r="D249" s="43"/>
@@ -10620,7 +10614,7 @@
       <c r="AJ249" s="46"/>
       <c r="AK249" s="46"/>
     </row>
-    <row r="250" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:37" ht="12.75">
       <c r="B250" s="47"/>
       <c r="C250" s="47"/>
       <c r="D250" s="43"/>
@@ -10657,7 +10651,7 @@
       <c r="AJ250" s="46"/>
       <c r="AK250" s="46"/>
     </row>
-    <row r="251" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:37" ht="12.75">
       <c r="B251" s="47"/>
       <c r="C251" s="47"/>
       <c r="D251" s="43"/>
@@ -10694,7 +10688,7 @@
       <c r="AJ251" s="46"/>
       <c r="AK251" s="46"/>
     </row>
-    <row r="252" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:37" ht="12.75">
       <c r="B252" s="47"/>
       <c r="C252" s="47"/>
       <c r="D252" s="43"/>
@@ -10731,7 +10725,7 @@
       <c r="AJ252" s="46"/>
       <c r="AK252" s="46"/>
     </row>
-    <row r="253" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:37" ht="12.75">
       <c r="B253" s="47"/>
       <c r="C253" s="47"/>
       <c r="D253" s="43"/>
@@ -10768,7 +10762,7 @@
       <c r="AJ253" s="46"/>
       <c r="AK253" s="46"/>
     </row>
-    <row r="254" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:37" ht="12.75">
       <c r="B254" s="47"/>
       <c r="C254" s="47"/>
       <c r="D254" s="43"/>
@@ -10805,7 +10799,7 @@
       <c r="AJ254" s="46"/>
       <c r="AK254" s="46"/>
     </row>
-    <row r="255" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:37" ht="12.75">
       <c r="B255" s="47"/>
       <c r="C255" s="47"/>
       <c r="D255" s="43"/>
@@ -10842,7 +10836,7 @@
       <c r="AJ255" s="46"/>
       <c r="AK255" s="46"/>
     </row>
-    <row r="256" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:37" ht="12.75">
       <c r="B256" s="47"/>
       <c r="C256" s="47"/>
       <c r="D256" s="43"/>
@@ -10879,7 +10873,7 @@
       <c r="AJ256" s="46"/>
       <c r="AK256" s="46"/>
     </row>
-    <row r="257" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:37" ht="12.75">
       <c r="B257" s="47"/>
       <c r="C257" s="47"/>
       <c r="D257" s="43"/>
@@ -10916,7 +10910,7 @@
       <c r="AJ257" s="46"/>
       <c r="AK257" s="46"/>
     </row>
-    <row r="258" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:37" ht="12.75">
       <c r="B258" s="47"/>
       <c r="C258" s="47"/>
       <c r="D258" s="43"/>
@@ -10953,7 +10947,7 @@
       <c r="AJ258" s="46"/>
       <c r="AK258" s="46"/>
     </row>
-    <row r="259" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:37" ht="12.75">
       <c r="B259" s="47"/>
       <c r="C259" s="47"/>
       <c r="D259" s="43"/>
@@ -10990,7 +10984,7 @@
       <c r="AJ259" s="46"/>
       <c r="AK259" s="46"/>
     </row>
-    <row r="260" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:37" ht="12.75">
       <c r="B260" s="47"/>
       <c r="C260" s="47"/>
       <c r="D260" s="43"/>
@@ -11027,7 +11021,7 @@
       <c r="AJ260" s="46"/>
       <c r="AK260" s="46"/>
     </row>
-    <row r="261" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:37" ht="12.75">
       <c r="B261" s="47"/>
       <c r="C261" s="47"/>
       <c r="D261" s="43"/>
@@ -11064,7 +11058,7 @@
       <c r="AJ261" s="46"/>
       <c r="AK261" s="46"/>
     </row>
-    <row r="262" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:37" ht="12.75">
       <c r="B262" s="47"/>
       <c r="C262" s="47"/>
       <c r="D262" s="43"/>
@@ -11101,7 +11095,7 @@
       <c r="AJ262" s="46"/>
       <c r="AK262" s="46"/>
     </row>
-    <row r="263" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:37" ht="12.75">
       <c r="B263" s="47"/>
       <c r="C263" s="47"/>
       <c r="D263" s="43"/>
@@ -11138,7 +11132,7 @@
       <c r="AJ263" s="46"/>
       <c r="AK263" s="46"/>
     </row>
-    <row r="264" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:37" ht="12.75">
       <c r="B264" s="47"/>
       <c r="C264" s="47"/>
       <c r="D264" s="43"/>
@@ -11175,7 +11169,7 @@
       <c r="AJ264" s="46"/>
       <c r="AK264" s="46"/>
     </row>
-    <row r="265" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:37" ht="12.75">
       <c r="B265" s="47"/>
       <c r="C265" s="47"/>
       <c r="D265" s="43"/>
@@ -11212,7 +11206,7 @@
       <c r="AJ265" s="46"/>
       <c r="AK265" s="46"/>
     </row>
-    <row r="266" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:37" ht="12.75">
       <c r="B266" s="47"/>
       <c r="C266" s="47"/>
       <c r="D266" s="43"/>
@@ -11249,7 +11243,7 @@
       <c r="AJ266" s="46"/>
       <c r="AK266" s="46"/>
     </row>
-    <row r="267" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:37" ht="12.75">
       <c r="B267" s="47"/>
       <c r="C267" s="47"/>
       <c r="D267" s="43"/>
@@ -11286,7 +11280,7 @@
       <c r="AJ267" s="46"/>
       <c r="AK267" s="46"/>
     </row>
-    <row r="268" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:37" ht="12.75">
       <c r="B268" s="47"/>
       <c r="C268" s="47"/>
       <c r="D268" s="43"/>
@@ -11323,7 +11317,7 @@
       <c r="AJ268" s="46"/>
       <c r="AK268" s="46"/>
     </row>
-    <row r="269" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:37" ht="12.75">
       <c r="B269" s="47"/>
       <c r="C269" s="47"/>
       <c r="D269" s="43"/>
@@ -11360,7 +11354,7 @@
       <c r="AJ269" s="46"/>
       <c r="AK269" s="46"/>
     </row>
-    <row r="270" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:37" ht="12.75">
       <c r="B270" s="47"/>
       <c r="C270" s="47"/>
       <c r="D270" s="43"/>
@@ -11397,7 +11391,7 @@
       <c r="AJ270" s="46"/>
       <c r="AK270" s="46"/>
     </row>
-    <row r="271" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:37" ht="12.75">
       <c r="B271" s="47"/>
       <c r="C271" s="47"/>
       <c r="D271" s="43"/>
@@ -11434,7 +11428,7 @@
       <c r="AJ271" s="46"/>
       <c r="AK271" s="46"/>
     </row>
-    <row r="272" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:37" ht="12.75">
       <c r="B272" s="47"/>
       <c r="C272" s="47"/>
       <c r="D272" s="43"/>
@@ -11471,7 +11465,7 @@
       <c r="AJ272" s="46"/>
       <c r="AK272" s="46"/>
     </row>
-    <row r="273" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:37" ht="12.75">
       <c r="B273" s="47"/>
       <c r="C273" s="47"/>
       <c r="D273" s="43"/>
@@ -11508,7 +11502,7 @@
       <c r="AJ273" s="46"/>
       <c r="AK273" s="46"/>
     </row>
-    <row r="274" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:37" ht="12.75">
       <c r="B274" s="47"/>
       <c r="C274" s="47"/>
       <c r="D274" s="43"/>
@@ -11545,7 +11539,7 @@
       <c r="AJ274" s="46"/>
       <c r="AK274" s="46"/>
     </row>
-    <row r="275" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:37" ht="12.75">
       <c r="B275" s="47"/>
       <c r="C275" s="47"/>
       <c r="D275" s="43"/>
@@ -11582,7 +11576,7 @@
       <c r="AJ275" s="46"/>
       <c r="AK275" s="46"/>
     </row>
-    <row r="276" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:37" ht="12.75">
       <c r="B276" s="47"/>
       <c r="C276" s="47"/>
       <c r="D276" s="43"/>
@@ -11619,7 +11613,7 @@
       <c r="AJ276" s="46"/>
       <c r="AK276" s="46"/>
     </row>
-    <row r="277" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:37" ht="12.75">
       <c r="B277" s="47"/>
       <c r="C277" s="47"/>
       <c r="D277" s="43"/>
@@ -11656,7 +11650,7 @@
       <c r="AJ277" s="46"/>
       <c r="AK277" s="46"/>
     </row>
-    <row r="278" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:37" ht="12.75">
       <c r="B278" s="47"/>
       <c r="C278" s="47"/>
       <c r="D278" s="43"/>
@@ -11693,7 +11687,7 @@
       <c r="AJ278" s="46"/>
       <c r="AK278" s="46"/>
     </row>
-    <row r="279" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:37" ht="12.75">
       <c r="B279" s="47"/>
       <c r="C279" s="47"/>
       <c r="D279" s="43"/>
@@ -11730,7 +11724,7 @@
       <c r="AJ279" s="46"/>
       <c r="AK279" s="46"/>
     </row>
-    <row r="280" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:37" ht="12.75">
       <c r="B280" s="47"/>
       <c r="C280" s="47"/>
       <c r="D280" s="43"/>
@@ -11767,7 +11761,7 @@
       <c r="AJ280" s="46"/>
       <c r="AK280" s="46"/>
     </row>
-    <row r="281" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:37" ht="12.75">
       <c r="B281" s="47"/>
       <c r="C281" s="47"/>
       <c r="D281" s="43"/>
@@ -11804,7 +11798,7 @@
       <c r="AJ281" s="46"/>
       <c r="AK281" s="46"/>
     </row>
-    <row r="282" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:37" ht="12.75">
       <c r="B282" s="47"/>
       <c r="C282" s="47"/>
       <c r="D282" s="43"/>
@@ -11841,7 +11835,7 @@
       <c r="AJ282" s="46"/>
       <c r="AK282" s="46"/>
     </row>
-    <row r="283" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:37" ht="12.75">
       <c r="B283" s="47"/>
       <c r="C283" s="47"/>
       <c r="D283" s="43"/>
@@ -11878,7 +11872,7 @@
       <c r="AJ283" s="46"/>
       <c r="AK283" s="46"/>
     </row>
-    <row r="284" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:37" ht="12.75">
       <c r="B284" s="47"/>
       <c r="C284" s="47"/>
       <c r="D284" s="43"/>
@@ -11915,7 +11909,7 @@
       <c r="AJ284" s="46"/>
       <c r="AK284" s="46"/>
     </row>
-    <row r="285" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:37" ht="12.75">
       <c r="B285" s="47"/>
       <c r="C285" s="47"/>
       <c r="D285" s="43"/>
@@ -11952,7 +11946,7 @@
       <c r="AJ285" s="46"/>
       <c r="AK285" s="46"/>
     </row>
-    <row r="286" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:37" ht="12.75">
       <c r="B286" s="47"/>
       <c r="C286" s="47"/>
       <c r="D286" s="43"/>
@@ -11989,7 +11983,7 @@
       <c r="AJ286" s="46"/>
       <c r="AK286" s="46"/>
     </row>
-    <row r="287" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:37" ht="12.75">
       <c r="B287" s="47"/>
       <c r="C287" s="47"/>
       <c r="D287" s="43"/>
@@ -12026,7 +12020,7 @@
       <c r="AJ287" s="46"/>
       <c r="AK287" s="46"/>
     </row>
-    <row r="288" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:37" ht="12.75">
       <c r="B288" s="47"/>
       <c r="C288" s="47"/>
       <c r="D288" s="43"/>
@@ -12063,7 +12057,7 @@
       <c r="AJ288" s="46"/>
       <c r="AK288" s="46"/>
     </row>
-    <row r="289" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:37" ht="12.75">
       <c r="B289" s="47"/>
       <c r="C289" s="47"/>
       <c r="D289" s="43"/>
@@ -12100,7 +12094,7 @@
       <c r="AJ289" s="46"/>
       <c r="AK289" s="46"/>
     </row>
-    <row r="290" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:37" ht="12.75">
       <c r="B290" s="47"/>
       <c r="C290" s="47"/>
       <c r="D290" s="43"/>
@@ -12137,7 +12131,7 @@
       <c r="AJ290" s="46"/>
       <c r="AK290" s="46"/>
     </row>
-    <row r="291" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:37" ht="12.75">
       <c r="B291" s="47"/>
       <c r="C291" s="47"/>
       <c r="D291" s="43"/>
@@ -12174,7 +12168,7 @@
       <c r="AJ291" s="46"/>
       <c r="AK291" s="46"/>
     </row>
-    <row r="292" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:37" ht="12.75">
       <c r="B292" s="47"/>
       <c r="C292" s="47"/>
       <c r="D292" s="43"/>
@@ -12211,7 +12205,7 @@
       <c r="AJ292" s="46"/>
       <c r="AK292" s="46"/>
     </row>
-    <row r="293" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:37" ht="12.75">
       <c r="B293" s="47"/>
       <c r="C293" s="47"/>
       <c r="D293" s="43"/>
@@ -12248,7 +12242,7 @@
       <c r="AJ293" s="46"/>
       <c r="AK293" s="46"/>
     </row>
-    <row r="294" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:37" ht="12.75">
       <c r="B294" s="47"/>
       <c r="C294" s="47"/>
       <c r="D294" s="43"/>
@@ -12285,7 +12279,7 @@
       <c r="AJ294" s="46"/>
       <c r="AK294" s="46"/>
     </row>
-    <row r="295" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:37" ht="12.75">
       <c r="B295" s="47"/>
       <c r="C295" s="47"/>
       <c r="D295" s="43"/>
@@ -12322,7 +12316,7 @@
       <c r="AJ295" s="46"/>
       <c r="AK295" s="46"/>
     </row>
-    <row r="296" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:37" ht="12.75">
       <c r="B296" s="47"/>
       <c r="C296" s="47"/>
       <c r="D296" s="43"/>
@@ -12359,7 +12353,7 @@
       <c r="AJ296" s="46"/>
       <c r="AK296" s="46"/>
     </row>
-    <row r="297" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:37" ht="12.75">
       <c r="B297" s="47"/>
       <c r="C297" s="47"/>
       <c r="D297" s="43"/>
@@ -12396,7 +12390,7 @@
       <c r="AJ297" s="46"/>
       <c r="AK297" s="46"/>
     </row>
-    <row r="298" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:37" ht="12.75">
       <c r="B298" s="47"/>
       <c r="C298" s="47"/>
       <c r="D298" s="43"/>
@@ -12433,7 +12427,7 @@
       <c r="AJ298" s="46"/>
       <c r="AK298" s="46"/>
     </row>
-    <row r="299" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:37" ht="12.75">
       <c r="B299" s="47"/>
       <c r="C299" s="47"/>
       <c r="D299" s="43"/>
@@ -12470,7 +12464,7 @@
       <c r="AJ299" s="46"/>
       <c r="AK299" s="46"/>
     </row>
-    <row r="300" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:37" ht="12.75">
       <c r="B300" s="47"/>
       <c r="C300" s="47"/>
       <c r="D300" s="43"/>
@@ -12507,7 +12501,7 @@
       <c r="AJ300" s="46"/>
       <c r="AK300" s="46"/>
     </row>
-    <row r="301" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:37" ht="12.75">
       <c r="B301" s="47"/>
       <c r="C301" s="47"/>
       <c r="D301" s="43"/>
@@ -12544,7 +12538,7 @@
       <c r="AJ301" s="46"/>
       <c r="AK301" s="46"/>
     </row>
-    <row r="302" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:37" ht="12.75">
       <c r="B302" s="47"/>
       <c r="C302" s="47"/>
       <c r="D302" s="43"/>
@@ -12581,7 +12575,7 @@
       <c r="AJ302" s="46"/>
       <c r="AK302" s="46"/>
     </row>
-    <row r="303" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:37" ht="12.75">
       <c r="B303" s="47"/>
       <c r="C303" s="47"/>
       <c r="D303" s="43"/>
@@ -12618,7 +12612,7 @@
       <c r="AJ303" s="46"/>
       <c r="AK303" s="46"/>
     </row>
-    <row r="304" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:37" ht="12.75">
       <c r="B304" s="47"/>
       <c r="C304" s="47"/>
       <c r="D304" s="43"/>
@@ -12655,7 +12649,7 @@
       <c r="AJ304" s="46"/>
       <c r="AK304" s="46"/>
     </row>
-    <row r="305" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:37" ht="12.75">
       <c r="B305" s="47"/>
       <c r="C305" s="47"/>
       <c r="D305" s="43"/>
@@ -12692,7 +12686,7 @@
       <c r="AJ305" s="46"/>
       <c r="AK305" s="46"/>
     </row>
-    <row r="306" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:37" ht="12.75">
       <c r="B306" s="47"/>
       <c r="C306" s="47"/>
       <c r="D306" s="43"/>
@@ -12729,7 +12723,7 @@
       <c r="AJ306" s="46"/>
       <c r="AK306" s="46"/>
     </row>
-    <row r="307" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:37" ht="12.75">
       <c r="B307" s="47"/>
       <c r="C307" s="47"/>
       <c r="D307" s="43"/>
@@ -12766,7 +12760,7 @@
       <c r="AJ307" s="46"/>
       <c r="AK307" s="46"/>
     </row>
-    <row r="308" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:37" ht="12.75">
       <c r="B308" s="47"/>
       <c r="C308" s="47"/>
       <c r="D308" s="43"/>
@@ -12803,7 +12797,7 @@
       <c r="AJ308" s="46"/>
       <c r="AK308" s="46"/>
     </row>
-    <row r="309" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:37" ht="12.75">
       <c r="B309" s="47"/>
       <c r="C309" s="47"/>
       <c r="D309" s="43"/>
@@ -12840,7 +12834,7 @@
       <c r="AJ309" s="46"/>
       <c r="AK309" s="46"/>
     </row>
-    <row r="310" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:37" ht="12.75">
       <c r="B310" s="47"/>
       <c r="C310" s="47"/>
       <c r="D310" s="43"/>
@@ -12877,7 +12871,7 @@
       <c r="AJ310" s="46"/>
       <c r="AK310" s="46"/>
     </row>
-    <row r="311" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:37" ht="12.75">
       <c r="B311" s="47"/>
       <c r="C311" s="47"/>
       <c r="D311" s="43"/>
@@ -12914,7 +12908,7 @@
       <c r="AJ311" s="46"/>
       <c r="AK311" s="46"/>
     </row>
-    <row r="312" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:37" ht="12.75">
       <c r="B312" s="47"/>
       <c r="C312" s="47"/>
       <c r="D312" s="43"/>
@@ -12951,7 +12945,7 @@
       <c r="AJ312" s="46"/>
       <c r="AK312" s="46"/>
     </row>
-    <row r="313" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:37" ht="12.75">
       <c r="B313" s="47"/>
       <c r="C313" s="47"/>
       <c r="D313" s="43"/>
@@ -12988,7 +12982,7 @@
       <c r="AJ313" s="46"/>
       <c r="AK313" s="46"/>
     </row>
-    <row r="314" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:37" ht="12.75">
       <c r="B314" s="47"/>
       <c r="C314" s="47"/>
       <c r="D314" s="43"/>
@@ -13025,7 +13019,7 @@
       <c r="AJ314" s="46"/>
       <c r="AK314" s="46"/>
     </row>
-    <row r="315" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:37" ht="12.75">
       <c r="B315" s="47"/>
       <c r="C315" s="47"/>
       <c r="D315" s="43"/>
@@ -13062,7 +13056,7 @@
       <c r="AJ315" s="46"/>
       <c r="AK315" s="46"/>
     </row>
-    <row r="316" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:37" ht="12.75">
       <c r="B316" s="47"/>
       <c r="C316" s="47"/>
       <c r="D316" s="43"/>
@@ -13099,7 +13093,7 @@
       <c r="AJ316" s="46"/>
       <c r="AK316" s="46"/>
     </row>
-    <row r="317" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:37" ht="12.75">
       <c r="B317" s="47"/>
       <c r="C317" s="47"/>
       <c r="D317" s="43"/>
@@ -13136,7 +13130,7 @@
       <c r="AJ317" s="46"/>
       <c r="AK317" s="46"/>
     </row>
-    <row r="318" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:37" ht="12.75">
       <c r="B318" s="47"/>
       <c r="C318" s="47"/>
       <c r="D318" s="43"/>
@@ -13173,7 +13167,7 @@
       <c r="AJ318" s="46"/>
       <c r="AK318" s="46"/>
     </row>
-    <row r="319" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:37" ht="12.75">
       <c r="B319" s="47"/>
       <c r="C319" s="47"/>
       <c r="D319" s="43"/>
@@ -13210,7 +13204,7 @@
       <c r="AJ319" s="46"/>
       <c r="AK319" s="46"/>
     </row>
-    <row r="320" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:37" ht="12.75">
       <c r="B320" s="47"/>
       <c r="C320" s="47"/>
       <c r="D320" s="43"/>
@@ -13247,7 +13241,7 @@
       <c r="AJ320" s="46"/>
       <c r="AK320" s="46"/>
     </row>
-    <row r="321" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:37" ht="12.75">
       <c r="B321" s="47"/>
       <c r="C321" s="47"/>
       <c r="D321" s="43"/>
@@ -13284,7 +13278,7 @@
       <c r="AJ321" s="46"/>
       <c r="AK321" s="46"/>
     </row>
-    <row r="322" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:37" ht="12.75">
       <c r="B322" s="47"/>
       <c r="C322" s="47"/>
       <c r="D322" s="43"/>
@@ -13321,7 +13315,7 @@
       <c r="AJ322" s="46"/>
       <c r="AK322" s="46"/>
     </row>
-    <row r="323" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:37" ht="12.75">
       <c r="B323" s="47"/>
       <c r="C323" s="47"/>
       <c r="D323" s="43"/>
@@ -13358,7 +13352,7 @@
       <c r="AJ323" s="46"/>
       <c r="AK323" s="46"/>
     </row>
-    <row r="324" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:37" ht="12.75">
       <c r="B324" s="47"/>
       <c r="C324" s="47"/>
       <c r="D324" s="43"/>
@@ -13395,7 +13389,7 @@
       <c r="AJ324" s="46"/>
       <c r="AK324" s="46"/>
     </row>
-    <row r="325" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:37" ht="12.75">
       <c r="B325" s="47"/>
       <c r="C325" s="47"/>
       <c r="D325" s="43"/>
@@ -13432,7 +13426,7 @@
       <c r="AJ325" s="46"/>
       <c r="AK325" s="46"/>
     </row>
-    <row r="326" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:37" ht="12.75">
       <c r="B326" s="47"/>
       <c r="C326" s="47"/>
       <c r="D326" s="43"/>
@@ -13469,7 +13463,7 @@
       <c r="AJ326" s="46"/>
       <c r="AK326" s="46"/>
     </row>
-    <row r="327" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:37" ht="12.75">
       <c r="B327" s="47"/>
       <c r="C327" s="47"/>
       <c r="D327" s="43"/>
@@ -13506,7 +13500,7 @@
       <c r="AJ327" s="46"/>
       <c r="AK327" s="46"/>
     </row>
-    <row r="328" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:37" ht="12.75">
       <c r="B328" s="47"/>
       <c r="C328" s="47"/>
       <c r="D328" s="43"/>
@@ -13543,7 +13537,7 @@
       <c r="AJ328" s="46"/>
       <c r="AK328" s="46"/>
     </row>
-    <row r="329" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:37" ht="12.75">
       <c r="B329" s="47"/>
       <c r="C329" s="47"/>
       <c r="D329" s="43"/>
@@ -13580,7 +13574,7 @@
       <c r="AJ329" s="46"/>
       <c r="AK329" s="46"/>
     </row>
-    <row r="330" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:37" ht="12.75">
       <c r="B330" s="47"/>
       <c r="C330" s="47"/>
       <c r="D330" s="43"/>
@@ -13617,7 +13611,7 @@
       <c r="AJ330" s="46"/>
       <c r="AK330" s="46"/>
     </row>
-    <row r="331" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:37" ht="12.75">
       <c r="B331" s="47"/>
       <c r="C331" s="47"/>
       <c r="D331" s="43"/>
@@ -13654,7 +13648,7 @@
       <c r="AJ331" s="46"/>
       <c r="AK331" s="46"/>
     </row>
-    <row r="332" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:37" ht="12.75">
       <c r="B332" s="47"/>
       <c r="C332" s="47"/>
       <c r="D332" s="43"/>
@@ -13691,7 +13685,7 @@
       <c r="AJ332" s="46"/>
       <c r="AK332" s="46"/>
     </row>
-    <row r="333" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:37" ht="12.75">
       <c r="B333" s="47"/>
       <c r="C333" s="47"/>
       <c r="D333" s="43"/>
@@ -13728,7 +13722,7 @@
       <c r="AJ333" s="46"/>
       <c r="AK333" s="46"/>
     </row>
-    <row r="334" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:37" ht="12.75">
       <c r="B334" s="47"/>
       <c r="C334" s="47"/>
       <c r="D334" s="43"/>
@@ -13765,7 +13759,7 @@
       <c r="AJ334" s="46"/>
       <c r="AK334" s="46"/>
     </row>
-    <row r="335" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:37" ht="12.75">
       <c r="B335" s="47"/>
       <c r="C335" s="47"/>
       <c r="D335" s="43"/>
@@ -13802,7 +13796,7 @@
       <c r="AJ335" s="46"/>
       <c r="AK335" s="46"/>
     </row>
-    <row r="336" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:37" ht="12.75">
       <c r="B336" s="47"/>
       <c r="C336" s="47"/>
       <c r="D336" s="43"/>
@@ -13839,7 +13833,7 @@
       <c r="AJ336" s="46"/>
       <c r="AK336" s="46"/>
     </row>
-    <row r="337" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:37" ht="12.75">
       <c r="B337" s="47"/>
       <c r="C337" s="47"/>
       <c r="D337" s="43"/>
@@ -13876,7 +13870,7 @@
       <c r="AJ337" s="46"/>
       <c r="AK337" s="46"/>
     </row>
-    <row r="338" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:37" ht="12.75">
       <c r="B338" s="47"/>
       <c r="C338" s="47"/>
       <c r="D338" s="43"/>
@@ -13913,7 +13907,7 @@
       <c r="AJ338" s="46"/>
       <c r="AK338" s="46"/>
     </row>
-    <row r="339" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:37" ht="12.75">
       <c r="B339" s="47"/>
       <c r="C339" s="47"/>
       <c r="D339" s="43"/>
@@ -13950,7 +13944,7 @@
       <c r="AJ339" s="46"/>
       <c r="AK339" s="46"/>
     </row>
-    <row r="340" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:37" ht="12.75">
       <c r="B340" s="47"/>
       <c r="C340" s="47"/>
       <c r="D340" s="43"/>
@@ -13987,7 +13981,7 @@
       <c r="AJ340" s="46"/>
       <c r="AK340" s="46"/>
     </row>
-    <row r="341" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:37" ht="12.75">
       <c r="B341" s="47"/>
       <c r="C341" s="47"/>
       <c r="D341" s="43"/>
@@ -14024,7 +14018,7 @@
       <c r="AJ341" s="46"/>
       <c r="AK341" s="46"/>
     </row>
-    <row r="342" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:37" ht="12.75">
       <c r="B342" s="47"/>
       <c r="C342" s="47"/>
       <c r="D342" s="43"/>
@@ -14061,7 +14055,7 @@
       <c r="AJ342" s="46"/>
       <c r="AK342" s="46"/>
     </row>
-    <row r="343" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:37" ht="12.75">
       <c r="B343" s="47"/>
       <c r="C343" s="47"/>
       <c r="D343" s="43"/>
@@ -14098,7 +14092,7 @@
       <c r="AJ343" s="46"/>
       <c r="AK343" s="46"/>
     </row>
-    <row r="344" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:37" ht="12.75">
       <c r="B344" s="47"/>
       <c r="C344" s="47"/>
       <c r="D344" s="43"/>
@@ -14135,7 +14129,7 @@
       <c r="AJ344" s="46"/>
       <c r="AK344" s="46"/>
     </row>
-    <row r="345" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:37" ht="12.75">
       <c r="B345" s="47"/>
       <c r="C345" s="47"/>
       <c r="D345" s="43"/>
@@ -14172,7 +14166,7 @@
       <c r="AJ345" s="46"/>
       <c r="AK345" s="46"/>
     </row>
-    <row r="346" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:37" ht="12.75">
       <c r="B346" s="47"/>
       <c r="C346" s="47"/>
       <c r="D346" s="43"/>
@@ -14209,7 +14203,7 @@
       <c r="AJ346" s="46"/>
       <c r="AK346" s="46"/>
     </row>
-    <row r="347" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:37" ht="12.75">
       <c r="B347" s="47"/>
       <c r="C347" s="47"/>
       <c r="D347" s="43"/>
@@ -14246,7 +14240,7 @@
       <c r="AJ347" s="46"/>
       <c r="AK347" s="46"/>
     </row>
-    <row r="348" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:37" ht="12.75">
       <c r="B348" s="47"/>
       <c r="C348" s="47"/>
       <c r="D348" s="43"/>
@@ -14283,7 +14277,7 @@
       <c r="AJ348" s="46"/>
       <c r="AK348" s="46"/>
     </row>
-    <row r="349" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:37" ht="12.75">
       <c r="B349" s="47"/>
       <c r="C349" s="47"/>
       <c r="D349" s="43"/>
@@ -14320,7 +14314,7 @@
       <c r="AJ349" s="46"/>
       <c r="AK349" s="46"/>
     </row>
-    <row r="350" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:37" ht="12.75">
       <c r="B350" s="47"/>
       <c r="C350" s="47"/>
       <c r="D350" s="43"/>
@@ -14357,7 +14351,7 @@
       <c r="AJ350" s="46"/>
       <c r="AK350" s="46"/>
     </row>
-    <row r="351" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:37" ht="12.75">
       <c r="B351" s="47"/>
       <c r="C351" s="47"/>
       <c r="D351" s="43"/>
@@ -14394,7 +14388,7 @@
       <c r="AJ351" s="46"/>
       <c r="AK351" s="46"/>
     </row>
-    <row r="352" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:37" ht="12.75">
       <c r="B352" s="47"/>
       <c r="C352" s="47"/>
       <c r="D352" s="43"/>
@@ -14431,7 +14425,7 @@
       <c r="AJ352" s="46"/>
       <c r="AK352" s="46"/>
     </row>
-    <row r="353" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:37" ht="12.75">
       <c r="B353" s="47"/>
       <c r="C353" s="47"/>
       <c r="D353" s="43"/>
@@ -14468,7 +14462,7 @@
       <c r="AJ353" s="46"/>
       <c r="AK353" s="46"/>
     </row>
-    <row r="354" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:37" ht="12.75">
       <c r="B354" s="47"/>
       <c r="C354" s="47"/>
       <c r="D354" s="43"/>
@@ -14505,7 +14499,7 @@
       <c r="AJ354" s="46"/>
       <c r="AK354" s="46"/>
     </row>
-    <row r="355" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:37" ht="12.75">
       <c r="B355" s="47"/>
       <c r="C355" s="47"/>
       <c r="D355" s="43"/>
@@ -14542,7 +14536,7 @@
       <c r="AJ355" s="46"/>
       <c r="AK355" s="46"/>
     </row>
-    <row r="356" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:37" ht="12.75">
       <c r="B356" s="47"/>
       <c r="C356" s="47"/>
       <c r="D356" s="43"/>
@@ -14579,7 +14573,7 @@
       <c r="AJ356" s="46"/>
       <c r="AK356" s="46"/>
     </row>
-    <row r="357" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:37" ht="12.75">
       <c r="B357" s="47"/>
       <c r="C357" s="47"/>
       <c r="D357" s="43"/>
@@ -14616,7 +14610,7 @@
       <c r="AJ357" s="46"/>
       <c r="AK357" s="46"/>
     </row>
-    <row r="358" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:37" ht="12.75">
       <c r="B358" s="47"/>
       <c r="C358" s="47"/>
       <c r="D358" s="43"/>
@@ -14653,7 +14647,7 @@
       <c r="AJ358" s="46"/>
       <c r="AK358" s="46"/>
     </row>
-    <row r="359" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:37" ht="12.75">
       <c r="B359" s="47"/>
       <c r="C359" s="47"/>
       <c r="D359" s="43"/>
@@ -14690,7 +14684,7 @@
       <c r="AJ359" s="46"/>
       <c r="AK359" s="46"/>
     </row>
-    <row r="360" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:37" ht="12.75">
       <c r="B360" s="47"/>
       <c r="C360" s="47"/>
       <c r="D360" s="43"/>
@@ -14727,7 +14721,7 @@
       <c r="AJ360" s="46"/>
       <c r="AK360" s="46"/>
     </row>
-    <row r="361" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:37" ht="12.75">
       <c r="B361" s="47"/>
       <c r="C361" s="47"/>
       <c r="D361" s="43"/>
@@ -14764,7 +14758,7 @@
       <c r="AJ361" s="46"/>
       <c r="AK361" s="46"/>
     </row>
-    <row r="362" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:37" ht="12.75">
       <c r="B362" s="47"/>
       <c r="C362" s="47"/>
       <c r="D362" s="43"/>
@@ -14801,7 +14795,7 @@
       <c r="AJ362" s="46"/>
       <c r="AK362" s="46"/>
     </row>
-    <row r="363" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:37" ht="12.75">
       <c r="B363" s="47"/>
       <c r="C363" s="47"/>
       <c r="D363" s="43"/>
@@ -14838,7 +14832,7 @@
       <c r="AJ363" s="46"/>
       <c r="AK363" s="46"/>
     </row>
-    <row r="364" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:37" ht="12.75">
       <c r="B364" s="47"/>
       <c r="C364" s="47"/>
       <c r="D364" s="43"/>
@@ -14875,7 +14869,7 @@
       <c r="AJ364" s="46"/>
       <c r="AK364" s="46"/>
     </row>
-    <row r="365" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:37" ht="12.75">
       <c r="B365" s="47"/>
       <c r="C365" s="47"/>
       <c r="D365" s="43"/>
@@ -14912,7 +14906,7 @@
       <c r="AJ365" s="46"/>
       <c r="AK365" s="46"/>
     </row>
-    <row r="366" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:37" ht="12.75">
       <c r="B366" s="47"/>
       <c r="C366" s="47"/>
       <c r="D366" s="43"/>
@@ -14949,7 +14943,7 @@
       <c r="AJ366" s="46"/>
       <c r="AK366" s="46"/>
     </row>
-    <row r="367" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:37" ht="12.75">
       <c r="B367" s="47"/>
       <c r="C367" s="47"/>
       <c r="D367" s="43"/>
@@ -14986,7 +14980,7 @@
       <c r="AJ367" s="46"/>
       <c r="AK367" s="46"/>
     </row>
-    <row r="368" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:37" ht="12.75">
       <c r="B368" s="47"/>
       <c r="C368" s="47"/>
       <c r="D368" s="43"/>
@@ -15023,7 +15017,7 @@
       <c r="AJ368" s="46"/>
       <c r="AK368" s="46"/>
     </row>
-    <row r="369" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:37" ht="12.75">
       <c r="B369" s="47"/>
       <c r="C369" s="47"/>
       <c r="D369" s="43"/>
@@ -15060,7 +15054,7 @@
       <c r="AJ369" s="46"/>
       <c r="AK369" s="46"/>
     </row>
-    <row r="370" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:37" ht="12.75">
       <c r="B370" s="47"/>
       <c r="C370" s="47"/>
       <c r="D370" s="43"/>
@@ -15097,7 +15091,7 @@
       <c r="AJ370" s="46"/>
       <c r="AK370" s="46"/>
     </row>
-    <row r="371" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:37" ht="12.75">
       <c r="B371" s="47"/>
       <c r="C371" s="47"/>
       <c r="D371" s="43"/>
@@ -15134,7 +15128,7 @@
       <c r="AJ371" s="46"/>
       <c r="AK371" s="46"/>
     </row>
-    <row r="372" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:37" ht="12.75">
       <c r="B372" s="47"/>
       <c r="C372" s="47"/>
       <c r="D372" s="43"/>
@@ -15171,7 +15165,7 @@
       <c r="AJ372" s="46"/>
       <c r="AK372" s="46"/>
     </row>
-    <row r="373" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:37" ht="12.75">
       <c r="B373" s="47"/>
       <c r="C373" s="47"/>
       <c r="D373" s="43"/>
@@ -15208,7 +15202,7 @@
       <c r="AJ373" s="46"/>
       <c r="AK373" s="46"/>
     </row>
-    <row r="374" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:37" ht="12.75">
       <c r="B374" s="47"/>
       <c r="C374" s="47"/>
       <c r="D374" s="43"/>
@@ -15245,7 +15239,7 @@
       <c r="AJ374" s="46"/>
       <c r="AK374" s="46"/>
     </row>
-    <row r="375" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:37" ht="12.75">
       <c r="B375" s="47"/>
       <c r="C375" s="47"/>
       <c r="D375" s="43"/>
@@ -15282,7 +15276,7 @@
       <c r="AJ375" s="46"/>
       <c r="AK375" s="46"/>
     </row>
-    <row r="376" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:37" ht="12.75">
       <c r="B376" s="47"/>
       <c r="C376" s="47"/>
       <c r="D376" s="43"/>
@@ -15319,7 +15313,7 @@
       <c r="AJ376" s="46"/>
       <c r="AK376" s="46"/>
     </row>
-    <row r="377" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:37" ht="12.75">
       <c r="B377" s="47"/>
       <c r="C377" s="47"/>
       <c r="D377" s="43"/>
@@ -15356,7 +15350,7 @@
       <c r="AJ377" s="46"/>
       <c r="AK377" s="46"/>
     </row>
-    <row r="378" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:37" ht="12.75">
       <c r="B378" s="47"/>
       <c r="C378" s="47"/>
       <c r="D378" s="43"/>
@@ -15393,7 +15387,7 @@
       <c r="AJ378" s="46"/>
       <c r="AK378" s="46"/>
     </row>
-    <row r="379" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:37" ht="12.75">
       <c r="B379" s="47"/>
       <c r="C379" s="47"/>
       <c r="D379" s="43"/>
@@ -15430,7 +15424,7 @@
       <c r="AJ379" s="46"/>
       <c r="AK379" s="46"/>
     </row>
-    <row r="380" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:37" ht="12.75">
       <c r="B380" s="47"/>
       <c r="C380" s="47"/>
       <c r="D380" s="43"/>
@@ -15467,7 +15461,7 @@
       <c r="AJ380" s="46"/>
       <c r="AK380" s="46"/>
     </row>
-    <row r="381" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:37" ht="12.75">
       <c r="B381" s="47"/>
       <c r="C381" s="47"/>
       <c r="D381" s="43"/>
@@ -15504,7 +15498,7 @@
       <c r="AJ381" s="46"/>
       <c r="AK381" s="46"/>
     </row>
-    <row r="382" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:37" ht="12.75">
       <c r="B382" s="47"/>
       <c r="C382" s="47"/>
       <c r="D382" s="43"/>
@@ -15541,7 +15535,7 @@
       <c r="AJ382" s="46"/>
       <c r="AK382" s="46"/>
     </row>
-    <row r="383" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:37" ht="12.75">
       <c r="B383" s="47"/>
       <c r="C383" s="47"/>
       <c r="D383" s="43"/>
@@ -15578,7 +15572,7 @@
       <c r="AJ383" s="46"/>
       <c r="AK383" s="46"/>
     </row>
-    <row r="384" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:37" ht="12.75">
       <c r="B384" s="47"/>
       <c r="C384" s="47"/>
       <c r="D384" s="43"/>
@@ -15615,7 +15609,7 @@
       <c r="AJ384" s="46"/>
       <c r="AK384" s="46"/>
     </row>
-    <row r="385" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:37" ht="12.75">
       <c r="B385" s="47"/>
       <c r="C385" s="47"/>
       <c r="D385" s="43"/>
@@ -15652,7 +15646,7 @@
       <c r="AJ385" s="46"/>
       <c r="AK385" s="46"/>
     </row>
-    <row r="386" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:37" ht="12.75">
       <c r="B386" s="47"/>
       <c r="C386" s="47"/>
       <c r="D386" s="43"/>
@@ -15689,7 +15683,7 @@
       <c r="AJ386" s="46"/>
       <c r="AK386" s="46"/>
     </row>
-    <row r="387" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:37" ht="12.75">
       <c r="B387" s="47"/>
       <c r="C387" s="47"/>
       <c r="D387" s="43"/>
@@ -15726,7 +15720,7 @@
       <c r="AJ387" s="46"/>
       <c r="AK387" s="46"/>
     </row>
-    <row r="388" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:37" ht="12.75">
       <c r="B388" s="47"/>
       <c r="C388" s="47"/>
       <c r="D388" s="43"/>
@@ -15763,7 +15757,7 @@
       <c r="AJ388" s="46"/>
       <c r="AK388" s="46"/>
     </row>
-    <row r="389" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:37" ht="12.75">
       <c r="B389" s="47"/>
       <c r="C389" s="47"/>
       <c r="D389" s="43"/>
@@ -15800,7 +15794,7 @@
       <c r="AJ389" s="46"/>
       <c r="AK389" s="46"/>
     </row>
-    <row r="390" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:37" ht="12.75">
       <c r="B390" s="47"/>
       <c r="C390" s="47"/>
       <c r="D390" s="43"/>
@@ -15837,7 +15831,7 @@
       <c r="AJ390" s="46"/>
       <c r="AK390" s="46"/>
     </row>
-    <row r="391" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:37" ht="12.75">
       <c r="B391" s="47"/>
       <c r="C391" s="47"/>
       <c r="D391" s="43"/>
@@ -15874,7 +15868,7 @@
       <c r="AJ391" s="46"/>
       <c r="AK391" s="46"/>
     </row>
-    <row r="392" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:37" ht="12.75">
       <c r="B392" s="47"/>
       <c r="C392" s="47"/>
       <c r="D392" s="43"/>
@@ -15911,7 +15905,7 @@
       <c r="AJ392" s="46"/>
       <c r="AK392" s="46"/>
     </row>
-    <row r="393" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:37" ht="12.75">
       <c r="B393" s="47"/>
       <c r="C393" s="47"/>
       <c r="D393" s="43"/>
@@ -15948,7 +15942,7 @@
       <c r="AJ393" s="46"/>
       <c r="AK393" s="46"/>
     </row>
-    <row r="394" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:37" ht="12.75">
       <c r="B394" s="47"/>
       <c r="C394" s="47"/>
       <c r="D394" s="43"/>
@@ -15985,7 +15979,7 @@
       <c r="AJ394" s="46"/>
       <c r="AK394" s="46"/>
     </row>
-    <row r="395" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:37" ht="12.75">
       <c r="B395" s="47"/>
       <c r="C395" s="47"/>
       <c r="D395" s="43"/>
@@ -16022,7 +16016,7 @@
       <c r="AJ395" s="46"/>
       <c r="AK395" s="46"/>
     </row>
-    <row r="396" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:37" ht="12.75">
       <c r="B396" s="47"/>
       <c r="C396" s="47"/>
       <c r="D396" s="43"/>
@@ -16059,7 +16053,7 @@
       <c r="AJ396" s="46"/>
       <c r="AK396" s="46"/>
     </row>
-    <row r="397" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:37" ht="12.75">
       <c r="B397" s="47"/>
       <c r="C397" s="47"/>
       <c r="D397" s="43"/>
@@ -16096,7 +16090,7 @@
       <c r="AJ397" s="46"/>
       <c r="AK397" s="46"/>
     </row>
-    <row r="398" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:37" ht="12.75">
       <c r="B398" s="47"/>
       <c r="C398" s="47"/>
       <c r="D398" s="43"/>
@@ -16133,7 +16127,7 @@
       <c r="AJ398" s="46"/>
       <c r="AK398" s="46"/>
     </row>
-    <row r="399" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:37" ht="12.75">
       <c r="B399" s="47"/>
       <c r="C399" s="47"/>
       <c r="D399" s="43"/>
@@ -16170,7 +16164,7 @@
       <c r="AJ399" s="46"/>
       <c r="AK399" s="46"/>
     </row>
-    <row r="400" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:37" ht="12.75">
       <c r="B400" s="47"/>
       <c r="C400" s="47"/>
       <c r="D400" s="43"/>
@@ -16207,7 +16201,7 @@
       <c r="AJ400" s="46"/>
       <c r="AK400" s="46"/>
     </row>
-    <row r="401" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:37" ht="12.75">
       <c r="B401" s="47"/>
       <c r="C401" s="47"/>
       <c r="D401" s="43"/>
@@ -16244,7 +16238,7 @@
       <c r="AJ401" s="46"/>
       <c r="AK401" s="46"/>
     </row>
-    <row r="402" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:37" ht="12.75">
       <c r="B402" s="47"/>
       <c r="C402" s="47"/>
       <c r="D402" s="43"/>
@@ -16281,7 +16275,7 @@
       <c r="AJ402" s="46"/>
       <c r="AK402" s="46"/>
     </row>
-    <row r="403" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:37" ht="12.75">
       <c r="B403" s="47"/>
       <c r="C403" s="47"/>
       <c r="D403" s="43"/>
@@ -16318,7 +16312,7 @@
       <c r="AJ403" s="46"/>
       <c r="AK403" s="46"/>
     </row>
-    <row r="404" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:37" ht="12.75">
       <c r="B404" s="47"/>
       <c r="C404" s="47"/>
       <c r="D404" s="43"/>
@@ -16355,7 +16349,7 @@
       <c r="AJ404" s="46"/>
       <c r="AK404" s="46"/>
     </row>
-    <row r="405" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:37" ht="12.75">
       <c r="B405" s="47"/>
       <c r="C405" s="47"/>
       <c r="D405" s="43"/>
@@ -16392,7 +16386,7 @@
       <c r="AJ405" s="46"/>
       <c r="AK405" s="46"/>
     </row>
-    <row r="406" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:37" ht="12.75">
       <c r="B406" s="47"/>
       <c r="C406" s="47"/>
       <c r="D406" s="43"/>
@@ -16429,7 +16423,7 @@
       <c r="AJ406" s="46"/>
       <c r="AK406" s="46"/>
     </row>
-    <row r="407" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:37" ht="12.75">
       <c r="B407" s="47"/>
       <c r="C407" s="47"/>
       <c r="D407" s="43"/>
@@ -16466,7 +16460,7 @@
       <c r="AJ407" s="46"/>
       <c r="AK407" s="46"/>
     </row>
-    <row r="408" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:37" ht="12.75">
       <c r="B408" s="47"/>
       <c r="C408" s="47"/>
       <c r="D408" s="43"/>
@@ -16503,7 +16497,7 @@
       <c r="AJ408" s="46"/>
       <c r="AK408" s="46"/>
     </row>
-    <row r="409" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:37" ht="12.75">
       <c r="B409" s="47"/>
       <c r="C409" s="47"/>
       <c r="D409" s="43"/>
@@ -16540,7 +16534,7 @@
       <c r="AJ409" s="46"/>
       <c r="AK409" s="46"/>
     </row>
-    <row r="410" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:37" ht="12.75">
       <c r="B410" s="47"/>
       <c r="C410" s="47"/>
       <c r="D410" s="43"/>
@@ -16577,7 +16571,7 @@
       <c r="AJ410" s="46"/>
       <c r="AK410" s="46"/>
     </row>
-    <row r="411" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:37" ht="12.75">
       <c r="B411" s="47"/>
       <c r="C411" s="47"/>
       <c r="D411" s="43"/>
@@ -16614,7 +16608,7 @@
       <c r="AJ411" s="46"/>
       <c r="AK411" s="46"/>
     </row>
-    <row r="412" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:37" ht="12.75">
       <c r="B412" s="47"/>
       <c r="C412" s="47"/>
       <c r="D412" s="43"/>
@@ -16651,7 +16645,7 @@
       <c r="AJ412" s="46"/>
       <c r="AK412" s="46"/>
     </row>
-    <row r="413" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:37" ht="12.75">
       <c r="B413" s="47"/>
       <c r="C413" s="47"/>
       <c r="D413" s="43"/>
@@ -16688,7 +16682,7 @@
       <c r="AJ413" s="46"/>
       <c r="AK413" s="46"/>
     </row>
-    <row r="414" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:37" ht="12.75">
       <c r="B414" s="47"/>
       <c r="C414" s="47"/>
       <c r="D414" s="43"/>
@@ -16725,7 +16719,7 @@
       <c r="AJ414" s="46"/>
       <c r="AK414" s="46"/>
     </row>
-    <row r="415" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:37" ht="12.75">
       <c r="B415" s="47"/>
       <c r="C415" s="47"/>
       <c r="D415" s="43"/>
@@ -16762,7 +16756,7 @@
       <c r="AJ415" s="46"/>
       <c r="AK415" s="46"/>
     </row>
-    <row r="416" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:37" ht="12.75">
       <c r="B416" s="47"/>
       <c r="C416" s="47"/>
       <c r="D416" s="43"/>
@@ -16799,7 +16793,7 @@
       <c r="AJ416" s="46"/>
       <c r="AK416" s="46"/>
     </row>
-    <row r="417" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:37" ht="12.75">
       <c r="B417" s="47"/>
       <c r="C417" s="47"/>
       <c r="D417" s="43"/>
@@ -16836,7 +16830,7 @@
       <c r="AJ417" s="46"/>
       <c r="AK417" s="46"/>
     </row>
-    <row r="418" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:37" ht="12.75">
       <c r="B418" s="47"/>
       <c r="C418" s="47"/>
       <c r="D418" s="43"/>
@@ -16873,7 +16867,7 @@
       <c r="AJ418" s="46"/>
       <c r="AK418" s="46"/>
     </row>
-    <row r="419" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:37" ht="12.75">
       <c r="B419" s="47"/>
       <c r="C419" s="47"/>
       <c r="D419" s="43"/>
@@ -16910,7 +16904,7 @@
       <c r="AJ419" s="46"/>
       <c r="AK419" s="46"/>
     </row>
-    <row r="420" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:37" ht="12.75">
       <c r="B420" s="47"/>
       <c r="C420" s="47"/>
       <c r="D420" s="43"/>
@@ -16947,7 +16941,7 @@
       <c r="AJ420" s="46"/>
       <c r="AK420" s="46"/>
     </row>
-    <row r="421" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:37" ht="12.75">
       <c r="B421" s="47"/>
       <c r="C421" s="47"/>
       <c r="D421" s="43"/>
@@ -16984,7 +16978,7 @@
       <c r="AJ421" s="46"/>
       <c r="AK421" s="46"/>
     </row>
-    <row r="422" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:37" ht="12.75">
       <c r="B422" s="47"/>
       <c r="C422" s="47"/>
       <c r="D422" s="43"/>
@@ -17021,7 +17015,7 @@
       <c r="AJ422" s="46"/>
       <c r="AK422" s="46"/>
     </row>
-    <row r="423" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:37" ht="12.75">
       <c r="B423" s="47"/>
       <c r="C423" s="47"/>
       <c r="D423" s="43"/>
@@ -17058,7 +17052,7 @@
       <c r="AJ423" s="46"/>
       <c r="AK423" s="46"/>
     </row>
-    <row r="424" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:37" ht="12.75">
       <c r="B424" s="47"/>
       <c r="C424" s="47"/>
       <c r="D424" s="43"/>
@@ -17095,7 +17089,7 @@
       <c r="AJ424" s="46"/>
       <c r="AK424" s="46"/>
     </row>
-    <row r="425" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:37" ht="12.75">
       <c r="B425" s="47"/>
       <c r="C425" s="47"/>
       <c r="D425" s="43"/>
@@ -17132,7 +17126,7 @@
       <c r="AJ425" s="46"/>
       <c r="AK425" s="46"/>
     </row>
-    <row r="426" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:37" ht="12.75">
       <c r="B426" s="47"/>
       <c r="C426" s="47"/>
       <c r="D426" s="43"/>
@@ -17169,7 +17163,7 @@
       <c r="AJ426" s="46"/>
       <c r="AK426" s="46"/>
     </row>
-    <row r="427" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:37" ht="12.75">
       <c r="B427" s="47"/>
       <c r="C427" s="47"/>
       <c r="D427" s="43"/>
@@ -17206,7 +17200,7 @@
       <c r="AJ427" s="46"/>
       <c r="AK427" s="46"/>
     </row>
-    <row r="428" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:37" ht="12.75">
       <c r="B428" s="47"/>
       <c r="C428" s="47"/>
       <c r="D428" s="43"/>
@@ -17243,7 +17237,7 @@
       <c r="AJ428" s="46"/>
       <c r="AK428" s="46"/>
     </row>
-    <row r="429" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:37" ht="12.75">
       <c r="B429" s="47"/>
       <c r="C429" s="47"/>
       <c r="D429" s="43"/>
@@ -17280,7 +17274,7 @@
       <c r="AJ429" s="46"/>
       <c r="AK429" s="46"/>
     </row>
-    <row r="430" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:37" ht="12.75">
       <c r="B430" s="47"/>
       <c r="C430" s="47"/>
       <c r="D430" s="43"/>
@@ -17317,7 +17311,7 @@
       <c r="AJ430" s="46"/>
       <c r="AK430" s="46"/>
     </row>
-    <row r="431" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:37" ht="12.75">
       <c r="B431" s="47"/>
       <c r="C431" s="47"/>
       <c r="D431" s="43"/>
@@ -17354,7 +17348,7 @@
       <c r="AJ431" s="46"/>
       <c r="AK431" s="46"/>
     </row>
-    <row r="432" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:37" ht="12.75">
       <c r="B432" s="47"/>
       <c r="C432" s="47"/>
       <c r="D432" s="43"/>
@@ -17391,7 +17385,7 @@
       <c r="AJ432" s="46"/>
       <c r="AK432" s="46"/>
     </row>
-    <row r="433" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:37" ht="12.75">
       <c r="B433" s="47"/>
       <c r="C433" s="47"/>
       <c r="D433" s="43"/>
@@ -17428,7 +17422,7 @@
       <c r="AJ433" s="46"/>
       <c r="AK433" s="46"/>
     </row>
-    <row r="434" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:37" ht="12.75">
       <c r="B434" s="47"/>
       <c r="C434" s="47"/>
       <c r="D434" s="43"/>
@@ -17465,7 +17459,7 @@
       <c r="AJ434" s="46"/>
       <c r="AK434" s="46"/>
     </row>
-    <row r="435" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:37" ht="12.75">
       <c r="B435" s="47"/>
       <c r="C435" s="47"/>
       <c r="D435" s="43"/>
@@ -17502,7 +17496,7 @@
       <c r="AJ435" s="46"/>
       <c r="AK435" s="46"/>
     </row>
-    <row r="436" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:37" ht="12.75">
       <c r="B436" s="47"/>
       <c r="C436" s="47"/>
       <c r="D436" s="43"/>
@@ -17539,7 +17533,7 @@
       <c r="AJ436" s="46"/>
       <c r="AK436" s="46"/>
     </row>
-    <row r="437" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:37" ht="12.75">
       <c r="B437" s="47"/>
       <c r="C437" s="47"/>
       <c r="D437" s="43"/>
@@ -17576,7 +17570,7 @@
       <c r="AJ437" s="46"/>
       <c r="AK437" s="46"/>
     </row>
-    <row r="438" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:37" ht="12.75">
       <c r="B438" s="47"/>
       <c r="C438" s="47"/>
       <c r="D438" s="43"/>
@@ -17613,7 +17607,7 @@
       <c r="AJ438" s="46"/>
       <c r="AK438" s="46"/>
     </row>
-    <row r="439" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:37" ht="12.75">
       <c r="B439" s="47"/>
       <c r="C439" s="47"/>
       <c r="D439" s="43"/>
@@ -17650,7 +17644,7 @@
       <c r="AJ439" s="46"/>
       <c r="AK439" s="46"/>
     </row>
-    <row r="440" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:37" ht="12.75">
       <c r="B440" s="47"/>
       <c r="C440" s="47"/>
       <c r="D440" s="43"/>
@@ -17687,7 +17681,7 @@
       <c r="AJ440" s="46"/>
       <c r="AK440" s="46"/>
     </row>
-    <row r="441" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:37" ht="12.75">
       <c r="B441" s="47"/>
       <c r="C441" s="47"/>
       <c r="D441" s="43"/>
@@ -17724,7 +17718,7 @@
       <c r="AJ441" s="46"/>
       <c r="AK441" s="46"/>
     </row>
-    <row r="442" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:37" ht="12.75">
       <c r="B442" s="47"/>
       <c r="C442" s="47"/>
       <c r="D442" s="43"/>
@@ -17761,7 +17755,7 @@
       <c r="AJ442" s="46"/>
       <c r="AK442" s="46"/>
     </row>
-    <row r="443" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:37" ht="12.75">
       <c r="B443" s="47"/>
       <c r="C443" s="47"/>
       <c r="D443" s="43"/>
@@ -17798,7 +17792,7 @@
       <c r="AJ443" s="46"/>
       <c r="AK443" s="46"/>
     </row>
-    <row r="444" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:37" ht="12.75">
       <c r="B444" s="47"/>
       <c r="C444" s="47"/>
       <c r="D444" s="43"/>
@@ -17835,7 +17829,7 @@
       <c r="AJ444" s="46"/>
       <c r="AK444" s="46"/>
     </row>
-    <row r="445" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:37" ht="12.75">
       <c r="B445" s="47"/>
       <c r="C445" s="47"/>
       <c r="D445" s="43"/>
@@ -17872,7 +17866,7 @@
       <c r="AJ445" s="46"/>
       <c r="AK445" s="46"/>
     </row>
-    <row r="446" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:37" ht="12.75">
       <c r="B446" s="47"/>
       <c r="C446" s="47"/>
       <c r="D446" s="43"/>
@@ -17909,7 +17903,7 @@
       <c r="AJ446" s="46"/>
       <c r="AK446" s="46"/>
     </row>
-    <row r="447" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:37" ht="12.75">
       <c r="B447" s="47"/>
       <c r="C447" s="47"/>
       <c r="D447" s="43"/>
@@ -17946,7 +17940,7 @@
       <c r="AJ447" s="46"/>
       <c r="AK447" s="46"/>
     </row>
-    <row r="448" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:37" ht="12.75">
       <c r="B448" s="47"/>
       <c r="C448" s="47"/>
       <c r="D448" s="43"/>
@@ -17983,7 +17977,7 @@
       <c r="AJ448" s="46"/>
       <c r="AK448" s="46"/>
     </row>
-    <row r="449" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:37" ht="12.75">
       <c r="B449" s="47"/>
       <c r="C449" s="47"/>
       <c r="D449" s="43"/>
@@ -18020,7 +18014,7 @@
       <c r="AJ449" s="46"/>
       <c r="AK449" s="46"/>
     </row>
-    <row r="450" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:37" ht="12.75">
       <c r="B450" s="47"/>
       <c r="C450" s="47"/>
       <c r="D450" s="43"/>
@@ -18057,7 +18051,7 @@
       <c r="AJ450" s="46"/>
       <c r="AK450" s="46"/>
     </row>
-    <row r="451" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:37" ht="12.75">
       <c r="B451" s="47"/>
       <c r="C451" s="47"/>
       <c r="D451" s="43"/>
@@ -18094,7 +18088,7 @@
       <c r="AJ451" s="46"/>
       <c r="AK451" s="46"/>
     </row>
-    <row r="452" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:37" ht="12.75">
       <c r="B452" s="47"/>
       <c r="C452" s="47"/>
       <c r="D452" s="43"/>
@@ -18131,7 +18125,7 @@
       <c r="AJ452" s="46"/>
       <c r="AK452" s="46"/>
     </row>
-    <row r="453" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:37" ht="12.75">
       <c r="B453" s="47"/>
       <c r="C453" s="47"/>
       <c r="D453" s="43"/>
@@ -18168,7 +18162,7 @@
       <c r="AJ453" s="46"/>
       <c r="AK453" s="46"/>
     </row>
-    <row r="454" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:37" ht="12.75">
       <c r="B454" s="47"/>
       <c r="C454" s="47"/>
       <c r="D454" s="43"/>
@@ -18205,7 +18199,7 @@
       <c r="AJ454" s="46"/>
       <c r="AK454" s="46"/>
     </row>
-    <row r="455" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:37" ht="12.75">
       <c r="B455" s="47"/>
       <c r="C455" s="47"/>
       <c r="D455" s="43"/>
@@ -18242,7 +18236,7 @@
       <c r="AJ455" s="46"/>
       <c r="AK455" s="46"/>
     </row>
-    <row r="456" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:37" ht="12.75">
       <c r="B456" s="47"/>
       <c r="C456" s="47"/>
       <c r="D456" s="43"/>
@@ -18279,7 +18273,7 @@
       <c r="AJ456" s="46"/>
       <c r="AK456" s="46"/>
     </row>
-    <row r="457" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:37" ht="12.75">
       <c r="B457" s="47"/>
       <c r="C457" s="47"/>
       <c r="D457" s="43"/>
@@ -18316,7 +18310,7 @@
       <c r="AJ457" s="46"/>
       <c r="AK457" s="46"/>
     </row>
-    <row r="458" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:37" ht="12.75">
       <c r="B458" s="47"/>
       <c r="C458" s="47"/>
       <c r="D458" s="43"/>
@@ -18353,7 +18347,7 @@
       <c r="AJ458" s="46"/>
       <c r="AK458" s="46"/>
     </row>
-    <row r="459" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:37" ht="12.75">
       <c r="B459" s="47"/>
       <c r="C459" s="47"/>
       <c r="D459" s="43"/>
@@ -18390,7 +18384,7 @@
       <c r="AJ459" s="46"/>
       <c r="AK459" s="46"/>
     </row>
-    <row r="460" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:37" ht="12.75">
       <c r="B460" s="47"/>
       <c r="C460" s="47"/>
       <c r="D460" s="43"/>
@@ -18427,7 +18421,7 @@
       <c r="AJ460" s="46"/>
       <c r="AK460" s="46"/>
     </row>
-    <row r="461" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:37" ht="12.75">
       <c r="B461" s="47"/>
       <c r="C461" s="47"/>
       <c r="D461" s="43"/>
@@ -18464,7 +18458,7 @@
       <c r="AJ461" s="46"/>
       <c r="AK461" s="46"/>
     </row>
-    <row r="462" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:37" ht="12.75">
       <c r="B462" s="47"/>
       <c r="C462" s="47"/>
       <c r="D462" s="43"/>
@@ -18501,7 +18495,7 @@
       <c r="AJ462" s="46"/>
       <c r="AK462" s="46"/>
     </row>
-    <row r="463" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:37" ht="12.75">
       <c r="B463" s="47"/>
       <c r="C463" s="47"/>
       <c r="D463" s="43"/>
@@ -18538,7 +18532,7 @@
       <c r="AJ463" s="46"/>
       <c r="AK463" s="46"/>
     </row>
-    <row r="464" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:37" ht="12.75">
       <c r="B464" s="47"/>
       <c r="C464" s="47"/>
       <c r="D464" s="43"/>
@@ -18575,7 +18569,7 @@
       <c r="AJ464" s="46"/>
       <c r="AK464" s="46"/>
     </row>
-    <row r="465" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:37" ht="12.75">
       <c r="B465" s="47"/>
       <c r="C465" s="47"/>
       <c r="D465" s="43"/>
@@ -18612,7 +18606,7 @@
       <c r="AJ465" s="46"/>
       <c r="AK465" s="46"/>
     </row>
-    <row r="466" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:37" ht="12.75">
       <c r="B466" s="47"/>
       <c r="C466" s="47"/>
       <c r="D466" s="43"/>
@@ -18649,7 +18643,7 @@
       <c r="AJ466" s="46"/>
       <c r="AK466" s="46"/>
     </row>
-    <row r="467" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:37" ht="12.75">
       <c r="B467" s="47"/>
       <c r="C467" s="47"/>
       <c r="D467" s="43"/>
@@ -18686,7 +18680,7 @@
       <c r="AJ467" s="46"/>
       <c r="AK467" s="46"/>
     </row>
-    <row r="468" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:37" ht="12.75">
       <c r="B468" s="47"/>
       <c r="C468" s="47"/>
       <c r="D468" s="43"/>
@@ -18723,7 +18717,7 @@
       <c r="AJ468" s="46"/>
       <c r="AK468" s="46"/>
     </row>
-    <row r="469" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:37" ht="12.75">
       <c r="B469" s="47"/>
       <c r="C469" s="47"/>
       <c r="D469" s="43"/>
@@ -18760,7 +18754,7 @@
       <c r="AJ469" s="46"/>
       <c r="AK469" s="46"/>
     </row>
-    <row r="470" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:37" ht="12.75">
       <c r="B470" s="47"/>
       <c r="C470" s="47"/>
       <c r="D470" s="43"/>
@@ -18797,7 +18791,7 @@
       <c r="AJ470" s="46"/>
       <c r="AK470" s="46"/>
     </row>
-    <row r="471" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:37" ht="12.75">
       <c r="B471" s="47"/>
       <c r="C471" s="47"/>
       <c r="D471" s="43"/>
@@ -18834,7 +18828,7 @@
       <c r="AJ471" s="46"/>
       <c r="AK471" s="46"/>
     </row>
-    <row r="472" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:37" ht="12.75">
       <c r="B472" s="47"/>
       <c r="C472" s="47"/>
       <c r="D472" s="43"/>
@@ -18871,7 +18865,7 @@
       <c r="AJ472" s="46"/>
       <c r="AK472" s="46"/>
     </row>
-    <row r="473" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:37" ht="12.75">
       <c r="B473" s="47"/>
       <c r="C473" s="47"/>
       <c r="D473" s="43"/>
@@ -18908,7 +18902,7 @@
       <c r="AJ473" s="46"/>
       <c r="AK473" s="46"/>
     </row>
-    <row r="474" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:37" ht="12.75">
       <c r="B474" s="47"/>
       <c r="C474" s="47"/>
       <c r="D474" s="43"/>
@@ -18945,7 +18939,7 @@
       <c r="AJ474" s="46"/>
       <c r="AK474" s="46"/>
     </row>
-    <row r="475" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:37" ht="12.75">
       <c r="B475" s="47"/>
       <c r="C475" s="47"/>
       <c r="D475" s="43"/>
@@ -18982,7 +18976,7 @@
       <c r="AJ475" s="46"/>
       <c r="AK475" s="46"/>
     </row>
-    <row r="476" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:37" ht="12.75">
       <c r="B476" s="47"/>
       <c r="C476" s="47"/>
       <c r="D476" s="43"/>
@@ -19019,7 +19013,7 @@
       <c r="AJ476" s="46"/>
       <c r="AK476" s="46"/>
     </row>
-    <row r="477" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:37" ht="12.75">
       <c r="B477" s="47"/>
       <c r="C477" s="47"/>
       <c r="D477" s="43"/>
@@ -19056,7 +19050,7 @@
       <c r="AJ477" s="46"/>
       <c r="AK477" s="46"/>
     </row>
-    <row r="478" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:37" ht="12.75">
       <c r="B478" s="47"/>
       <c r="C478" s="47"/>
       <c r="D478" s="43"/>
@@ -19093,7 +19087,7 @@
       <c r="AJ478" s="46"/>
       <c r="AK478" s="46"/>
     </row>
-    <row r="479" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:37" ht="12.75">
       <c r="B479" s="47"/>
       <c r="C479" s="47"/>
       <c r="D479" s="43"/>
@@ -19130,7 +19124,7 @@
       <c r="AJ479" s="46"/>
       <c r="AK479" s="46"/>
     </row>
-    <row r="480" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:37" ht="12.75">
       <c r="B480" s="47"/>
       <c r="C480" s="47"/>
       <c r="D480" s="43"/>
@@ -19167,7 +19161,7 @@
       <c r="AJ480" s="46"/>
       <c r="AK480" s="46"/>
     </row>
-    <row r="481" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:37" ht="12.75">
       <c r="B481" s="47"/>
       <c r="C481" s="47"/>
       <c r="D481" s="43"/>
@@ -19204,7 +19198,7 @@
       <c r="AJ481" s="46"/>
       <c r="AK481" s="46"/>
     </row>
-    <row r="482" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:37" ht="12.75">
       <c r="B482" s="47"/>
       <c r="C482" s="47"/>
       <c r="D482" s="43"/>
@@ -19241,7 +19235,7 @@
       <c r="AJ482" s="46"/>
       <c r="AK482" s="46"/>
     </row>
-    <row r="483" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:37" ht="12.75">
       <c r="B483" s="47"/>
       <c r="C483" s="47"/>
       <c r="D483" s="43"/>
@@ -19278,7 +19272,7 @@
       <c r="AJ483" s="46"/>
       <c r="AK483" s="46"/>
     </row>
-    <row r="484" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:37" ht="12.75">
       <c r="B484" s="47"/>
       <c r="C484" s="47"/>
       <c r="D484" s="43"/>
@@ -19315,7 +19309,7 @@
       <c r="AJ484" s="46"/>
       <c r="AK484" s="46"/>
     </row>
-    <row r="485" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:37" ht="12.75">
       <c r="B485" s="47"/>
       <c r="C485" s="47"/>
       <c r="D485" s="43"/>
@@ -19352,7 +19346,7 @@
       <c r="AJ485" s="46"/>
       <c r="AK485" s="46"/>
     </row>
-    <row r="486" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:37" ht="12.75">
       <c r="B486" s="47"/>
       <c r="C486" s="47"/>
       <c r="D486" s="43"/>
@@ -19389,7 +19383,7 @@
       <c r="AJ486" s="46"/>
       <c r="AK486" s="46"/>
     </row>
-    <row r="487" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:37" ht="12.75">
       <c r="B487" s="47"/>
       <c r="C487" s="47"/>
       <c r="D487" s="43"/>
@@ -19426,7 +19420,7 @@
       <c r="AJ487" s="46"/>
       <c r="AK487" s="46"/>
     </row>
-    <row r="488" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:37" ht="12.75">
       <c r="B488" s="47"/>
       <c r="C488" s="47"/>
       <c r="D488" s="43"/>
@@ -19463,7 +19457,7 @@
       <c r="AJ488" s="46"/>
       <c r="AK488" s="46"/>
     </row>
-    <row r="489" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:37" ht="12.75">
       <c r="B489" s="47"/>
       <c r="C489" s="47"/>
       <c r="D489" s="43"/>
@@ -19500,7 +19494,7 @@
       <c r="AJ489" s="46"/>
       <c r="AK489" s="46"/>
     </row>
-    <row r="490" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:37" ht="12.75">
       <c r="B490" s="47"/>
       <c r="C490" s="47"/>
       <c r="D490" s="43"/>
@@ -19537,7 +19531,7 @@
       <c r="AJ490" s="46"/>
       <c r="AK490" s="46"/>
     </row>
-    <row r="491" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:37" ht="12.75">
       <c r="B491" s="47"/>
       <c r="C491" s="47"/>
       <c r="D491" s="43"/>
@@ -19574,7 +19568,7 @@
       <c r="AJ491" s="46"/>
       <c r="AK491" s="46"/>
     </row>
-    <row r="492" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:37" ht="12.75">
       <c r="B492" s="47"/>
       <c r="C492" s="47"/>
       <c r="D492" s="43"/>
@@ -19611,7 +19605,7 @@
       <c r="AJ492" s="46"/>
       <c r="AK492" s="46"/>
     </row>
-    <row r="493" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:37" ht="12.75">
       <c r="B493" s="47"/>
       <c r="C493" s="47"/>
       <c r="D493" s="43"/>
@@ -19648,7 +19642,7 @@
       <c r="AJ493" s="46"/>
       <c r="AK493" s="46"/>
     </row>
-    <row r="494" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:37" ht="12.75">
       <c r="B494" s="47"/>
       <c r="C494" s="47"/>
       <c r="D494" s="43"/>
@@ -19685,7 +19679,7 @@
       <c r="AJ494" s="46"/>
       <c r="AK494" s="46"/>
     </row>
-    <row r="495" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:37" ht="12.75">
       <c r="B495" s="47"/>
       <c r="C495" s="47"/>
       <c r="D495" s="43"/>
@@ -19722,7 +19716,7 @@
       <c r="AJ495" s="46"/>
       <c r="AK495" s="46"/>
     </row>
-    <row r="496" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:37" ht="12.75">
       <c r="B496" s="47"/>
       <c r="C496" s="47"/>
       <c r="D496" s="43"/>
@@ -19759,7 +19753,7 @@
       <c r="AJ496" s="46"/>
       <c r="AK496" s="46"/>
     </row>
-    <row r="497" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:37" ht="12.75">
       <c r="B497" s="47"/>
       <c r="C497" s="47"/>
       <c r="D497" s="43"/>
@@ -19796,7 +19790,7 @@
       <c r="AJ497" s="46"/>
       <c r="AK497" s="46"/>
     </row>
-    <row r="498" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:37" ht="12.75">
       <c r="B498" s="47"/>
       <c r="C498" s="47"/>
       <c r="D498" s="43"/>
@@ -19833,7 +19827,7 @@
       <c r="AJ498" s="46"/>
       <c r="AK498" s="46"/>
     </row>
-    <row r="499" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:37" ht="12.75">
       <c r="B499" s="47"/>
       <c r="C499" s="47"/>
       <c r="D499" s="43"/>
@@ -19870,7 +19864,7 @@
       <c r="AJ499" s="46"/>
       <c r="AK499" s="46"/>
     </row>
-    <row r="500" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:37" ht="12.75">
       <c r="B500" s="47"/>
       <c r="C500" s="47"/>
       <c r="D500" s="43"/>
@@ -19907,7 +19901,7 @@
       <c r="AJ500" s="46"/>
       <c r="AK500" s="46"/>
     </row>
-    <row r="501" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:37" ht="12.75">
       <c r="B501" s="47"/>
       <c r="C501" s="47"/>
       <c r="D501" s="43"/>
@@ -19944,7 +19938,7 @@
       <c r="AJ501" s="46"/>
       <c r="AK501" s="46"/>
     </row>
-    <row r="502" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:37" ht="12.75">
       <c r="B502" s="47"/>
       <c r="C502" s="47"/>
       <c r="D502" s="43"/>
@@ -19981,7 +19975,7 @@
       <c r="AJ502" s="46"/>
       <c r="AK502" s="46"/>
     </row>
-    <row r="503" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:37" ht="12.75">
       <c r="B503" s="47"/>
       <c r="C503" s="47"/>
       <c r="D503" s="43"/>
@@ -20018,7 +20012,7 @@
       <c r="AJ503" s="46"/>
       <c r="AK503" s="46"/>
     </row>
-    <row r="504" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:37" ht="12.75">
       <c r="B504" s="47"/>
       <c r="C504" s="47"/>
       <c r="D504" s="43"/>
@@ -20055,7 +20049,7 @@
       <c r="AJ504" s="46"/>
       <c r="AK504" s="46"/>
     </row>
-    <row r="505" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:37" ht="12.75">
       <c r="B505" s="47"/>
       <c r="C505" s="47"/>
       <c r="D505" s="43"/>
@@ -20092,7 +20086,7 @@
       <c r="AJ505" s="46"/>
       <c r="AK505" s="46"/>
     </row>
-    <row r="506" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:37" ht="12.75">
       <c r="B506" s="47"/>
       <c r="C506" s="47"/>
       <c r="D506" s="43"/>
@@ -20129,7 +20123,7 @@
       <c r="AJ506" s="46"/>
       <c r="AK506" s="46"/>
     </row>
-    <row r="507" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:37" ht="12.75">
       <c r="B507" s="47"/>
       <c r="C507" s="47"/>
       <c r="D507" s="43"/>
@@ -20166,7 +20160,7 @@
       <c r="AJ507" s="46"/>
       <c r="AK507" s="46"/>
     </row>
-    <row r="508" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:37" ht="12.75">
       <c r="B508" s="47"/>
       <c r="C508" s="47"/>
       <c r="D508" s="43"/>
@@ -20203,7 +20197,7 @@
       <c r="AJ508" s="46"/>
       <c r="AK508" s="46"/>
     </row>
-    <row r="509" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:37" ht="12.75">
       <c r="B509" s="47"/>
       <c r="C509" s="47"/>
       <c r="D509" s="43"/>
@@ -20240,7 +20234,7 @@
       <c r="AJ509" s="46"/>
       <c r="AK509" s="46"/>
     </row>
-    <row r="510" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:37" ht="12.75">
       <c r="B510" s="47"/>
       <c r="C510" s="47"/>
       <c r="D510" s="43"/>
@@ -20277,7 +20271,7 @@
       <c r="AJ510" s="46"/>
       <c r="AK510" s="46"/>
     </row>
-    <row r="511" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:37" ht="12.75">
       <c r="B511" s="47"/>
       <c r="C511" s="47"/>
       <c r="D511" s="43"/>
@@ -20314,7 +20308,7 @@
       <c r="AJ511" s="46"/>
       <c r="AK511" s="46"/>
     </row>
-    <row r="512" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:37" ht="12.75">
       <c r="B512" s="47"/>
       <c r="C512" s="47"/>
       <c r="D512" s="43"/>
@@ -20351,7 +20345,7 @@
       <c r="AJ512" s="46"/>
       <c r="AK512" s="46"/>
     </row>
-    <row r="513" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:37" ht="12.75">
       <c r="B513" s="47"/>
       <c r="C513" s="47"/>
       <c r="D513" s="43"/>
@@ -20388,7 +20382,7 @@
       <c r="AJ513" s="46"/>
       <c r="AK513" s="46"/>
     </row>
-    <row r="514" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:37" ht="12.75">
       <c r="B514" s="47"/>
       <c r="C514" s="47"/>
       <c r="D514" s="43"/>
@@ -20425,7 +20419,7 @@
       <c r="AJ514" s="46"/>
       <c r="AK514" s="46"/>
     </row>
-    <row r="515" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:37" ht="12.75">
       <c r="B515" s="47"/>
       <c r="C515" s="47"/>
       <c r="D515" s="43"/>
@@ -20462,7 +20456,7 @@
       <c r="AJ515" s="46"/>
       <c r="AK515" s="46"/>
     </row>
-    <row r="516" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:37" ht="12.75">
       <c r="B516" s="47"/>
       <c r="C516" s="47"/>
       <c r="D516" s="43"/>
@@ -20499,7 +20493,7 @@
       <c r="AJ516" s="46"/>
       <c r="AK516" s="46"/>
     </row>
-    <row r="517" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:37" ht="12.75">
       <c r="B517" s="47"/>
       <c r="C517" s="47"/>
       <c r="D517" s="43"/>
@@ -20536,7 +20530,7 @@
       <c r="AJ517" s="46"/>
       <c r="AK517" s="46"/>
     </row>
-    <row r="518" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:37" ht="12.75">
       <c r="B518" s="47"/>
       <c r="C518" s="47"/>
       <c r="D518" s="43"/>
@@ -20573,7 +20567,7 @@
       <c r="AJ518" s="46"/>
       <c r="AK518" s="46"/>
     </row>
-    <row r="519" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:37" ht="12.75">
       <c r="B519" s="47"/>
       <c r="C519" s="47"/>
       <c r="D519" s="43"/>
@@ -20610,7 +20604,7 @@
       <c r="AJ519" s="46"/>
       <c r="AK519" s="46"/>
     </row>
-    <row r="520" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:37" ht="12.75">
       <c r="B520" s="47"/>
       <c r="C520" s="47"/>
       <c r="D520" s="43"/>
@@ -20647,7 +20641,7 @@
       <c r="AJ520" s="46"/>
       <c r="AK520" s="46"/>
     </row>
-    <row r="521" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:37" ht="12.75">
       <c r="B521" s="47"/>
       <c r="C521" s="47"/>
       <c r="D521" s="43"/>
@@ -20684,7 +20678,7 @@
       <c r="AJ521" s="46"/>
       <c r="AK521" s="46"/>
     </row>
-    <row r="522" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:37" ht="12.75">
       <c r="B522" s="47"/>
       <c r="C522" s="47"/>
       <c r="D522" s="43"/>
@@ -20721,7 +20715,7 @@
       <c r="AJ522" s="46"/>
       <c r="AK522" s="46"/>
     </row>
-    <row r="523" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:37" ht="12.75">
       <c r="B523" s="47"/>
       <c r="C523" s="47"/>
       <c r="D523" s="43"/>
@@ -20758,7 +20752,7 @@
       <c r="AJ523" s="46"/>
       <c r="AK523" s="46"/>
     </row>
-    <row r="524" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:37" ht="12.75">
       <c r="B524" s="47"/>
       <c r="C524" s="47"/>
       <c r="D524" s="43"/>
@@ -20795,7 +20789,7 @@
       <c r="AJ524" s="46"/>
       <c r="AK524" s="46"/>
     </row>
-    <row r="525" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:37" ht="12.75">
       <c r="B525" s="47"/>
       <c r="C525" s="47"/>
       <c r="D525" s="43"/>
@@ -20832,7 +20826,7 @@
       <c r="AJ525" s="46"/>
       <c r="AK525" s="46"/>
     </row>
-    <row r="526" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:37" ht="12.75">
       <c r="B526" s="47"/>
       <c r="C526" s="47"/>
       <c r="D526" s="43"/>
@@ -20869,7 +20863,7 @@
       <c r="AJ526" s="46"/>
       <c r="AK526" s="46"/>
     </row>
-    <row r="527" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:37" ht="12.75">
       <c r="B527" s="47"/>
       <c r="C527" s="47"/>
       <c r="D527" s="43"/>
@@ -20906,7 +20900,7 @@
       <c r="AJ527" s="46"/>
       <c r="AK527" s="46"/>
     </row>
-    <row r="528" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:37" ht="12.75">
       <c r="B528" s="47"/>
       <c r="C528" s="47"/>
       <c r="D528" s="43"/>
@@ -20943,7 +20937,7 @@
       <c r="AJ528" s="46"/>
       <c r="AK528" s="46"/>
     </row>
-    <row r="529" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:37" ht="12.75">
       <c r="B529" s="47"/>
       <c r="C529" s="47"/>
       <c r="D529" s="43"/>
@@ -20980,7 +20974,7 @@
       <c r="AJ529" s="46"/>
       <c r="AK529" s="46"/>
     </row>
-    <row r="530" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:37" ht="12.75">
       <c r="B530" s="47"/>
       <c r="C530" s="47"/>
       <c r="D530" s="43"/>
@@ -21017,7 +21011,7 @@
       <c r="AJ530" s="46"/>
       <c r="AK530" s="46"/>
     </row>
-    <row r="531" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:37" ht="12.75">
       <c r="B531" s="47"/>
       <c r="C531" s="47"/>
       <c r="D531" s="43"/>
@@ -21054,7 +21048,7 @@
       <c r="AJ531" s="46"/>
       <c r="AK531" s="46"/>
     </row>
-    <row r="532" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:37" ht="12.75">
       <c r="B532" s="47"/>
       <c r="C532" s="47"/>
       <c r="D532" s="43"/>
@@ -21091,7 +21085,7 @@
       <c r="AJ532" s="46"/>
       <c r="AK532" s="46"/>
     </row>
-    <row r="533" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:37" ht="12.75">
       <c r="B533" s="47"/>
       <c r="C533" s="47"/>
       <c r="D533" s="43"/>
@@ -21128,7 +21122,7 @@
       <c r="AJ533" s="46"/>
       <c r="AK533" s="46"/>
     </row>
-    <row r="534" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:37" ht="12.75">
       <c r="B534" s="47"/>
       <c r="C534" s="47"/>
       <c r="D534" s="43"/>
@@ -21165,7 +21159,7 @@
       <c r="AJ534" s="46"/>
       <c r="AK534" s="46"/>
     </row>
-    <row r="535" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:37" ht="12.75">
       <c r="B535" s="47"/>
       <c r="C535" s="47"/>
       <c r="D535" s="43"/>
@@ -21202,7 +21196,7 @@
       <c r="AJ535" s="46"/>
       <c r="AK535" s="46"/>
     </row>
-    <row r="536" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:37" ht="12.75">
       <c r="B536" s="47"/>
       <c r="C536" s="47"/>
       <c r="D536" s="43"/>
@@ -21239,7 +21233,7 @@
       <c r="AJ536" s="46"/>
       <c r="AK536" s="46"/>
     </row>
-    <row r="537" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:37" ht="12.75">
       <c r="B537" s="47"/>
       <c r="C537" s="47"/>
       <c r="D537" s="43"/>
@@ -21276,7 +21270,7 @@
       <c r="AJ537" s="46"/>
       <c r="AK537" s="46"/>
     </row>
-    <row r="538" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:37" ht="12.75">
       <c r="B538" s="47"/>
       <c r="C538" s="47"/>
       <c r="D538" s="43"/>
@@ -21313,7 +21307,7 @@
       <c r="AJ538" s="46"/>
       <c r="AK538" s="46"/>
     </row>
-    <row r="539" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:37" ht="12.75">
       <c r="B539" s="47"/>
       <c r="C539" s="47"/>
       <c r="D539" s="43"/>
@@ -21350,7 +21344,7 @@
       <c r="AJ539" s="46"/>
       <c r="AK539" s="46"/>
     </row>
-    <row r="540" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:37" ht="12.75">
       <c r="B540" s="47"/>
       <c r="C540" s="47"/>
       <c r="D540" s="43"/>
@@ -21387,7 +21381,7 @@
       <c r="AJ540" s="46"/>
       <c r="AK540" s="46"/>
     </row>
-    <row r="541" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:37" ht="12.75">
       <c r="B541" s="47"/>
       <c r="C541" s="47"/>
       <c r="D541" s="43"/>
@@ -21424,7 +21418,7 @@
       <c r="AJ541" s="46"/>
       <c r="AK541" s="46"/>
     </row>
-    <row r="542" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:37" ht="12.75">
       <c r="B542" s="47"/>
       <c r="C542" s="47"/>
       <c r="D542" s="43"/>
@@ -21461,7 +21455,7 @@
       <c r="AJ542" s="46"/>
       <c r="AK542" s="46"/>
     </row>
-    <row r="543" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:37" ht="12.75">
       <c r="B543" s="47"/>
       <c r="C543" s="47"/>
       <c r="D543" s="43"/>
@@ -21498,7 +21492,7 @@
       <c r="AJ543" s="46"/>
       <c r="AK543" s="46"/>
     </row>
-    <row r="544" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:37" ht="12.75">
       <c r="B544" s="47"/>
       <c r="C544" s="47"/>
       <c r="D544" s="43"/>
@@ -21535,7 +21529,7 @@
       <c r="AJ544" s="46"/>
       <c r="AK544" s="46"/>
     </row>
-    <row r="545" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:37" ht="12.75">
       <c r="B545" s="47"/>
       <c r="C545" s="47"/>
       <c r="D545" s="43"/>
@@ -21572,7 +21566,7 @@
       <c r="AJ545" s="46"/>
       <c r="AK545" s="46"/>
     </row>
-    <row r="546" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:37" ht="12.75">
       <c r="B546" s="47"/>
       <c r="C546" s="47"/>
       <c r="D546" s="43"/>
@@ -21609,7 +21603,7 @@
       <c r="AJ546" s="46"/>
       <c r="AK546" s="46"/>
     </row>
-    <row r="547" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:37" ht="12.75">
       <c r="B547" s="47"/>
       <c r="C547" s="47"/>
       <c r="D547" s="43"/>
@@ -21646,7 +21640,7 @@
       <c r="AJ547" s="46"/>
       <c r="AK547" s="46"/>
     </row>
-    <row r="548" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:37" ht="12.75">
       <c r="B548" s="47"/>
       <c r="C548" s="47"/>
       <c r="D548" s="43"/>
@@ -21683,7 +21677,7 @@
       <c r="AJ548" s="46"/>
       <c r="AK548" s="46"/>
     </row>
-    <row r="549" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:37" ht="12.75">
       <c r="B549" s="47"/>
       <c r="C549" s="47"/>
       <c r="D549" s="43"/>
@@ -21720,7 +21714,7 @@
       <c r="AJ549" s="46"/>
       <c r="AK549" s="46"/>
     </row>
-    <row r="550" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:37" ht="12.75">
       <c r="B550" s="47"/>
       <c r="C550" s="47"/>
       <c r="D550" s="43"/>
@@ -21757,7 +21751,7 @@
       <c r="AJ550" s="46"/>
       <c r="AK550" s="46"/>
     </row>
-    <row r="551" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:37" ht="12.75">
       <c r="B551" s="47"/>
       <c r="C551" s="47"/>
       <c r="D551" s="43"/>
@@ -21794,7 +21788,7 @@
       <c r="AJ551" s="46"/>
       <c r="AK551" s="46"/>
     </row>
-    <row r="552" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:37" ht="12.75">
       <c r="B552" s="47"/>
       <c r="C552" s="47"/>
       <c r="D552" s="43"/>
@@ -21831,7 +21825,7 @@
       <c r="AJ552" s="46"/>
       <c r="AK552" s="46"/>
     </row>
-    <row r="553" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:37" ht="12.75">
       <c r="B553" s="47"/>
       <c r="C553" s="47"/>
       <c r="D553" s="43"/>
@@ -21868,7 +21862,7 @@
       <c r="AJ553" s="46"/>
       <c r="AK553" s="46"/>
     </row>
-    <row r="554" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:37" ht="12.75">
       <c r="B554" s="47"/>
       <c r="C554" s="47"/>
       <c r="D554" s="43"/>
@@ -21905,7 +21899,7 @@
       <c r="AJ554" s="46"/>
       <c r="AK554" s="46"/>
     </row>
-    <row r="555" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:37" ht="12.75">
       <c r="B555" s="47"/>
       <c r="C555" s="47"/>
       <c r="D555" s="43"/>
@@ -21942,7 +21936,7 @@
       <c r="AJ555" s="46"/>
       <c r="AK555" s="46"/>
     </row>
-    <row r="556" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:37" ht="12.75">
       <c r="B556" s="47"/>
       <c r="C556" s="47"/>
       <c r="D556" s="43"/>
@@ -21979,7 +21973,7 @@
       <c r="AJ556" s="46"/>
       <c r="AK556" s="46"/>
     </row>
-    <row r="557" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:37" ht="12.75">
       <c r="B557" s="47"/>
       <c r="C557" s="47"/>
       <c r="D557" s="43"/>
@@ -22016,7 +22010,7 @@
       <c r="AJ557" s="46"/>
       <c r="AK557" s="46"/>
     </row>
-    <row r="558" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:37" ht="12.75">
       <c r="B558" s="47"/>
       <c r="C558" s="47"/>
       <c r="D558" s="43"/>
@@ -22053,7 +22047,7 @@
       <c r="AJ558" s="46"/>
       <c r="AK558" s="46"/>
     </row>
-    <row r="559" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:37" ht="12.75">
       <c r="B559" s="47"/>
       <c r="C559" s="47"/>
       <c r="D559" s="43"/>
@@ -22090,7 +22084,7 @@
       <c r="AJ559" s="46"/>
       <c r="AK559" s="46"/>
     </row>
-    <row r="560" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:37" ht="12.75">
       <c r="B560" s="47"/>
       <c r="C560" s="47"/>
       <c r="D560" s="43"/>
@@ -22127,7 +22121,7 @@
       <c r="AJ560" s="46"/>
       <c r="AK560" s="46"/>
     </row>
-    <row r="561" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:37" ht="12.75">
       <c r="B561" s="47"/>
       <c r="C561" s="47"/>
       <c r="D561" s="43"/>
@@ -22164,7 +22158,7 @@
       <c r="AJ561" s="46"/>
       <c r="AK561" s="46"/>
     </row>
-    <row r="562" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:37" ht="12.75">
       <c r="B562" s="47"/>
       <c r="C562" s="47"/>
       <c r="D562" s="43"/>
@@ -22201,7 +22195,7 @@
       <c r="AJ562" s="46"/>
       <c r="AK562" s="46"/>
     </row>
-    <row r="563" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:37" ht="12.75">
       <c r="B563" s="47"/>
       <c r="C563" s="47"/>
       <c r="D563" s="43"/>
@@ -22238,7 +22232,7 @@
       <c r="AJ563" s="46"/>
       <c r="AK563" s="46"/>
     </row>
-    <row r="564" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:37" ht="12.75">
       <c r="B564" s="47"/>
       <c r="C564" s="47"/>
       <c r="D564" s="43"/>
@@ -22275,7 +22269,7 @@
       <c r="AJ564" s="46"/>
       <c r="AK564" s="46"/>
     </row>
-    <row r="565" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:37" ht="12.75">
       <c r="B565" s="47"/>
       <c r="C565" s="47"/>
       <c r="D565" s="43"/>
@@ -22312,7 +22306,7 @@
       <c r="AJ565" s="46"/>
       <c r="AK565" s="46"/>
     </row>
-    <row r="566" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:37" ht="12.75">
       <c r="B566" s="47"/>
       <c r="C566" s="47"/>
       <c r="D566" s="43"/>
@@ -22349,7 +22343,7 @@
       <c r="AJ566" s="46"/>
       <c r="AK566" s="46"/>
     </row>
-    <row r="567" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:37" ht="12.75">
       <c r="B567" s="47"/>
       <c r="C567" s="47"/>
       <c r="D567" s="43"/>
@@ -22386,7 +22380,7 @@
       <c r="AJ567" s="46"/>
       <c r="AK567" s="46"/>
     </row>
-    <row r="568" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:37" ht="12.75">
       <c r="B568" s="47"/>
       <c r="C568" s="47"/>
       <c r="D568" s="43"/>
@@ -22423,7 +22417,7 @@
       <c r="AJ568" s="46"/>
       <c r="AK568" s="46"/>
     </row>
-    <row r="569" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:37" ht="12.75">
       <c r="B569" s="47"/>
       <c r="C569" s="47"/>
       <c r="D569" s="43"/>
@@ -22460,7 +22454,7 @@
       <c r="AJ569" s="46"/>
       <c r="AK569" s="46"/>
     </row>
-    <row r="570" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:37" ht="12.75">
       <c r="B570" s="47"/>
       <c r="C570" s="47"/>
       <c r="D570" s="43"/>
@@ -22497,7 +22491,7 @@
       <c r="AJ570" s="46"/>
       <c r="AK570" s="46"/>
     </row>
-    <row r="571" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:37" ht="12.75">
       <c r="B571" s="47"/>
       <c r="C571" s="47"/>
       <c r="D571" s="43"/>
@@ -22534,7 +22528,7 @@
       <c r="AJ571" s="46"/>
       <c r="AK571" s="46"/>
     </row>
-    <row r="572" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:37" ht="12.75">
       <c r="B572" s="47"/>
       <c r="C572" s="47"/>
       <c r="D572" s="43"/>
@@ -22571,7 +22565,7 @@
       <c r="AJ572" s="46"/>
       <c r="AK572" s="46"/>
     </row>
-    <row r="573" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:37" ht="12.75">
       <c r="B573" s="47"/>
       <c r="C573" s="47"/>
       <c r="D573" s="43"/>
@@ -22608,7 +22602,7 @@
       <c r="AJ573" s="46"/>
       <c r="AK573" s="46"/>
     </row>
-    <row r="574" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:37" ht="12.75">
       <c r="B574" s="47"/>
       <c r="C574" s="47"/>
       <c r="D574" s="43"/>
@@ -22645,7 +22639,7 @@
       <c r="AJ574" s="46"/>
       <c r="AK574" s="46"/>
     </row>
-    <row r="575" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:37" ht="12.75">
       <c r="B575" s="47"/>
       <c r="C575" s="47"/>
       <c r="D575" s="43"/>
@@ -22682,7 +22676,7 @@
       <c r="AJ575" s="46"/>
       <c r="AK575" s="46"/>
     </row>
-    <row r="576" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:37" ht="12.75">
       <c r="B576" s="47"/>
       <c r="C576" s="47"/>
       <c r="D576" s="43"/>
@@ -22719,7 +22713,7 @@
       <c r="AJ576" s="46"/>
       <c r="AK576" s="46"/>
     </row>
-    <row r="577" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:37" ht="12.75">
       <c r="B577" s="47"/>
       <c r="C577" s="47"/>
       <c r="D577" s="43"/>
@@ -22756,7 +22750,7 @@
       <c r="AJ577" s="46"/>
       <c r="AK577" s="46"/>
     </row>
-    <row r="578" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:37" ht="12.75">
       <c r="B578" s="47"/>
       <c r="C578" s="47"/>
       <c r="D578" s="43"/>
@@ -22793,7 +22787,7 @@
       <c r="AJ578" s="46"/>
       <c r="AK578" s="46"/>
     </row>
-    <row r="579" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:37" ht="12.75">
       <c r="B579" s="47"/>
       <c r="C579" s="47"/>
       <c r="D579" s="43"/>
@@ -22830,7 +22824,7 @@
       <c r="AJ579" s="46"/>
       <c r="AK579" s="46"/>
     </row>
-    <row r="580" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:37" ht="12.75">
       <c r="B580" s="47"/>
       <c r="C580" s="47"/>
       <c r="D580" s="43"/>
@@ -22867,7 +22861,7 @@
       <c r="AJ580" s="46"/>
       <c r="AK580" s="46"/>
     </row>
-    <row r="581" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:37" ht="12.75">
       <c r="B581" s="47"/>
       <c r="C581" s="47"/>
       <c r="D581" s="43"/>
@@ -22904,7 +22898,7 @@
       <c r="AJ581" s="46"/>
       <c r="AK581" s="46"/>
     </row>
-    <row r="582" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:37" ht="12.75">
       <c r="B582" s="47"/>
       <c r="C582" s="47"/>
       <c r="D582" s="43"/>
@@ -22941,7 +22935,7 @@
       <c r="AJ582" s="46"/>
       <c r="AK582" s="46"/>
     </row>
-    <row r="583" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:37" ht="12.75">
       <c r="B583" s="47"/>
       <c r="C583" s="47"/>
       <c r="D583" s="43"/>
@@ -22978,7 +22972,7 @@
       <c r="AJ583" s="46"/>
       <c r="AK583" s="46"/>
     </row>
-    <row r="584" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:37" ht="12.75">
       <c r="B584" s="47"/>
       <c r="C584" s="47"/>
       <c r="D584" s="43"/>
@@ -23015,7 +23009,7 @@
       <c r="AJ584" s="46"/>
       <c r="AK584" s="46"/>
     </row>
-    <row r="585" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:37" ht="12.75">
       <c r="B585" s="47"/>
       <c r="C585" s="47"/>
       <c r="D585" s="43"/>
@@ -23052,7 +23046,7 @@
       <c r="AJ585" s="46"/>
       <c r="AK585" s="46"/>
     </row>
-    <row r="586" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:37" ht="12.75">
       <c r="B586" s="47"/>
       <c r="C586" s="47"/>
       <c r="D586" s="43"/>
@@ -23089,7 +23083,7 @@
       <c r="AJ586" s="46"/>
       <c r="AK586" s="46"/>
     </row>
-    <row r="587" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:37" ht="12.75">
       <c r="B587" s="47"/>
       <c r="C587" s="47"/>
       <c r="D587" s="43"/>
@@ -23126,7 +23120,7 @@
       <c r="AJ587" s="46"/>
       <c r="AK587" s="46"/>
     </row>
-    <row r="588" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:37" ht="12.75">
       <c r="B588" s="47"/>
       <c r="C588" s="47"/>
       <c r="D588" s="43"/>
@@ -23163,7 +23157,7 @@
       <c r="AJ588" s="46"/>
       <c r="AK588" s="46"/>
     </row>
-    <row r="589" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:37" ht="12.75">
       <c r="B589" s="47"/>
       <c r="C589" s="47"/>
       <c r="D589" s="43"/>
@@ -23200,7 +23194,7 @@
       <c r="AJ589" s="46"/>
       <c r="AK589" s="46"/>
     </row>
-    <row r="590" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:37" ht="12.75">
       <c r="B590" s="47"/>
       <c r="C590" s="47"/>
       <c r="D590" s="43"/>
@@ -23237,7 +23231,7 @@
       <c r="AJ590" s="46"/>
       <c r="AK590" s="46"/>
     </row>
-    <row r="591" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:37" ht="12.75">
       <c r="B591" s="47"/>
       <c r="C591" s="47"/>
       <c r="D591" s="43"/>
@@ -23274,7 +23268,7 @@
       <c r="AJ591" s="46"/>
       <c r="AK591" s="46"/>
     </row>
-    <row r="592" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:37" ht="12.75">
       <c r="B592" s="47"/>
       <c r="C592" s="47"/>
       <c r="D592" s="43"/>
@@ -23311,7 +23305,7 @@
       <c r="AJ592" s="46"/>
       <c r="AK592" s="46"/>
     </row>
-    <row r="593" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:37" ht="12.75">
       <c r="B593" s="47"/>
       <c r="C593" s="47"/>
       <c r="D593" s="43"/>
@@ -23348,7 +23342,7 @@
       <c r="AJ593" s="46"/>
       <c r="AK593" s="46"/>
     </row>
-    <row r="594" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:37" ht="12.75">
       <c r="B594" s="47"/>
       <c r="C594" s="47"/>
       <c r="D594" s="43"/>
@@ -23385,7 +23379,7 @@
       <c r="AJ594" s="46"/>
       <c r="AK594" s="46"/>
     </row>
-    <row r="595" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:37" ht="12.75">
       <c r="B595" s="47"/>
       <c r="C595" s="47"/>
       <c r="D595" s="43"/>
@@ -23422,7 +23416,7 @@
       <c r="AJ595" s="46"/>
       <c r="AK595" s="46"/>
     </row>
-    <row r="596" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:37" ht="12.75">
       <c r="B596" s="47"/>
       <c r="C596" s="47"/>
       <c r="D596" s="43"/>
@@ -23459,7 +23453,7 @@
       <c r="AJ596" s="46"/>
       <c r="AK596" s="46"/>
     </row>
-    <row r="597" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:37" ht="12.75">
       <c r="B597" s="47"/>
       <c r="C597" s="47"/>
       <c r="D597" s="43"/>
@@ -23496,7 +23490,7 @@
       <c r="AJ597" s="46"/>
       <c r="AK597" s="46"/>
     </row>
-    <row r="598" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:37" ht="12.75">
       <c r="B598" s="47"/>
       <c r="C598" s="47"/>
       <c r="D598" s="43"/>
@@ -23533,7 +23527,7 @@
       <c r="AJ598" s="46"/>
       <c r="AK598" s="46"/>
     </row>
-    <row r="599" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:37" ht="12.75">
       <c r="B599" s="47"/>
       <c r="C599" s="47"/>
       <c r="D599" s="43"/>
@@ -23570,7 +23564,7 @@
       <c r="AJ599" s="46"/>
       <c r="AK599" s="46"/>
     </row>
-    <row r="600" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:37" ht="12.75">
       <c r="B600" s="47"/>
       <c r="C600" s="47"/>
       <c r="D600" s="43"/>
@@ -23607,7 +23601,7 @@
       <c r="AJ600" s="46"/>
       <c r="AK600" s="46"/>
     </row>
-    <row r="601" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:37" ht="12.75">
       <c r="B601" s="47"/>
       <c r="C601" s="47"/>
       <c r="D601" s="43"/>
@@ -23644,7 +23638,7 @@
       <c r="AJ601" s="46"/>
       <c r="AK601" s="46"/>
     </row>
-    <row r="602" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:37" ht="12.75">
       <c r="B602" s="47"/>
       <c r="C602" s="47"/>
       <c r="D602" s="43"/>
@@ -23681,7 +23675,7 @@
       <c r="AJ602" s="46"/>
       <c r="AK602" s="46"/>
     </row>
-    <row r="603" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:37" ht="12.75">
       <c r="B603" s="47"/>
       <c r="C603" s="47"/>
       <c r="D603" s="43"/>
@@ -23718,7 +23712,7 @@
       <c r="AJ603" s="46"/>
       <c r="AK603" s="46"/>
     </row>
-    <row r="604" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:37" ht="12.75">
       <c r="B604" s="47"/>
       <c r="C604" s="47"/>
       <c r="D604" s="43"/>
@@ -23755,7 +23749,7 @@
       <c r="AJ604" s="46"/>
       <c r="AK604" s="46"/>
     </row>
-    <row r="605" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:37" ht="12.75">
       <c r="B605" s="47"/>
       <c r="C605" s="47"/>
       <c r="D605" s="43"/>
@@ -23792,7 +23786,7 @@
       <c r="AJ605" s="46"/>
       <c r="AK605" s="46"/>
     </row>
-    <row r="606" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:37" ht="12.75">
       <c r="B606" s="47"/>
       <c r="C606" s="47"/>
       <c r="D606" s="43"/>
@@ -23829,7 +23823,7 @@
       <c r="AJ606" s="46"/>
       <c r="AK606" s="46"/>
     </row>
-    <row r="607" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:37" ht="12.75">
       <c r="B607" s="47"/>
       <c r="C607" s="47"/>
       <c r="D607" s="43"/>
@@ -23866,7 +23860,7 @@
       <c r="AJ607" s="46"/>
       <c r="AK607" s="46"/>
     </row>
-    <row r="608" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:37" ht="12.75">
       <c r="B608" s="47"/>
       <c r="C608" s="47"/>
       <c r="D608" s="43"/>
@@ -23903,7 +23897,7 @@
       <c r="AJ608" s="46"/>
       <c r="AK608" s="46"/>
     </row>
-    <row r="609" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:37" ht="12.75">
       <c r="B609" s="47"/>
       <c r="C609" s="47"/>
       <c r="D609" s="43"/>
@@ -23940,7 +23934,7 @@
       <c r="AJ609" s="46"/>
       <c r="AK609" s="46"/>
     </row>
-    <row r="610" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:37" ht="12.75">
       <c r="B610" s="47"/>
       <c r="C610" s="47"/>
       <c r="D610" s="43"/>
@@ -23977,7 +23971,7 @@
       <c r="AJ610" s="46"/>
       <c r="AK610" s="46"/>
     </row>
-    <row r="611" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:37" ht="12.75">
       <c r="B611" s="47"/>
       <c r="C611" s="47"/>
       <c r="D611" s="43"/>
@@ -24014,7 +24008,7 @@
       <c r="AJ611" s="46"/>
       <c r="AK611" s="46"/>
     </row>
-    <row r="612" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:37" ht="12.75">
       <c r="B612" s="47"/>
       <c r="C612" s="47"/>
       <c r="D612" s="43"/>
@@ -24051,7 +24045,7 @@
       <c r="AJ612" s="46"/>
       <c r="AK612" s="46"/>
     </row>
-    <row r="613" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:37" ht="12.75">
       <c r="B613" s="47"/>
       <c r="C613" s="47"/>
       <c r="D613" s="43"/>
@@ -24088,7 +24082,7 @@
       <c r="AJ613" s="46"/>
       <c r="AK613" s="46"/>
     </row>
-    <row r="614" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:37" ht="12.75">
       <c r="B614" s="47"/>
       <c r="C614" s="47"/>
       <c r="D614" s="43"/>
@@ -24125,7 +24119,7 @@
       <c r="AJ614" s="46"/>
       <c r="AK614" s="46"/>
     </row>
-    <row r="615" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:37" ht="12.75">
       <c r="B615" s="47"/>
       <c r="C615" s="47"/>
       <c r="D615" s="43"/>
@@ -24162,7 +24156,7 @@
       <c r="AJ615" s="46"/>
       <c r="AK615" s="46"/>
     </row>
-    <row r="616" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:37" ht="12.75">
       <c r="B616" s="47"/>
       <c r="C616" s="47"/>
       <c r="D616" s="43"/>
@@ -24199,7 +24193,7 @@
       <c r="AJ616" s="46"/>
       <c r="AK616" s="46"/>
     </row>
-    <row r="617" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:37" ht="12.75">
       <c r="B617" s="47"/>
       <c r="C617" s="47"/>
       <c r="D617" s="43"/>
@@ -24236,7 +24230,7 @@
       <c r="AJ617" s="46"/>
       <c r="AK617" s="46"/>
     </row>
-    <row r="618" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:37" ht="12.75">
       <c r="B618" s="47"/>
       <c r="C618" s="47"/>
       <c r="D618" s="43"/>
@@ -24273,7 +24267,7 @@
       <c r="AJ618" s="46"/>
       <c r="AK618" s="46"/>
     </row>
-    <row r="619" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:37" ht="12.75">
       <c r="B619" s="47"/>
       <c r="C619" s="47"/>
       <c r="D619" s="43"/>
@@ -24310,7 +24304,7 @@
       <c r="AJ619" s="46"/>
       <c r="AK619" s="46"/>
     </row>
-    <row r="620" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:37" ht="12.75">
       <c r="B620" s="47"/>
       <c r="C620" s="47"/>
       <c r="D620" s="43"/>
@@ -24347,7 +24341,7 @@
       <c r="AJ620" s="46"/>
       <c r="AK620" s="46"/>
     </row>
-    <row r="621" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:37" ht="12.75">
       <c r="B621" s="47"/>
       <c r="C621" s="47"/>
       <c r="D621" s="43"/>
@@ -24384,7 +24378,7 @@
       <c r="AJ621" s="46"/>
       <c r="AK621" s="46"/>
     </row>
-    <row r="622" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:37" ht="12.75">
       <c r="B622" s="47"/>
       <c r="C622" s="47"/>
       <c r="D622" s="43"/>
@@ -24421,7 +24415,7 @@
       <c r="AJ622" s="46"/>
       <c r="AK622" s="46"/>
     </row>
-    <row r="623" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:37" ht="12.75">
       <c r="B623" s="47"/>
       <c r="C623" s="47"/>
       <c r="D623" s="43"/>
@@ -24458,7 +24452,7 @@
       <c r="AJ623" s="46"/>
       <c r="AK623" s="46"/>
     </row>
-    <row r="624" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:37" ht="12.75">
       <c r="B624" s="47"/>
       <c r="C624" s="47"/>
       <c r="D624" s="43"/>
@@ -24495,7 +24489,7 @@
       <c r="AJ624" s="46"/>
       <c r="AK624" s="46"/>
     </row>
-    <row r="625" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:37" ht="12.75">
       <c r="B625" s="47"/>
       <c r="C625" s="47"/>
       <c r="D625" s="43"/>
@@ -24532,7 +24526,7 @@
       <c r="AJ625" s="46"/>
       <c r="AK625" s="46"/>
     </row>
-    <row r="626" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:37" ht="12.75">
       <c r="B626" s="47"/>
       <c r="C626" s="47"/>
       <c r="D626" s="43"/>
@@ -24569,7 +24563,7 @@
       <c r="AJ626" s="46"/>
       <c r="AK626" s="46"/>
     </row>
-    <row r="627" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:37" ht="12.75">
       <c r="B627" s="47"/>
       <c r="C627" s="47"/>
       <c r="D627" s="43"/>
@@ -24606,7 +24600,7 @@
       <c r="AJ627" s="46"/>
       <c r="AK627" s="46"/>
     </row>
-    <row r="628" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:37" ht="12.75">
       <c r="B628" s="47"/>
       <c r="C628" s="47"/>
       <c r="D628" s="43"/>
@@ -24643,7 +24637,7 @@
       <c r="AJ628" s="46"/>
       <c r="AK628" s="46"/>
     </row>
-    <row r="629" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:37" ht="12.75">
       <c r="B629" s="47"/>
       <c r="C629" s="47"/>
       <c r="D629" s="43"/>
@@ -24680,7 +24674,7 @@
       <c r="AJ629" s="46"/>
       <c r="AK629" s="46"/>
     </row>
-    <row r="630" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:37" ht="12.75">
       <c r="B630" s="47"/>
       <c r="C630" s="47"/>
       <c r="D630" s="43"/>
@@ -24717,7 +24711,7 @@
       <c r="AJ630" s="46"/>
       <c r="AK630" s="46"/>
     </row>
-    <row r="631" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:37" ht="12.75">
       <c r="B631" s="47"/>
       <c r="C631" s="47"/>
       <c r="D631" s="43"/>
@@ -24754,7 +24748,7 @@
       <c r="AJ631" s="46"/>
       <c r="AK631" s="46"/>
     </row>
-    <row r="632" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:37" ht="12.75">
       <c r="B632" s="47"/>
       <c r="C632" s="47"/>
       <c r="D632" s="43"/>
@@ -24791,7 +24785,7 @@
       <c r="AJ632" s="46"/>
       <c r="AK632" s="46"/>
     </row>
-    <row r="633" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:37" ht="12.75">
       <c r="B633" s="47"/>
       <c r="C633" s="47"/>
       <c r="D633" s="43"/>
@@ -24828,7 +24822,7 @@
       <c r="AJ633" s="46"/>
       <c r="AK633" s="46"/>
     </row>
-    <row r="634" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:37" ht="12.75">
       <c r="B634" s="47"/>
       <c r="C634" s="47"/>
       <c r="D634" s="43"/>
@@ -24865,7 +24859,7 @@
       <c r="AJ634" s="46"/>
       <c r="AK634" s="46"/>
     </row>
-    <row r="635" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:37" ht="12.75">
       <c r="B635" s="47"/>
       <c r="C635" s="47"/>
       <c r="D635" s="43"/>
@@ -24902,7 +24896,7 @@
       <c r="AJ635" s="46"/>
       <c r="AK635" s="46"/>
     </row>
-    <row r="636" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:37" ht="12.75">
       <c r="B636" s="47"/>
       <c r="C636" s="47"/>
       <c r="D636" s="43"/>
@@ -24939,7 +24933,7 @@
       <c r="AJ636" s="46"/>
       <c r="AK636" s="46"/>
     </row>
-    <row r="637" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:37" ht="12.75">
       <c r="B637" s="47"/>
       <c r="C637" s="47"/>
       <c r="D637" s="43"/>
@@ -24976,7 +24970,7 @@
       <c r="AJ637" s="46"/>
       <c r="AK637" s="46"/>
     </row>
-    <row r="638" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:37" ht="12.75">
       <c r="B638" s="47"/>
       <c r="C638" s="47"/>
       <c r="D638" s="43"/>
@@ -25013,7 +25007,7 @@
       <c r="AJ638" s="46"/>
       <c r="AK638" s="46"/>
     </row>
-    <row r="639" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:37" ht="12.75">
       <c r="B639" s="47"/>
       <c r="C639" s="47"/>
       <c r="D639" s="43"/>
@@ -25050,7 +25044,7 @@
       <c r="AJ639" s="46"/>
       <c r="AK639" s="46"/>
     </row>
-    <row r="640" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:37" ht="12.75">
       <c r="B640" s="47"/>
       <c r="C640" s="47"/>
       <c r="D640" s="43"/>
@@ -25087,7 +25081,7 @@
       <c r="AJ640" s="46"/>
       <c r="AK640" s="46"/>
     </row>
-    <row r="641" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:37" ht="12.75">
       <c r="B641" s="47"/>
       <c r="C641" s="47"/>
       <c r="D641" s="43"/>
@@ -25124,7 +25118,7 @@
       <c r="AJ641" s="46"/>
       <c r="AK641" s="46"/>
     </row>
-    <row r="642" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:37" ht="12.75">
       <c r="B642" s="47"/>
       <c r="C642" s="47"/>
       <c r="D642" s="43"/>
@@ -25161,7 +25155,7 @@
       <c r="AJ642" s="46"/>
       <c r="AK642" s="46"/>
     </row>
-    <row r="643" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:37" ht="12.75">
       <c r="B643" s="47"/>
       <c r="C643" s="47"/>
       <c r="D643" s="43"/>
@@ -25198,7 +25192,7 @@
       <c r="AJ643" s="46"/>
       <c r="AK643" s="46"/>
     </row>
-    <row r="644" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:37" ht="12.75">
       <c r="B644" s="47"/>
       <c r="C644" s="47"/>
       <c r="D644" s="43"/>
@@ -25235,7 +25229,7 @@
       <c r="AJ644" s="46"/>
       <c r="AK644" s="46"/>
     </row>
-    <row r="645" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:37" ht="12.75">
       <c r="B645" s="47"/>
       <c r="C645" s="47"/>
       <c r="D645" s="43"/>
@@ -25272,7 +25266,7 @@
       <c r="AJ645" s="46"/>
       <c r="AK645" s="46"/>
     </row>
-    <row r="646" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:37" ht="12.75">
       <c r="B646" s="47"/>
       <c r="C646" s="47"/>
       <c r="D646" s="43"/>
@@ -25309,7 +25303,7 @@
       <c r="AJ646" s="46"/>
       <c r="AK646" s="46"/>
     </row>
-    <row r="647" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:37" ht="12.75">
       <c r="B647" s="47"/>
       <c r="C647" s="47"/>
       <c r="D647" s="43"/>
@@ -25346,7 +25340,7 @@
       <c r="AJ647" s="46"/>
       <c r="AK647" s="46"/>
     </row>
-    <row r="648" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:37" ht="12.75">
       <c r="B648" s="47"/>
       <c r="C648" s="47"/>
       <c r="D648" s="43"/>
@@ -25383,7 +25377,7 @@
       <c r="AJ648" s="46"/>
       <c r="AK648" s="46"/>
     </row>
-    <row r="649" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:37" ht="12.75">
       <c r="B649" s="47"/>
       <c r="C649" s="47"/>
       <c r="D649" s="43"/>
@@ -25420,7 +25414,7 @@
       <c r="AJ649" s="46"/>
       <c r="AK649" s="46"/>
     </row>
-    <row r="650" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:37" ht="12.75">
       <c r="B650" s="47"/>
       <c r="C650" s="47"/>
       <c r="D650" s="43"/>
@@ -25457,7 +25451,7 @@
       <c r="AJ650" s="46"/>
       <c r="AK650" s="46"/>
     </row>
-    <row r="651" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:37" ht="12.75">
       <c r="B651" s="47"/>
       <c r="C651" s="47"/>
       <c r="D651" s="43"/>
@@ -25494,7 +25488,7 @@
       <c r="AJ651" s="46"/>
       <c r="AK651" s="46"/>
     </row>
-    <row r="652" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:37" ht="12.75">
       <c r="B652" s="47"/>
       <c r="C652" s="47"/>
       <c r="D652" s="43"/>
@@ -25531,7 +25525,7 @@
       <c r="AJ652" s="46"/>
       <c r="AK652" s="46"/>
     </row>
-    <row r="653" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:37" ht="12.75">
       <c r="B653" s="47"/>
       <c r="C653" s="47"/>
       <c r="D653" s="43"/>
@@ -25568,7 +25562,7 @@
       <c r="AJ653" s="46"/>
       <c r="AK653" s="46"/>
     </row>
-    <row r="654" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:37" ht="12.75">
       <c r="B654" s="47"/>
       <c r="C654" s="47"/>
       <c r="D654" s="43"/>
@@ -25605,7 +25599,7 @@
       <c r="AJ654" s="46"/>
       <c r="AK654" s="46"/>
     </row>
-    <row r="655" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:37" ht="12.75">
       <c r="B655" s="47"/>
       <c r="C655" s="47"/>
       <c r="D655" s="43"/>
@@ -25642,7 +25636,7 @@
       <c r="AJ655" s="46"/>
       <c r="AK655" s="46"/>
     </row>
-    <row r="656" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:37" ht="12.75">
       <c r="B656" s="47"/>
       <c r="C656" s="47"/>
       <c r="D656" s="43"/>
@@ -25679,7 +25673,7 @@
       <c r="AJ656" s="46"/>
       <c r="AK656" s="46"/>
     </row>
-    <row r="657" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:37" ht="12.75">
       <c r="B657" s="47"/>
       <c r="C657" s="47"/>
       <c r="D657" s="43"/>
@@ -25716,7 +25710,7 @@
       <c r="AJ657" s="46"/>
       <c r="AK657" s="46"/>
     </row>
-    <row r="658" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:37" ht="12.75">
       <c r="B658" s="47"/>
       <c r="C658" s="47"/>
       <c r="D658" s="43"/>
@@ -25753,7 +25747,7 @@
       <c r="AJ658" s="46"/>
       <c r="AK658" s="46"/>
     </row>
-    <row r="659" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:37" ht="12.75">
       <c r="B659" s="47"/>
       <c r="C659" s="47"/>
       <c r="D659" s="43"/>
@@ -25790,7 +25784,7 @@
       <c r="AJ659" s="46"/>
       <c r="AK659" s="46"/>
     </row>
-    <row r="660" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:37" ht="12.75">
       <c r="B660" s="47"/>
       <c r="C660" s="47"/>
       <c r="D660" s="43"/>
@@ -25827,7 +25821,7 @@
       <c r="AJ660" s="46"/>
       <c r="AK660" s="46"/>
     </row>
-    <row r="661" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:37" ht="12.75">
       <c r="B661" s="47"/>
       <c r="C661" s="47"/>
       <c r="D661" s="43"/>
@@ -25864,7 +25858,7 @@
       <c r="AJ661" s="46"/>
       <c r="AK661" s="46"/>
     </row>
-    <row r="662" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:37" ht="12.75">
       <c r="B662" s="47"/>
       <c r="C662" s="47"/>
       <c r="D662" s="43"/>
@@ -25901,7 +25895,7 @@
       <c r="AJ662" s="46"/>
       <c r="AK662" s="46"/>
     </row>
-    <row r="663" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:37" ht="12.75">
       <c r="B663" s="47"/>
       <c r="C663" s="47"/>
       <c r="D663" s="43"/>
@@ -25938,7 +25932,7 @@
       <c r="AJ663" s="46"/>
       <c r="AK663" s="46"/>
     </row>
-    <row r="664" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:37" ht="12.75">
       <c r="B664" s="47"/>
       <c r="C664" s="47"/>
       <c r="D664" s="43"/>
@@ -25975,7 +25969,7 @@
       <c r="AJ664" s="46"/>
       <c r="AK664" s="46"/>
     </row>
-    <row r="665" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:37" ht="12.75">
       <c r="B665" s="47"/>
       <c r="C665" s="47"/>
       <c r="D665" s="43"/>
@@ -26012,7 +26006,7 @@
       <c r="AJ665" s="46"/>
       <c r="AK665" s="46"/>
     </row>
-    <row r="666" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:37" ht="12.75">
       <c r="B666" s="47"/>
       <c r="C666" s="47"/>
       <c r="D666" s="43"/>
@@ -26049,7 +26043,7 @@
       <c r="AJ666" s="46"/>
       <c r="AK666" s="46"/>
     </row>
-    <row r="667" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:37" ht="12.75">
       <c r="B667" s="47"/>
       <c r="C667" s="47"/>
       <c r="D667" s="43"/>
@@ -26086,7 +26080,7 @@
       <c r="AJ667" s="46"/>
       <c r="AK667" s="46"/>
     </row>
-    <row r="668" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:37" ht="12.75">
       <c r="B668" s="47"/>
       <c r="C668" s="47"/>
       <c r="D668" s="43"/>
@@ -26123,7 +26117,7 @@
       <c r="AJ668" s="46"/>
       <c r="AK668" s="46"/>
     </row>
-    <row r="669" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:37" ht="12.75">
       <c r="B669" s="47"/>
       <c r="C669" s="47"/>
       <c r="D669" s="43"/>
@@ -26160,7 +26154,7 @@
       <c r="AJ669" s="46"/>
       <c r="AK669" s="46"/>
     </row>
-    <row r="670" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:37" ht="12.75">
       <c r="B670" s="47"/>
       <c r="C670" s="47"/>
       <c r="D670" s="43"/>
@@ -26197,7 +26191,7 @@
       <c r="AJ670" s="46"/>
       <c r="AK670" s="46"/>
     </row>
-    <row r="671" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:37" ht="12.75">
       <c r="B671" s="47"/>
       <c r="C671" s="47"/>
       <c r="D671" s="43"/>
@@ -26234,7 +26228,7 @@
       <c r="AJ671" s="46"/>
       <c r="AK671" s="46"/>
     </row>
-    <row r="672" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:37" ht="12.75">
       <c r="B672" s="47"/>
       <c r="C672" s="47"/>
       <c r="D672" s="43"/>
@@ -26271,7 +26265,7 @@
       <c r="AJ672" s="46"/>
       <c r="AK672" s="46"/>
     </row>
-    <row r="673" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:37" ht="12.75">
       <c r="B673" s="47"/>
       <c r="C673" s="47"/>
       <c r="D673" s="43"/>
@@ -26308,7 +26302,7 @@
       <c r="AJ673" s="46"/>
       <c r="AK673" s="46"/>
     </row>
-    <row r="674" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:37" ht="12.75">
       <c r="B674" s="47"/>
       <c r="C674" s="47"/>
       <c r="D674" s="43"/>
@@ -26345,7 +26339,7 @@
       <c r="AJ674" s="46"/>
       <c r="AK674" s="46"/>
     </row>
-    <row r="675" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:37" ht="12.75">
       <c r="B675" s="47"/>
       <c r="C675" s="47"/>
       <c r="D675" s="43"/>
@@ -26382,7 +26376,7 @@
       <c r="AJ675" s="46"/>
       <c r="AK675" s="46"/>
     </row>
-    <row r="676" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:37" ht="12.75">
       <c r="B676" s="47"/>
       <c r="C676" s="47"/>
       <c r="D676" s="43"/>
@@ -26419,7 +26413,7 @@
       <c r="AJ676" s="46"/>
       <c r="AK676" s="46"/>
     </row>
-    <row r="677" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:37" ht="12.75">
       <c r="B677" s="47"/>
       <c r="C677" s="47"/>
       <c r="D677" s="43"/>
@@ -26456,7 +26450,7 @@
       <c r="AJ677" s="46"/>
       <c r="AK677" s="46"/>
     </row>
-    <row r="678" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:37" ht="12.75">
       <c r="B678" s="47"/>
       <c r="C678" s="47"/>
       <c r="D678" s="43"/>
@@ -26493,7 +26487,7 @@
       <c r="AJ678" s="46"/>
       <c r="AK678" s="46"/>
     </row>
-    <row r="679" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:37" ht="12.75">
       <c r="B679" s="47"/>
       <c r="C679" s="47"/>
       <c r="D679" s="43"/>
@@ -26530,7 +26524,7 @@
       <c r="AJ679" s="46"/>
       <c r="AK679" s="46"/>
     </row>
-    <row r="680" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:37" ht="12.75">
       <c r="B680" s="47"/>
       <c r="C680" s="47"/>
       <c r="D680" s="43"/>
@@ -26567,7 +26561,7 @@
       <c r="AJ680" s="46"/>
       <c r="AK680" s="46"/>
     </row>
-    <row r="681" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:37" ht="12.75">
       <c r="B681" s="47"/>
       <c r="C681" s="47"/>
       <c r="D681" s="43"/>
@@ -26604,7 +26598,7 @@
       <c r="AJ681" s="46"/>
       <c r="AK681" s="46"/>
     </row>
-    <row r="682" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:37" ht="12.75">
       <c r="B682" s="47"/>
       <c r="C682" s="47"/>
       <c r="D682" s="43"/>
@@ -26641,7 +26635,7 @@
       <c r="AJ682" s="46"/>
       <c r="AK682" s="46"/>
     </row>
-    <row r="683" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:37" ht="12.75">
       <c r="B683" s="47"/>
       <c r="C683" s="47"/>
       <c r="D683" s="43"/>
@@ -26678,7 +26672,7 @@
       <c r="AJ683" s="46"/>
       <c r="AK683" s="46"/>
     </row>
-    <row r="684" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:37" ht="12.75">
       <c r="B684" s="47"/>
       <c r="C684" s="47"/>
       <c r="D684" s="43"/>
@@ -26715,7 +26709,7 @@
       <c r="AJ684" s="46"/>
       <c r="AK684" s="46"/>
     </row>
-    <row r="685" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:37" ht="12.75">
       <c r="B685" s="47"/>
       <c r="C685" s="47"/>
       <c r="D685" s="43"/>
@@ -26752,7 +26746,7 @@
       <c r="AJ685" s="46"/>
       <c r="AK685" s="46"/>
     </row>
-    <row r="686" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:37" ht="12.75">
       <c r="B686" s="47"/>
       <c r="C686" s="47"/>
       <c r="D686" s="43"/>
@@ -26789,7 +26783,7 @@
       <c r="AJ686" s="46"/>
       <c r="AK686" s="46"/>
     </row>
-    <row r="687" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:37" ht="12.75">
       <c r="B687" s="47"/>
       <c r="C687" s="47"/>
       <c r="D687" s="43"/>
@@ -26826,7 +26820,7 @@
       <c r="AJ687" s="46"/>
       <c r="AK687" s="46"/>
     </row>
-    <row r="688" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:37" ht="12.75">
       <c r="B688" s="47"/>
       <c r="C688" s="47"/>
       <c r="D688" s="43"/>
@@ -26863,7 +26857,7 @@
       <c r="AJ688" s="46"/>
       <c r="AK688" s="46"/>
     </row>
-    <row r="689" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:37" ht="12.75">
       <c r="B689" s="47"/>
       <c r="C689" s="47"/>
       <c r="D689" s="43"/>
@@ -26900,7 +26894,7 @@
       <c r="AJ689" s="46"/>
       <c r="AK689" s="46"/>
     </row>
-    <row r="690" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:37" ht="12.75">
       <c r="B690" s="47"/>
       <c r="C690" s="47"/>
       <c r="D690" s="43"/>
@@ -26937,7 +26931,7 @@
       <c r="AJ690" s="46"/>
       <c r="AK690" s="46"/>
     </row>
-    <row r="691" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:37" ht="12.75">
       <c r="B691" s="47"/>
       <c r="C691" s="47"/>
       <c r="D691" s="43"/>
@@ -26974,7 +26968,7 @@
       <c r="AJ691" s="46"/>
       <c r="AK691" s="46"/>
     </row>
-    <row r="692" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:37" ht="12.75">
       <c r="B692" s="47"/>
       <c r="C692" s="47"/>
       <c r="D692" s="43"/>
@@ -27011,7 +27005,7 @@
       <c r="AJ692" s="46"/>
       <c r="AK692" s="46"/>
     </row>
-    <row r="693" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:37" ht="12.75">
       <c r="B693" s="47"/>
       <c r="C693" s="47"/>
       <c r="D693" s="43"/>
@@ -27048,7 +27042,7 @@
       <c r="AJ693" s="46"/>
       <c r="AK693" s="46"/>
     </row>
-    <row r="694" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:37" ht="12.75">
       <c r="B694" s="47"/>
       <c r="C694" s="47"/>
       <c r="D694" s="43"/>
@@ -27085,7 +27079,7 @@
       <c r="AJ694" s="46"/>
       <c r="AK694" s="46"/>
     </row>
-    <row r="695" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:37" ht="12.75">
       <c r="B695" s="47"/>
       <c r="C695" s="47"/>
       <c r="D695" s="43"/>
@@ -27122,7 +27116,7 @@
       <c r="AJ695" s="46"/>
       <c r="AK695" s="46"/>
     </row>
-    <row r="696" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:37" ht="12.75">
       <c r="B696" s="47"/>
       <c r="C696" s="47"/>
       <c r="D696" s="43"/>
@@ -27159,7 +27153,7 @@
       <c r="AJ696" s="46"/>
       <c r="AK696" s="46"/>
     </row>
-    <row r="697" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:37" ht="12.75">
       <c r="B697" s="47"/>
       <c r="C697" s="47"/>
       <c r="D697" s="43"/>
@@ -27196,7 +27190,7 @@
       <c r="AJ697" s="46"/>
       <c r="AK697" s="46"/>
     </row>
-    <row r="698" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:37" ht="12.75">
       <c r="B698" s="47"/>
       <c r="C698" s="47"/>
       <c r="D698" s="43"/>
@@ -27233,7 +27227,7 @@
       <c r="AJ698" s="46"/>
       <c r="AK698" s="46"/>
     </row>
-    <row r="699" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:37" ht="12.75">
       <c r="B699" s="47"/>
       <c r="C699" s="47"/>
       <c r="D699" s="43"/>
@@ -27270,7 +27264,7 @@
       <c r="AJ699" s="46"/>
       <c r="AK699" s="46"/>
     </row>
-    <row r="700" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="2:37" ht="12.75">
       <c r="B700" s="47"/>
       <c r="C700" s="47"/>
       <c r="D700" s="43"/>
@@ -27307,7 +27301,7 @@
       <c r="AJ700" s="46"/>
       <c r="AK700" s="46"/>
     </row>
-    <row r="701" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:37" ht="12.75">
       <c r="B701" s="47"/>
       <c r="C701" s="47"/>
       <c r="D701" s="43"/>
@@ -27344,7 +27338,7 @@
       <c r="AJ701" s="46"/>
       <c r="AK701" s="46"/>
     </row>
-    <row r="702" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:37" ht="12.75">
       <c r="B702" s="47"/>
       <c r="C702" s="47"/>
       <c r="D702" s="43"/>
@@ -27381,7 +27375,7 @@
       <c r="AJ702" s="46"/>
       <c r="AK702" s="46"/>
     </row>
-    <row r="703" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="2:37" ht="12.75">
       <c r="B703" s="47"/>
       <c r="C703" s="47"/>
       <c r="D703" s="43"/>
@@ -27418,7 +27412,7 @@
       <c r="AJ703" s="46"/>
       <c r="AK703" s="46"/>
     </row>
-    <row r="704" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="2:37" ht="12.75">
       <c r="B704" s="47"/>
       <c r="C704" s="47"/>
       <c r="D704" s="43"/>
@@ -27455,7 +27449,7 @@
       <c r="AJ704" s="46"/>
       <c r="AK704" s="46"/>
     </row>
-    <row r="705" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="2:37" ht="12.75">
       <c r="B705" s="47"/>
       <c r="C705" s="47"/>
       <c r="D705" s="43"/>
@@ -27492,7 +27486,7 @@
       <c r="AJ705" s="46"/>
       <c r="AK705" s="46"/>
     </row>
-    <row r="706" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:37" ht="12.75">
       <c r="B706" s="47"/>
       <c r="C706" s="47"/>
       <c r="D706" s="43"/>
@@ -27529,7 +27523,7 @@
       <c r="AJ706" s="46"/>
       <c r="AK706" s="46"/>
     </row>
-    <row r="707" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:37" ht="12.75">
       <c r="B707" s="47"/>
       <c r="C707" s="47"/>
       <c r="D707" s="43"/>
@@ -27566,7 +27560,7 @@
       <c r="AJ707" s="46"/>
       <c r="AK707" s="46"/>
     </row>
-    <row r="708" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:37" ht="12.75">
       <c r="B708" s="47"/>
       <c r="C708" s="47"/>
       <c r="D708" s="43"/>
@@ -27603,7 +27597,7 @@
       <c r="AJ708" s="46"/>
       <c r="AK708" s="46"/>
     </row>
-    <row r="709" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:37" ht="12.75">
       <c r="B709" s="47"/>
       <c r="C709" s="47"/>
       <c r="D709" s="43"/>
@@ -27640,7 +27634,7 @@
       <c r="AJ709" s="46"/>
       <c r="AK709" s="46"/>
     </row>
-    <row r="710" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:37" ht="12.75">
       <c r="B710" s="47"/>
       <c r="C710" s="47"/>
       <c r="D710" s="43"/>
@@ -27677,7 +27671,7 @@
       <c r="AJ710" s="46"/>
       <c r="AK710" s="46"/>
     </row>
-    <row r="711" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:37" ht="12.75">
       <c r="B711" s="47"/>
       <c r="C711" s="47"/>
       <c r="D711" s="43"/>
@@ -27714,7 +27708,7 @@
       <c r="AJ711" s="46"/>
       <c r="AK711" s="46"/>
     </row>
-    <row r="712" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:37" ht="12.75">
       <c r="B712" s="47"/>
       <c r="C712" s="47"/>
       <c r="D712" s="43"/>
@@ -27751,7 +27745,7 @@
       <c r="AJ712" s="46"/>
       <c r="AK712" s="46"/>
     </row>
-    <row r="713" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:37" ht="12.75">
       <c r="B713" s="47"/>
       <c r="C713" s="47"/>
       <c r="D713" s="43"/>
@@ -27788,7 +27782,7 @@
       <c r="AJ713" s="46"/>
       <c r="AK713" s="46"/>
     </row>
-    <row r="714" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:37" ht="12.75">
       <c r="B714" s="47"/>
       <c r="C714" s="47"/>
       <c r="D714" s="43"/>
@@ -27825,7 +27819,7 @@
       <c r="AJ714" s="46"/>
       <c r="AK714" s="46"/>
     </row>
-    <row r="715" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:37" ht="12.75">
       <c r="B715" s="47"/>
       <c r="C715" s="47"/>
       <c r="D715" s="43"/>
@@ -27862,7 +27856,7 @@
       <c r="AJ715" s="46"/>
       <c r="AK715" s="46"/>
     </row>
-    <row r="716" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:37" ht="12.75">
       <c r="B716" s="47"/>
       <c r="C716" s="47"/>
       <c r="D716" s="43"/>
@@ -27899,7 +27893,7 @@
       <c r="AJ716" s="46"/>
       <c r="AK716" s="46"/>
     </row>
-    <row r="717" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:37" ht="12.75">
       <c r="B717" s="47"/>
       <c r="C717" s="47"/>
       <c r="D717" s="43"/>
@@ -27936,7 +27930,7 @@
       <c r="AJ717" s="46"/>
       <c r="AK717" s="46"/>
     </row>
-    <row r="718" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:37" ht="12.75">
       <c r="B718" s="47"/>
       <c r="C718" s="47"/>
       <c r="D718" s="43"/>
@@ -27973,7 +27967,7 @@
       <c r="AJ718" s="46"/>
       <c r="AK718" s="46"/>
     </row>
-    <row r="719" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:37" ht="12.75">
       <c r="B719" s="47"/>
       <c r="C719" s="47"/>
       <c r="D719" s="43"/>
@@ -28010,7 +28004,7 @@
       <c r="AJ719" s="46"/>
       <c r="AK719" s="46"/>
     </row>
-    <row r="720" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:37" ht="12.75">
       <c r="B720" s="47"/>
       <c r="C720" s="47"/>
       <c r="D720" s="43"/>
@@ -28047,7 +28041,7 @@
       <c r="AJ720" s="46"/>
       <c r="AK720" s="46"/>
     </row>
-    <row r="721" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:37" ht="12.75">
       <c r="B721" s="47"/>
       <c r="C721" s="47"/>
       <c r="D721" s="43"/>
@@ -28084,7 +28078,7 @@
       <c r="AJ721" s="46"/>
       <c r="AK721" s="46"/>
     </row>
-    <row r="722" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:37" ht="12.75">
       <c r="B722" s="47"/>
       <c r="C722" s="47"/>
       <c r="D722" s="43"/>
@@ -28121,7 +28115,7 @@
       <c r="AJ722" s="46"/>
       <c r="AK722" s="46"/>
     </row>
-    <row r="723" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:37" ht="12.75">
       <c r="B723" s="47"/>
       <c r="C723" s="47"/>
       <c r="D723" s="43"/>
@@ -28158,7 +28152,7 @@
       <c r="AJ723" s="46"/>
       <c r="AK723" s="46"/>
     </row>
-    <row r="724" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:37" ht="12.75">
       <c r="B724" s="47"/>
       <c r="C724" s="47"/>
       <c r="D724" s="43"/>
@@ -28195,7 +28189,7 @@
       <c r="AJ724" s="46"/>
       <c r="AK724" s="46"/>
     </row>
-    <row r="725" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:37" ht="12.75">
       <c r="B725" s="47"/>
       <c r="C725" s="47"/>
       <c r="D725" s="43"/>
@@ -28232,7 +28226,7 @@
       <c r="AJ725" s="46"/>
       <c r="AK725" s="46"/>
     </row>
-    <row r="726" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:37" ht="12.75">
       <c r="B726" s="47"/>
       <c r="C726" s="47"/>
       <c r="D726" s="43"/>
@@ -28269,7 +28263,7 @@
       <c r="AJ726" s="46"/>
       <c r="AK726" s="46"/>
     </row>
-    <row r="727" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:37" ht="12.75">
       <c r="B727" s="47"/>
       <c r="C727" s="47"/>
       <c r="D727" s="43"/>
@@ -28306,7 +28300,7 @@
       <c r="AJ727" s="46"/>
       <c r="AK727" s="46"/>
     </row>
-    <row r="728" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:37" ht="12.75">
       <c r="B728" s="47"/>
       <c r="C728" s="47"/>
       <c r="D728" s="43"/>
@@ -28343,7 +28337,7 @@
       <c r="AJ728" s="46"/>
       <c r="AK728" s="46"/>
     </row>
-    <row r="729" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:37" ht="12.75">
       <c r="B729" s="47"/>
       <c r="C729" s="47"/>
       <c r="D729" s="43"/>
@@ -28380,7 +28374,7 @@
       <c r="AJ729" s="46"/>
       <c r="AK729" s="46"/>
     </row>
-    <row r="730" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:37" ht="12.75">
       <c r="B730" s="47"/>
       <c r="C730" s="47"/>
       <c r="D730" s="43"/>
@@ -28417,7 +28411,7 @@
       <c r="AJ730" s="46"/>
       <c r="AK730" s="46"/>
     </row>
-    <row r="731" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:37" ht="12.75">
       <c r="B731" s="47"/>
       <c r="C731" s="47"/>
       <c r="D731" s="43"/>
@@ -28454,7 +28448,7 @@
       <c r="AJ731" s="46"/>
       <c r="AK731" s="46"/>
     </row>
-    <row r="732" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:37" ht="12.75">
       <c r="B732" s="47"/>
       <c r="C732" s="47"/>
       <c r="D732" s="43"/>
@@ -28491,7 +28485,7 @@
       <c r="AJ732" s="46"/>
       <c r="AK732" s="46"/>
     </row>
-    <row r="733" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:37" ht="12.75">
       <c r="B733" s="47"/>
       <c r="C733" s="47"/>
       <c r="D733" s="43"/>
@@ -28528,7 +28522,7 @@
       <c r="AJ733" s="46"/>
       <c r="AK733" s="46"/>
     </row>
-    <row r="734" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:37" ht="12.75">
       <c r="B734" s="47"/>
       <c r="C734" s="47"/>
       <c r="D734" s="43"/>
@@ -28565,7 +28559,7 @@
       <c r="AJ734" s="46"/>
       <c r="AK734" s="46"/>
     </row>
-    <row r="735" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:37" ht="12.75">
       <c r="B735" s="47"/>
       <c r="C735" s="47"/>
       <c r="D735" s="43"/>
@@ -28602,7 +28596,7 @@
       <c r="AJ735" s="46"/>
       <c r="AK735" s="46"/>
     </row>
-    <row r="736" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:37" ht="12.75">
       <c r="B736" s="47"/>
       <c r="C736" s="47"/>
       <c r="D736" s="43"/>
@@ -28639,7 +28633,7 @@
       <c r="AJ736" s="46"/>
       <c r="AK736" s="46"/>
     </row>
-    <row r="737" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="2:37" ht="12.75">
       <c r="B737" s="47"/>
       <c r="C737" s="47"/>
       <c r="D737" s="43"/>
@@ -28676,7 +28670,7 @@
       <c r="AJ737" s="46"/>
       <c r="AK737" s="46"/>
     </row>
-    <row r="738" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="2:37" ht="12.75">
       <c r="B738" s="47"/>
       <c r="C738" s="47"/>
       <c r="D738" s="43"/>
@@ -28713,7 +28707,7 @@
       <c r="AJ738" s="46"/>
       <c r="AK738" s="46"/>
     </row>
-    <row r="739" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="2:37" ht="12.75">
       <c r="B739" s="47"/>
       <c r="C739" s="47"/>
       <c r="D739" s="43"/>
@@ -28750,7 +28744,7 @@
       <c r="AJ739" s="46"/>
       <c r="AK739" s="46"/>
     </row>
-    <row r="740" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="2:37" ht="12.75">
       <c r="B740" s="47"/>
       <c r="C740" s="47"/>
       <c r="D740" s="43"/>
@@ -28787,7 +28781,7 @@
       <c r="AJ740" s="46"/>
       <c r="AK740" s="46"/>
     </row>
-    <row r="741" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="2:37" ht="12.75">
       <c r="B741" s="47"/>
       <c r="C741" s="47"/>
       <c r="D741" s="43"/>
@@ -28824,7 +28818,7 @@
       <c r="AJ741" s="46"/>
       <c r="AK741" s="46"/>
     </row>
-    <row r="742" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="2:37" ht="12.75">
       <c r="B742" s="47"/>
       <c r="C742" s="47"/>
       <c r="D742" s="43"/>
@@ -28861,7 +28855,7 @@
       <c r="AJ742" s="46"/>
       <c r="AK742" s="46"/>
     </row>
-    <row r="743" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="2:37" ht="12.75">
       <c r="B743" s="47"/>
       <c r="C743" s="47"/>
       <c r="D743" s="43"/>
@@ -28898,7 +28892,7 @@
       <c r="AJ743" s="46"/>
       <c r="AK743" s="46"/>
     </row>
-    <row r="744" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="2:37" ht="12.75">
       <c r="B744" s="47"/>
       <c r="C744" s="47"/>
       <c r="D744" s="43"/>
@@ -28935,7 +28929,7 @@
       <c r="AJ744" s="46"/>
       <c r="AK744" s="46"/>
     </row>
-    <row r="745" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="2:37" ht="12.75">
       <c r="B745" s="47"/>
       <c r="C745" s="47"/>
       <c r="D745" s="43"/>
@@ -28972,7 +28966,7 @@
       <c r="AJ745" s="46"/>
       <c r="AK745" s="46"/>
     </row>
-    <row r="746" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="2:37" ht="12.75">
       <c r="B746" s="47"/>
       <c r="C746" s="47"/>
       <c r="D746" s="43"/>
@@ -29009,7 +29003,7 @@
       <c r="AJ746" s="46"/>
       <c r="AK746" s="46"/>
     </row>
-    <row r="747" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="2:37" ht="12.75">
       <c r="B747" s="47"/>
       <c r="C747" s="47"/>
       <c r="D747" s="43"/>
@@ -29046,7 +29040,7 @@
       <c r="AJ747" s="46"/>
       <c r="AK747" s="46"/>
     </row>
-    <row r="748" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="2:37" ht="12.75">
       <c r="B748" s="47"/>
       <c r="C748" s="47"/>
       <c r="D748" s="43"/>
@@ -29083,7 +29077,7 @@
       <c r="AJ748" s="46"/>
       <c r="AK748" s="46"/>
     </row>
-    <row r="749" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="2:37" ht="12.75">
       <c r="B749" s="47"/>
       <c r="C749" s="47"/>
       <c r="D749" s="43"/>
@@ -29120,7 +29114,7 @@
       <c r="AJ749" s="46"/>
       <c r="AK749" s="46"/>
     </row>
-    <row r="750" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="2:37" ht="12.75">
       <c r="B750" s="47"/>
       <c r="C750" s="47"/>
       <c r="D750" s="43"/>
@@ -29157,7 +29151,7 @@
       <c r="AJ750" s="46"/>
       <c r="AK750" s="46"/>
     </row>
-    <row r="751" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="2:37" ht="12.75">
       <c r="B751" s="47"/>
       <c r="C751" s="47"/>
       <c r="D751" s="43"/>
@@ -29194,7 +29188,7 @@
       <c r="AJ751" s="46"/>
       <c r="AK751" s="46"/>
     </row>
-    <row r="752" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:37" ht="12.75">
       <c r="B752" s="47"/>
       <c r="C752" s="47"/>
       <c r="D752" s="43"/>
@@ -29231,7 +29225,7 @@
       <c r="AJ752" s="46"/>
       <c r="AK752" s="46"/>
     </row>
-    <row r="753" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="2:37" ht="12.75">
       <c r="B753" s="47"/>
       <c r="C753" s="47"/>
       <c r="D753" s="43"/>
@@ -29268,7 +29262,7 @@
       <c r="AJ753" s="46"/>
       <c r="AK753" s="46"/>
     </row>
-    <row r="754" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="2:37" ht="12.75">
       <c r="B754" s="47"/>
       <c r="C754" s="47"/>
       <c r="D754" s="43"/>
@@ -29305,7 +29299,7 @@
       <c r="AJ754" s="46"/>
       <c r="AK754" s="46"/>
     </row>
-    <row r="755" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="2:37" ht="12.75">
       <c r="B755" s="47"/>
       <c r="C755" s="47"/>
       <c r="D755" s="43"/>
@@ -29342,7 +29336,7 @@
       <c r="AJ755" s="46"/>
       <c r="AK755" s="46"/>
     </row>
-    <row r="756" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="2:37" ht="12.75">
       <c r="B756" s="47"/>
       <c r="C756" s="47"/>
       <c r="D756" s="43"/>
@@ -29379,7 +29373,7 @@
       <c r="AJ756" s="46"/>
       <c r="AK756" s="46"/>
     </row>
-    <row r="757" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="2:37" ht="12.75">
       <c r="B757" s="47"/>
       <c r="C757" s="47"/>
       <c r="D757" s="43"/>
@@ -29416,7 +29410,7 @@
       <c r="AJ757" s="46"/>
       <c r="AK757" s="46"/>
     </row>
-    <row r="758" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="2:37" ht="12.75">
       <c r="B758" s="47"/>
       <c r="C758" s="47"/>
       <c r="D758" s="43"/>
@@ -29453,7 +29447,7 @@
       <c r="AJ758" s="46"/>
       <c r="AK758" s="46"/>
     </row>
-    <row r="759" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:37" ht="12.75">
       <c r="B759" s="47"/>
       <c r="C759" s="47"/>
       <c r="D759" s="43"/>
@@ -29490,7 +29484,7 @@
       <c r="AJ759" s="46"/>
       <c r="AK759" s="46"/>
     </row>
-    <row r="760" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="2:37" ht="12.75">
       <c r="B760" s="47"/>
       <c r="C760" s="47"/>
       <c r="D760" s="43"/>
@@ -29527,7 +29521,7 @@
       <c r="AJ760" s="46"/>
       <c r="AK760" s="46"/>
     </row>
-    <row r="761" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="2:37" ht="12.75">
       <c r="B761" s="47"/>
       <c r="C761" s="47"/>
       <c r="D761" s="43"/>
@@ -29564,7 +29558,7 @@
       <c r="AJ761" s="46"/>
       <c r="AK761" s="46"/>
     </row>
-    <row r="762" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="2:37" ht="12.75">
       <c r="B762" s="47"/>
       <c r="C762" s="47"/>
       <c r="D762" s="43"/>
@@ -29601,7 +29595,7 @@
       <c r="AJ762" s="46"/>
       <c r="AK762" s="46"/>
     </row>
-    <row r="763" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="2:37" ht="12.75">
       <c r="B763" s="47"/>
       <c r="C763" s="47"/>
       <c r="D763" s="43"/>
@@ -29638,7 +29632,7 @@
       <c r="AJ763" s="46"/>
       <c r="AK763" s="46"/>
     </row>
-    <row r="764" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="2:37" ht="12.75">
       <c r="B764" s="47"/>
       <c r="C764" s="47"/>
       <c r="D764" s="43"/>
@@ -29675,7 +29669,7 @@
       <c r="AJ764" s="46"/>
       <c r="AK764" s="46"/>
     </row>
-    <row r="765" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="2:37" ht="12.75">
       <c r="B765" s="47"/>
       <c r="C765" s="47"/>
       <c r="D765" s="43"/>
@@ -29712,7 +29706,7 @@
       <c r="AJ765" s="46"/>
       <c r="AK765" s="46"/>
     </row>
-    <row r="766" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="2:37" ht="12.75">
       <c r="B766" s="47"/>
       <c r="C766" s="47"/>
       <c r="D766" s="43"/>
@@ -29749,7 +29743,7 @@
       <c r="AJ766" s="46"/>
       <c r="AK766" s="46"/>
     </row>
-    <row r="767" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="2:37" ht="12.75">
       <c r="B767" s="47"/>
       <c r="C767" s="47"/>
       <c r="D767" s="43"/>
@@ -29786,7 +29780,7 @@
       <c r="AJ767" s="46"/>
       <c r="AK767" s="46"/>
     </row>
-    <row r="768" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:37" ht="12.75">
       <c r="B768" s="47"/>
       <c r="C768" s="47"/>
       <c r="D768" s="43"/>
@@ -29823,7 +29817,7 @@
       <c r="AJ768" s="46"/>
       <c r="AK768" s="46"/>
     </row>
-    <row r="769" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="2:37" ht="12.75">
       <c r="B769" s="47"/>
       <c r="C769" s="47"/>
       <c r="D769" s="43"/>
@@ -29860,7 +29854,7 @@
       <c r="AJ769" s="46"/>
       <c r="AK769" s="46"/>
     </row>
-    <row r="770" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="2:37" ht="12.75">
       <c r="B770" s="47"/>
       <c r="C770" s="47"/>
       <c r="D770" s="43"/>
@@ -29897,7 +29891,7 @@
       <c r="AJ770" s="46"/>
       <c r="AK770" s="46"/>
     </row>
-    <row r="771" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="2:37" ht="12.75">
       <c r="B771" s="47"/>
       <c r="C771" s="47"/>
       <c r="D771" s="43"/>
@@ -29934,7 +29928,7 @@
       <c r="AJ771" s="46"/>
       <c r="AK771" s="46"/>
     </row>
-    <row r="772" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="2:37" ht="12.75">
       <c r="B772" s="47"/>
       <c r="C772" s="47"/>
       <c r="D772" s="43"/>
@@ -29971,7 +29965,7 @@
       <c r="AJ772" s="46"/>
       <c r="AK772" s="46"/>
     </row>
-    <row r="773" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="2:37" ht="12.75">
       <c r="B773" s="47"/>
       <c r="C773" s="47"/>
       <c r="D773" s="43"/>
@@ -30008,7 +30002,7 @@
       <c r="AJ773" s="46"/>
       <c r="AK773" s="46"/>
     </row>
-    <row r="774" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:37" ht="12.75">
       <c r="B774" s="47"/>
       <c r="C774" s="47"/>
       <c r="D774" s="43"/>
@@ -30045,7 +30039,7 @@
       <c r="AJ774" s="46"/>
       <c r="AK774" s="46"/>
     </row>
-    <row r="775" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="2:37" ht="12.75">
       <c r="B775" s="47"/>
       <c r="C775" s="47"/>
       <c r="D775" s="43"/>
@@ -30082,7 +30076,7 @@
       <c r="AJ775" s="46"/>
       <c r="AK775" s="46"/>
     </row>
-    <row r="776" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="2:37" ht="12.75">
       <c r="B776" s="47"/>
       <c r="C776" s="47"/>
       <c r="D776" s="43"/>
@@ -30119,7 +30113,7 @@
       <c r="AJ776" s="46"/>
       <c r="AK776" s="46"/>
     </row>
-    <row r="777" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="2:37" ht="12.75">
       <c r="B777" s="47"/>
       <c r="C777" s="47"/>
       <c r="D777" s="43"/>
@@ -30156,7 +30150,7 @@
       <c r="AJ777" s="46"/>
       <c r="AK777" s="46"/>
     </row>
-    <row r="778" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="2:37" ht="12.75">
       <c r="B778" s="47"/>
       <c r="C778" s="47"/>
       <c r="D778" s="43"/>
@@ -30193,7 +30187,7 @@
       <c r="AJ778" s="46"/>
       <c r="AK778" s="46"/>
     </row>
-    <row r="779" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="2:37" ht="12.75">
       <c r="B779" s="47"/>
       <c r="C779" s="47"/>
       <c r="D779" s="43"/>
@@ -30230,7 +30224,7 @@
       <c r="AJ779" s="46"/>
       <c r="AK779" s="46"/>
     </row>
-    <row r="780" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:37" ht="12.75">
       <c r="B780" s="47"/>
       <c r="C780" s="47"/>
       <c r="D780" s="43"/>
@@ -30267,7 +30261,7 @@
       <c r="AJ780" s="46"/>
       <c r="AK780" s="46"/>
     </row>
-    <row r="781" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="2:37" ht="12.75">
       <c r="B781" s="47"/>
       <c r="C781" s="47"/>
       <c r="D781" s="43"/>
@@ -30304,7 +30298,7 @@
       <c r="AJ781" s="46"/>
       <c r="AK781" s="46"/>
     </row>
-    <row r="782" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="2:37" ht="12.75">
       <c r="B782" s="47"/>
       <c r="C782" s="47"/>
       <c r="D782" s="43"/>
@@ -30341,7 +30335,7 @@
       <c r="AJ782" s="46"/>
       <c r="AK782" s="46"/>
     </row>
-    <row r="783" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="2:37" ht="12.75">
       <c r="B783" s="47"/>
       <c r="C783" s="47"/>
       <c r="D783" s="43"/>
@@ -30378,7 +30372,7 @@
       <c r="AJ783" s="46"/>
       <c r="AK783" s="46"/>
     </row>
-    <row r="784" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="2:37" ht="12.75">
       <c r="B784" s="47"/>
       <c r="C784" s="47"/>
       <c r="D784" s="43"/>
@@ -30415,7 +30409,7 @@
       <c r="AJ784" s="46"/>
       <c r="AK784" s="46"/>
     </row>
-    <row r="785" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="2:37" ht="12.75">
       <c r="B785" s="47"/>
       <c r="C785" s="47"/>
       <c r="D785" s="43"/>
@@ -30452,7 +30446,7 @@
       <c r="AJ785" s="46"/>
       <c r="AK785" s="46"/>
     </row>
-    <row r="786" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:37" ht="12.75">
       <c r="B786" s="47"/>
       <c r="C786" s="47"/>
       <c r="D786" s="43"/>
@@ -30489,7 +30483,7 @@
       <c r="AJ786" s="46"/>
       <c r="AK786" s="46"/>
     </row>
-    <row r="787" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="2:37" ht="12.75">
       <c r="B787" s="47"/>
       <c r="C787" s="47"/>
       <c r="D787" s="43"/>
@@ -30526,7 +30520,7 @@
       <c r="AJ787" s="46"/>
       <c r="AK787" s="46"/>
     </row>
-    <row r="788" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="2:37" ht="12.75">
       <c r="B788" s="47"/>
       <c r="C788" s="47"/>
       <c r="D788" s="43"/>
@@ -30563,7 +30557,7 @@
       <c r="AJ788" s="46"/>
       <c r="AK788" s="46"/>
     </row>
-    <row r="789" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="2:37" ht="12.75">
       <c r="B789" s="47"/>
       <c r="C789" s="47"/>
       <c r="D789" s="43"/>
@@ -30600,7 +30594,7 @@
       <c r="AJ789" s="46"/>
       <c r="AK789" s="46"/>
     </row>
-    <row r="790" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="2:37" ht="12.75">
       <c r="B790" s="47"/>
       <c r="C790" s="47"/>
       <c r="D790" s="43"/>
@@ -30637,7 +30631,7 @@
       <c r="AJ790" s="46"/>
       <c r="AK790" s="46"/>
     </row>
-    <row r="791" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="2:37" ht="12.75">
       <c r="B791" s="47"/>
       <c r="C791" s="47"/>
       <c r="D791" s="43"/>
@@ -30674,7 +30668,7 @@
       <c r="AJ791" s="46"/>
       <c r="AK791" s="46"/>
     </row>
-    <row r="792" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="2:37" ht="12.75">
       <c r="B792" s="47"/>
       <c r="C792" s="47"/>
       <c r="D792" s="43"/>
@@ -30711,7 +30705,7 @@
       <c r="AJ792" s="46"/>
       <c r="AK792" s="46"/>
     </row>
-    <row r="793" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="2:37" ht="12.75">
       <c r="B793" s="47"/>
       <c r="C793" s="47"/>
       <c r="D793" s="43"/>
@@ -30748,7 +30742,7 @@
       <c r="AJ793" s="46"/>
       <c r="AK793" s="46"/>
     </row>
-    <row r="794" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="2:37" ht="12.75">
       <c r="B794" s="47"/>
       <c r="C794" s="47"/>
       <c r="D794" s="43"/>
@@ -30785,7 +30779,7 @@
       <c r="AJ794" s="46"/>
       <c r="AK794" s="46"/>
     </row>
-    <row r="795" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="2:37" ht="12.75">
       <c r="B795" s="47"/>
       <c r="C795" s="47"/>
       <c r="D795" s="43"/>
@@ -30822,7 +30816,7 @@
       <c r="AJ795" s="46"/>
       <c r="AK795" s="46"/>
     </row>
-    <row r="796" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="2:37" ht="12.75">
       <c r="B796" s="47"/>
       <c r="C796" s="47"/>
       <c r="D796" s="43"/>
@@ -30859,7 +30853,7 @@
       <c r="AJ796" s="46"/>
       <c r="AK796" s="46"/>
     </row>
-    <row r="797" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="2:37" ht="12.75">
       <c r="B797" s="47"/>
       <c r="C797" s="47"/>
       <c r="D797" s="43"/>
@@ -30896,7 +30890,7 @@
       <c r="AJ797" s="46"/>
       <c r="AK797" s="46"/>
     </row>
-    <row r="798" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="2:37" ht="12.75">
       <c r="B798" s="47"/>
       <c r="C798" s="47"/>
       <c r="D798" s="43"/>
@@ -30933,7 +30927,7 @@
       <c r="AJ798" s="46"/>
       <c r="AK798" s="46"/>
     </row>
-    <row r="799" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="2:37" ht="12.75">
       <c r="B799" s="47"/>
       <c r="C799" s="47"/>
       <c r="D799" s="43"/>
@@ -30970,7 +30964,7 @@
       <c r="AJ799" s="46"/>
       <c r="AK799" s="46"/>
     </row>
-    <row r="800" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="2:37" ht="12.75">
       <c r="B800" s="47"/>
       <c r="C800" s="47"/>
       <c r="D800" s="43"/>
@@ -31007,7 +31001,7 @@
       <c r="AJ800" s="46"/>
       <c r="AK800" s="46"/>
     </row>
-    <row r="801" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="2:37" ht="12.75">
       <c r="B801" s="47"/>
       <c r="C801" s="47"/>
       <c r="D801" s="43"/>
@@ -31044,7 +31038,7 @@
       <c r="AJ801" s="46"/>
       <c r="AK801" s="46"/>
     </row>
-    <row r="802" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="2:37" ht="12.75">
       <c r="B802" s="47"/>
       <c r="C802" s="47"/>
       <c r="D802" s="43"/>
@@ -31081,7 +31075,7 @@
       <c r="AJ802" s="46"/>
       <c r="AK802" s="46"/>
     </row>
-    <row r="803" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="2:37" ht="12.75">
       <c r="B803" s="47"/>
       <c r="C803" s="47"/>
       <c r="D803" s="43"/>
@@ -31118,7 +31112,7 @@
       <c r="AJ803" s="46"/>
       <c r="AK803" s="46"/>
     </row>
-    <row r="804" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="2:37" ht="12.75">
       <c r="B804" s="47"/>
       <c r="C804" s="47"/>
       <c r="D804" s="43"/>
@@ -31155,7 +31149,7 @@
       <c r="AJ804" s="46"/>
       <c r="AK804" s="46"/>
     </row>
-    <row r="805" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="2:37" ht="12.75">
       <c r="B805" s="47"/>
       <c r="C805" s="47"/>
       <c r="D805" s="43"/>
@@ -31192,7 +31186,7 @@
       <c r="AJ805" s="46"/>
       <c r="AK805" s="46"/>
     </row>
-    <row r="806" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="2:37" ht="12.75">
       <c r="B806" s="47"/>
       <c r="C806" s="47"/>
       <c r="D806" s="43"/>
@@ -31229,7 +31223,7 @@
       <c r="AJ806" s="46"/>
       <c r="AK806" s="46"/>
     </row>
-    <row r="807" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="2:37" ht="12.75">
       <c r="B807" s="47"/>
       <c r="C807" s="47"/>
       <c r="D807" s="43"/>
@@ -31266,7 +31260,7 @@
       <c r="AJ807" s="46"/>
       <c r="AK807" s="46"/>
     </row>
-    <row r="808" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="2:37" ht="12.75">
       <c r="B808" s="47"/>
       <c r="C808" s="47"/>
       <c r="D808" s="43"/>
@@ -31303,7 +31297,7 @@
       <c r="AJ808" s="46"/>
       <c r="AK808" s="46"/>
     </row>
-    <row r="809" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="2:37" ht="12.75">
       <c r="B809" s="47"/>
       <c r="C809" s="47"/>
       <c r="D809" s="43"/>
@@ -31340,7 +31334,7 @@
       <c r="AJ809" s="46"/>
       <c r="AK809" s="46"/>
     </row>
-    <row r="810" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="2:37" ht="12.75">
       <c r="B810" s="47"/>
       <c r="C810" s="47"/>
       <c r="D810" s="43"/>
@@ -31377,7 +31371,7 @@
       <c r="AJ810" s="46"/>
       <c r="AK810" s="46"/>
     </row>
-    <row r="811" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="2:37" ht="12.75">
       <c r="B811" s="47"/>
       <c r="C811" s="47"/>
       <c r="D811" s="43"/>
@@ -31414,7 +31408,7 @@
       <c r="AJ811" s="46"/>
       <c r="AK811" s="46"/>
     </row>
-    <row r="812" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="2:37" ht="12.75">
       <c r="B812" s="47"/>
       <c r="C812" s="47"/>
       <c r="D812" s="43"/>
@@ -31451,7 +31445,7 @@
       <c r="AJ812" s="46"/>
       <c r="AK812" s="46"/>
     </row>
-    <row r="813" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="2:37" ht="12.75">
       <c r="B813" s="47"/>
       <c r="C813" s="47"/>
       <c r="D813" s="43"/>
@@ -31488,7 +31482,7 @@
       <c r="AJ813" s="46"/>
       <c r="AK813" s="46"/>
     </row>
-    <row r="814" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="2:37" ht="12.75">
       <c r="B814" s="47"/>
       <c r="C814" s="47"/>
       <c r="D814" s="43"/>
@@ -31525,7 +31519,7 @@
       <c r="AJ814" s="46"/>
       <c r="AK814" s="46"/>
     </row>
-    <row r="815" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="2:37" ht="12.75">
       <c r="B815" s="47"/>
       <c r="C815" s="47"/>
       <c r="D815" s="43"/>
@@ -31562,7 +31556,7 @@
       <c r="AJ815" s="46"/>
       <c r="AK815" s="46"/>
     </row>
-    <row r="816" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="2:37" ht="12.75">
       <c r="B816" s="47"/>
       <c r="C816" s="47"/>
       <c r="D816" s="43"/>
@@ -31599,7 +31593,7 @@
       <c r="AJ816" s="46"/>
       <c r="AK816" s="46"/>
     </row>
-    <row r="817" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="2:37" ht="12.75">
       <c r="B817" s="47"/>
       <c r="C817" s="47"/>
       <c r="D817" s="43"/>
@@ -31636,7 +31630,7 @@
       <c r="AJ817" s="46"/>
       <c r="AK817" s="46"/>
     </row>
-    <row r="818" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="2:37" ht="12.75">
       <c r="B818" s="47"/>
       <c r="C818" s="47"/>
       <c r="D818" s="43"/>
@@ -31673,7 +31667,7 @@
       <c r="AJ818" s="46"/>
       <c r="AK818" s="46"/>
     </row>
-    <row r="819" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="2:37" ht="12.75">
       <c r="B819" s="47"/>
       <c r="C819" s="47"/>
       <c r="D819" s="43"/>
@@ -31710,7 +31704,7 @@
       <c r="AJ819" s="46"/>
       <c r="AK819" s="46"/>
     </row>
-    <row r="820" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="2:37" ht="12.75">
       <c r="B820" s="47"/>
       <c r="C820" s="47"/>
       <c r="D820" s="43"/>
@@ -31747,7 +31741,7 @@
       <c r="AJ820" s="46"/>
       <c r="AK820" s="46"/>
     </row>
-    <row r="821" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="2:37" ht="12.75">
       <c r="B821" s="47"/>
       <c r="C821" s="47"/>
       <c r="D821" s="43"/>
@@ -31784,7 +31778,7 @@
       <c r="AJ821" s="46"/>
       <c r="AK821" s="46"/>
     </row>
-    <row r="822" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="2:37" ht="12.75">
       <c r="B822" s="47"/>
       <c r="C822" s="47"/>
       <c r="D822" s="43"/>
@@ -31821,7 +31815,7 @@
       <c r="AJ822" s="46"/>
       <c r="AK822" s="46"/>
     </row>
-    <row r="823" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="2:37" ht="12.75">
       <c r="B823" s="47"/>
       <c r="C823" s="47"/>
       <c r="D823" s="43"/>
@@ -31858,7 +31852,7 @@
       <c r="AJ823" s="46"/>
       <c r="AK823" s="46"/>
     </row>
-    <row r="824" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="2:37" ht="12.75">
       <c r="B824" s="47"/>
       <c r="C824" s="47"/>
       <c r="D824" s="43"/>
@@ -31895,7 +31889,7 @@
       <c r="AJ824" s="46"/>
       <c r="AK824" s="46"/>
     </row>
-    <row r="825" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="2:37" ht="12.75">
       <c r="B825" s="47"/>
       <c r="C825" s="47"/>
       <c r="D825" s="43"/>
@@ -31932,7 +31926,7 @@
       <c r="AJ825" s="46"/>
       <c r="AK825" s="46"/>
     </row>
-    <row r="826" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="2:37" ht="12.75">
       <c r="B826" s="47"/>
       <c r="C826" s="47"/>
       <c r="D826" s="43"/>
@@ -31969,7 +31963,7 @@
       <c r="AJ826" s="46"/>
       <c r="AK826" s="46"/>
     </row>
-    <row r="827" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="2:37" ht="12.75">
       <c r="B827" s="47"/>
       <c r="C827" s="47"/>
       <c r="D827" s="43"/>
@@ -32006,7 +32000,7 @@
       <c r="AJ827" s="46"/>
       <c r="AK827" s="46"/>
     </row>
-    <row r="828" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="2:37" ht="12.75">
       <c r="B828" s="47"/>
       <c r="C828" s="47"/>
       <c r="D828" s="43"/>
@@ -32043,7 +32037,7 @@
       <c r="AJ828" s="46"/>
       <c r="AK828" s="46"/>
     </row>
-    <row r="829" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="2:37" ht="12.75">
       <c r="B829" s="47"/>
       <c r="C829" s="47"/>
       <c r="D829" s="43"/>
@@ -32080,7 +32074,7 @@
       <c r="AJ829" s="46"/>
       <c r="AK829" s="46"/>
     </row>
-    <row r="830" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="2:37" ht="12.75">
       <c r="B830" s="47"/>
       <c r="C830" s="47"/>
       <c r="D830" s="43"/>
@@ -32117,7 +32111,7 @@
       <c r="AJ830" s="46"/>
       <c r="AK830" s="46"/>
     </row>
-    <row r="831" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="2:37" ht="12.75">
       <c r="B831" s="47"/>
       <c r="C831" s="47"/>
       <c r="D831" s="43"/>
@@ -32154,7 +32148,7 @@
       <c r="AJ831" s="46"/>
       <c r="AK831" s="46"/>
     </row>
-    <row r="832" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="2:37" ht="12.75">
       <c r="B832" s="47"/>
       <c r="C832" s="47"/>
       <c r="D832" s="43"/>
@@ -32191,7 +32185,7 @@
       <c r="AJ832" s="46"/>
       <c r="AK832" s="46"/>
     </row>
-    <row r="833" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="2:37" ht="12.75">
       <c r="B833" s="47"/>
       <c r="C833" s="47"/>
       <c r="D833" s="43"/>
@@ -32228,7 +32222,7 @@
       <c r="AJ833" s="46"/>
       <c r="AK833" s="46"/>
     </row>
-    <row r="834" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="2:37" ht="12.75">
       <c r="B834" s="47"/>
       <c r="C834" s="47"/>
       <c r="D834" s="43"/>
@@ -32265,7 +32259,7 @@
       <c r="AJ834" s="46"/>
       <c r="AK834" s="46"/>
     </row>
-    <row r="835" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="2:37" ht="12.75">
       <c r="B835" s="47"/>
       <c r="C835" s="47"/>
       <c r="D835" s="43"/>
@@ -32302,7 +32296,7 @@
       <c r="AJ835" s="46"/>
       <c r="AK835" s="46"/>
     </row>
-    <row r="836" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="2:37" ht="12.75">
       <c r="B836" s="47"/>
       <c r="C836" s="47"/>
       <c r="D836" s="43"/>
@@ -32339,7 +32333,7 @@
       <c r="AJ836" s="46"/>
       <c r="AK836" s="46"/>
     </row>
-    <row r="837" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="2:37" ht="12.75">
       <c r="B837" s="47"/>
       <c r="C837" s="47"/>
       <c r="D837" s="43"/>
@@ -32376,7 +32370,7 @@
       <c r="AJ837" s="46"/>
       <c r="AK837" s="46"/>
     </row>
-    <row r="838" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="2:37" ht="12.75">
       <c r="B838" s="47"/>
       <c r="C838" s="47"/>
       <c r="D838" s="43"/>
@@ -32413,7 +32407,7 @@
       <c r="AJ838" s="46"/>
       <c r="AK838" s="46"/>
     </row>
-    <row r="839" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="2:37" ht="12.75">
       <c r="B839" s="47"/>
       <c r="C839" s="47"/>
       <c r="D839" s="43"/>
@@ -32450,7 +32444,7 @@
       <c r="AJ839" s="46"/>
       <c r="AK839" s="46"/>
     </row>
-    <row r="840" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="2:37" ht="12.75">
       <c r="B840" s="47"/>
       <c r="C840" s="47"/>
       <c r="D840" s="43"/>
@@ -32487,7 +32481,7 @@
       <c r="AJ840" s="46"/>
       <c r="AK840" s="46"/>
     </row>
-    <row r="841" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="2:37" ht="12.75">
       <c r="B841" s="47"/>
       <c r="C841" s="47"/>
       <c r="D841" s="43"/>
@@ -32524,7 +32518,7 @@
       <c r="AJ841" s="46"/>
       <c r="AK841" s="46"/>
     </row>
-    <row r="842" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="2:37" ht="12.75">
       <c r="B842" s="47"/>
       <c r="C842" s="47"/>
       <c r="D842" s="43"/>
@@ -32561,7 +32555,7 @@
       <c r="AJ842" s="46"/>
       <c r="AK842" s="46"/>
     </row>
-    <row r="843" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="2:37" ht="12.75">
       <c r="B843" s="47"/>
       <c r="C843" s="47"/>
       <c r="D843" s="43"/>
@@ -32598,7 +32592,7 @@
       <c r="AJ843" s="46"/>
       <c r="AK843" s="46"/>
     </row>
-    <row r="844" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="2:37" ht="12.75">
       <c r="B844" s="47"/>
       <c r="C844" s="47"/>
       <c r="D844" s="43"/>
@@ -32635,7 +32629,7 @@
       <c r="AJ844" s="46"/>
       <c r="AK844" s="46"/>
     </row>
-    <row r="845" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="2:37" ht="12.75">
       <c r="B845" s="47"/>
       <c r="C845" s="47"/>
       <c r="D845" s="43"/>
@@ -32672,7 +32666,7 @@
       <c r="AJ845" s="46"/>
       <c r="AK845" s="46"/>
     </row>
-    <row r="846" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="2:37" ht="12.75">
       <c r="B846" s="47"/>
       <c r="C846" s="47"/>
       <c r="D846" s="43"/>
@@ -32709,7 +32703,7 @@
       <c r="AJ846" s="46"/>
       <c r="AK846" s="46"/>
     </row>
-    <row r="847" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="2:37" ht="12.75">
       <c r="B847" s="47"/>
       <c r="C847" s="47"/>
       <c r="D847" s="43"/>
@@ -32746,7 +32740,7 @@
       <c r="AJ847" s="46"/>
       <c r="AK847" s="46"/>
     </row>
-    <row r="848" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="2:37" ht="12.75">
       <c r="B848" s="47"/>
       <c r="C848" s="47"/>
       <c r="D848" s="43"/>
@@ -32783,7 +32777,7 @@
       <c r="AJ848" s="46"/>
       <c r="AK848" s="46"/>
     </row>
-    <row r="849" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="2:37" ht="12.75">
       <c r="B849" s="47"/>
       <c r="C849" s="47"/>
       <c r="D849" s="43"/>
@@ -32820,7 +32814,7 @@
       <c r="AJ849" s="46"/>
       <c r="AK849" s="46"/>
     </row>
-    <row r="850" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="2:37" ht="12.75">
       <c r="B850" s="47"/>
       <c r="C850" s="47"/>
       <c r="D850" s="43"/>
@@ -32857,7 +32851,7 @@
       <c r="AJ850" s="46"/>
       <c r="AK850" s="46"/>
     </row>
-    <row r="851" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="2:37" ht="12.75">
       <c r="B851" s="47"/>
       <c r="C851" s="47"/>
       <c r="D851" s="43"/>
@@ -32894,7 +32888,7 @@
       <c r="AJ851" s="46"/>
       <c r="AK851" s="46"/>
     </row>
-    <row r="852" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="2:37" ht="12.75">
       <c r="B852" s="47"/>
       <c r="C852" s="47"/>
       <c r="D852" s="43"/>
@@ -32931,7 +32925,7 @@
       <c r="AJ852" s="46"/>
       <c r="AK852" s="46"/>
     </row>
-    <row r="853" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="2:37" ht="12.75">
       <c r="B853" s="47"/>
       <c r="C853" s="47"/>
       <c r="D853" s="43"/>
@@ -32968,7 +32962,7 @@
       <c r="AJ853" s="46"/>
       <c r="AK853" s="46"/>
     </row>
-    <row r="854" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="2:37" ht="12.75">
       <c r="B854" s="47"/>
       <c r="C854" s="47"/>
       <c r="D854" s="43"/>
@@ -33005,7 +32999,7 @@
       <c r="AJ854" s="46"/>
       <c r="AK854" s="46"/>
     </row>
-    <row r="855" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="2:37" ht="12.75">
       <c r="B855" s="47"/>
       <c r="C855" s="47"/>
       <c r="D855" s="43"/>
@@ -33042,7 +33036,7 @@
       <c r="AJ855" s="46"/>
       <c r="AK855" s="46"/>
     </row>
-    <row r="856" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="2:37" ht="12.75">
       <c r="B856" s="47"/>
       <c r="C856" s="47"/>
       <c r="D856" s="43"/>
@@ -33079,7 +33073,7 @@
       <c r="AJ856" s="46"/>
       <c r="AK856" s="46"/>
     </row>
-    <row r="857" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="2:37" ht="12.75">
       <c r="B857" s="47"/>
       <c r="C857" s="47"/>
       <c r="D857" s="43"/>
@@ -33116,7 +33110,7 @@
       <c r="AJ857" s="46"/>
       <c r="AK857" s="46"/>
     </row>
-    <row r="858" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="2:37" ht="12.75">
       <c r="B858" s="47"/>
       <c r="C858" s="47"/>
       <c r="D858" s="43"/>
@@ -33153,7 +33147,7 @@
       <c r="AJ858" s="46"/>
       <c r="AK858" s="46"/>
     </row>
-    <row r="859" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="2:37" ht="12.75">
       <c r="B859" s="47"/>
       <c r="C859" s="47"/>
       <c r="D859" s="43"/>
@@ -33190,7 +33184,7 @@
       <c r="AJ859" s="46"/>
       <c r="AK859" s="46"/>
     </row>
-    <row r="860" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="2:37" ht="12.75">
       <c r="B860" s="47"/>
       <c r="C860" s="47"/>
       <c r="D860" s="43"/>
@@ -33227,7 +33221,7 @@
       <c r="AJ860" s="46"/>
       <c r="AK860" s="46"/>
     </row>
-    <row r="861" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="2:37" ht="12.75">
       <c r="B861" s="47"/>
       <c r="C861" s="47"/>
       <c r="D861" s="43"/>
@@ -33264,7 +33258,7 @@
       <c r="AJ861" s="46"/>
       <c r="AK861" s="46"/>
     </row>
-    <row r="862" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="2:37" ht="12.75">
       <c r="B862" s="47"/>
       <c r="C862" s="47"/>
       <c r="D862" s="43"/>
@@ -33301,7 +33295,7 @@
       <c r="AJ862" s="46"/>
       <c r="AK862" s="46"/>
     </row>
-    <row r="863" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="2:37" ht="12.75">
       <c r="B863" s="47"/>
       <c r="C863" s="47"/>
       <c r="D863" s="43"/>
@@ -33338,7 +33332,7 @@
       <c r="AJ863" s="46"/>
       <c r="AK863" s="46"/>
     </row>
-    <row r="864" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="2:37" ht="12.75">
       <c r="B864" s="47"/>
       <c r="C864" s="47"/>
       <c r="D864" s="43"/>
@@ -33375,7 +33369,7 @@
       <c r="AJ864" s="46"/>
       <c r="AK864" s="46"/>
     </row>
-    <row r="865" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="2:37" ht="12.75">
       <c r="B865" s="47"/>
       <c r="C865" s="47"/>
       <c r="D865" s="43"/>
@@ -33412,7 +33406,7 @@
       <c r="AJ865" s="46"/>
       <c r="AK865" s="46"/>
     </row>
-    <row r="866" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="2:37" ht="12.75">
       <c r="B866" s="47"/>
       <c r="C866" s="47"/>
       <c r="D866" s="43"/>
@@ -33449,7 +33443,7 @@
       <c r="AJ866" s="46"/>
       <c r="AK866" s="46"/>
     </row>
-    <row r="867" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="2:37" ht="12.75">
       <c r="B867" s="47"/>
       <c r="C867" s="47"/>
       <c r="D867" s="43"/>
@@ -33486,7 +33480,7 @@
       <c r="AJ867" s="46"/>
       <c r="AK867" s="46"/>
     </row>
-    <row r="868" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="2:37" ht="12.75">
       <c r="B868" s="47"/>
       <c r="C868" s="47"/>
       <c r="D868" s="43"/>
@@ -33523,7 +33517,7 @@
       <c r="AJ868" s="46"/>
       <c r="AK868" s="46"/>
     </row>
-    <row r="869" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="2:37" ht="12.75">
       <c r="B869" s="47"/>
       <c r="C869" s="47"/>
       <c r="D869" s="43"/>
@@ -33560,7 +33554,7 @@
       <c r="AJ869" s="46"/>
       <c r="AK869" s="46"/>
     </row>
-    <row r="870" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="2:37" ht="12.75">
       <c r="B870" s="47"/>
       <c r="C870" s="47"/>
       <c r="D870" s="43"/>
@@ -33597,7 +33591,7 @@
       <c r="AJ870" s="46"/>
       <c r="AK870" s="46"/>
     </row>
-    <row r="871" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="2:37" ht="12.75">
       <c r="B871" s="47"/>
       <c r="C871" s="47"/>
       <c r="D871" s="43"/>
@@ -33634,7 +33628,7 @@
       <c r="AJ871" s="46"/>
       <c r="AK871" s="46"/>
     </row>
-    <row r="872" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="2:37" ht="12.75">
       <c r="B872" s="47"/>
       <c r="C872" s="47"/>
       <c r="D872" s="43"/>
@@ -33671,7 +33665,7 @@
       <c r="AJ872" s="46"/>
       <c r="AK872" s="46"/>
     </row>
-    <row r="873" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="2:37" ht="12.75">
       <c r="B873" s="47"/>
       <c r="C873" s="47"/>
       <c r="D873" s="43"/>
@@ -33708,7 +33702,7 @@
       <c r="AJ873" s="46"/>
       <c r="AK873" s="46"/>
     </row>
-    <row r="874" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="2:37" ht="12.75">
       <c r="B874" s="47"/>
       <c r="C874" s="47"/>
       <c r="D874" s="43"/>
@@ -33745,7 +33739,7 @@
       <c r="AJ874" s="46"/>
       <c r="AK874" s="46"/>
     </row>
-    <row r="875" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="2:37" ht="12.75">
       <c r="B875" s="47"/>
       <c r="C875" s="47"/>
       <c r="D875" s="43"/>
@@ -33782,7 +33776,7 @@
       <c r="AJ875" s="46"/>
       <c r="AK875" s="46"/>
     </row>
-    <row r="876" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="2:37" ht="12.75">
       <c r="B876" s="47"/>
       <c r="C876" s="47"/>
       <c r="D876" s="43"/>
@@ -33819,7 +33813,7 @@
       <c r="AJ876" s="46"/>
       <c r="AK876" s="46"/>
     </row>
-    <row r="877" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="2:37" ht="12.75">
       <c r="B877" s="47"/>
       <c r="C877" s="47"/>
       <c r="D877" s="43"/>
@@ -33856,7 +33850,7 @@
       <c r="AJ877" s="46"/>
       <c r="AK877" s="46"/>
     </row>
-    <row r="878" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="2:37" ht="12.75">
       <c r="B878" s="47"/>
       <c r="C878" s="47"/>
       <c r="D878" s="43"/>
@@ -33893,7 +33887,7 @@
       <c r="AJ878" s="46"/>
       <c r="AK878" s="46"/>
     </row>
-    <row r="879" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="2:37" ht="12.75">
       <c r="B879" s="47"/>
       <c r="C879" s="47"/>
       <c r="D879" s="43"/>
@@ -33930,7 +33924,7 @@
       <c r="AJ879" s="46"/>
       <c r="AK879" s="46"/>
     </row>
-    <row r="880" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="2:37" ht="12.75">
       <c r="B880" s="47"/>
       <c r="C880" s="47"/>
       <c r="D880" s="43"/>
@@ -33967,7 +33961,7 @@
       <c r="AJ880" s="46"/>
       <c r="AK880" s="46"/>
     </row>
-    <row r="881" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="2:37" ht="12.75">
       <c r="B881" s="47"/>
       <c r="C881" s="47"/>
       <c r="D881" s="43"/>
@@ -34004,7 +33998,7 @@
       <c r="AJ881" s="46"/>
       <c r="AK881" s="46"/>
     </row>
-    <row r="882" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="2:37" ht="12.75">
       <c r="B882" s="47"/>
       <c r="C882" s="47"/>
       <c r="D882" s="43"/>
@@ -34041,7 +34035,7 @@
       <c r="AJ882" s="46"/>
       <c r="AK882" s="46"/>
     </row>
-    <row r="883" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="2:37" ht="12.75">
       <c r="B883" s="47"/>
       <c r="C883" s="47"/>
       <c r="D883" s="43"/>
@@ -34078,7 +34072,7 @@
       <c r="AJ883" s="46"/>
       <c r="AK883" s="46"/>
     </row>
-    <row r="884" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="2:37" ht="12.75">
       <c r="B884" s="47"/>
       <c r="C884" s="47"/>
       <c r="D884" s="43"/>
@@ -34115,7 +34109,7 @@
       <c r="AJ884" s="46"/>
       <c r="AK884" s="46"/>
     </row>
-    <row r="885" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="2:37" ht="12.75">
       <c r="B885" s="47"/>
       <c r="C885" s="47"/>
       <c r="D885" s="43"/>
@@ -34152,7 +34146,7 @@
       <c r="AJ885" s="46"/>
       <c r="AK885" s="46"/>
     </row>
-    <row r="886" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="2:37" ht="12.75">
       <c r="B886" s="47"/>
       <c r="C886" s="47"/>
       <c r="D886" s="43"/>
@@ -34189,7 +34183,7 @@
       <c r="AJ886" s="46"/>
       <c r="AK886" s="46"/>
     </row>
-    <row r="887" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:37" ht="12.75">
       <c r="B887" s="47"/>
       <c r="C887" s="47"/>
       <c r="D887" s="43"/>
@@ -34226,7 +34220,7 @@
       <c r="AJ887" s="46"/>
       <c r="AK887" s="46"/>
     </row>
-    <row r="888" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="2:37" ht="12.75">
       <c r="B888" s="47"/>
       <c r="C888" s="47"/>
       <c r="D888" s="43"/>
@@ -34263,7 +34257,7 @@
       <c r="AJ888" s="46"/>
       <c r="AK888" s="46"/>
     </row>
-    <row r="889" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="2:37" ht="12.75">
       <c r="B889" s="47"/>
       <c r="C889" s="47"/>
       <c r="D889" s="43"/>
@@ -34300,7 +34294,7 @@
       <c r="AJ889" s="46"/>
       <c r="AK889" s="46"/>
     </row>
-    <row r="890" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="2:37" ht="12.75">
       <c r="B890" s="47"/>
       <c r="C890" s="47"/>
       <c r="D890" s="43"/>
@@ -34337,7 +34331,7 @@
       <c r="AJ890" s="46"/>
       <c r="AK890" s="46"/>
     </row>
-    <row r="891" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="2:37" ht="12.75">
       <c r="B891" s="47"/>
       <c r="C891" s="47"/>
       <c r="D891" s="43"/>
@@ -34374,7 +34368,7 @@
       <c r="AJ891" s="46"/>
       <c r="AK891" s="46"/>
     </row>
-    <row r="892" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="2:37" ht="12.75">
       <c r="B892" s="47"/>
       <c r="C892" s="47"/>
       <c r="D892" s="43"/>
@@ -34411,7 +34405,7 @@
       <c r="AJ892" s="46"/>
       <c r="AK892" s="46"/>
     </row>
-    <row r="893" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="2:37" ht="12.75">
       <c r="B893" s="47"/>
       <c r="C893" s="47"/>
       <c r="D893" s="43"/>
@@ -34448,7 +34442,7 @@
       <c r="AJ893" s="46"/>
       <c r="AK893" s="46"/>
     </row>
-    <row r="894" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="2:37" ht="12.75">
       <c r="B894" s="47"/>
       <c r="C894" s="47"/>
       <c r="D894" s="43"/>
@@ -34485,7 +34479,7 @@
       <c r="AJ894" s="46"/>
       <c r="AK894" s="46"/>
     </row>
-    <row r="895" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="2:37" ht="12.75">
       <c r="B895" s="47"/>
       <c r="C895" s="47"/>
       <c r="D895" s="43"/>
@@ -34522,7 +34516,7 @@
       <c r="AJ895" s="46"/>
       <c r="AK895" s="46"/>
     </row>
-    <row r="896" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="2:37" ht="12.75">
       <c r="B896" s="47"/>
       <c r="C896" s="47"/>
       <c r="D896" s="43"/>
@@ -34559,7 +34553,7 @@
       <c r="AJ896" s="46"/>
       <c r="AK896" s="46"/>
     </row>
-    <row r="897" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="2:37" ht="12.75">
       <c r="B897" s="47"/>
       <c r="C897" s="47"/>
       <c r="D897" s="43"/>
@@ -34596,7 +34590,7 @@
       <c r="AJ897" s="46"/>
       <c r="AK897" s="46"/>
     </row>
-    <row r="898" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="2:37" ht="12.75">
       <c r="B898" s="47"/>
       <c r="C898" s="47"/>
       <c r="D898" s="43"/>
@@ -34633,7 +34627,7 @@
       <c r="AJ898" s="46"/>
       <c r="AK898" s="46"/>
     </row>
-    <row r="899" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="2:37" ht="12.75">
       <c r="B899" s="47"/>
       <c r="C899" s="47"/>
       <c r="D899" s="43"/>
@@ -34670,7 +34664,7 @@
       <c r="AJ899" s="46"/>
       <c r="AK899" s="46"/>
     </row>
-    <row r="900" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="2:37" ht="12.75">
       <c r="B900" s="47"/>
       <c r="C900" s="47"/>
       <c r="D900" s="43"/>
@@ -34707,7 +34701,7 @@
       <c r="AJ900" s="46"/>
       <c r="AK900" s="46"/>
     </row>
-    <row r="901" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="2:37" ht="12.75">
       <c r="B901" s="47"/>
       <c r="C901" s="47"/>
       <c r="D901" s="43"/>
@@ -34744,7 +34738,7 @@
       <c r="AJ901" s="46"/>
       <c r="AK901" s="46"/>
     </row>
-    <row r="902" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="2:37" ht="12.75">
       <c r="B902" s="47"/>
       <c r="C902" s="47"/>
       <c r="D902" s="43"/>
@@ -34781,7 +34775,7 @@
       <c r="AJ902" s="46"/>
       <c r="AK902" s="46"/>
     </row>
-    <row r="903" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="2:37" ht="12.75">
       <c r="B903" s="47"/>
       <c r="C903" s="47"/>
       <c r="D903" s="43"/>
@@ -34818,7 +34812,7 @@
       <c r="AJ903" s="46"/>
       <c r="AK903" s="46"/>
     </row>
-    <row r="904" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="2:37" ht="12.75">
       <c r="B904" s="47"/>
       <c r="C904" s="47"/>
       <c r="D904" s="43"/>
@@ -34855,7 +34849,7 @@
       <c r="AJ904" s="46"/>
       <c r="AK904" s="46"/>
     </row>
-    <row r="905" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="2:37" ht="12.75">
       <c r="B905" s="47"/>
       <c r="C905" s="47"/>
       <c r="D905" s="43"/>
@@ -34892,7 +34886,7 @@
       <c r="AJ905" s="46"/>
       <c r="AK905" s="46"/>
     </row>
-    <row r="906" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="2:37" ht="12.75">
       <c r="B906" s="47"/>
       <c r="C906" s="47"/>
       <c r="D906" s="43"/>
@@ -34929,7 +34923,7 @@
       <c r="AJ906" s="46"/>
       <c r="AK906" s="46"/>
     </row>
-    <row r="907" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="2:37" ht="12.75">
       <c r="B907" s="47"/>
       <c r="C907" s="47"/>
       <c r="D907" s="43"/>
@@ -34966,7 +34960,7 @@
       <c r="AJ907" s="46"/>
       <c r="AK907" s="46"/>
     </row>
-    <row r="908" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="2:37" ht="12.75">
       <c r="B908" s="47"/>
       <c r="C908" s="47"/>
       <c r="D908" s="43"/>
@@ -35003,7 +34997,7 @@
       <c r="AJ908" s="46"/>
       <c r="AK908" s="46"/>
     </row>
-    <row r="909" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="2:37" ht="12.75">
       <c r="B909" s="47"/>
       <c r="C909" s="47"/>
       <c r="D909" s="43"/>
@@ -35040,7 +35034,7 @@
       <c r="AJ909" s="46"/>
       <c r="AK909" s="46"/>
     </row>
-    <row r="910" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="2:37" ht="12.75">
       <c r="B910" s="47"/>
       <c r="C910" s="47"/>
       <c r="D910" s="43"/>
@@ -35077,7 +35071,7 @@
       <c r="AJ910" s="46"/>
       <c r="AK910" s="46"/>
     </row>
-    <row r="911" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="2:37" ht="12.75">
       <c r="B911" s="47"/>
       <c r="C911" s="47"/>
       <c r="D911" s="43"/>
@@ -35114,7 +35108,7 @@
       <c r="AJ911" s="46"/>
       <c r="AK911" s="46"/>
     </row>
-    <row r="912" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="2:37" ht="12.75">
       <c r="B912" s="47"/>
       <c r="C912" s="47"/>
       <c r="D912" s="43"/>
@@ -35151,7 +35145,7 @@
       <c r="AJ912" s="46"/>
       <c r="AK912" s="46"/>
     </row>
-    <row r="913" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="2:37" ht="12.75">
       <c r="B913" s="47"/>
       <c r="C913" s="47"/>
       <c r="D913" s="43"/>
@@ -35188,7 +35182,7 @@
       <c r="AJ913" s="46"/>
       <c r="AK913" s="46"/>
     </row>
-    <row r="914" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="2:37" ht="12.75">
       <c r="B914" s="47"/>
       <c r="C914" s="47"/>
       <c r="D914" s="43"/>
@@ -35225,7 +35219,7 @@
       <c r="AJ914" s="46"/>
       <c r="AK914" s="46"/>
     </row>
-    <row r="915" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="2:37" ht="12.75">
       <c r="B915" s="47"/>
       <c r="C915" s="47"/>
       <c r="D915" s="43"/>
@@ -35262,7 +35256,7 @@
       <c r="AJ915" s="46"/>
       <c r="AK915" s="46"/>
     </row>
-    <row r="916" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="2:37" ht="12.75">
       <c r="B916" s="47"/>
       <c r="C916" s="47"/>
       <c r="D916" s="43"/>
@@ -35299,7 +35293,7 @@
       <c r="AJ916" s="46"/>
       <c r="AK916" s="46"/>
     </row>
-    <row r="917" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="2:37" ht="12.75">
       <c r="B917" s="47"/>
       <c r="C917" s="47"/>
       <c r="D917" s="43"/>
@@ -35336,7 +35330,7 @@
       <c r="AJ917" s="46"/>
       <c r="AK917" s="46"/>
     </row>
-    <row r="918" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="2:37" ht="12.75">
       <c r="B918" s="47"/>
       <c r="C918" s="47"/>
       <c r="D918" s="43"/>
@@ -35373,7 +35367,7 @@
       <c r="AJ918" s="46"/>
       <c r="AK918" s="46"/>
     </row>
-    <row r="919" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="2:37" ht="12.75">
       <c r="B919" s="47"/>
       <c r="C919" s="47"/>
       <c r="D919" s="43"/>
@@ -35410,7 +35404,7 @@
       <c r="AJ919" s="46"/>
       <c r="AK919" s="46"/>
     </row>
-    <row r="920" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="2:37" ht="12.75">
       <c r="B920" s="47"/>
       <c r="C920" s="47"/>
       <c r="D920" s="43"/>
@@ -35447,7 +35441,7 @@
       <c r="AJ920" s="46"/>
       <c r="AK920" s="46"/>
     </row>
-    <row r="921" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="2:37" ht="12.75">
       <c r="B921" s="47"/>
       <c r="C921" s="47"/>
       <c r="D921" s="43"/>
@@ -35484,7 +35478,7 @@
       <c r="AJ921" s="46"/>
       <c r="AK921" s="46"/>
     </row>
-    <row r="922" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="2:37" ht="12.75">
       <c r="B922" s="47"/>
       <c r="C922" s="47"/>
       <c r="D922" s="43"/>
@@ -35521,7 +35515,7 @@
       <c r="AJ922" s="46"/>
       <c r="AK922" s="46"/>
     </row>
-    <row r="923" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="2:37" ht="12.75">
       <c r="B923" s="47"/>
       <c r="C923" s="47"/>
       <c r="D923" s="43"/>
@@ -35558,7 +35552,7 @@
       <c r="AJ923" s="46"/>
       <c r="AK923" s="46"/>
     </row>
-    <row r="924" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="2:37" ht="12.75">
       <c r="B924" s="47"/>
       <c r="C924" s="47"/>
       <c r="D924" s="43"/>
@@ -35595,7 +35589,7 @@
       <c r="AJ924" s="46"/>
       <c r="AK924" s="46"/>
     </row>
-    <row r="925" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="2:37" ht="12.75">
       <c r="B925" s="47"/>
       <c r="C925" s="47"/>
       <c r="D925" s="43"/>
@@ -35632,7 +35626,7 @@
       <c r="AJ925" s="46"/>
       <c r="AK925" s="46"/>
     </row>
-    <row r="926" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="2:37" ht="12.75">
       <c r="B926" s="47"/>
       <c r="C926" s="47"/>
       <c r="D926" s="43"/>
@@ -35669,7 +35663,7 @@
       <c r="AJ926" s="46"/>
       <c r="AK926" s="46"/>
     </row>
-    <row r="927" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="2:37" ht="12.75">
       <c r="B927" s="47"/>
       <c r="C927" s="47"/>
       <c r="D927" s="43"/>
@@ -35706,7 +35700,7 @@
       <c r="AJ927" s="46"/>
       <c r="AK927" s="46"/>
     </row>
-    <row r="928" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="2:37" ht="12.75">
       <c r="B928" s="47"/>
       <c r="C928" s="47"/>
       <c r="D928" s="43"/>
@@ -35743,7 +35737,7 @@
       <c r="AJ928" s="46"/>
       <c r="AK928" s="46"/>
     </row>
-    <row r="929" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="2:37" ht="12.75">
       <c r="B929" s="47"/>
       <c r="C929" s="47"/>
       <c r="D929" s="43"/>
@@ -35780,7 +35774,7 @@
       <c r="AJ929" s="46"/>
       <c r="AK929" s="46"/>
     </row>
-    <row r="930" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="2:37" ht="12.75">
       <c r="B930" s="47"/>
       <c r="C930" s="47"/>
       <c r="D930" s="43"/>
@@ -35817,7 +35811,7 @@
       <c r="AJ930" s="46"/>
       <c r="AK930" s="46"/>
     </row>
-    <row r="931" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="2:37" ht="12.75">
       <c r="B931" s="47"/>
       <c r="C931" s="47"/>
       <c r="D931" s="43"/>
@@ -35854,7 +35848,7 @@
       <c r="AJ931" s="46"/>
       <c r="AK931" s="46"/>
     </row>
-    <row r="932" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="2:37" ht="12.75">
       <c r="B932" s="47"/>
       <c r="C932" s="47"/>
       <c r="D932" s="43"/>
@@ -35891,7 +35885,7 @@
       <c r="AJ932" s="46"/>
       <c r="AK932" s="46"/>
     </row>
-    <row r="933" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="2:37" ht="12.75">
       <c r="B933" s="47"/>
       <c r="C933" s="47"/>
       <c r="D933" s="43"/>
@@ -35928,7 +35922,7 @@
       <c r="AJ933" s="46"/>
       <c r="AK933" s="46"/>
     </row>
-    <row r="934" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="2:37" ht="12.75">
       <c r="B934" s="47"/>
       <c r="C934" s="47"/>
       <c r="D934" s="43"/>
@@ -35965,7 +35959,7 @@
       <c r="AJ934" s="46"/>
       <c r="AK934" s="46"/>
     </row>
-    <row r="935" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="2:37" ht="12.75">
       <c r="B935" s="47"/>
       <c r="C935" s="47"/>
       <c r="D935" s="43"/>
@@ -36002,7 +35996,7 @@
       <c r="AJ935" s="46"/>
       <c r="AK935" s="46"/>
     </row>
-    <row r="936" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="2:37" ht="12.75">
       <c r="B936" s="47"/>
       <c r="C936" s="47"/>
       <c r="D936" s="43"/>
@@ -36039,7 +36033,7 @@
       <c r="AJ936" s="46"/>
       <c r="AK936" s="46"/>
     </row>
-    <row r="937" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="2:37" ht="12.75">
       <c r="B937" s="47"/>
       <c r="C937" s="47"/>
       <c r="D937" s="43"/>
@@ -36076,7 +36070,7 @@
       <c r="AJ937" s="46"/>
       <c r="AK937" s="46"/>
     </row>
-    <row r="938" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="2:37" ht="12.75">
       <c r="B938" s="47"/>
       <c r="C938" s="47"/>
       <c r="D938" s="43"/>
@@ -36113,7 +36107,7 @@
       <c r="AJ938" s="46"/>
       <c r="AK938" s="46"/>
     </row>
-    <row r="939" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="2:37" ht="12.75">
       <c r="B939" s="47"/>
       <c r="C939" s="47"/>
       <c r="D939" s="43"/>
@@ -36150,7 +36144,7 @@
       <c r="AJ939" s="46"/>
       <c r="AK939" s="46"/>
     </row>
-    <row r="940" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="2:37" ht="12.75">
       <c r="B940" s="47"/>
       <c r="C940" s="47"/>
       <c r="D940" s="43"/>
@@ -36187,7 +36181,7 @@
       <c r="AJ940" s="46"/>
       <c r="AK940" s="46"/>
     </row>
-    <row r="941" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="2:37" ht="12.75">
       <c r="B941" s="47"/>
       <c r="C941" s="47"/>
       <c r="D941" s="43"/>
@@ -36224,7 +36218,7 @@
       <c r="AJ941" s="46"/>
       <c r="AK941" s="46"/>
     </row>
-    <row r="942" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="2:37" ht="12.75">
       <c r="B942" s="47"/>
       <c r="C942" s="47"/>
       <c r="D942" s="43"/>
@@ -36261,7 +36255,7 @@
       <c r="AJ942" s="46"/>
       <c r="AK942" s="46"/>
     </row>
-    <row r="943" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="2:37" ht="12.75">
       <c r="B943" s="47"/>
       <c r="C943" s="47"/>
       <c r="D943" s="43"/>
@@ -36298,7 +36292,7 @@
       <c r="AJ943" s="46"/>
       <c r="AK943" s="46"/>
     </row>
-    <row r="944" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="2:37" ht="12.75">
       <c r="B944" s="47"/>
       <c r="C944" s="47"/>
       <c r="D944" s="43"/>
@@ -36335,7 +36329,7 @@
       <c r="AJ944" s="46"/>
       <c r="AK944" s="46"/>
     </row>
-    <row r="945" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="2:37" ht="12.75">
       <c r="B945" s="47"/>
       <c r="C945" s="47"/>
       <c r="D945" s="43"/>
@@ -36372,7 +36366,7 @@
       <c r="AJ945" s="46"/>
       <c r="AK945" s="46"/>
     </row>
-    <row r="946" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="2:37" ht="12.75">
       <c r="B946" s="47"/>
       <c r="C946" s="47"/>
       <c r="D946" s="43"/>
@@ -36409,7 +36403,7 @@
       <c r="AJ946" s="46"/>
       <c r="AK946" s="46"/>
     </row>
-    <row r="947" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="2:37" ht="12.75">
       <c r="B947" s="47"/>
       <c r="C947" s="47"/>
       <c r="D947" s="43"/>
@@ -36446,7 +36440,7 @@
       <c r="AJ947" s="46"/>
       <c r="AK947" s="46"/>
     </row>
-    <row r="948" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="2:37" ht="12.75">
       <c r="B948" s="47"/>
       <c r="C948" s="47"/>
       <c r="D948" s="43"/>
@@ -36483,7 +36477,7 @@
       <c r="AJ948" s="46"/>
       <c r="AK948" s="46"/>
     </row>
-    <row r="949" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="2:37" ht="12.75">
       <c r="B949" s="47"/>
       <c r="C949" s="47"/>
       <c r="D949" s="43"/>
@@ -36520,7 +36514,7 @@
       <c r="AJ949" s="46"/>
       <c r="AK949" s="46"/>
     </row>
-    <row r="950" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="2:37" ht="12.75">
       <c r="B950" s="47"/>
       <c r="C950" s="47"/>
       <c r="D950" s="43"/>
@@ -36557,7 +36551,7 @@
       <c r="AJ950" s="46"/>
       <c r="AK950" s="46"/>
     </row>
-    <row r="951" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="2:37" ht="12.75">
       <c r="B951" s="47"/>
       <c r="C951" s="47"/>
       <c r="D951" s="43"/>
@@ -36594,7 +36588,7 @@
       <c r="AJ951" s="46"/>
       <c r="AK951" s="46"/>
     </row>
-    <row r="952" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="2:37" ht="12.75">
       <c r="B952" s="47"/>
       <c r="C952" s="47"/>
       <c r="D952" s="43"/>
@@ -36631,7 +36625,7 @@
       <c r="AJ952" s="46"/>
       <c r="AK952" s="46"/>
     </row>
-    <row r="953" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="2:37" ht="12.75">
       <c r="B953" s="47"/>
       <c r="C953" s="47"/>
       <c r="D953" s="43"/>
@@ -36668,7 +36662,7 @@
       <c r="AJ953" s="46"/>
       <c r="AK953" s="46"/>
     </row>
-    <row r="954" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="2:37" ht="12.75">
       <c r="B954" s="47"/>
       <c r="C954" s="47"/>
       <c r="D954" s="43"/>
@@ -36705,7 +36699,7 @@
       <c r="AJ954" s="46"/>
       <c r="AK954" s="46"/>
     </row>
-    <row r="955" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="2:37" ht="12.75">
       <c r="B955" s="47"/>
       <c r="C955" s="47"/>
       <c r="D955" s="43"/>
@@ -36742,7 +36736,7 @@
       <c r="AJ955" s="46"/>
       <c r="AK955" s="46"/>
     </row>
-    <row r="956" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="2:37" ht="12.75">
       <c r="B956" s="47"/>
       <c r="C956" s="47"/>
       <c r="D956" s="43"/>
@@ -36779,7 +36773,7 @@
       <c r="AJ956" s="46"/>
       <c r="AK956" s="46"/>
     </row>
-    <row r="957" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="2:37" ht="12.75">
       <c r="B957" s="47"/>
       <c r="C957" s="47"/>
       <c r="D957" s="43"/>
@@ -36816,7 +36810,7 @@
       <c r="AJ957" s="46"/>
       <c r="AK957" s="46"/>
     </row>
-    <row r="958" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="2:37" ht="12.75">
       <c r="B958" s="47"/>
       <c r="C958" s="47"/>
       <c r="D958" s="43"/>
@@ -36853,7 +36847,7 @@
       <c r="AJ958" s="46"/>
       <c r="AK958" s="46"/>
     </row>
-    <row r="959" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="2:37" ht="12.75">
       <c r="B959" s="47"/>
       <c r="C959" s="47"/>
       <c r="D959" s="43"/>
@@ -36890,7 +36884,7 @@
       <c r="AJ959" s="46"/>
       <c r="AK959" s="46"/>
     </row>
-    <row r="960" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="2:37" ht="12.75">
       <c r="B960" s="47"/>
       <c r="C960" s="47"/>
       <c r="D960" s="43"/>
@@ -36927,7 +36921,7 @@
       <c r="AJ960" s="46"/>
       <c r="AK960" s="46"/>
     </row>
-    <row r="961" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="2:37" ht="12.75">
       <c r="B961" s="47"/>
       <c r="C961" s="47"/>
       <c r="D961" s="43"/>
@@ -36964,7 +36958,7 @@
       <c r="AJ961" s="46"/>
       <c r="AK961" s="46"/>
     </row>
-    <row r="962" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="2:37" ht="12.75">
       <c r="B962" s="47"/>
       <c r="C962" s="47"/>
       <c r="D962" s="43"/>
@@ -37001,7 +36995,7 @@
       <c r="AJ962" s="46"/>
       <c r="AK962" s="46"/>
     </row>
-    <row r="963" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="2:37" ht="12.75">
       <c r="B963" s="47"/>
       <c r="C963" s="47"/>
       <c r="D963" s="43"/>
@@ -37038,7 +37032,7 @@
       <c r="AJ963" s="46"/>
       <c r="AK963" s="46"/>
     </row>
-    <row r="964" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="2:37" ht="12.75">
       <c r="B964" s="47"/>
       <c r="C964" s="47"/>
       <c r="D964" s="43"/>
@@ -37075,7 +37069,7 @@
       <c r="AJ964" s="46"/>
       <c r="AK964" s="46"/>
     </row>
-    <row r="965" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="2:37" ht="12.75">
       <c r="B965" s="47"/>
       <c r="C965" s="47"/>
       <c r="D965" s="43"/>
@@ -37112,7 +37106,7 @@
       <c r="AJ965" s="46"/>
       <c r="AK965" s="46"/>
     </row>
-    <row r="966" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="2:37" ht="12.75">
       <c r="B966" s="47"/>
       <c r="C966" s="47"/>
       <c r="D966" s="43"/>
@@ -37149,7 +37143,7 @@
       <c r="AJ966" s="46"/>
       <c r="AK966" s="46"/>
     </row>
-    <row r="967" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="2:37" ht="12.75">
       <c r="B967" s="47"/>
       <c r="C967" s="47"/>
       <c r="D967" s="43"/>
@@ -37186,7 +37180,7 @@
       <c r="AJ967" s="46"/>
       <c r="AK967" s="46"/>
     </row>
-    <row r="968" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="2:37" ht="12.75">
       <c r="B968" s="47"/>
       <c r="C968" s="47"/>
       <c r="D968" s="43"/>
@@ -37223,7 +37217,7 @@
       <c r="AJ968" s="46"/>
       <c r="AK968" s="46"/>
     </row>
-    <row r="969" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="2:37" ht="12.75">
       <c r="B969" s="47"/>
       <c r="C969" s="47"/>
       <c r="D969" s="43"/>
@@ -37260,7 +37254,7 @@
       <c r="AJ969" s="46"/>
       <c r="AK969" s="46"/>
     </row>
-    <row r="970" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="2:37" ht="12.75">
       <c r="B970" s="47"/>
       <c r="C970" s="47"/>
       <c r="D970" s="43"/>
@@ -37297,7 +37291,7 @@
       <c r="AJ970" s="46"/>
       <c r="AK970" s="46"/>
     </row>
-    <row r="971" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="2:37" ht="12.75">
       <c r="B971" s="47"/>
       <c r="C971" s="47"/>
       <c r="D971" s="43"/>
@@ -37334,7 +37328,7 @@
       <c r="AJ971" s="46"/>
       <c r="AK971" s="46"/>
     </row>
-    <row r="972" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="2:37" ht="12.75">
       <c r="B972" s="47"/>
       <c r="C972" s="47"/>
       <c r="D972" s="43"/>
@@ -37371,7 +37365,7 @@
       <c r="AJ972" s="46"/>
       <c r="AK972" s="46"/>
     </row>
-    <row r="973" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="2:37" ht="12.75">
       <c r="B973" s="47"/>
       <c r="C973" s="47"/>
       <c r="D973" s="43"/>
@@ -37408,7 +37402,7 @@
       <c r="AJ973" s="46"/>
       <c r="AK973" s="46"/>
     </row>
-    <row r="974" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="2:37" ht="12.75">
       <c r="B974" s="47"/>
       <c r="C974" s="47"/>
       <c r="D974" s="43"/>
@@ -37445,7 +37439,7 @@
       <c r="AJ974" s="46"/>
       <c r="AK974" s="46"/>
     </row>
-    <row r="975" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="2:37" ht="12.75">
       <c r="B975" s="47"/>
       <c r="C975" s="47"/>
       <c r="D975" s="43"/>
@@ -37482,7 +37476,7 @@
       <c r="AJ975" s="46"/>
       <c r="AK975" s="46"/>
     </row>
-    <row r="976" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="2:37" ht="12.75">
       <c r="B976" s="47"/>
       <c r="C976" s="47"/>
       <c r="D976" s="43"/>
@@ -37519,7 +37513,7 @@
       <c r="AJ976" s="46"/>
       <c r="AK976" s="46"/>
     </row>
-    <row r="977" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="2:37" ht="12.75">
       <c r="B977" s="47"/>
       <c r="C977" s="47"/>
       <c r="D977" s="43"/>
@@ -37556,7 +37550,7 @@
       <c r="AJ977" s="46"/>
       <c r="AK977" s="46"/>
     </row>
-    <row r="978" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="2:37" ht="12.75">
       <c r="B978" s="47"/>
       <c r="C978" s="47"/>
       <c r="D978" s="43"/>
@@ -37593,7 +37587,7 @@
       <c r="AJ978" s="46"/>
       <c r="AK978" s="46"/>
     </row>
-    <row r="979" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="2:37" ht="12.75">
       <c r="B979" s="47"/>
       <c r="C979" s="47"/>
       <c r="D979" s="43"/>
@@ -37630,7 +37624,7 @@
       <c r="AJ979" s="46"/>
       <c r="AK979" s="46"/>
     </row>
-    <row r="980" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="2:37" ht="12.75">
       <c r="B980" s="47"/>
       <c r="C980" s="47"/>
       <c r="D980" s="43"/>
@@ -37667,7 +37661,7 @@
       <c r="AJ980" s="46"/>
       <c r="AK980" s="46"/>
     </row>
-    <row r="981" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="2:37" ht="12.75">
       <c r="B981" s="47"/>
       <c r="C981" s="47"/>
       <c r="D981" s="43"/>
@@ -37704,7 +37698,7 @@
       <c r="AJ981" s="46"/>
       <c r="AK981" s="46"/>
     </row>
-    <row r="982" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="2:37" ht="12.75">
       <c r="B982" s="47"/>
       <c r="C982" s="47"/>
       <c r="D982" s="43"/>
@@ -37741,7 +37735,7 @@
       <c r="AJ982" s="46"/>
       <c r="AK982" s="46"/>
     </row>
-    <row r="983" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="2:37" ht="12.75">
       <c r="B983" s="47"/>
       <c r="C983" s="47"/>
       <c r="D983" s="43"/>
@@ -37778,7 +37772,7 @@
       <c r="AJ983" s="46"/>
       <c r="AK983" s="46"/>
     </row>
-    <row r="984" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="2:37" ht="12.75">
       <c r="B984" s="47"/>
       <c r="C984" s="47"/>
       <c r="D984" s="43"/>
@@ -37815,7 +37809,7 @@
       <c r="AJ984" s="46"/>
       <c r="AK984" s="46"/>
     </row>
-    <row r="985" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="2:37" ht="12.75">
       <c r="B985" s="47"/>
       <c r="C985" s="47"/>
       <c r="D985" s="43"/>
@@ -37852,7 +37846,7 @@
       <c r="AJ985" s="46"/>
       <c r="AK985" s="46"/>
     </row>
-    <row r="986" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="2:37" ht="12.75">
       <c r="B986" s="47"/>
       <c r="C986" s="47"/>
       <c r="D986" s="43"/>
@@ -37889,7 +37883,7 @@
       <c r="AJ986" s="46"/>
       <c r="AK986" s="46"/>
     </row>
-    <row r="987" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="2:37" ht="12.75">
       <c r="B987" s="47"/>
       <c r="C987" s="47"/>
       <c r="D987" s="43"/>
@@ -37926,7 +37920,7 @@
       <c r="AJ987" s="46"/>
       <c r="AK987" s="46"/>
     </row>
-    <row r="988" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="2:37" ht="12.75">
       <c r="B988" s="47"/>
       <c r="C988" s="47"/>
       <c r="D988" s="43"/>
@@ -37963,7 +37957,7 @@
       <c r="AJ988" s="46"/>
       <c r="AK988" s="46"/>
     </row>
-    <row r="989" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="2:37" ht="12.75">
       <c r="B989" s="47"/>
       <c r="C989" s="47"/>
       <c r="D989" s="43"/>
@@ -38000,7 +37994,7 @@
       <c r="AJ989" s="46"/>
       <c r="AK989" s="46"/>
     </row>
-    <row r="990" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="2:37" ht="12.75">
       <c r="B990" s="47"/>
       <c r="C990" s="47"/>
       <c r="D990" s="43"/>
@@ -38037,7 +38031,7 @@
       <c r="AJ990" s="46"/>
       <c r="AK990" s="46"/>
     </row>
-    <row r="991" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="2:37" ht="12.75">
       <c r="B991" s="47"/>
       <c r="C991" s="47"/>
       <c r="D991" s="43"/>
@@ -38074,7 +38068,7 @@
       <c r="AJ991" s="46"/>
       <c r="AK991" s="46"/>
     </row>
-    <row r="992" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="2:37" ht="12.75">
       <c r="B992" s="47"/>
       <c r="C992" s="47"/>
       <c r="D992" s="43"/>
@@ -38111,7 +38105,7 @@
       <c r="AJ992" s="46"/>
       <c r="AK992" s="46"/>
     </row>
-    <row r="993" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="2:37" ht="12.75">
       <c r="B993" s="47"/>
       <c r="C993" s="47"/>
       <c r="D993" s="43"/>
@@ -38148,7 +38142,7 @@
       <c r="AJ993" s="46"/>
       <c r="AK993" s="46"/>
     </row>
-    <row r="994" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="2:37" ht="12.75">
       <c r="B994" s="47"/>
       <c r="C994" s="47"/>
       <c r="D994" s="43"/>
@@ -38185,7 +38179,7 @@
       <c r="AJ994" s="46"/>
       <c r="AK994" s="46"/>
     </row>
-    <row r="995" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="2:37" ht="12.75">
       <c r="B995" s="47"/>
       <c r="C995" s="47"/>
       <c r="D995" s="43"/>
@@ -38222,7 +38216,7 @@
       <c r="AJ995" s="46"/>
       <c r="AK995" s="46"/>
     </row>
-    <row r="996" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="2:37" ht="12.75">
       <c r="B996" s="47"/>
       <c r="C996" s="47"/>
       <c r="D996" s="43"/>
@@ -38259,7 +38253,7 @@
       <c r="AJ996" s="46"/>
       <c r="AK996" s="46"/>
     </row>
-    <row r="997" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="2:37" ht="12.75">
       <c r="B997" s="47"/>
       <c r="C997" s="47"/>
       <c r="D997" s="43"/>
@@ -38296,7 +38290,7 @@
       <c r="AJ997" s="46"/>
       <c r="AK997" s="46"/>
     </row>
-    <row r="998" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="2:37" ht="12.75">
       <c r="B998" s="47"/>
       <c r="C998" s="47"/>
       <c r="D998" s="43"/>
@@ -38333,7 +38327,7 @@
       <c r="AJ998" s="46"/>
       <c r="AK998" s="46"/>
     </row>
-    <row r="999" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="2:37" ht="12.75">
       <c r="B999" s="47"/>
       <c r="C999" s="47"/>
       <c r="D999" s="43"/>
@@ -38370,7 +38364,7 @@
       <c r="AJ999" s="46"/>
       <c r="AK999" s="46"/>
     </row>
-    <row r="1000" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="2:37" ht="12.75">
       <c r="B1000" s="47"/>
       <c r="C1000" s="47"/>
       <c r="D1000" s="43"/>
@@ -38407,7 +38401,7 @@
       <c r="AJ1000" s="46"/>
       <c r="AK1000" s="46"/>
     </row>
-    <row r="1001" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1001" spans="2:37" ht="12.75">
       <c r="B1001" s="47"/>
       <c r="C1001" s="47"/>
       <c r="D1001" s="43"/>
@@ -38444,7 +38438,7 @@
       <c r="AJ1001" s="46"/>
       <c r="AK1001" s="46"/>
     </row>
-    <row r="1002" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1002" spans="2:37" ht="12.75">
       <c r="B1002" s="47"/>
       <c r="C1002" s="47"/>
       <c r="D1002" s="43"/>
@@ -38481,7 +38475,7 @@
       <c r="AJ1002" s="46"/>
       <c r="AK1002" s="46"/>
     </row>
-    <row r="1003" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1003" spans="2:37" ht="12.75">
       <c r="B1003" s="47"/>
       <c r="C1003" s="47"/>
       <c r="D1003" s="43"/>
@@ -38518,7 +38512,7 @@
       <c r="AJ1003" s="46"/>
       <c r="AK1003" s="46"/>
     </row>
-    <row r="1004" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1004" spans="2:37" ht="12.75">
       <c r="B1004" s="47"/>
       <c r="C1004" s="47"/>
       <c r="D1004" s="43"/>
@@ -38555,7 +38549,7 @@
       <c r="AJ1004" s="46"/>
       <c r="AK1004" s="46"/>
     </row>
-    <row r="1005" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1005" spans="2:37" ht="12.75">
       <c r="B1005" s="47"/>
       <c r="C1005" s="47"/>
       <c r="D1005" s="43"/>
@@ -38592,7 +38586,7 @@
       <c r="AJ1005" s="46"/>
       <c r="AK1005" s="46"/>
     </row>
-    <row r="1006" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1006" spans="2:37" ht="12.75">
       <c r="B1006" s="47"/>
       <c r="C1006" s="47"/>
       <c r="D1006" s="43"/>
@@ -38629,7 +38623,7 @@
       <c r="AJ1006" s="46"/>
       <c r="AK1006" s="46"/>
     </row>
-    <row r="1007" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1007" spans="2:37" ht="12.75">
       <c r="B1007" s="47"/>
       <c r="C1007" s="47"/>
       <c r="D1007" s="43"/>
@@ -38666,7 +38660,7 @@
       <c r="AJ1007" s="46"/>
       <c r="AK1007" s="46"/>
     </row>
-    <row r="1008" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1008" spans="2:37" ht="12.75">
       <c r="B1008" s="47"/>
       <c r="C1008" s="47"/>
       <c r="D1008" s="43"/>
@@ -38703,7 +38697,7 @@
       <c r="AJ1008" s="46"/>
       <c r="AK1008" s="46"/>
     </row>
-    <row r="1009" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1009" spans="2:37" ht="12.75">
       <c r="B1009" s="47"/>
       <c r="C1009" s="47"/>
       <c r="D1009" s="43"/>
@@ -38740,7 +38734,7 @@
       <c r="AJ1009" s="46"/>
       <c r="AK1009" s="46"/>
     </row>
-    <row r="1010" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1010" spans="2:37" ht="12.75">
       <c r="B1010" s="47"/>
       <c r="C1010" s="47"/>
       <c r="D1010" s="43"/>
@@ -38777,7 +38771,7 @@
       <c r="AJ1010" s="46"/>
       <c r="AK1010" s="46"/>
     </row>
-    <row r="1011" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1011" spans="2:37" ht="12.75">
       <c r="B1011" s="47"/>
       <c r="C1011" s="47"/>
       <c r="D1011" s="43"/>
@@ -38814,7 +38808,7 @@
       <c r="AJ1011" s="46"/>
       <c r="AK1011" s="46"/>
     </row>
-    <row r="1012" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1012" spans="2:37" ht="12.75">
       <c r="B1012" s="47"/>
       <c r="C1012" s="47"/>
       <c r="D1012" s="43"/>
@@ -38851,7 +38845,7 @@
       <c r="AJ1012" s="46"/>
       <c r="AK1012" s="46"/>
     </row>
-    <row r="1013" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1013" spans="2:37" ht="12.75">
       <c r="B1013" s="47"/>
       <c r="C1013" s="47"/>
       <c r="D1013" s="43"/>
@@ -38888,7 +38882,7 @@
       <c r="AJ1013" s="46"/>
       <c r="AK1013" s="46"/>
     </row>
-    <row r="1014" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1014" spans="2:37" ht="12.75">
       <c r="B1014" s="47"/>
       <c r="C1014" s="47"/>
       <c r="D1014" s="43"/>
@@ -38925,7 +38919,7 @@
       <c r="AJ1014" s="46"/>
       <c r="AK1014" s="46"/>
     </row>
-    <row r="1015" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1015" spans="2:37" ht="12.75">
       <c r="B1015" s="47"/>
       <c r="C1015" s="47"/>
       <c r="D1015" s="43"/>
@@ -38962,7 +38956,7 @@
       <c r="AJ1015" s="46"/>
       <c r="AK1015" s="46"/>
     </row>
-    <row r="1016" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1016" spans="2:37" ht="12.75">
       <c r="B1016" s="47"/>
       <c r="C1016" s="47"/>
       <c r="D1016" s="43"/>
@@ -38999,7 +38993,7 @@
       <c r="AJ1016" s="46"/>
       <c r="AK1016" s="46"/>
     </row>
-    <row r="1017" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1017" spans="2:37" ht="12.75">
       <c r="B1017" s="47"/>
       <c r="C1017" s="47"/>
       <c r="D1017" s="43"/>
@@ -39036,7 +39030,7 @@
       <c r="AJ1017" s="46"/>
       <c r="AK1017" s="46"/>
     </row>
-    <row r="1018" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1018" spans="2:37" ht="12.75">
       <c r="B1018" s="47"/>
       <c r="C1018" s="47"/>
       <c r="D1018" s="43"/>
@@ -39073,7 +39067,7 @@
       <c r="AJ1018" s="46"/>
       <c r="AK1018" s="46"/>
     </row>
-    <row r="1019" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1019" spans="2:37" ht="12.75">
       <c r="B1019" s="47"/>
       <c r="C1019" s="47"/>
       <c r="D1019" s="43"/>
@@ -39110,7 +39104,7 @@
       <c r="AJ1019" s="46"/>
       <c r="AK1019" s="46"/>
     </row>
-    <row r="1020" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1020" spans="2:37" ht="12.75">
       <c r="B1020" s="47"/>
       <c r="C1020" s="47"/>
       <c r="D1020" s="43"/>
@@ -39147,7 +39141,7 @@
       <c r="AJ1020" s="46"/>
       <c r="AK1020" s="46"/>
     </row>
-    <row r="1021" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1021" spans="2:37" ht="12.75">
       <c r="B1021" s="47"/>
       <c r="C1021" s="47"/>
       <c r="D1021" s="43"/>
@@ -39184,7 +39178,7 @@
       <c r="AJ1021" s="46"/>
       <c r="AK1021" s="46"/>
     </row>
-    <row r="1022" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1022" spans="2:37" ht="12.75">
       <c r="B1022" s="47"/>
       <c r="C1022" s="47"/>
       <c r="D1022" s="43"/>
@@ -39221,7 +39215,7 @@
       <c r="AJ1022" s="46"/>
       <c r="AK1022" s="46"/>
     </row>
-    <row r="1023" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1023" spans="2:37" ht="12.75">
       <c r="B1023" s="47"/>
       <c r="C1023" s="47"/>
       <c r="D1023" s="43"/>
@@ -39258,7 +39252,7 @@
       <c r="AJ1023" s="46"/>
       <c r="AK1023" s="46"/>
     </row>
-    <row r="1024" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1024" spans="2:37" ht="12.75">
       <c r="B1024" s="47"/>
       <c r="C1024" s="47"/>
       <c r="D1024" s="43"/>
@@ -39295,7 +39289,7 @@
       <c r="AJ1024" s="46"/>
       <c r="AK1024" s="46"/>
     </row>
-    <row r="1025" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1025" spans="2:37" ht="12.75">
       <c r="B1025" s="47"/>
       <c r="C1025" s="47"/>
       <c r="D1025" s="43"/>
@@ -39332,7 +39326,7 @@
       <c r="AJ1025" s="46"/>
       <c r="AK1025" s="46"/>
     </row>
-    <row r="1026" spans="2:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1026" spans="2:37" ht="12.75">
       <c r="B1026" s="47"/>
       <c r="C1026" s="47"/>
       <c r="D1026" s="43"/>
@@ -39390,8 +39384,8 @@
         <cfvo type="percent" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{02421D34-3FF4-4E4B-8338-D294617122F9}</x14:id>
         </ext>
       </extLst>
@@ -39404,8 +39398,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FFFF3300"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{41E71259-AF6A-41D2-8DF0-1A80C57AC258}</x14:id>
         </ext>
       </extLst>
@@ -39418,8 +39412,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FFFF3300"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{B86CBE0C-1B83-469F-824A-26743D987674}</x14:id>
         </ext>
       </extLst>
@@ -39432,8 +39426,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{582894E3-AD2D-42C9-9F18-B68D5BE107D0}</x14:id>
         </ext>
       </extLst>
@@ -39446,8 +39440,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{7912CB7E-4D2E-488F-995A-942031381F56}</x14:id>
         </ext>
       </extLst>
@@ -39460,8 +39454,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8E67AE67-FBB7-4871-8F03-CEC4175BAEAB}</x14:id>
         </ext>
       </extLst>
@@ -39474,8 +39468,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{F15BD1E8-794D-4711-998C-7D4D1F9CB743}</x14:id>
         </ext>
       </extLst>
@@ -39488,8 +39482,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{42570DEA-F2E7-4DAC-B0FA-58C3E15F811B}</x14:id>
         </ext>
       </extLst>
@@ -39502,8 +39496,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{E9AB4618-C047-45CB-8B09-862934C5FC86}</x14:id>
         </ext>
       </extLst>
@@ -39516,8 +39510,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{85496C07-6E13-4262-972B-FF0193C2C502}</x14:id>
         </ext>
       </extLst>
@@ -39530,8 +39524,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{F88029B5-8C15-4841-B46C-6A454746C9A7}</x14:id>
         </ext>
       </extLst>
@@ -39544,8 +39538,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{F11BC74E-AB68-4366-92EC-C68BA9A2CD2C}</x14:id>
         </ext>
       </extLst>
@@ -39558,8 +39552,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BD1E7A44-317C-49A0-86E3-0062403EF0CB}</x14:id>
         </ext>
       </extLst>
@@ -39572,8 +39566,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8CA4C410-FAB2-4DED-B78A-A16AD896ACCB}</x14:id>
         </ext>
       </extLst>
@@ -39586,8 +39580,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FFFF3300"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{FCC23F07-C4BB-4610-AAED-5E9EA527DD31}</x14:id>
         </ext>
       </extLst>
@@ -39600,8 +39594,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BCEB0C8A-6315-4D32-AF3C-6ADE5B2EF5CD}</x14:id>
         </ext>
       </extLst>
@@ -39614,8 +39608,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{1B1C2A96-C4F5-4CBF-8E0B-616DBD034389}</x14:id>
         </ext>
       </extLst>
@@ -39628,8 +39622,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8C20EF60-AB86-47D6-AA60-B1D18C801C0A}</x14:id>
         </ext>
       </extLst>
@@ -39642,8 +39636,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{5E304328-A3E6-42CA-BFA0-18DCF847369B}</x14:id>
         </ext>
       </extLst>
@@ -39656,8 +39650,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{ED66A3D9-A0A9-4C02-B91E-3A26F0C8C92D}</x14:id>
         </ext>
       </extLst>
@@ -39670,8 +39664,8 @@
         <cfvo type="num" val="100"/>
         <color theme="9" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{A706FDAD-B19A-4471-A213-127CF466C0D2}</x14:id>
         </ext>
       </extLst>
@@ -39684,8 +39678,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{550695BD-59A9-4490-9A4C-27A6ECF36274}</x14:id>
         </ext>
       </extLst>
@@ -39698,8 +39692,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{1E7CB623-7609-4A33-85F2-B95ACAC70984}</x14:id>
         </ext>
       </extLst>
@@ -39712,8 +39706,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{FE93241A-C519-4B78-8708-24F0DAB01459}</x14:id>
         </ext>
       </extLst>
@@ -39726,8 +39720,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{2AF517B7-2E2E-4261-862A-86C721BFB5BA}</x14:id>
         </ext>
       </extLst>
@@ -39740,8 +39734,8 @@
         <cfvo type="num" val="100"/>
         <color theme="7" tint="-0.249977111117893"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BAC0BEF6-6297-4301-B658-FFBA33AE6A8C}</x14:id>
         </ext>
       </extLst>
@@ -39754,8 +39748,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{D9421341-F511-4100-926A-02520601D817}</x14:id>
         </ext>
       </extLst>
@@ -39768,8 +39762,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{6B97ED3C-2B23-4EDD-B5BE-A29D7B9C8399}</x14:id>
         </ext>
       </extLst>
@@ -39782,8 +39776,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{FA25B196-18B1-475F-A5FE-9E580B982772}</x14:id>
         </ext>
       </extLst>
@@ -39796,8 +39790,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{244C98EF-9B24-4CA7-A88F-7FF94A444E48}</x14:id>
         </ext>
       </extLst>
@@ -39810,8 +39804,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{7574D377-696A-43DD-ACAA-C278E58F811E}</x14:id>
         </ext>
       </extLst>
@@ -39824,8 +39818,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{0867C136-9BE9-4A30-A79B-BF7EF60AAB40}</x14:id>
         </ext>
       </extLst>
@@ -39838,8 +39832,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF7030A0"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{491399FF-6471-4F7C-B94D-9ADBD108AD99}</x14:id>
         </ext>
       </extLst>
@@ -39852,8 +39846,8 @@
         <cfvo type="num" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{9009538C-6B30-475A-8672-1FD9A00A4224}</x14:id>
         </ext>
       </extLst>
@@ -39862,8 +39856,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{02421D34-3FF4-4E4B-8338-D294617122F9}">
